--- a/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
@@ -458,5830 +458,5838 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29768</v>
+        <v>29830</v>
       </c>
       <c r="B2" t="n">
-        <v>15068000000</v>
+        <v>15077000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29799</v>
+        <v>29860</v>
       </c>
       <c r="B3" t="n">
-        <v>15269000000</v>
+        <v>15365000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29830</v>
+        <v>29891</v>
       </c>
       <c r="B4" t="n">
-        <v>15077000000</v>
+        <v>15565000000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29860</v>
+        <v>29921</v>
       </c>
       <c r="B5" t="n">
-        <v>15365000000</v>
+        <v>16009000000</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29891</v>
+        <v>29952</v>
       </c>
       <c r="B6" t="n">
-        <v>15565000000</v>
+        <v>16010000000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="B7" t="n">
-        <v>16009000000</v>
+        <v>16294000000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="B8" t="n">
-        <v>16010000000</v>
+        <v>15223000000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29983</v>
+        <v>30042</v>
       </c>
       <c r="B9" t="n">
-        <v>16294000000</v>
+        <v>15937000000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30011</v>
+        <v>30072</v>
       </c>
       <c r="B10" t="n">
-        <v>15223000000</v>
+        <v>16438000000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="B11" t="n">
-        <v>15937000000</v>
+        <v>17016000000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="B12" t="n">
-        <v>16438000000</v>
+        <v>16972000000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="B13" t="n">
-        <v>17016000000</v>
+        <v>17010000000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="B14" t="n">
-        <v>16972000000</v>
+        <v>16545000000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="B15" t="n">
-        <v>17010000000</v>
+        <v>16533000000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="B16" t="n">
-        <v>16545000000</v>
+        <v>17141000000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="B17" t="n">
-        <v>16533000000</v>
+        <v>18066000000</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="B18" t="n">
-        <v>17141000000</v>
+        <v>18329000000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30286</v>
+        <v>30348</v>
       </c>
       <c r="B19" t="n">
-        <v>18066000000</v>
+        <v>18862000000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30317</v>
+        <v>30376</v>
       </c>
       <c r="B20" t="n">
-        <v>18329000000</v>
+        <v>17266000000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30348</v>
+        <v>30407</v>
       </c>
       <c r="B21" t="n">
-        <v>18862000000</v>
+        <v>17486000000</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30376</v>
+        <v>30437</v>
       </c>
       <c r="B22" t="n">
-        <v>17266000000</v>
+        <v>18103000000</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="B23" t="n">
-        <v>17486000000</v>
+        <v>18410000000</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30437</v>
+        <v>30498</v>
       </c>
       <c r="B24" t="n">
-        <v>18103000000</v>
+        <v>18810000000</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30468</v>
+        <v>30529</v>
       </c>
       <c r="B25" t="n">
-        <v>18410000000</v>
+        <v>19245000000</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30498</v>
+        <v>30560</v>
       </c>
       <c r="B26" t="n">
-        <v>18810000000</v>
+        <v>19147000000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30529</v>
+        <v>30590</v>
       </c>
       <c r="B27" t="n">
-        <v>19245000000</v>
+        <v>19340000000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30560</v>
+        <v>30621</v>
       </c>
       <c r="B28" t="n">
-        <v>19147000000</v>
+        <v>19884000000</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30590</v>
+        <v>30651</v>
       </c>
       <c r="B29" t="n">
-        <v>19340000000</v>
+        <v>20669000000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30621</v>
+        <v>30682</v>
       </c>
       <c r="B30" t="n">
-        <v>19884000000</v>
+        <v>20758000000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30651</v>
+        <v>30713</v>
       </c>
       <c r="B31" t="n">
-        <v>20669000000</v>
+        <v>21203000000</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30682</v>
+        <v>30742</v>
       </c>
       <c r="B32" t="n">
-        <v>20758000000</v>
+        <v>19781000000</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30713</v>
+        <v>30773</v>
       </c>
       <c r="B33" t="n">
-        <v>21203000000</v>
+        <v>20863000000</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30742</v>
+        <v>30803</v>
       </c>
       <c r="B34" t="n">
-        <v>19781000000</v>
+        <v>21393000000</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30773</v>
+        <v>30834</v>
       </c>
       <c r="B35" t="n">
-        <v>20863000000</v>
+        <v>21696000000</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30803</v>
+        <v>30864</v>
       </c>
       <c r="B36" t="n">
-        <v>21393000000</v>
+        <v>22273000000</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30834</v>
+        <v>30895</v>
       </c>
       <c r="B37" t="n">
-        <v>21696000000</v>
+        <v>23152000000</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30864</v>
+        <v>30926</v>
       </c>
       <c r="B38" t="n">
-        <v>22273000000</v>
+        <v>23213000000</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30895</v>
+        <v>30956</v>
       </c>
       <c r="B39" t="n">
-        <v>23152000000</v>
+        <v>23738000000</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30926</v>
+        <v>30987</v>
       </c>
       <c r="B40" t="n">
-        <v>23213000000</v>
+        <v>24145000000</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30956</v>
+        <v>31017</v>
       </c>
       <c r="B41" t="n">
-        <v>23738000000</v>
+        <v>25020000000</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30987</v>
+        <v>31048</v>
       </c>
       <c r="B42" t="n">
-        <v>24145000000</v>
+        <v>24897000000</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31017</v>
+        <v>31079</v>
       </c>
       <c r="B43" t="n">
-        <v>25020000000</v>
+        <v>25250000000</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31048</v>
+        <v>31107</v>
       </c>
       <c r="B44" t="n">
-        <v>24897000000</v>
+        <v>25030000000</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31079</v>
+        <v>31138</v>
       </c>
       <c r="B45" t="n">
-        <v>25250000000</v>
+        <v>26165000000</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31107</v>
+        <v>31168</v>
       </c>
       <c r="B46" t="n">
-        <v>25030000000</v>
+        <v>26778000000</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31138</v>
+        <v>31199</v>
       </c>
       <c r="B47" t="n">
-        <v>26165000000</v>
+        <v>27918000000</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31168</v>
+        <v>31229</v>
       </c>
       <c r="B48" t="n">
-        <v>26778000000</v>
+        <v>28862000000</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31199</v>
+        <v>31260</v>
       </c>
       <c r="B49" t="n">
-        <v>27918000000</v>
+        <v>29239000000</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31229</v>
+        <v>31291</v>
       </c>
       <c r="B50" t="n">
-        <v>28862000000</v>
+        <v>29420000000</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31260</v>
+        <v>31321</v>
       </c>
       <c r="B51" t="n">
-        <v>29239000000</v>
+        <v>29721000000</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31291</v>
+        <v>31352</v>
       </c>
       <c r="B52" t="n">
-        <v>29420000000</v>
+        <v>30474000000</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31321</v>
+        <v>31382</v>
       </c>
       <c r="B53" t="n">
-        <v>29721000000</v>
+        <v>31397000000</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31352</v>
+        <v>31413</v>
       </c>
       <c r="B54" t="n">
-        <v>30474000000</v>
+        <v>31474000000</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31382</v>
+        <v>31444</v>
       </c>
       <c r="B55" t="n">
-        <v>31397000000</v>
+        <v>32213000000</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31413</v>
+        <v>31472</v>
       </c>
       <c r="B56" t="n">
-        <v>31474000000</v>
+        <v>32386000000</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31444</v>
+        <v>31503</v>
       </c>
       <c r="B57" t="n">
-        <v>32213000000</v>
+        <v>33068000000</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31472</v>
+        <v>31533</v>
       </c>
       <c r="B58" t="n">
-        <v>32386000000</v>
+        <v>33392000000</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31503</v>
+        <v>31564</v>
       </c>
       <c r="B59" t="n">
-        <v>33068000000</v>
+        <v>33824000000</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31533</v>
+        <v>31594</v>
       </c>
       <c r="B60" t="n">
-        <v>33392000000</v>
+        <v>33851000000</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31564</v>
+        <v>31625</v>
       </c>
       <c r="B61" t="n">
-        <v>33824000000</v>
+        <v>34550000000</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31594</v>
+        <v>31656</v>
       </c>
       <c r="B62" t="n">
-        <v>33851000000</v>
+        <v>35002000000</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31625</v>
+        <v>31686</v>
       </c>
       <c r="B63" t="n">
-        <v>34550000000</v>
+        <v>36018000000</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31656</v>
+        <v>31717</v>
       </c>
       <c r="B64" t="n">
-        <v>35002000000</v>
+        <v>36675000000</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31686</v>
+        <v>31747</v>
       </c>
       <c r="B65" t="n">
-        <v>36018000000</v>
+        <v>37807000000</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31717</v>
+        <v>31778</v>
       </c>
       <c r="B66" t="n">
-        <v>36675000000</v>
+        <v>38370000000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31747</v>
+        <v>31809</v>
       </c>
       <c r="B67" t="n">
-        <v>37807000000</v>
+        <v>39366000000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31778</v>
+        <v>31837</v>
       </c>
       <c r="B68" t="n">
-        <v>38370000000</v>
+        <v>38543000000</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31809</v>
+        <v>31868</v>
       </c>
       <c r="B69" t="n">
-        <v>39366000000</v>
+        <v>38349000000</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31837</v>
+        <v>31898</v>
       </c>
       <c r="B70" t="n">
-        <v>38543000000</v>
+        <v>38741000000</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31868</v>
+        <v>31929</v>
       </c>
       <c r="B71" t="n">
-        <v>38349000000</v>
+        <v>39583000000</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31898</v>
+        <v>31959</v>
       </c>
       <c r="B72" t="n">
-        <v>38741000000</v>
+        <v>39428000000</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31929</v>
+        <v>31990</v>
       </c>
       <c r="B73" t="n">
-        <v>39583000000</v>
+        <v>40102000000</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>31959</v>
+        <v>32021</v>
       </c>
       <c r="B74" t="n">
-        <v>39428000000</v>
+        <v>40578000000</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>31990</v>
+        <v>32051</v>
       </c>
       <c r="B75" t="n">
-        <v>40102000000</v>
+        <v>41887000000</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32021</v>
+        <v>32082</v>
       </c>
       <c r="B76" t="n">
-        <v>40578000000</v>
+        <v>41893000000</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32051</v>
+        <v>32112</v>
       </c>
       <c r="B77" t="n">
-        <v>41887000000</v>
+        <v>42932000000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32082</v>
+        <v>32143</v>
       </c>
       <c r="B78" t="n">
-        <v>41893000000</v>
+        <v>42531000000</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32112</v>
+        <v>32174</v>
       </c>
       <c r="B79" t="n">
-        <v>42932000000</v>
+        <v>43592000000</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32143</v>
+        <v>32203</v>
       </c>
       <c r="B80" t="n">
-        <v>42531000000</v>
+        <v>35236000000</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32174</v>
+        <v>32234</v>
       </c>
       <c r="B81" t="n">
-        <v>43592000000</v>
+        <v>34761000000</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32203</v>
+        <v>32264</v>
       </c>
       <c r="B82" t="n">
-        <v>35236000000</v>
+        <v>34660000000</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32234</v>
+        <v>32295</v>
       </c>
       <c r="B83" t="n">
-        <v>34761000000</v>
+        <v>35658000000</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32264</v>
+        <v>32325</v>
       </c>
       <c r="B84" t="n">
-        <v>34660000000</v>
+        <v>35350000000</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32295</v>
+        <v>32356</v>
       </c>
       <c r="B85" t="n">
-        <v>35658000000</v>
+        <v>35771000000</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32325</v>
+        <v>32387</v>
       </c>
       <c r="B86" t="n">
-        <v>35350000000</v>
+        <v>34970000000</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32356</v>
+        <v>32417</v>
       </c>
       <c r="B87" t="n">
-        <v>35771000000</v>
+        <v>36326000000</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32387</v>
+        <v>32448</v>
       </c>
       <c r="B88" t="n">
-        <v>34970000000</v>
+        <v>35065000000</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32417</v>
+        <v>32478</v>
       </c>
       <c r="B89" t="n">
-        <v>36326000000</v>
+        <v>35616000000</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32448</v>
+        <v>32509</v>
       </c>
       <c r="B90" t="n">
-        <v>35065000000</v>
+        <v>35695000000</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32478</v>
+        <v>32540</v>
       </c>
       <c r="B91" t="n">
-        <v>35616000000</v>
+        <v>36802000000</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32509</v>
+        <v>32568</v>
       </c>
       <c r="B92" t="n">
-        <v>35695000000</v>
+        <v>36302000000</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32540</v>
+        <v>32599</v>
       </c>
       <c r="B93" t="n">
-        <v>36802000000</v>
+        <v>36279000000</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32568</v>
+        <v>32629</v>
       </c>
       <c r="B94" t="n">
-        <v>36302000000</v>
+        <v>36758000000</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32599</v>
+        <v>32660</v>
       </c>
       <c r="B95" t="n">
-        <v>36279000000</v>
+        <v>37527000000</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32629</v>
+        <v>32690</v>
       </c>
       <c r="B96" t="n">
-        <v>36758000000</v>
+        <v>37588000000</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32660</v>
+        <v>32721</v>
       </c>
       <c r="B97" t="n">
-        <v>37527000000</v>
+        <v>38287000000</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32690</v>
+        <v>32752</v>
       </c>
       <c r="B98" t="n">
-        <v>37588000000</v>
+        <v>38758000000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32721</v>
+        <v>32782</v>
       </c>
       <c r="B99" t="n">
-        <v>38287000000</v>
+        <v>38883000000</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32752</v>
+        <v>32813</v>
       </c>
       <c r="B100" t="n">
-        <v>38758000000</v>
+        <v>38513000000</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32782</v>
+        <v>32843</v>
       </c>
       <c r="B101" t="n">
-        <v>38883000000</v>
+        <v>37957000000</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32813</v>
+        <v>32874</v>
       </c>
       <c r="B102" t="n">
-        <v>38513000000</v>
+        <v>38744000000</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32843</v>
+        <v>32905</v>
       </c>
       <c r="B103" t="n">
-        <v>37957000000</v>
+        <v>38287000000</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32874</v>
+        <v>32933</v>
       </c>
       <c r="B104" t="n">
-        <v>38744000000</v>
+        <v>38284000000</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32905</v>
+        <v>32964</v>
       </c>
       <c r="B105" t="n">
-        <v>38287000000</v>
+        <v>39326000000</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32933</v>
+        <v>32994</v>
       </c>
       <c r="B106" t="n">
-        <v>38284000000</v>
+        <v>39661000000</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>32964</v>
+        <v>33025</v>
       </c>
       <c r="B107" t="n">
-        <v>39326000000</v>
+        <v>39063000000</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>32994</v>
+        <v>33055</v>
       </c>
       <c r="B108" t="n">
-        <v>39661000000</v>
+        <v>38534000000</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33025</v>
+        <v>33086</v>
       </c>
       <c r="B109" t="n">
-        <v>39063000000</v>
+        <v>40088000000</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33055</v>
+        <v>33117</v>
       </c>
       <c r="B110" t="n">
-        <v>38534000000</v>
+        <v>40767000000</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33086</v>
+        <v>33147</v>
       </c>
       <c r="B111" t="n">
-        <v>40088000000</v>
+        <v>40828000000</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33117</v>
+        <v>33178</v>
       </c>
       <c r="B112" t="n">
-        <v>40767000000</v>
+        <v>41145000000</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33147</v>
+        <v>33208</v>
       </c>
       <c r="B113" t="n">
-        <v>40828000000</v>
+        <v>42586000000</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33178</v>
+        <v>33239</v>
       </c>
       <c r="B114" t="n">
-        <v>41145000000</v>
+        <v>41948000000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33208</v>
+        <v>33270</v>
       </c>
       <c r="B115" t="n">
-        <v>42586000000</v>
+        <v>41220000000</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33239</v>
+        <v>33298</v>
       </c>
       <c r="B116" t="n">
-        <v>41948000000</v>
+        <v>40854000000</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33270</v>
+        <v>33329</v>
       </c>
       <c r="B117" t="n">
-        <v>41220000000</v>
+        <v>41300000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33298</v>
+        <v>33359</v>
       </c>
       <c r="B118" t="n">
-        <v>40854000000</v>
+        <v>42129000000</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33329</v>
+        <v>33390</v>
       </c>
       <c r="B119" t="n">
-        <v>41300000000</v>
+        <v>42719000000</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33359</v>
+        <v>33420</v>
       </c>
       <c r="B120" t="n">
-        <v>42129000000</v>
+        <v>41920000000</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33390</v>
+        <v>33451</v>
       </c>
       <c r="B121" t="n">
-        <v>42719000000</v>
+        <v>42235000000</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33420</v>
+        <v>33482</v>
       </c>
       <c r="B122" t="n">
-        <v>41920000000</v>
+        <v>42369000000</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33451</v>
+        <v>33512</v>
       </c>
       <c r="B123" t="n">
-        <v>42235000000</v>
+        <v>43280000000</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33482</v>
+        <v>33543</v>
       </c>
       <c r="B124" t="n">
-        <v>42369000000</v>
+        <v>42849000000</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33512</v>
+        <v>33573</v>
       </c>
       <c r="B125" t="n">
-        <v>43280000000</v>
+        <v>43320000000</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33543</v>
+        <v>33604</v>
       </c>
       <c r="B126" t="n">
-        <v>42849000000</v>
+        <v>44407000000</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33573</v>
+        <v>33635</v>
       </c>
       <c r="B127" t="n">
-        <v>43320000000</v>
+        <v>44599000000</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33604</v>
+        <v>33664</v>
       </c>
       <c r="B128" t="n">
-        <v>44407000000</v>
+        <v>45318000000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33635</v>
+        <v>33695</v>
       </c>
       <c r="B129" t="n">
-        <v>44599000000</v>
+        <v>45418000000</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33664</v>
+        <v>33725</v>
       </c>
       <c r="B130" t="n">
-        <v>45318000000</v>
+        <v>45741000000</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33695</v>
+        <v>33756</v>
       </c>
       <c r="B131" t="n">
-        <v>45418000000</v>
+        <v>44756000000</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33725</v>
+        <v>33786</v>
       </c>
       <c r="B132" t="n">
-        <v>45741000000</v>
+        <v>44868000000</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33756</v>
+        <v>33817</v>
       </c>
       <c r="B133" t="n">
-        <v>44756000000</v>
+        <v>45313000000</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33786</v>
+        <v>33848</v>
       </c>
       <c r="B134" t="n">
-        <v>44868000000</v>
+        <v>45461000000</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33817</v>
+        <v>33878</v>
       </c>
       <c r="B135" t="n">
-        <v>45313000000</v>
+        <v>45784000000</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33848</v>
+        <v>33909</v>
       </c>
       <c r="B136" t="n">
-        <v>45461000000</v>
+        <v>46380000000</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33878</v>
+        <v>33939</v>
       </c>
       <c r="B137" t="n">
-        <v>45784000000</v>
+        <v>45538000000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33909</v>
+        <v>33970</v>
       </c>
       <c r="B138" t="n">
-        <v>46380000000</v>
+        <v>45785000000</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>33939</v>
+        <v>34001</v>
       </c>
       <c r="B139" t="n">
-        <v>45538000000</v>
+        <v>45582000000</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>33970</v>
+        <v>34029</v>
       </c>
       <c r="B140" t="n">
-        <v>45785000000</v>
+        <v>45158000000</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34001</v>
+        <v>34060</v>
       </c>
       <c r="B141" t="n">
-        <v>45582000000</v>
+        <v>46327000000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34029</v>
+        <v>34090</v>
       </c>
       <c r="B142" t="n">
-        <v>45158000000</v>
+        <v>47373000000</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34060</v>
+        <v>34121</v>
       </c>
       <c r="B143" t="n">
-        <v>46327000000</v>
+        <v>47334000000</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34090</v>
+        <v>34151</v>
       </c>
       <c r="B144" t="n">
-        <v>47373000000</v>
+        <v>48759000000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34121</v>
+        <v>34182</v>
       </c>
       <c r="B145" t="n">
-        <v>47334000000</v>
+        <v>48711000000</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34151</v>
+        <v>34213</v>
       </c>
       <c r="B146" t="n">
-        <v>48759000000</v>
+        <v>48355000000</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34182</v>
+        <v>34243</v>
       </c>
       <c r="B147" t="n">
-        <v>48711000000</v>
+        <v>48841000000</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34213</v>
+        <v>34274</v>
       </c>
       <c r="B148" t="n">
-        <v>48355000000</v>
+        <v>49332000000</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34243</v>
+        <v>34304</v>
       </c>
       <c r="B149" t="n">
-        <v>48841000000</v>
+        <v>49250000000</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34274</v>
+        <v>34335</v>
       </c>
       <c r="B150" t="n">
-        <v>49332000000</v>
+        <v>48139000000</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34304</v>
+        <v>34366</v>
       </c>
       <c r="B151" t="n">
-        <v>49250000000</v>
+        <v>48991000000</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34335</v>
+        <v>34394</v>
       </c>
       <c r="B152" t="n">
-        <v>48139000000</v>
+        <v>50390000000</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34366</v>
+        <v>34425</v>
       </c>
       <c r="B153" t="n">
-        <v>48991000000</v>
+        <v>50358000000</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34394</v>
+        <v>34455</v>
       </c>
       <c r="B154" t="n">
-        <v>50390000000</v>
+        <v>51494000000</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34425</v>
+        <v>34486</v>
       </c>
       <c r="B155" t="n">
-        <v>50358000000</v>
+        <v>51341000000</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34455</v>
+        <v>34516</v>
       </c>
       <c r="B156" t="n">
-        <v>51494000000</v>
+        <v>51103000000</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34486</v>
+        <v>34547</v>
       </c>
       <c r="B157" t="n">
-        <v>51341000000</v>
+        <v>51658000000</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34516</v>
+        <v>34578</v>
       </c>
       <c r="B158" t="n">
-        <v>51103000000</v>
+        <v>51676000000</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34547</v>
+        <v>34608</v>
       </c>
       <c r="B159" t="n">
-        <v>51658000000</v>
+        <v>52085000000</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34578</v>
+        <v>34639</v>
       </c>
       <c r="B160" t="n">
-        <v>51676000000</v>
+        <v>52717000000</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34608</v>
+        <v>34669</v>
       </c>
       <c r="B161" t="n">
-        <v>52085000000</v>
+        <v>53626000000</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34639</v>
+        <v>34700</v>
       </c>
       <c r="B162" t="n">
-        <v>52717000000</v>
+        <v>54225000000</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34669</v>
+        <v>34731</v>
       </c>
       <c r="B163" t="n">
-        <v>53626000000</v>
+        <v>54799000000</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34700</v>
+        <v>34759</v>
       </c>
       <c r="B164" t="n">
-        <v>54225000000</v>
+        <v>54760000000</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34731</v>
+        <v>34790</v>
       </c>
       <c r="B165" t="n">
-        <v>54799000000</v>
+        <v>55835000000</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34759</v>
+        <v>34820</v>
       </c>
       <c r="B166" t="n">
-        <v>54760000000</v>
+        <v>56778000000</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34790</v>
+        <v>34851</v>
       </c>
       <c r="B167" t="n">
-        <v>55835000000</v>
+        <v>56814000000</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34820</v>
+        <v>34881</v>
       </c>
       <c r="B168" t="n">
-        <v>56778000000</v>
+        <v>56158000000</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34851</v>
+        <v>34912</v>
       </c>
       <c r="B169" t="n">
-        <v>56814000000</v>
+        <v>57209000000</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34881</v>
+        <v>34943</v>
       </c>
       <c r="B170" t="n">
-        <v>56158000000</v>
+        <v>57700000000</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34912</v>
+        <v>34973</v>
       </c>
       <c r="B171" t="n">
-        <v>57209000000</v>
+        <v>58639000000</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>34943</v>
+        <v>35004</v>
       </c>
       <c r="B172" t="n">
-        <v>57700000000</v>
+        <v>59763000000</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>34973</v>
+        <v>35034</v>
       </c>
       <c r="B173" t="n">
-        <v>58639000000</v>
+        <v>60010000000</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35004</v>
+        <v>35065</v>
       </c>
       <c r="B174" t="n">
-        <v>59763000000</v>
+        <v>59951000000</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35034</v>
+        <v>35096</v>
       </c>
       <c r="B175" t="n">
-        <v>60010000000</v>
+        <v>60106000000</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35065</v>
+        <v>35125</v>
       </c>
       <c r="B176" t="n">
-        <v>59951000000</v>
+        <v>60824000000</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35096</v>
+        <v>35156</v>
       </c>
       <c r="B177" t="n">
-        <v>60106000000</v>
+        <v>62080000000</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35125</v>
+        <v>35186</v>
       </c>
       <c r="B178" t="n">
-        <v>60824000000</v>
+        <v>65168000000</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35156</v>
+        <v>35217</v>
       </c>
       <c r="B179" t="n">
-        <v>62080000000</v>
+        <v>65050000000</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35186</v>
+        <v>35247</v>
       </c>
       <c r="B180" t="n">
-        <v>65168000000</v>
+        <v>64390000000</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35217</v>
+        <v>35278</v>
       </c>
       <c r="B181" t="n">
-        <v>65050000000</v>
+        <v>64984000000</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35247</v>
+        <v>35309</v>
       </c>
       <c r="B182" t="n">
-        <v>64390000000</v>
+        <v>65141000000</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35278</v>
+        <v>35339</v>
       </c>
       <c r="B183" t="n">
-        <v>64984000000</v>
-      </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+        <v>67841000000</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.421060110842689</v>
+      </c>
+      <c r="D183" t="n">
+        <v>96406138979.67883</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35309</v>
+        <v>35370</v>
       </c>
       <c r="B184" t="n">
-        <v>65141000000</v>
+        <v>66576000000</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35339</v>
+        <v>35400</v>
       </c>
       <c r="B185" t="n">
-        <v>67841000000</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.421060110842689</v>
-      </c>
-      <c r="D185" t="n">
-        <v>96406138979.67883</v>
-      </c>
+        <v>66584000000</v>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35370</v>
+        <v>35431</v>
       </c>
       <c r="B186" t="n">
-        <v>66576000000</v>
+        <v>66968000000</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35400</v>
+        <v>35462</v>
       </c>
       <c r="B187" t="n">
-        <v>66584000000</v>
+        <v>66549000000</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35431</v>
+        <v>35490</v>
       </c>
       <c r="B188" t="n">
-        <v>66968000000</v>
+        <v>66572000000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35462</v>
+        <v>35521</v>
       </c>
       <c r="B189" t="n">
-        <v>66549000000</v>
+        <v>68198000000</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35490</v>
+        <v>35551</v>
       </c>
       <c r="B190" t="n">
-        <v>66572000000</v>
+        <v>68983000000</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35521</v>
+        <v>35582</v>
       </c>
       <c r="B191" t="n">
-        <v>68198000000</v>
+        <v>68692000000</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35551</v>
+        <v>35612</v>
       </c>
       <c r="B192" t="n">
-        <v>68983000000</v>
+        <v>69166000000</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35582</v>
+        <v>35643</v>
       </c>
       <c r="B193" t="n">
-        <v>68692000000</v>
+        <v>70950000000</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35612</v>
+        <v>35674</v>
       </c>
       <c r="B194" t="n">
-        <v>69166000000</v>
+        <v>71582000000</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35643</v>
+        <v>35704</v>
       </c>
       <c r="B195" t="n">
-        <v>70950000000</v>
+        <v>70746000000</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35674</v>
+        <v>35735</v>
       </c>
       <c r="B196" t="n">
-        <v>71582000000</v>
+        <v>70932000000</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35704</v>
+        <v>35765</v>
       </c>
       <c r="B197" t="n">
-        <v>70746000000</v>
+        <v>71575000000</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35735</v>
+        <v>35796</v>
       </c>
       <c r="B198" t="n">
-        <v>70932000000</v>
+        <v>72684000000</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35765</v>
+        <v>35827</v>
       </c>
       <c r="B199" t="n">
-        <v>71575000000</v>
+        <v>71724000000</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35796</v>
+        <v>35855</v>
       </c>
       <c r="B200" t="n">
-        <v>72684000000</v>
+        <v>71979000000</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35827</v>
+        <v>35886</v>
       </c>
       <c r="B201" t="n">
-        <v>71724000000</v>
+        <v>72204000000</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35855</v>
+        <v>35916</v>
       </c>
       <c r="B202" t="n">
-        <v>71979000000</v>
+        <v>73578000000</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35886</v>
+        <v>35947</v>
       </c>
       <c r="B203" t="n">
-        <v>72204000000</v>
+        <v>73056000000</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35916</v>
+        <v>35977</v>
       </c>
       <c r="B204" t="n">
-        <v>73578000000</v>
+        <v>73068000000</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>35947</v>
+        <v>36008</v>
       </c>
       <c r="B205" t="n">
-        <v>73056000000</v>
+        <v>72606000000</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>35977</v>
+        <v>36039</v>
       </c>
       <c r="B206" t="n">
-        <v>73068000000</v>
+        <v>71525000000</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36008</v>
+        <v>36069</v>
       </c>
       <c r="B207" t="n">
-        <v>72606000000</v>
+        <v>72175000000</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36039</v>
+        <v>36100</v>
       </c>
       <c r="B208" t="n">
-        <v>71525000000</v>
+        <v>72855000000</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36069</v>
+        <v>36130</v>
       </c>
       <c r="B209" t="n">
-        <v>72175000000</v>
+        <v>72332000000</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36100</v>
+        <v>36161</v>
       </c>
       <c r="B210" t="n">
-        <v>72855000000</v>
+        <v>73262000000</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36130</v>
+        <v>36192</v>
       </c>
       <c r="B211" t="n">
-        <v>72332000000</v>
+        <v>74810000000</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36161</v>
+        <v>36220</v>
       </c>
       <c r="B212" t="n">
-        <v>73262000000</v>
+        <v>73920000000</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36192</v>
+        <v>36251</v>
       </c>
       <c r="B213" t="n">
-        <v>74810000000</v>
+        <v>73161000000</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36220</v>
+        <v>36281</v>
       </c>
       <c r="B214" t="n">
-        <v>73920000000</v>
+        <v>72833000000</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36251</v>
+        <v>36312</v>
       </c>
       <c r="B215" t="n">
-        <v>73161000000</v>
+        <v>73502000000</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36281</v>
+        <v>36342</v>
       </c>
       <c r="B216" t="n">
-        <v>72833000000</v>
+        <v>75262000000</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36312</v>
+        <v>36373</v>
       </c>
       <c r="B217" t="n">
-        <v>73502000000</v>
+        <v>75935000000</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36342</v>
+        <v>36404</v>
       </c>
       <c r="B218" t="n">
-        <v>75262000000</v>
+        <v>75717000000</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36373</v>
+        <v>36434</v>
       </c>
       <c r="B219" t="n">
-        <v>75935000000</v>
+        <v>75525000000</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36404</v>
+        <v>36465</v>
       </c>
       <c r="B220" t="n">
-        <v>75717000000</v>
+        <v>74655000000</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36434</v>
+        <v>36495</v>
       </c>
       <c r="B221" t="n">
-        <v>75525000000</v>
+        <v>76630000000</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36465</v>
+        <v>36526</v>
       </c>
       <c r="B222" t="n">
-        <v>74655000000</v>
+        <v>75188000000</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36495</v>
+        <v>36557</v>
       </c>
       <c r="B223" t="n">
-        <v>76630000000</v>
+        <v>75809000000</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36526</v>
+        <v>36586</v>
       </c>
       <c r="B224" t="n">
-        <v>75188000000</v>
+        <v>75243000000</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36557</v>
+        <v>36617</v>
       </c>
       <c r="B225" t="n">
-        <v>75809000000</v>
+        <v>75721000000</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36586</v>
+        <v>36647</v>
       </c>
       <c r="B226" t="n">
-        <v>75243000000</v>
+        <v>76770000000</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36617</v>
+        <v>36678</v>
       </c>
       <c r="B227" t="n">
-        <v>75721000000</v>
+        <v>75620000000</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36647</v>
+        <v>36708</v>
       </c>
       <c r="B228" t="n">
-        <v>76770000000</v>
+        <v>76874000000</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36678</v>
+        <v>36739</v>
       </c>
       <c r="B229" t="n">
-        <v>75620000000</v>
+        <v>77423000000</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36708</v>
+        <v>36770</v>
       </c>
       <c r="B230" t="n">
-        <v>76874000000</v>
+        <v>77689000000</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36739</v>
+        <v>36800</v>
       </c>
       <c r="B231" t="n">
-        <v>77423000000</v>
+        <v>77465000000</v>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36770</v>
+        <v>36831</v>
       </c>
       <c r="B232" t="n">
-        <v>77689000000</v>
+        <v>76636000000</v>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36800</v>
+        <v>36861</v>
       </c>
       <c r="B233" t="n">
-        <v>77465000000</v>
+        <v>78422000000</v>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36831</v>
+        <v>36892</v>
       </c>
       <c r="B234" t="n">
-        <v>76636000000</v>
+        <v>77827000000</v>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36861</v>
+        <v>36923</v>
       </c>
       <c r="B235" t="n">
-        <v>78422000000</v>
+        <v>78419000000</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36892</v>
+        <v>36951</v>
       </c>
       <c r="B236" t="n">
-        <v>77827000000</v>
+        <v>79961000000</v>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36923</v>
+        <v>36982</v>
       </c>
       <c r="B237" t="n">
-        <v>78419000000</v>
+        <v>79903000000</v>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>36951</v>
+        <v>37012</v>
       </c>
       <c r="B238" t="n">
-        <v>79961000000</v>
+        <v>81247000000</v>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>36982</v>
+        <v>37043</v>
       </c>
       <c r="B239" t="n">
-        <v>79903000000</v>
+        <v>81397000000</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37012</v>
+        <v>37073</v>
       </c>
       <c r="B240" t="n">
-        <v>81247000000</v>
+        <v>82278000000</v>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37043</v>
+        <v>37104</v>
       </c>
       <c r="B241" t="n">
-        <v>81397000000</v>
+        <v>82357000000</v>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37073</v>
+        <v>37135</v>
       </c>
       <c r="B242" t="n">
-        <v>82278000000</v>
+        <v>83722000000</v>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37104</v>
+        <v>37165</v>
       </c>
       <c r="B243" t="n">
-        <v>82357000000</v>
+        <v>83831000000</v>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37135</v>
+        <v>37196</v>
       </c>
       <c r="B244" t="n">
-        <v>83722000000</v>
+        <v>82083000000</v>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37165</v>
+        <v>37226</v>
       </c>
       <c r="B245" t="n">
-        <v>83831000000</v>
+        <v>83579000000</v>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37196</v>
+        <v>37257</v>
       </c>
       <c r="B246" t="n">
-        <v>82083000000</v>
+        <v>83142000000</v>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37226</v>
+        <v>37288</v>
       </c>
       <c r="B247" t="n">
-        <v>83579000000</v>
+        <v>83870000000</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37257</v>
+        <v>37316</v>
       </c>
       <c r="B248" t="n">
-        <v>83142000000</v>
+        <v>87080000000</v>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37288</v>
+        <v>37347</v>
       </c>
       <c r="B249" t="n">
-        <v>83870000000</v>
+        <v>85751000000</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37316</v>
+        <v>37377</v>
       </c>
       <c r="B250" t="n">
-        <v>87080000000</v>
+        <v>86550000000</v>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37347</v>
+        <v>37408</v>
       </c>
       <c r="B251" t="n">
-        <v>85751000000</v>
+        <v>88768000000</v>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37377</v>
+        <v>37438</v>
       </c>
       <c r="B252" t="n">
-        <v>86550000000</v>
+        <v>88681000000</v>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37408</v>
+        <v>37469</v>
       </c>
       <c r="B253" t="n">
-        <v>88768000000</v>
+        <v>89673000000</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37438</v>
+        <v>37500</v>
       </c>
       <c r="B254" t="n">
-        <v>88681000000</v>
+        <v>89297000000</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37469</v>
+        <v>37530</v>
       </c>
       <c r="B255" t="n">
-        <v>89673000000</v>
+        <v>90012000000</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37500</v>
+        <v>37561</v>
       </c>
       <c r="B256" t="n">
-        <v>89297000000</v>
+        <v>91205000000</v>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37530</v>
+        <v>37591</v>
       </c>
       <c r="B257" t="n">
-        <v>90012000000</v>
+        <v>93743000000</v>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37561</v>
+        <v>37622</v>
       </c>
       <c r="B258" t="n">
-        <v>91205000000</v>
+        <v>92659000000</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37591</v>
+        <v>37653</v>
       </c>
       <c r="B259" t="n">
-        <v>93743000000</v>
+        <v>94032000000</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37622</v>
+        <v>37681</v>
       </c>
       <c r="B260" t="n">
-        <v>92659000000</v>
+        <v>93819000000</v>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37653</v>
+        <v>37712</v>
       </c>
       <c r="B261" t="n">
-        <v>94032000000</v>
+        <v>93353000000</v>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37681</v>
+        <v>37742</v>
       </c>
       <c r="B262" t="n">
-        <v>93819000000</v>
+        <v>93631000000</v>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37712</v>
+        <v>37773</v>
       </c>
       <c r="B263" t="n">
-        <v>93353000000</v>
+        <v>95503000000</v>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37742</v>
+        <v>37803</v>
       </c>
       <c r="B264" t="n">
-        <v>93631000000</v>
+        <v>95766000000</v>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37773</v>
+        <v>37834</v>
       </c>
       <c r="B265" t="n">
-        <v>95503000000</v>
+        <v>95741000000</v>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37803</v>
+        <v>37865</v>
       </c>
       <c r="B266" t="n">
-        <v>95766000000</v>
+        <v>97689000000</v>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37834</v>
+        <v>37895</v>
       </c>
       <c r="B267" t="n">
-        <v>95741000000</v>
+        <v>99787000000</v>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37865</v>
+        <v>37926</v>
       </c>
       <c r="B268" t="n">
-        <v>97689000000</v>
+        <v>100963000000</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37895</v>
+        <v>37956</v>
       </c>
       <c r="B269" t="n">
-        <v>99787000000</v>
+        <v>103231000000</v>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37926</v>
+        <v>37987</v>
       </c>
       <c r="B270" t="n">
-        <v>100963000000</v>
+        <v>103512000000</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>37956</v>
+        <v>38018</v>
       </c>
       <c r="B271" t="n">
-        <v>103231000000</v>
+        <v>104774000000</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>37987</v>
+        <v>38047</v>
       </c>
       <c r="B272" t="n">
-        <v>103512000000</v>
+        <v>105566000000</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38018</v>
+        <v>38078</v>
       </c>
       <c r="B273" t="n">
-        <v>104774000000</v>
+        <v>105181000000</v>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38047</v>
+        <v>38108</v>
       </c>
       <c r="B274" t="n">
-        <v>105566000000</v>
+        <v>107854000000</v>
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38078</v>
+        <v>38139</v>
       </c>
       <c r="B275" t="n">
-        <v>105181000000</v>
+        <v>106773000000</v>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38108</v>
+        <v>38169</v>
       </c>
       <c r="B276" t="n">
-        <v>107854000000</v>
+        <v>106562000000</v>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38139</v>
+        <v>38200</v>
       </c>
       <c r="B277" t="n">
-        <v>106773000000</v>
+        <v>105557000000</v>
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38169</v>
+        <v>38231</v>
       </c>
       <c r="B278" t="n">
-        <v>106562000000</v>
+        <v>104789000000</v>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38200</v>
+        <v>38261</v>
       </c>
       <c r="B279" t="n">
-        <v>105557000000</v>
+        <v>106039000000</v>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38231</v>
+        <v>38292</v>
       </c>
       <c r="B280" t="n">
-        <v>104789000000</v>
+        <v>106178000000</v>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38261</v>
+        <v>38322</v>
       </c>
       <c r="B281" t="n">
-        <v>106039000000</v>
+        <v>107808000000</v>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38292</v>
+        <v>38353</v>
       </c>
       <c r="B282" t="n">
-        <v>106178000000</v>
+        <v>107823000000</v>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38322</v>
+        <v>38384</v>
       </c>
       <c r="B283" t="n">
-        <v>107808000000</v>
+        <v>109719000000</v>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38353</v>
+        <v>38412</v>
       </c>
       <c r="B284" t="n">
-        <v>107823000000</v>
+        <v>110798000000</v>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38384</v>
+        <v>38443</v>
       </c>
       <c r="B285" t="n">
-        <v>109719000000</v>
+        <v>111413000000</v>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38412</v>
+        <v>38473</v>
       </c>
       <c r="B286" t="n">
-        <v>110798000000</v>
+        <v>111861000000</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38443</v>
+        <v>38504</v>
       </c>
       <c r="B287" t="n">
-        <v>111413000000</v>
+        <v>113980000000</v>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38473</v>
+        <v>38534</v>
       </c>
       <c r="B288" t="n">
-        <v>111861000000</v>
+        <v>114215000000</v>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38504</v>
+        <v>38565</v>
       </c>
       <c r="B289" t="n">
-        <v>113980000000</v>
+        <v>114963000000</v>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38534</v>
+        <v>38596</v>
       </c>
       <c r="B290" t="n">
-        <v>114215000000</v>
+        <v>117770000000</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38565</v>
+        <v>38626</v>
       </c>
       <c r="B291" t="n">
-        <v>114963000000</v>
+        <v>117253000000</v>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38596</v>
+        <v>38657</v>
       </c>
       <c r="B292" t="n">
-        <v>117770000000</v>
+        <v>117084000000</v>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38626</v>
+        <v>38687</v>
       </c>
       <c r="B293" t="n">
-        <v>117253000000</v>
+        <v>118937000000</v>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38657</v>
+        <v>38718</v>
       </c>
       <c r="B294" t="n">
-        <v>117084000000</v>
-      </c>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
+        <v>119143000000</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.6878052135635189</v>
+      </c>
+      <c r="D294" t="n">
+        <v>81947176559.59833</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38687</v>
+        <v>38749</v>
       </c>
       <c r="B295" t="n">
-        <v>118937000000</v>
-      </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr"/>
+        <v>119816000000</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.6621201085876978</v>
+      </c>
+      <c r="D295" t="n">
+        <v>79332582930.54359</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38718</v>
+        <v>38777</v>
       </c>
       <c r="B296" t="n">
-        <v>119143000000</v>
+        <v>120893000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.6878052135635189</v>
+        <v>0.6162948354492789</v>
       </c>
       <c r="D296" t="n">
-        <v>81947176559.59833</v>
+        <v>74505731541.96967</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38749</v>
+        <v>38808</v>
       </c>
       <c r="B297" t="n">
-        <v>119816000000</v>
+        <v>122329000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.6621201085876978</v>
+        <v>0.6382842918235783</v>
       </c>
       <c r="D297" t="n">
-        <v>79332582930.54359</v>
+        <v>78080679134.48651</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38777</v>
+        <v>38838</v>
       </c>
       <c r="B298" t="n">
-        <v>120893000000</v>
+        <v>122987000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.6162948354492789</v>
+        <v>0.6343165239454488</v>
       </c>
       <c r="D298" t="n">
-        <v>74505731541.96967</v>
+        <v>78012686330.47891</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38808</v>
+        <v>38869</v>
       </c>
       <c r="B299" t="n">
-        <v>122329000000</v>
+        <v>124982000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.6382842918235783</v>
+        <v>0.608976310821509</v>
       </c>
       <c r="D299" t="n">
-        <v>78080679134.48651</v>
+        <v>76111077279.09384</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38838</v>
+        <v>38899</v>
       </c>
       <c r="B300" t="n">
-        <v>122987000000</v>
+        <v>126112000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.6343165239454488</v>
+        <v>0.6177415369409439</v>
       </c>
       <c r="D300" t="n">
-        <v>78012686330.47891</v>
+        <v>77904620706.69632</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38869</v>
+        <v>38930</v>
       </c>
       <c r="B301" t="n">
-        <v>124982000000</v>
+        <v>126790000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.608976310821509</v>
+        <v>0.6559097468188377</v>
       </c>
       <c r="D301" t="n">
-        <v>76111077279.09384</v>
+        <v>83162796799.16043</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38899</v>
+        <v>38961</v>
       </c>
       <c r="B302" t="n">
-        <v>126112000000</v>
+        <v>127329000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.6177415369409439</v>
+        <v>0.6533812479581836</v>
       </c>
       <c r="D302" t="n">
-        <v>77904620706.69632</v>
+        <v>83194380921.26756</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38930</v>
+        <v>38991</v>
       </c>
       <c r="B303" t="n">
-        <v>126790000000</v>
+        <v>128048000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.6559097468188377</v>
+        <v>0.6704210244033253</v>
       </c>
       <c r="D303" t="n">
-        <v>83162796799.16043</v>
+        <v>85846071332.797</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>38961</v>
+        <v>39022</v>
       </c>
       <c r="B304" t="n">
-        <v>127329000000</v>
+        <v>131146000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.6533812479581836</v>
+        <v>0.6844158510711108</v>
       </c>
       <c r="D304" t="n">
-        <v>83194380921.26756</v>
+        <v>89758401204.5719</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>38991</v>
+        <v>39052</v>
       </c>
       <c r="B305" t="n">
-        <v>128048000000</v>
+        <v>131708000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.6704210244033253</v>
+        <v>0.7046719751955465</v>
       </c>
       <c r="D305" t="n">
-        <v>85846071332.797</v>
+        <v>92810936509.05504</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39022</v>
+        <v>39083</v>
       </c>
       <c r="B306" t="n">
-        <v>131146000000</v>
+        <v>133105000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.6844158510711108</v>
+        <v>0.6914194842010648</v>
       </c>
       <c r="D306" t="n">
-        <v>89758401204.5719</v>
+        <v>92031390444.58273</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39052</v>
+        <v>39114</v>
       </c>
       <c r="B307" t="n">
-        <v>131708000000</v>
+        <v>134703000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.7046719751955465</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="D307" t="n">
-        <v>92810936509.05504</v>
+        <v>94528421052.63158</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39083</v>
+        <v>39142</v>
       </c>
       <c r="B308" t="n">
-        <v>133105000000</v>
+        <v>136207000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.6914194842010648</v>
+        <v>0.7159733657907925</v>
       </c>
       <c r="D308" t="n">
-        <v>92031390444.58273</v>
+        <v>97520584234.26648</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39114</v>
+        <v>39173</v>
       </c>
       <c r="B309" t="n">
-        <v>134703000000</v>
+        <v>139067000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.7410701052319549</v>
       </c>
       <c r="D309" t="n">
-        <v>94528421052.63158</v>
+        <v>103058396324.2923</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39142</v>
+        <v>39203</v>
       </c>
       <c r="B310" t="n">
-        <v>136207000000</v>
+        <v>139023000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.7159733657907925</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D310" t="n">
-        <v>97520584234.26648</v>
+        <v>102418594371.5928</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39173</v>
+        <v>39234</v>
       </c>
       <c r="B311" t="n">
-        <v>139067000000</v>
+        <v>140101000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.7410701052319549</v>
+        <v>0.7720219254226821</v>
       </c>
       <c r="D311" t="n">
-        <v>103058396324.2923</v>
+        <v>108161043773.6432</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39203</v>
+        <v>39264</v>
       </c>
       <c r="B312" t="n">
-        <v>139023000000</v>
+        <v>140604000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.7367025195226168</v>
+        <v>0.7613826709304097</v>
       </c>
       <c r="D312" t="n">
-        <v>102418594371.5928</v>
+        <v>107053449063.4993</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39234</v>
+        <v>39295</v>
       </c>
       <c r="B313" t="n">
-        <v>140101000000</v>
+        <v>139973000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.7720219254226821</v>
+        <v>0.7040270346381301</v>
       </c>
       <c r="D313" t="n">
-        <v>108161043773.6432</v>
+        <v>98544776119.40298</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39264</v>
+        <v>39326</v>
       </c>
       <c r="B314" t="n">
-        <v>140604000000</v>
+        <v>142924000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.7613826709304097</v>
+        <v>0.7580351728320195</v>
       </c>
       <c r="D314" t="n">
-        <v>107053449063.4993</v>
+        <v>108341419041.8436</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39295</v>
+        <v>39356</v>
       </c>
       <c r="B315" t="n">
-        <v>139973000000</v>
+        <v>144156000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.7040270346381301</v>
+        <v>0.772499034376207</v>
       </c>
       <c r="D315" t="n">
-        <v>98544776119.40298</v>
+        <v>111360370799.5365</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39326</v>
+        <v>39387</v>
       </c>
       <c r="B316" t="n">
-        <v>142924000000</v>
+        <v>144974000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.7580351728320195</v>
+        <v>0.7648183556405354</v>
       </c>
       <c r="D316" t="n">
-        <v>108341419041.8436</v>
+        <v>110878776290.631</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39356</v>
+        <v>39417</v>
       </c>
       <c r="B317" t="n">
-        <v>144156000000</v>
+        <v>147844000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.772499034376207</v>
+        <v>0.7654037504783774</v>
       </c>
       <c r="D317" t="n">
-        <v>111360370799.5365</v>
+        <v>113160352085.7252</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39387</v>
+        <v>39448</v>
       </c>
       <c r="B318" t="n">
-        <v>144974000000</v>
+        <v>149145000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7648183556405354</v>
+        <v>0.7885813421654444</v>
       </c>
       <c r="D318" t="n">
-        <v>110878776290.631</v>
+        <v>117612964277.2652</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39417</v>
+        <v>39479</v>
       </c>
       <c r="B319" t="n">
-        <v>147844000000</v>
+        <v>148054000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.7654037504783774</v>
+        <v>0.7991688643810436</v>
       </c>
       <c r="D319" t="n">
-        <v>113160352085.7252</v>
+        <v>118320147047.071</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39448</v>
+        <v>39508</v>
       </c>
       <c r="B320" t="n">
-        <v>149145000000</v>
+        <v>151479000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.7885813421654444</v>
+        <v>0.7857311228097745</v>
       </c>
       <c r="D320" t="n">
-        <v>117612964277.2652</v>
+        <v>119021764752.1018</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39479</v>
+        <v>39539</v>
       </c>
       <c r="B321" t="n">
-        <v>148054000000</v>
+        <v>151507000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.7991688643810436</v>
+        <v>0.7821666014861166</v>
       </c>
       <c r="D321" t="n">
-        <v>118320147047.071</v>
+        <v>118503715291.3571</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39508</v>
+        <v>39569</v>
       </c>
       <c r="B322" t="n">
-        <v>151479000000</v>
+        <v>152157000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.7857311228097745</v>
+        <v>0.7838219156607619</v>
       </c>
       <c r="D322" t="n">
-        <v>119021764752.1018</v>
+        <v>119263991221.1945</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39539</v>
+        <v>39600</v>
       </c>
       <c r="B323" t="n">
-        <v>151507000000</v>
+        <v>154052000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.7821666014861166</v>
+        <v>0.7620789513793629</v>
       </c>
       <c r="D323" t="n">
-        <v>118503715291.3571</v>
+        <v>117399786617.8936</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39569</v>
+        <v>39630</v>
       </c>
       <c r="B324" t="n">
-        <v>152157000000</v>
+        <v>154528000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.7838219156607619</v>
+        <v>0.7336218912772358</v>
       </c>
       <c r="D324" t="n">
-        <v>119263991221.1945</v>
+        <v>113365123615.2887</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39600</v>
+        <v>39661</v>
       </c>
       <c r="B325" t="n">
-        <v>154052000000</v>
+        <v>155108000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.7620789513793629</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D325" t="n">
-        <v>117399786617.8936</v>
+        <v>108924157303.3708</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39630</v>
+        <v>39692</v>
       </c>
       <c r="B326" t="n">
-        <v>154528000000</v>
+        <v>156430000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.7336218912772358</v>
+        <v>0.6715916722632639</v>
       </c>
       <c r="D326" t="n">
-        <v>113365123615.2887</v>
+        <v>105057085292.1424</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39661</v>
+        <v>39722</v>
       </c>
       <c r="B327" t="n">
-        <v>155108000000</v>
+        <v>158344000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.702247191011236</v>
+        <v>0.583056381552096</v>
       </c>
       <c r="D327" t="n">
-        <v>108924157303.3708</v>
+        <v>92323479680.48509</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39692</v>
+        <v>39753</v>
       </c>
       <c r="B328" t="n">
-        <v>156430000000</v>
+        <v>160333000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.6715916722632639</v>
+        <v>0.5493599956051201</v>
       </c>
       <c r="D328" t="n">
-        <v>105057085292.1424</v>
+        <v>88080536175.35571</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39722</v>
+        <v>39783</v>
       </c>
       <c r="B329" t="n">
-        <v>158344000000</v>
+        <v>160893000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.583056381552096</v>
+        <v>0.5782017924255565</v>
       </c>
       <c r="D329" t="n">
-        <v>92323479680.48509</v>
+        <v>93028620988.72505</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39753</v>
+        <v>39814</v>
       </c>
       <c r="B330" t="n">
-        <v>160333000000</v>
+        <v>158009000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.5493599956051201</v>
+        <v>0.508440105755542</v>
       </c>
       <c r="D330" t="n">
-        <v>88080536175.35571</v>
+        <v>80338112670.32744</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39783</v>
+        <v>39845</v>
       </c>
       <c r="B331" t="n">
-        <v>160893000000</v>
+        <v>159746000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.5782017924255565</v>
+        <v>0.5003752814610959</v>
       </c>
       <c r="D331" t="n">
-        <v>93028620988.72505</v>
+        <v>79932949712.28423</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39814</v>
+        <v>39873</v>
       </c>
       <c r="B332" t="n">
-        <v>158009000000</v>
+        <v>159188000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.508440105755542</v>
+        <v>0.5603182607721185</v>
       </c>
       <c r="D332" t="n">
-        <v>80338112670.32744</v>
+        <v>89195943295.79201</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39845</v>
+        <v>39904</v>
       </c>
       <c r="B333" t="n">
-        <v>159746000000</v>
+        <v>159673000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.5003752814610959</v>
+        <v>0.5646208570944611</v>
       </c>
       <c r="D333" t="n">
-        <v>79932949712.28423</v>
+        <v>90154706114.84389</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39873</v>
+        <v>39934</v>
       </c>
       <c r="B334" t="n">
-        <v>159188000000</v>
+        <v>158329000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.5603182607721185</v>
+        <v>0.6402868485081316</v>
       </c>
       <c r="D334" t="n">
-        <v>89195943295.79201</v>
+        <v>101375976437.444</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39904</v>
+        <v>39965</v>
       </c>
       <c r="B335" t="n">
-        <v>159673000000</v>
+        <v>157910000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.5646208570944611</v>
+        <v>0.6457445434586078</v>
       </c>
       <c r="D335" t="n">
-        <v>90154706114.84389</v>
+        <v>101969520857.5488</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39934</v>
+        <v>39995</v>
       </c>
       <c r="B336" t="n">
-        <v>158329000000</v>
+        <v>158591000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.6402868485081316</v>
+        <v>0.6620324395895399</v>
       </c>
       <c r="D336" t="n">
-        <v>101375976437.444</v>
+        <v>104992386626.9447</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>39965</v>
+        <v>40026</v>
       </c>
       <c r="B337" t="n">
-        <v>157910000000</v>
+        <v>157915000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.6457445434586078</v>
+        <v>0.6853539853334247</v>
       </c>
       <c r="D337" t="n">
-        <v>101969520857.5488</v>
+        <v>108227674593.9278</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>39995</v>
+        <v>40057</v>
       </c>
       <c r="B338" t="n">
-        <v>158591000000</v>
+        <v>158781000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.6620324395895399</v>
+        <v>0.7233796296296295</v>
       </c>
       <c r="D338" t="n">
-        <v>104992386626.9447</v>
+        <v>114858940972.2222</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40026</v>
+        <v>40087</v>
       </c>
       <c r="B339" t="n">
-        <v>157915000000</v>
+        <v>158790000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.6853539853334247</v>
+        <v>0.7175660160734788</v>
       </c>
       <c r="D339" t="n">
-        <v>108227674593.9278</v>
+        <v>113942307692.3077</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40057</v>
+        <v>40118</v>
       </c>
       <c r="B340" t="n">
-        <v>158781000000</v>
+        <v>160392000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.7233796296296295</v>
+        <v>0.7161784716751414</v>
       </c>
       <c r="D340" t="n">
-        <v>114858940972.2222</v>
+        <v>114869297428.9193</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40087</v>
+        <v>40148</v>
       </c>
       <c r="B341" t="n">
-        <v>158790000000</v>
+        <v>163056000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.7175660160734788</v>
+        <v>0.7235366471311772</v>
       </c>
       <c r="D341" t="n">
-        <v>113942307692.3077</v>
+        <v>117976991534.6212</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40118</v>
+        <v>40179</v>
       </c>
       <c r="B342" t="n">
-        <v>160392000000</v>
+        <v>160311000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.7161784716751414</v>
+        <v>0.701508242721852</v>
       </c>
       <c r="D342" t="n">
-        <v>114869297428.9193</v>
+        <v>112459487898.9828</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40148</v>
+        <v>40210</v>
       </c>
       <c r="B343" t="n">
-        <v>163056000000</v>
+        <v>160875000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.7235366471311772</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D343" t="n">
-        <v>117976991534.6212</v>
+        <v>112350722815.8391</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40179</v>
+        <v>40238</v>
       </c>
       <c r="B344" t="n">
-        <v>160311000000</v>
+        <v>161647000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.701508242721852</v>
+        <v>0.7107825716113441</v>
       </c>
       <c r="D344" t="n">
-        <v>112459487898.9828</v>
+        <v>114895870353.2589</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40210</v>
+        <v>40269</v>
       </c>
       <c r="B345" t="n">
-        <v>160875000000</v>
+        <v>163862000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.6983727913960472</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D345" t="n">
-        <v>112350722815.8391</v>
+        <v>119172363636.3636</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40238</v>
+        <v>40299</v>
       </c>
       <c r="B346" t="n">
-        <v>161647000000</v>
+        <v>162781000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.7107825716113441</v>
+        <v>0.6824541049614413</v>
       </c>
       <c r="D346" t="n">
-        <v>114895870353.2589</v>
+        <v>111090561659.7284</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40269</v>
+        <v>40330</v>
       </c>
       <c r="B347" t="n">
-        <v>163862000000</v>
+        <v>161316000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6854009595613434</v>
       </c>
       <c r="D347" t="n">
-        <v>119172363636.3636</v>
+        <v>110566141192.5977</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40299</v>
+        <v>40360</v>
       </c>
       <c r="B348" t="n">
-        <v>162781000000</v>
+        <v>162437000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.6824541049614413</v>
+        <v>0.726321905868681</v>
       </c>
       <c r="D348" t="n">
-        <v>111090561659.7284</v>
+        <v>117981551423.5909</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40330</v>
+        <v>40391</v>
       </c>
       <c r="B349" t="n">
-        <v>161316000000</v>
+        <v>162917000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.6854009595613434</v>
+        <v>0.699839037021485</v>
       </c>
       <c r="D349" t="n">
-        <v>110566141192.5977</v>
+        <v>114015676394.4293</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40360</v>
+        <v>40422</v>
       </c>
       <c r="B350" t="n">
-        <v>162437000000</v>
+        <v>164178000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.726321905868681</v>
+        <v>0.7341604874825637</v>
       </c>
       <c r="D350" t="n">
-        <v>117981551423.5909</v>
+        <v>120533000513.9123</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40391</v>
+        <v>40452</v>
       </c>
       <c r="B351" t="n">
-        <v>162917000000</v>
+        <v>166485000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.699839037021485</v>
+        <v>0.7666947788085563</v>
       </c>
       <c r="D351" t="n">
-        <v>114015676394.4293</v>
+        <v>127643180249.9425</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40422</v>
+        <v>40483</v>
       </c>
       <c r="B352" t="n">
-        <v>164178000000</v>
+        <v>167970000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.7341604874825637</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D352" t="n">
-        <v>120533000513.9123</v>
+        <v>124764168461.7099</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40452</v>
+        <v>40513</v>
       </c>
       <c r="B353" t="n">
-        <v>166485000000</v>
+        <v>171217000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.7666947788085563</v>
+        <v>0.7803964413922272</v>
       </c>
       <c r="D353" t="n">
-        <v>127643180249.9425</v>
+        <v>133617137505.853</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40483</v>
+        <v>40544</v>
       </c>
       <c r="B354" t="n">
-        <v>167970000000</v>
+        <v>171348000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7729169887154119</v>
       </c>
       <c r="D354" t="n">
-        <v>124764168461.7099</v>
+        <v>132437780182.4084</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40513</v>
+        <v>40575</v>
       </c>
       <c r="B355" t="n">
-        <v>171217000000</v>
+        <v>172374000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.7803964413922272</v>
+        <v>0.7526719855486979</v>
       </c>
       <c r="D355" t="n">
-        <v>133617137505.853</v>
+        <v>129741080836.9712</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40544</v>
+        <v>40603</v>
       </c>
       <c r="B356" t="n">
-        <v>171348000000</v>
+        <v>174074000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.7729169887154119</v>
+        <v>0.7614986293024673</v>
       </c>
       <c r="D356" t="n">
-        <v>132437780182.4084</v>
+        <v>132557112397.1977</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40575</v>
+        <v>40634</v>
       </c>
       <c r="B357" t="n">
-        <v>172374000000</v>
+        <v>176860000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.7526719855486979</v>
+        <v>0.8101758081503687</v>
       </c>
       <c r="D357" t="n">
-        <v>129741080836.9712</v>
+        <v>143287693429.4742</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40603</v>
+        <v>40664</v>
       </c>
       <c r="B358" t="n">
-        <v>174074000000</v>
+        <v>175745000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.7614986293024673</v>
+        <v>0.823519723297373</v>
       </c>
       <c r="D358" t="n">
-        <v>132557112397.1977</v>
+        <v>144729473770.8968</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40634</v>
+        <v>40695</v>
       </c>
       <c r="B359" t="n">
-        <v>176860000000</v>
+        <v>176466000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.8101758081503687</v>
+        <v>0.8285690612312535</v>
       </c>
       <c r="D359" t="n">
-        <v>143287693429.4742</v>
+        <v>146214267959.2344</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40664</v>
+        <v>40725</v>
       </c>
       <c r="B360" t="n">
-        <v>175745000000</v>
+        <v>176967000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.823519723297373</v>
+        <v>0.8798169980644026</v>
       </c>
       <c r="D360" t="n">
-        <v>144729473770.8968</v>
+        <v>155698574696.4631</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40695</v>
+        <v>40756</v>
       </c>
       <c r="B361" t="n">
-        <v>176466000000</v>
+        <v>175197000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.8285690612312535</v>
+        <v>0.8538251366120219</v>
       </c>
       <c r="D361" t="n">
-        <v>146214267959.2344</v>
+        <v>149587602459.0164</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40725</v>
+        <v>40787</v>
       </c>
       <c r="B362" t="n">
-        <v>176967000000</v>
+        <v>175793000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.8798169980644026</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D362" t="n">
-        <v>155698574696.4631</v>
+        <v>133825365408.039</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40756</v>
+        <v>40817</v>
       </c>
       <c r="B363" t="n">
-        <v>175197000000</v>
+        <v>179139000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.8538251366120219</v>
+        <v>0.8076239702794379</v>
       </c>
       <c r="D363" t="n">
-        <v>149587602459.0164</v>
+        <v>144676950411.8882</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40787</v>
+        <v>40848</v>
       </c>
       <c r="B364" t="n">
-        <v>175793000000</v>
+        <v>181904000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.7612667478684531</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D364" t="n">
-        <v>133825365408.039</v>
+        <v>142034824705.2393</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40817</v>
+        <v>40878</v>
       </c>
       <c r="B365" t="n">
-        <v>179139000000</v>
+        <v>184189000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.8076239702794379</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D365" t="n">
-        <v>144676950411.8882</v>
+        <v>143192878799.6579</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40848</v>
+        <v>40909</v>
       </c>
       <c r="B366" t="n">
-        <v>181904000000</v>
+        <v>182820000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.7808229874287499</v>
+        <v>0.8272667107875579</v>
       </c>
       <c r="D366" t="n">
-        <v>142034824705.2393</v>
+        <v>151240900066.1813</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40878</v>
+        <v>40940</v>
       </c>
       <c r="B367" t="n">
-        <v>184189000000</v>
+        <v>184386000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.7774236181295188</v>
+        <v>0.8343763037129747</v>
       </c>
       <c r="D367" t="n">
-        <v>143192878799.6579</v>
+        <v>153847309136.4205</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40909</v>
+        <v>40969</v>
       </c>
       <c r="B368" t="n">
-        <v>182820000000</v>
+        <v>186446000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.8272667107875579</v>
+        <v>0.8196049504139006</v>
       </c>
       <c r="D368" t="n">
-        <v>151240900066.1813</v>
+        <v>152812064584.8701</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>40940</v>
+        <v>41000</v>
       </c>
       <c r="B369" t="n">
-        <v>184386000000</v>
+        <v>189365000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.8343763037129747</v>
+        <v>0.8188666885031116</v>
       </c>
       <c r="D369" t="n">
-        <v>153847309136.4205</v>
+        <v>155064690468.3917</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>40969</v>
+        <v>41030</v>
       </c>
       <c r="B370" t="n">
-        <v>186446000000</v>
+        <v>188392000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.8196049504139006</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D370" t="n">
-        <v>152812064584.8701</v>
+        <v>141936261583.6661</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41000</v>
+        <v>41061</v>
       </c>
       <c r="B371" t="n">
-        <v>189365000000</v>
+        <v>188815000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.8188666885031116</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D371" t="n">
-        <v>155064690468.3917</v>
+        <v>151427540299.9439</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41030</v>
+        <v>41091</v>
       </c>
       <c r="B372" t="n">
-        <v>188392000000</v>
+        <v>192301000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.7534091765237702</v>
+        <v>0.8090614886731392</v>
       </c>
       <c r="D372" t="n">
-        <v>141936261583.6661</v>
+        <v>155583333333.3333</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41061</v>
+        <v>41122</v>
       </c>
       <c r="B373" t="n">
-        <v>188815000000</v>
+        <v>190755000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.8019889325527308</v>
+        <v>0.8037939072421831</v>
       </c>
       <c r="D373" t="n">
-        <v>151427540299.9439</v>
+        <v>153327706775.9826</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41091</v>
+        <v>41153</v>
       </c>
       <c r="B374" t="n">
-        <v>192301000000</v>
+        <v>191522000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.8090614886731392</v>
+        <v>0.8301510874979247</v>
       </c>
       <c r="D374" t="n">
-        <v>155583333333.3333</v>
+        <v>158992196579.7775</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41122</v>
+        <v>41183</v>
       </c>
       <c r="B375" t="n">
-        <v>190755000000</v>
+        <v>192689000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.8037939072421831</v>
+        <v>0.8227067050596463</v>
       </c>
       <c r="D375" t="n">
-        <v>153327706775.9826</v>
+        <v>158526532291.2382</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41153</v>
+        <v>41214</v>
       </c>
       <c r="B376" t="n">
-        <v>191522000000</v>
+        <v>196035000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.8301510874979247</v>
+        <v>0.8204791598293403</v>
       </c>
       <c r="D376" t="n">
-        <v>158992196579.7775</v>
+        <v>160842632097.1447</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41183</v>
+        <v>41244</v>
       </c>
       <c r="B377" t="n">
-        <v>192689000000</v>
+        <v>200631000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.8227067050596463</v>
+        <v>0.8289811821271658</v>
       </c>
       <c r="D377" t="n">
-        <v>158526532291.2382</v>
+        <v>166319323551.3554</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41214</v>
+        <v>41275</v>
       </c>
       <c r="B378" t="n">
-        <v>196035000000</v>
+        <v>199518000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.8204791598293403</v>
+        <v>0.839278220730172</v>
       </c>
       <c r="D378" t="n">
-        <v>160842632097.1447</v>
+        <v>167451112043.6425</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41244</v>
+        <v>41306</v>
       </c>
       <c r="B379" t="n">
-        <v>200631000000</v>
+        <v>201848000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.8289811821271658</v>
+        <v>0.8251505899826719</v>
       </c>
       <c r="D379" t="n">
-        <v>166319323551.3554</v>
+        <v>166554996286.8224</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41275</v>
+        <v>41334</v>
       </c>
       <c r="B380" t="n">
-        <v>199518000000</v>
+        <v>203856000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.839278220730172</v>
+        <v>0.8375910880308234</v>
       </c>
       <c r="D380" t="n">
-        <v>167451112043.6425</v>
+        <v>170747968841.6115</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41306</v>
+        <v>41365</v>
       </c>
       <c r="B381" t="n">
-        <v>201848000000</v>
+        <v>205362000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.8251505899826719</v>
+        <v>0.8568980291345329</v>
       </c>
       <c r="D381" t="n">
-        <v>166554996286.8224</v>
+        <v>175974293059.1259</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41334</v>
+        <v>41395</v>
       </c>
       <c r="B382" t="n">
-        <v>203856000000</v>
+        <v>206244000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.8375910880308234</v>
+        <v>0.7941550190597204</v>
       </c>
       <c r="D382" t="n">
-        <v>170747968841.6115</v>
+        <v>163789707750.953</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41365</v>
+        <v>41426</v>
       </c>
       <c r="B383" t="n">
-        <v>205362000000</v>
+        <v>205153000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.8568980291345329</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D383" t="n">
-        <v>175974293059.1259</v>
+        <v>158787151702.7864</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41395</v>
+        <v>41456</v>
       </c>
       <c r="B384" t="n">
-        <v>206244000000</v>
+        <v>208329000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.7941550190597204</v>
+        <v>0.7981482959533882</v>
       </c>
       <c r="D384" t="n">
-        <v>163789707750.953</v>
+        <v>166277436347.6734</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41426</v>
+        <v>41487</v>
       </c>
       <c r="B385" t="n">
-        <v>205153000000</v>
+        <v>209263000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.7739938080495355</v>
+        <v>0.7725587144622992</v>
       </c>
       <c r="D385" t="n">
-        <v>158787151702.7864</v>
+        <v>161667954264.5241</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41456</v>
+        <v>41518</v>
       </c>
       <c r="B386" t="n">
-        <v>208329000000</v>
+        <v>210802000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.7981482959533882</v>
+        <v>0.8302889405513119</v>
       </c>
       <c r="D386" t="n">
-        <v>166277436347.6734</v>
+        <v>175026569246.0977</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41487</v>
+        <v>41548</v>
       </c>
       <c r="B387" t="n">
-        <v>209263000000</v>
+        <v>211633000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.7725587144622992</v>
+        <v>0.8258320257659592</v>
       </c>
       <c r="D387" t="n">
-        <v>161667954264.5241</v>
+        <v>174773309108.9272</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41518</v>
+        <v>41579</v>
       </c>
       <c r="B388" t="n">
-        <v>210802000000</v>
+        <v>214001000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.8302889405513119</v>
+        <v>0.8127438231469442</v>
       </c>
       <c r="D388" t="n">
-        <v>175026569246.0977</v>
+        <v>173927990897.2692</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41548</v>
+        <v>41609</v>
       </c>
       <c r="B389" t="n">
-        <v>211633000000</v>
+        <v>216074000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.8258320257659592</v>
+        <v>0.8220979940808945</v>
       </c>
       <c r="D389" t="n">
-        <v>174773309108.9272</v>
+        <v>177634001973.0352</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41579</v>
+        <v>41640</v>
       </c>
       <c r="B390" t="n">
-        <v>214001000000</v>
+        <v>216142000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.8127438231469442</v>
+        <v>0.8087343307723414</v>
       </c>
       <c r="D390" t="n">
-        <v>173927990897.2692</v>
+        <v>174801455721.7954</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41609</v>
+        <v>41671</v>
       </c>
       <c r="B391" t="n">
-        <v>216074000000</v>
+        <v>218953000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.8220979940808945</v>
+        <v>0.8389261744966443</v>
       </c>
       <c r="D391" t="n">
-        <v>177634001973.0352</v>
+        <v>183685402684.5638</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41640</v>
+        <v>41699</v>
       </c>
       <c r="B392" t="n">
-        <v>216142000000</v>
+        <v>218025000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.8087343307723414</v>
+        <v>0.8677542519958347</v>
       </c>
       <c r="D392" t="n">
-        <v>174801455721.7954</v>
+        <v>189192120791.3918</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41671</v>
+        <v>41730</v>
       </c>
       <c r="B393" t="n">
-        <v>218953000000</v>
+        <v>220662000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.8389261744966443</v>
+        <v>0.8618460742911315</v>
       </c>
       <c r="D393" t="n">
-        <v>183685402684.5638</v>
+        <v>190176678445.2296</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41699</v>
+        <v>41760</v>
       </c>
       <c r="B394" t="n">
-        <v>218025000000</v>
+        <v>220034000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.8677542519958347</v>
+        <v>0.8503401360544218</v>
       </c>
       <c r="D394" t="n">
-        <v>189192120791.3918</v>
+        <v>187103741496.5987</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41730</v>
+        <v>41791</v>
       </c>
       <c r="B395" t="n">
-        <v>220662000000</v>
+        <v>220294000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.8618460742911315</v>
+        <v>0.876577840112202</v>
       </c>
       <c r="D395" t="n">
-        <v>190176678445.2296</v>
+        <v>193104838709.6774</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41760</v>
+        <v>41821</v>
       </c>
       <c r="B396" t="n">
-        <v>220034000000</v>
+        <v>221761000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.8503401360544218</v>
+        <v>0.8502678343678259</v>
       </c>
       <c r="D396" t="n">
-        <v>187103741496.5987</v>
+        <v>188556245217.2434</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41791</v>
+        <v>41852</v>
       </c>
       <c r="B397" t="n">
-        <v>220294000000</v>
+        <v>222495000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.876577840112202</v>
+        <v>0.8366100560528738</v>
       </c>
       <c r="D397" t="n">
-        <v>193104838709.6774</v>
+        <v>186141554421.4841</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41821</v>
+        <v>41883</v>
       </c>
       <c r="B398" t="n">
-        <v>221761000000</v>
+        <v>224916000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.8502678343678259</v>
+        <v>0.7815552950371238</v>
       </c>
       <c r="D398" t="n">
-        <v>188556245217.2434</v>
+        <v>175784290738.5697</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41852</v>
+        <v>41913</v>
       </c>
       <c r="B399" t="n">
-        <v>222495000000</v>
+        <v>225561000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.8366100560528738</v>
+        <v>0.7793624814901411</v>
       </c>
       <c r="D399" t="n">
-        <v>186141554421.4841</v>
+        <v>175793780687.3977</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41883</v>
+        <v>41944</v>
       </c>
       <c r="B400" t="n">
-        <v>224916000000</v>
+        <v>228548000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.7815552950371238</v>
+        <v>0.7842522155125089</v>
       </c>
       <c r="D400" t="n">
-        <v>175784290738.5697</v>
+        <v>179239275350.9529</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41913</v>
+        <v>41974</v>
       </c>
       <c r="B401" t="n">
-        <v>225561000000</v>
+        <v>230571000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.7793624814901411</v>
+        <v>0.779666302822392</v>
       </c>
       <c r="D401" t="n">
-        <v>175793780687.3977</v>
+        <v>179768439108.0617</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>41944</v>
+        <v>42005</v>
       </c>
       <c r="B402" t="n">
-        <v>228548000000</v>
+        <v>230155000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.7842522155125089</v>
+        <v>0.7260582298700355</v>
       </c>
       <c r="D402" t="n">
-        <v>179239275350.9529</v>
+        <v>167105931895.738</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>41974</v>
+        <v>42036</v>
       </c>
       <c r="B403" t="n">
-        <v>230571000000</v>
+        <v>233043000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.779666302822392</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D403" t="n">
-        <v>179768439108.0617</v>
+        <v>176360678068.715</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="B404" t="n">
-        <v>230155000000</v>
+        <v>236828000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7260582298700355</v>
+        <v>0.7472166180975864</v>
       </c>
       <c r="D404" t="n">
-        <v>167105931895.738</v>
+        <v>176961817230.8152</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="B405" t="n">
-        <v>233043000000</v>
+        <v>238569000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7567731194187983</v>
+        <v>0.7609770945894528</v>
       </c>
       <c r="D405" t="n">
-        <v>176360678068.715</v>
+        <v>181545544479.1112</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="B406" t="n">
-        <v>236828000000</v>
+        <v>237679000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7472166180975864</v>
+        <v>0.7109341674960898</v>
       </c>
       <c r="D406" t="n">
-        <v>176961817230.8152</v>
+        <v>168974121996.3031</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42095</v>
+        <v>42156</v>
       </c>
       <c r="B407" t="n">
-        <v>238569000000</v>
+        <v>240683000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7609770945894528</v>
+        <v>0.6779201410073893</v>
       </c>
       <c r="D407" t="n">
-        <v>181545544479.1112</v>
+        <v>163163853298.0815</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="B408" t="n">
-        <v>237679000000</v>
+        <v>243516000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.7109341674960898</v>
+        <v>0.6592392379194411</v>
       </c>
       <c r="D408" t="n">
-        <v>168974121996.3031</v>
+        <v>160535302261.1906</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="B409" t="n">
-        <v>240683000000</v>
+        <v>243435000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.6779201410073893</v>
+        <v>0.6347594261774788</v>
       </c>
       <c r="D409" t="n">
-        <v>163163853298.0815</v>
+        <v>154522660911.5146</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="B410" t="n">
-        <v>243516000000</v>
+        <v>245301000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.6592392379194411</v>
+        <v>0.6401638819537802</v>
       </c>
       <c r="D410" t="n">
-        <v>160535302261.1906</v>
+        <v>157032840407.1442</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42217</v>
+        <v>42278</v>
       </c>
       <c r="B411" t="n">
-        <v>243435000000</v>
+        <v>245876000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.6347594261774788</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="D411" t="n">
-        <v>154522660911.5146</v>
+        <v>166695593220.339</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="B412" t="n">
-        <v>245301000000</v>
+        <v>251168000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.6401638819537802</v>
+        <v>0.6588483331137172</v>
       </c>
       <c r="D412" t="n">
-        <v>157032840407.1442</v>
+        <v>165481618131.5061</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B413" t="n">
-        <v>245876000000</v>
+        <v>253283000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6832467887400929</v>
       </c>
       <c r="D413" t="n">
-        <v>166695593220.339</v>
+        <v>173054796392.457</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="B414" t="n">
-        <v>251168000000</v>
+        <v>252048000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.6588483331137172</v>
+        <v>0.6485504896556197</v>
       </c>
       <c r="D414" t="n">
-        <v>165481618131.5061</v>
+        <v>163465853816.7196</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42339</v>
+        <v>42401</v>
       </c>
       <c r="B415" t="n">
-        <v>253283000000</v>
+        <v>255151000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.6832467887400929</v>
+        <v>0.6592827004219409</v>
       </c>
       <c r="D415" t="n">
-        <v>173054796392.457</v>
+        <v>168216640295.3586</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42370</v>
+        <v>42430</v>
       </c>
       <c r="B416" t="n">
-        <v>252048000000</v>
+        <v>258960000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.6485504896556197</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D416" t="n">
-        <v>163465853816.7196</v>
+        <v>179186271796.2912</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42401</v>
+        <v>42461</v>
       </c>
       <c r="B417" t="n">
-        <v>255151000000</v>
+        <v>262111000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.6592827004219409</v>
+        <v>0.6982752601075344</v>
       </c>
       <c r="D417" t="n">
-        <v>168216640295.3586</v>
+        <v>183025626702.0459</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42430</v>
+        <v>42491</v>
       </c>
       <c r="B418" t="n">
-        <v>258960000000</v>
+        <v>260867000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.691945751453086</v>
+        <v>0.6766815536608473</v>
       </c>
       <c r="D418" t="n">
-        <v>179186271796.2912</v>
+        <v>176523886858.8442</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B419" t="n">
-        <v>262111000000</v>
+        <v>261594000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.6982752601075344</v>
+        <v>0.7132158904500393</v>
       </c>
       <c r="D419" t="n">
-        <v>183025626702.0459</v>
+        <v>186572997646.3876</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="B420" t="n">
-        <v>260867000000</v>
+        <v>264903000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.6766815536608473</v>
+        <v>0.7211365111415591</v>
       </c>
       <c r="D420" t="n">
-        <v>176523886858.8442</v>
+        <v>191031225210.9324</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="B421" t="n">
-        <v>261594000000</v>
+        <v>263346000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7132158904500393</v>
+        <v>0.7248477819657873</v>
       </c>
       <c r="D421" t="n">
-        <v>186572997646.3876</v>
+        <v>190885763989.5622</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B422" t="n">
-        <v>264903000000</v>
+        <v>262940000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7211365111415591</v>
+        <v>0.7290755322251385</v>
       </c>
       <c r="D422" t="n">
-        <v>191031225210.9324</v>
+        <v>191703120443.2779</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="B423" t="n">
-        <v>263346000000</v>
+        <v>267649000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7248477819657873</v>
+        <v>0.7151541157119359</v>
       </c>
       <c r="D423" t="n">
-        <v>190885763989.5622</v>
+        <v>191410283916.1839</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="B424" t="n">
-        <v>262940000000</v>
+        <v>269673000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7290755322251385</v>
+        <v>0.7084661707403471</v>
       </c>
       <c r="D424" t="n">
-        <v>191703120443.2779</v>
+        <v>191054197662.0616</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="B425" t="n">
-        <v>267649000000</v>
+        <v>272689000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7151541157119359</v>
+        <v>0.6930967563071805</v>
       </c>
       <c r="D425" t="n">
-        <v>191410283916.1839</v>
+        <v>188999861380.6487</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B426" t="n">
-        <v>269673000000</v>
+        <v>270611000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7084661707403471</v>
+        <v>0.731368390258173</v>
       </c>
       <c r="D426" t="n">
-        <v>191054197662.0616</v>
+        <v>197916331456.1544</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42705</v>
+        <v>42767</v>
       </c>
       <c r="B427" t="n">
-        <v>272689000000</v>
+        <v>271696000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.6930967563071805</v>
+        <v>0.7195797654169965</v>
       </c>
       <c r="D427" t="n">
-        <v>188999861380.6487</v>
+        <v>195506943944.7363</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42736</v>
+        <v>42795</v>
       </c>
       <c r="B428" t="n">
-        <v>270611000000</v>
+        <v>275412000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.731368390258173</v>
+        <v>0.7008199593524423</v>
       </c>
       <c r="D428" t="n">
-        <v>197916331456.1544</v>
+        <v>193014226645.1749</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="B429" t="n">
-        <v>271696000000</v>
+        <v>278067000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7195797654169965</v>
+        <v>0.6869547296833138</v>
       </c>
       <c r="D429" t="n">
-        <v>195506943944.7363</v>
+        <v>191019440818.85</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="B430" t="n">
-        <v>275412000000</v>
+        <v>276620000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7008199593524423</v>
+        <v>0.7086167800453514</v>
       </c>
       <c r="D430" t="n">
-        <v>193014226645.1749</v>
+        <v>196017573696.1451</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="B431" t="n">
-        <v>278067000000</v>
+        <v>278031000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.6869547296833138</v>
+        <v>0.7333528894103843</v>
       </c>
       <c r="D431" t="n">
-        <v>191019440818.85</v>
+        <v>203894837195.6586</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42856</v>
+        <v>42917</v>
       </c>
       <c r="B432" t="n">
-        <v>276620000000</v>
+        <v>282011000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.7086167800453514</v>
+        <v>0.7514841812579846</v>
       </c>
       <c r="D432" t="n">
-        <v>196017573696.1451</v>
+        <v>211926805440.7455</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="B433" t="n">
-        <v>278031000000</v>
+        <v>280572000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7333528894103843</v>
+        <v>0.7178235589692054</v>
       </c>
       <c r="D433" t="n">
-        <v>203894837195.6586</v>
+        <v>201401191587.1079</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42917</v>
+        <v>42979</v>
       </c>
       <c r="B434" t="n">
-        <v>282011000000</v>
+        <v>281276000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.7514841812579846</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D434" t="n">
-        <v>211926805440.7455</v>
+        <v>202809142692.3354</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>42948</v>
+        <v>43009</v>
       </c>
       <c r="B435" t="n">
-        <v>280572000000</v>
+        <v>286487000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7178235589692054</v>
+        <v>0.6888001102080177</v>
       </c>
       <c r="D435" t="n">
-        <v>201401191587.1079</v>
+        <v>197332277173.1644</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>42979</v>
+        <v>43040</v>
       </c>
       <c r="B436" t="n">
-        <v>281276000000</v>
+        <v>289389000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7210325185665873</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D436" t="n">
-        <v>202809142692.3354</v>
+        <v>197818716248.5474</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="B437" t="n">
-        <v>286487000000</v>
+        <v>292600000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.6888001102080177</v>
+        <v>0.7098239636570131</v>
       </c>
       <c r="D437" t="n">
-        <v>197332277173.1644</v>
+        <v>207694491766.042</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B438" t="n">
-        <v>289389000000</v>
+        <v>290366000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.6835737234260715</v>
+        <v>0.7368110816386678</v>
       </c>
       <c r="D438" t="n">
-        <v>197818716248.5474</v>
+        <v>213944886531.0934</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43070</v>
+        <v>43132</v>
       </c>
       <c r="B439" t="n">
-        <v>292600000000</v>
+        <v>292030000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7098239636570131</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D439" t="n">
-        <v>207694491766.042</v>
+        <v>210563126397.0005</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43101</v>
+        <v>43160</v>
       </c>
       <c r="B440" t="n">
-        <v>290366000000</v>
+        <v>295333000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7368110816386678</v>
+        <v>0.7245851749873197</v>
       </c>
       <c r="D440" t="n">
-        <v>213944886531.0934</v>
+        <v>213993913484.5301</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43132</v>
+        <v>43191</v>
       </c>
       <c r="B441" t="n">
-        <v>292030000000</v>
+        <v>297516000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7210325185665873</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D441" t="n">
-        <v>210563126397.0005</v>
+        <v>209370865587.6143</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43160</v>
+        <v>43221</v>
       </c>
       <c r="B442" t="n">
-        <v>295333000000</v>
+        <v>295316000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7245851749873197</v>
+        <v>0.7000840100812098</v>
       </c>
       <c r="D442" t="n">
-        <v>213993913484.5301</v>
+        <v>206746009521.1425</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43191</v>
+        <v>43252</v>
       </c>
       <c r="B443" t="n">
-        <v>297516000000</v>
+        <v>297798000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7037297677691766</v>
+        <v>0.6769564040075818</v>
       </c>
       <c r="D443" t="n">
-        <v>209370865587.6143</v>
+        <v>201596263200.6498</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43221</v>
+        <v>43282</v>
       </c>
       <c r="B444" t="n">
-        <v>295316000000</v>
+        <v>301499000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.7000840100812098</v>
+        <v>0.6818026863025841</v>
       </c>
       <c r="D444" t="n">
-        <v>206746009521.1425</v>
+        <v>205562828117.5428</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43252</v>
+        <v>43313</v>
       </c>
       <c r="B445" t="n">
-        <v>297798000000</v>
+        <v>301799000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.6769564040075818</v>
+        <v>0.6625149065853981</v>
       </c>
       <c r="D445" t="n">
-        <v>201596263200.6498</v>
+        <v>199946336292.5666</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B446" t="n">
-        <v>301499000000</v>
+        <v>302781000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.6818026863025841</v>
+        <v>0.6620762711864407</v>
       </c>
       <c r="D446" t="n">
-        <v>205562828117.5428</v>
+        <v>200464115466.1017</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43313</v>
+        <v>43374</v>
       </c>
       <c r="B447" t="n">
-        <v>301799000000</v>
+        <v>305435000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.6625149065853981</v>
+        <v>0.6522306287503261</v>
       </c>
       <c r="D447" t="n">
-        <v>199946336292.5666</v>
+        <v>199214062092.3559</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43344</v>
+        <v>43405</v>
       </c>
       <c r="B448" t="n">
-        <v>302781000000</v>
+        <v>307946000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.6620762711864407</v>
+        <v>0.6884207627702053</v>
       </c>
       <c r="D448" t="n">
-        <v>200464115466.1017</v>
+        <v>211996420212.0336</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43374</v>
+        <v>43435</v>
       </c>
       <c r="B449" t="n">
-        <v>305435000000</v>
+        <v>311406000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.6522306287503261</v>
+        <v>0.6717721348918447</v>
       </c>
       <c r="D449" t="n">
-        <v>199214062092.3559</v>
+        <v>209193873438.1298</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43405</v>
+        <v>43466</v>
       </c>
       <c r="B450" t="n">
-        <v>307946000000</v>
+        <v>307559000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.6884207627702053</v>
+        <v>0.6920894179527994</v>
       </c>
       <c r="D450" t="n">
-        <v>211996420212.0336</v>
+        <v>212858329296.1451</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43435</v>
+        <v>43497</v>
       </c>
       <c r="B451" t="n">
-        <v>311406000000</v>
+        <v>309109000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.6717721348918447</v>
+        <v>0.6811989100817439</v>
       </c>
       <c r="D451" t="n">
-        <v>209193873438.1298</v>
+        <v>210564713896.4578</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43466</v>
+        <v>43525</v>
       </c>
       <c r="B452" t="n">
-        <v>307559000000</v>
+        <v>312159000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.6920894179527994</v>
+        <v>0.6805962022731913</v>
       </c>
       <c r="D452" t="n">
-        <v>212858329296.1451</v>
+        <v>212454229905.3971</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="B453" t="n">
-        <v>309109000000</v>
+        <v>313888000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.6811989100817439</v>
+        <v>0.6674676278200508</v>
       </c>
       <c r="D453" t="n">
-        <v>210564713896.4578</v>
+        <v>209510078761.1801</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="B454" t="n">
-        <v>312159000000</v>
+        <v>312948000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.6805962022731913</v>
+        <v>0.6535093451836361</v>
       </c>
       <c r="D454" t="n">
-        <v>212454229905.3971</v>
+        <v>204514442556.5286</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="B455" t="n">
-        <v>313888000000</v>
+        <v>316000000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.6674676278200508</v>
+        <v>0.6721333512568893</v>
       </c>
       <c r="D455" t="n">
-        <v>209510078761.1801</v>
+        <v>212394138997.177</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43586</v>
+        <v>43647</v>
       </c>
       <c r="B456" t="n">
-        <v>312948000000</v>
+        <v>318977000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.6535093451836361</v>
+        <v>0.6562110374696503</v>
       </c>
       <c r="D456" t="n">
-        <v>204514442556.5286</v>
+        <v>209316228098.9566</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43617</v>
+        <v>43678</v>
       </c>
       <c r="B457" t="n">
-        <v>316000000000</v>
+        <v>317171000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.6721333512568893</v>
+        <v>0.6312732782021336</v>
       </c>
       <c r="D457" t="n">
-        <v>212394138997.177</v>
+        <v>200221576920.6489</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="B458" t="n">
-        <v>318977000000</v>
+        <v>320212000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6562110374696503</v>
+        <v>0.6260172780768749</v>
       </c>
       <c r="D458" t="n">
-        <v>209316228098.9566</v>
+        <v>200458244647.5523</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43678</v>
+        <v>43739</v>
       </c>
       <c r="B459" t="n">
-        <v>317171000000</v>
+        <v>321673000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6312732782021336</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D459" t="n">
-        <v>200221576920.6489</v>
+        <v>206385859104.3244</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="B460" t="n">
-        <v>320212000000</v>
+        <v>324328000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.6260172780768749</v>
+        <v>0.6424257998201208</v>
       </c>
       <c r="D460" t="n">
-        <v>200458244647.5523</v>
+        <v>208356674804.0602</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43739</v>
+        <v>43800</v>
       </c>
       <c r="B461" t="n">
-        <v>321673000000</v>
+        <v>326061000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.6416014371872193</v>
+        <v>0.6731287022078621</v>
       </c>
       <c r="D461" t="n">
-        <v>206385859104.3244</v>
+        <v>219481017770.5977</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43770</v>
+        <v>43831</v>
       </c>
       <c r="B462" t="n">
-        <v>324328000000</v>
+        <v>322987000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.6424257998201208</v>
+        <v>0.6467050378322448</v>
       </c>
       <c r="D462" t="n">
-        <v>208356674804.0602</v>
+        <v>208877320054.3232</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43800</v>
+        <v>43862</v>
       </c>
       <c r="B463" t="n">
-        <v>326061000000</v>
+        <v>326490000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.6731287022078621</v>
+        <v>0.625</v>
       </c>
       <c r="D463" t="n">
-        <v>219481017770.5977</v>
+        <v>204056250000</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43831</v>
+        <v>43891</v>
       </c>
       <c r="B464" t="n">
-        <v>322987000000</v>
+        <v>337987000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.6467050378322448</v>
+        <v>0.5975500448162534</v>
       </c>
       <c r="D464" t="n">
-        <v>208877320054.3232</v>
+        <v>201964146997.311</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="B465" t="n">
-        <v>326490000000</v>
+        <v>344965000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.625</v>
+        <v>0.6122199093914534</v>
       </c>
       <c r="D465" t="n">
-        <v>204056250000</v>
+        <v>211194441043.2227</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43891</v>
+        <v>43952</v>
       </c>
       <c r="B466" t="n">
-        <v>337987000000</v>
+        <v>343608000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.5975500448162534</v>
+        <v>0.620963735717834</v>
       </c>
       <c r="D466" t="n">
-        <v>201964146997.311</v>
+        <v>213368107302.5335</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="B467" t="n">
-        <v>344965000000</v>
+        <v>346397000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.6122199093914534</v>
+        <v>0.6455361177457879</v>
       </c>
       <c r="D467" t="n">
-        <v>211194441043.2227</v>
+        <v>223611774578.7877</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="B468" t="n">
-        <v>343608000000</v>
+        <v>350385000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.620963735717834</v>
+        <v>0.6629980773055758</v>
       </c>
       <c r="D468" t="n">
-        <v>213368107302.5335</v>
+        <v>232304581316.7142</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="B469" t="n">
-        <v>346397000000</v>
+        <v>354806000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.6455361177457879</v>
+        <v>0.6740815638692281</v>
       </c>
       <c r="D469" t="n">
-        <v>223611774578.7877</v>
+        <v>239168183350.1854</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="B470" t="n">
-        <v>350385000000</v>
+        <v>355780000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.6629980773055758</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D470" t="n">
-        <v>232304581316.7142</v>
+        <v>235444378267.4872</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44044</v>
+        <v>44105</v>
       </c>
       <c r="B471" t="n">
-        <v>354806000000</v>
+        <v>359598000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.6740815638692281</v>
+        <v>0.6614631565021828</v>
       </c>
       <c r="D471" t="n">
-        <v>239168183350.1854</v>
+        <v>237860828151.8719</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="B472" t="n">
-        <v>355780000000</v>
+        <v>360384000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.661769571835087</v>
+        <v>0.7014098337658694</v>
       </c>
       <c r="D472" t="n">
-        <v>235444378267.4872</v>
+        <v>252776881531.8791</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="B473" t="n">
-        <v>359598000000</v>
+        <v>365780000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.6614631565021828</v>
+        <v>0.7185456635769203</v>
       </c>
       <c r="D473" t="n">
-        <v>237860828151.8719</v>
+        <v>262829632823.1659</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="B474" t="n">
-        <v>360384000000</v>
+        <v>359421000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7014098337658694</v>
+        <v>0.7184940364994971</v>
       </c>
       <c r="D474" t="n">
-        <v>252776881531.8791</v>
+        <v>258241845092.6857</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44166</v>
+        <v>44228</v>
       </c>
       <c r="B475" t="n">
-        <v>365780000000</v>
+        <v>361223000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7185456635769203</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D475" t="n">
-        <v>262829632823.1659</v>
+        <v>261376989869.754</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="B476" t="n">
-        <v>359421000000</v>
+        <v>365809000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.7184940364994971</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D476" t="n">
-        <v>258241845092.6857</v>
+        <v>255471052447.7966</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44228</v>
+        <v>44287</v>
       </c>
       <c r="B477" t="n">
-        <v>361223000000</v>
+        <v>368720000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7235890014471781</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D477" t="n">
-        <v>261376989869.754</v>
+        <v>264163920332.4258</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="B478" t="n">
-        <v>365809000000</v>
+        <v>364349000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.6983727913960472</v>
+        <v>0.7276961141027506</v>
       </c>
       <c r="D478" t="n">
-        <v>255471052447.7966</v>
+        <v>265135351477.2231</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="B479" t="n">
-        <v>368720000000</v>
+        <v>366418000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7164350193437455</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D479" t="n">
-        <v>264163920332.4258</v>
+        <v>256254283516.3298</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="B480" t="n">
-        <v>364349000000</v>
+        <v>373053000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7276961141027506</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D480" t="n">
-        <v>265135351477.2231</v>
+        <v>260311911241.3649</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44348</v>
+        <v>44409</v>
       </c>
       <c r="B481" t="n">
-        <v>366418000000</v>
+        <v>369963000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.6993496048674733</v>
+        <v>0.7047713017125943</v>
       </c>
       <c r="D481" t="n">
-        <v>256254283516.3298</v>
+        <v>260739305095.4965</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44378</v>
+        <v>44440</v>
       </c>
       <c r="B482" t="n">
-        <v>373053000000</v>
+        <v>374561000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.6977880120019538</v>
+        <v>0.6902263942573164</v>
       </c>
       <c r="D482" t="n">
-        <v>260311911241.3649</v>
+        <v>258531888459.4147</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="B483" t="n">
-        <v>369963000000</v>
+        <v>378237000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.7047713017125943</v>
+        <v>0.7174630506528914</v>
       </c>
       <c r="D483" t="n">
-        <v>260739305095.4965</v>
+        <v>271371071889.7977</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="B484" t="n">
-        <v>374561000000</v>
+        <v>382985000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.6902263942573164</v>
+        <v>0.68259385665529</v>
       </c>
       <c r="D484" t="n">
-        <v>258531888459.4147</v>
+        <v>261423208191.1263</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44470</v>
+        <v>44531</v>
       </c>
       <c r="B485" t="n">
-        <v>378237000000</v>
+        <v>391602000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7174630506528914</v>
+        <v>0.6842285323297982</v>
       </c>
       <c r="D485" t="n">
-        <v>271371071889.7977</v>
+        <v>267945261717.4136</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="B486" t="n">
-        <v>382985000000</v>
+        <v>384879000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.68259385665529</v>
+        <v>0.6577216521967904</v>
       </c>
       <c r="D486" t="n">
-        <v>261423208191.1263</v>
+        <v>253143251775.8485</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="B487" t="n">
-        <v>391602000000</v>
+        <v>386923000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.6842285323297982</v>
+        <v>0.67778229632642</v>
       </c>
       <c r="D487" t="n">
-        <v>267945261717.4136</v>
+        <v>262249559441.5074</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44562</v>
+        <v>44621</v>
       </c>
       <c r="B488" t="n">
-        <v>384879000000</v>
+        <v>390385000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.6577216521967904</v>
+        <v>0.6935293709688606</v>
       </c>
       <c r="D488" t="n">
-        <v>253143251775.8485</v>
+        <v>270743463485.6786</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="B489" t="n">
-        <v>386923000000</v>
+        <v>391962000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.67778229632642</v>
+        <v>0.6458279514337381</v>
       </c>
       <c r="D489" t="n">
-        <v>262249559441.5074</v>
+        <v>253140015499.8708</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44621</v>
+        <v>44682</v>
       </c>
       <c r="B490" t="n">
-        <v>390385000000</v>
+        <v>389603000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.6935293709688606</v>
+        <v>0.6513809275664409</v>
       </c>
       <c r="D490" t="n">
-        <v>270743463485.6786</v>
+        <v>253779963522.6681</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="B491" t="n">
-        <v>391962000000</v>
+        <v>389035000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.6458279514337381</v>
+        <v>0.6244146113019045</v>
       </c>
       <c r="D491" t="n">
-        <v>253140015499.8708</v>
+        <v>242919138307.8364</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44682</v>
+        <v>44743</v>
       </c>
       <c r="B492" t="n">
-        <v>389603000000</v>
+        <v>390828000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.6513809275664409</v>
+        <v>0.6292474200855777</v>
       </c>
       <c r="D492" t="n">
-        <v>253779963522.6681</v>
+        <v>245927510697.2061</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44713</v>
+        <v>44774</v>
       </c>
       <c r="B493" t="n">
-        <v>389035000000</v>
+        <v>391713000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.6244146113019045</v>
+        <v>0.6118078923218109</v>
       </c>
       <c r="D493" t="n">
-        <v>242919138307.8364</v>
+        <v>239653104925.0535</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="B494" t="n">
-        <v>390828000000</v>
+        <v>391912000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.6292474200855777</v>
+        <v>0.5599104143337066</v>
       </c>
       <c r="D494" t="n">
-        <v>245927510697.2061</v>
+        <v>219435610302.3516</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B495" t="n">
-        <v>391713000000</v>
+        <v>393508000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.6118078923218109</v>
+        <v>0.5812263876780006</v>
       </c>
       <c r="D495" t="n">
-        <v>239653104925.0535</v>
+        <v>228717233362.3947</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B496" t="n">
-        <v>391912000000</v>
+        <v>397263000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.5599104143337066</v>
+        <v>0.6297229219143576</v>
       </c>
       <c r="D496" t="n">
-        <v>219435610302.3516</v>
+        <v>250165617128.4635</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="B497" t="n">
-        <v>393508000000</v>
+        <v>398778000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.5812263876780006</v>
+        <v>0.6353240152477764</v>
       </c>
       <c r="D497" t="n">
-        <v>228717233362.3947</v>
+        <v>253353240152.4778</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B498" t="n">
-        <v>397263000000</v>
+        <v>393400000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.6297229219143576</v>
+        <v>0.644122383252818</v>
       </c>
       <c r="D498" t="n">
-        <v>250165617128.4635</v>
+        <v>253397745571.6586</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="B499" t="n">
-        <v>398778000000</v>
+        <v>394722000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.6353240152477764</v>
+        <v>0.6185822095756526</v>
       </c>
       <c r="D499" t="n">
-        <v>253353240152.4778</v>
+        <v>244168006928.1207</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="B500" t="n">
-        <v>393400000000</v>
+        <v>395721000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.644122383252818</v>
+        <v>0.6257039169065198</v>
       </c>
       <c r="D500" t="n">
-        <v>253397745571.6586</v>
+        <v>247604179702.1649</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="B501" t="n">
-        <v>394722000000</v>
+        <v>398520000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.6185822095756526</v>
+        <v>0.6183527083848628</v>
       </c>
       <c r="D501" t="n">
-        <v>244168006928.1207</v>
+        <v>246425921345.5355</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
@@ -458,5838 +458,5842 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29830</v>
+        <v>29860</v>
       </c>
       <c r="B2" t="n">
-        <v>15077000000</v>
+        <v>15365000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B3" t="n">
-        <v>15365000000</v>
+        <v>15565000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B4" t="n">
-        <v>15565000000</v>
+        <v>16009000000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B5" t="n">
-        <v>16009000000</v>
+        <v>16010000000</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B6" t="n">
-        <v>16010000000</v>
+        <v>16294000000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B7" t="n">
-        <v>16294000000</v>
+        <v>15223000000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B8" t="n">
-        <v>15223000000</v>
+        <v>15937000000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B9" t="n">
-        <v>15937000000</v>
+        <v>16438000000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B10" t="n">
-        <v>16438000000</v>
+        <v>17016000000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B11" t="n">
-        <v>17016000000</v>
+        <v>16972000000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B12" t="n">
-        <v>16972000000</v>
+        <v>17010000000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B13" t="n">
-        <v>17010000000</v>
+        <v>16545000000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B14" t="n">
-        <v>16545000000</v>
+        <v>16533000000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B15" t="n">
-        <v>16533000000</v>
+        <v>17141000000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B16" t="n">
-        <v>17141000000</v>
+        <v>18066000000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B17" t="n">
-        <v>18066000000</v>
+        <v>18329000000</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B18" t="n">
-        <v>18329000000</v>
+        <v>18862000000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B19" t="n">
-        <v>18862000000</v>
+        <v>17266000000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B20" t="n">
-        <v>17266000000</v>
+        <v>17486000000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B21" t="n">
-        <v>17486000000</v>
+        <v>18103000000</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B22" t="n">
-        <v>18103000000</v>
+        <v>18410000000</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B23" t="n">
-        <v>18410000000</v>
+        <v>18810000000</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B24" t="n">
-        <v>18810000000</v>
+        <v>19245000000</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B25" t="n">
-        <v>19245000000</v>
+        <v>19147000000</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B26" t="n">
-        <v>19147000000</v>
+        <v>19340000000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B27" t="n">
-        <v>19340000000</v>
+        <v>19884000000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B28" t="n">
-        <v>19884000000</v>
+        <v>20669000000</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B29" t="n">
-        <v>20669000000</v>
+        <v>20758000000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B30" t="n">
-        <v>20758000000</v>
+        <v>21203000000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B31" t="n">
-        <v>21203000000</v>
+        <v>19781000000</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B32" t="n">
-        <v>19781000000</v>
+        <v>20863000000</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B33" t="n">
-        <v>20863000000</v>
+        <v>21393000000</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B34" t="n">
-        <v>21393000000</v>
+        <v>21696000000</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B35" t="n">
-        <v>21696000000</v>
+        <v>22273000000</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B36" t="n">
-        <v>22273000000</v>
+        <v>23152000000</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B37" t="n">
-        <v>23152000000</v>
+        <v>23213000000</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B38" t="n">
-        <v>23213000000</v>
+        <v>23738000000</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B39" t="n">
-        <v>23738000000</v>
+        <v>24145000000</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B40" t="n">
-        <v>24145000000</v>
+        <v>25020000000</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B41" t="n">
-        <v>25020000000</v>
+        <v>24897000000</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B42" t="n">
-        <v>24897000000</v>
+        <v>25250000000</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B43" t="n">
-        <v>25250000000</v>
+        <v>25030000000</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B44" t="n">
-        <v>25030000000</v>
+        <v>26165000000</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B45" t="n">
-        <v>26165000000</v>
+        <v>26778000000</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B46" t="n">
-        <v>26778000000</v>
+        <v>27918000000</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B47" t="n">
-        <v>27918000000</v>
+        <v>28862000000</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B48" t="n">
-        <v>28862000000</v>
+        <v>29239000000</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B49" t="n">
-        <v>29239000000</v>
+        <v>29420000000</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B50" t="n">
-        <v>29420000000</v>
+        <v>29721000000</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B51" t="n">
-        <v>29721000000</v>
+        <v>30474000000</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B52" t="n">
-        <v>30474000000</v>
+        <v>31397000000</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B53" t="n">
-        <v>31397000000</v>
+        <v>31474000000</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B54" t="n">
-        <v>31474000000</v>
+        <v>32213000000</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B55" t="n">
-        <v>32213000000</v>
+        <v>32386000000</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B56" t="n">
-        <v>32386000000</v>
+        <v>33068000000</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B57" t="n">
-        <v>33068000000</v>
+        <v>33392000000</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B58" t="n">
-        <v>33392000000</v>
+        <v>33824000000</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B59" t="n">
-        <v>33824000000</v>
+        <v>33851000000</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B60" t="n">
-        <v>33851000000</v>
+        <v>34550000000</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B61" t="n">
-        <v>34550000000</v>
+        <v>35002000000</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B62" t="n">
-        <v>35002000000</v>
+        <v>36018000000</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B63" t="n">
-        <v>36018000000</v>
+        <v>36675000000</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B64" t="n">
-        <v>36675000000</v>
+        <v>37807000000</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B65" t="n">
-        <v>37807000000</v>
+        <v>38370000000</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B66" t="n">
-        <v>38370000000</v>
+        <v>39366000000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B67" t="n">
-        <v>39366000000</v>
+        <v>38543000000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B68" t="n">
-        <v>38543000000</v>
+        <v>38349000000</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B69" t="n">
-        <v>38349000000</v>
+        <v>38741000000</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B70" t="n">
-        <v>38741000000</v>
+        <v>39583000000</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B71" t="n">
-        <v>39583000000</v>
+        <v>39428000000</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B72" t="n">
-        <v>39428000000</v>
+        <v>40102000000</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B73" t="n">
-        <v>40102000000</v>
+        <v>40578000000</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B74" t="n">
-        <v>40578000000</v>
+        <v>41887000000</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B75" t="n">
-        <v>41887000000</v>
+        <v>41893000000</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B76" t="n">
-        <v>41893000000</v>
+        <v>42932000000</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B77" t="n">
-        <v>42932000000</v>
+        <v>42531000000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B78" t="n">
-        <v>42531000000</v>
+        <v>43592000000</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B79" t="n">
-        <v>43592000000</v>
+        <v>35236000000</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B80" t="n">
-        <v>35236000000</v>
+        <v>34761000000</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B81" t="n">
-        <v>34761000000</v>
+        <v>34660000000</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B82" t="n">
-        <v>34660000000</v>
+        <v>35658000000</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B83" t="n">
-        <v>35658000000</v>
+        <v>35350000000</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B84" t="n">
-        <v>35350000000</v>
+        <v>35771000000</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B85" t="n">
-        <v>35771000000</v>
+        <v>34970000000</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B86" t="n">
-        <v>34970000000</v>
+        <v>36326000000</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B87" t="n">
-        <v>36326000000</v>
+        <v>35065000000</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B88" t="n">
-        <v>35065000000</v>
+        <v>35616000000</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B89" t="n">
-        <v>35616000000</v>
+        <v>35695000000</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B90" t="n">
-        <v>35695000000</v>
+        <v>36802000000</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B91" t="n">
-        <v>36802000000</v>
+        <v>36302000000</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B92" t="n">
-        <v>36302000000</v>
+        <v>36279000000</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B93" t="n">
-        <v>36279000000</v>
+        <v>36758000000</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B94" t="n">
-        <v>36758000000</v>
+        <v>37527000000</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B95" t="n">
-        <v>37527000000</v>
+        <v>37588000000</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B96" t="n">
-        <v>37588000000</v>
+        <v>38287000000</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B97" t="n">
-        <v>38287000000</v>
+        <v>38758000000</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B98" t="n">
-        <v>38758000000</v>
+        <v>38883000000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B99" t="n">
-        <v>38883000000</v>
+        <v>38513000000</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B100" t="n">
-        <v>38513000000</v>
+        <v>37957000000</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B101" t="n">
-        <v>37957000000</v>
+        <v>38744000000</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B102" t="n">
-        <v>38744000000</v>
+        <v>38287000000</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B103" t="n">
-        <v>38287000000</v>
+        <v>38284000000</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B104" t="n">
-        <v>38284000000</v>
+        <v>39326000000</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B105" t="n">
-        <v>39326000000</v>
+        <v>39661000000</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B106" t="n">
-        <v>39661000000</v>
+        <v>39063000000</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B107" t="n">
-        <v>39063000000</v>
+        <v>38534000000</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B108" t="n">
-        <v>38534000000</v>
+        <v>40088000000</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B109" t="n">
-        <v>40088000000</v>
+        <v>40767000000</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B110" t="n">
-        <v>40767000000</v>
+        <v>40828000000</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B111" t="n">
-        <v>40828000000</v>
+        <v>41145000000</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B112" t="n">
-        <v>41145000000</v>
+        <v>42586000000</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B113" t="n">
-        <v>42586000000</v>
+        <v>41948000000</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B114" t="n">
-        <v>41948000000</v>
+        <v>41220000000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B115" t="n">
-        <v>41220000000</v>
+        <v>40854000000</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B116" t="n">
-        <v>40854000000</v>
+        <v>41300000000</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B117" t="n">
-        <v>41300000000</v>
+        <v>42129000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B118" t="n">
-        <v>42129000000</v>
+        <v>42719000000</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B119" t="n">
-        <v>42719000000</v>
+        <v>41920000000</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B120" t="n">
-        <v>41920000000</v>
+        <v>42235000000</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B121" t="n">
-        <v>42235000000</v>
+        <v>42369000000</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B122" t="n">
-        <v>42369000000</v>
+        <v>43280000000</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B123" t="n">
-        <v>43280000000</v>
+        <v>42849000000</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B124" t="n">
-        <v>42849000000</v>
+        <v>43320000000</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B125" t="n">
-        <v>43320000000</v>
+        <v>44407000000</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B126" t="n">
-        <v>44407000000</v>
+        <v>44599000000</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B127" t="n">
-        <v>44599000000</v>
+        <v>45318000000</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B128" t="n">
-        <v>45318000000</v>
+        <v>45418000000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B129" t="n">
-        <v>45418000000</v>
+        <v>45741000000</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B130" t="n">
-        <v>45741000000</v>
+        <v>44756000000</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B131" t="n">
-        <v>44756000000</v>
+        <v>44868000000</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B132" t="n">
-        <v>44868000000</v>
+        <v>45313000000</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B133" t="n">
-        <v>45313000000</v>
+        <v>45461000000</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B134" t="n">
-        <v>45461000000</v>
+        <v>45784000000</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B135" t="n">
-        <v>45784000000</v>
+        <v>46380000000</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B136" t="n">
-        <v>46380000000</v>
+        <v>45538000000</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B137" t="n">
-        <v>45538000000</v>
+        <v>45785000000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B138" t="n">
-        <v>45785000000</v>
+        <v>45582000000</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B139" t="n">
-        <v>45582000000</v>
+        <v>45158000000</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B140" t="n">
-        <v>45158000000</v>
+        <v>46327000000</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B141" t="n">
-        <v>46327000000</v>
+        <v>47373000000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B142" t="n">
-        <v>47373000000</v>
+        <v>47334000000</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B143" t="n">
-        <v>47334000000</v>
+        <v>48759000000</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B144" t="n">
-        <v>48759000000</v>
+        <v>48711000000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B145" t="n">
-        <v>48711000000</v>
+        <v>48355000000</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B146" t="n">
-        <v>48355000000</v>
+        <v>48841000000</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B147" t="n">
-        <v>48841000000</v>
+        <v>49332000000</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B148" t="n">
-        <v>49332000000</v>
+        <v>49250000000</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B149" t="n">
-        <v>49250000000</v>
+        <v>48139000000</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B150" t="n">
-        <v>48139000000</v>
+        <v>48991000000</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B151" t="n">
-        <v>48991000000</v>
+        <v>50390000000</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B152" t="n">
-        <v>50390000000</v>
+        <v>50358000000</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B153" t="n">
-        <v>50358000000</v>
+        <v>51494000000</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B154" t="n">
-        <v>51494000000</v>
+        <v>51341000000</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B155" t="n">
-        <v>51341000000</v>
+        <v>51103000000</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B156" t="n">
-        <v>51103000000</v>
+        <v>51658000000</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B157" t="n">
-        <v>51658000000</v>
+        <v>51676000000</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B158" t="n">
-        <v>51676000000</v>
+        <v>52085000000</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B159" t="n">
-        <v>52085000000</v>
+        <v>52717000000</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B160" t="n">
-        <v>52717000000</v>
+        <v>53626000000</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B161" t="n">
-        <v>53626000000</v>
+        <v>54225000000</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B162" t="n">
-        <v>54225000000</v>
+        <v>54799000000</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B163" t="n">
-        <v>54799000000</v>
+        <v>54760000000</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B164" t="n">
-        <v>54760000000</v>
+        <v>55835000000</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B165" t="n">
-        <v>55835000000</v>
+        <v>56778000000</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B166" t="n">
-        <v>56778000000</v>
+        <v>56814000000</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B167" t="n">
-        <v>56814000000</v>
+        <v>56158000000</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B168" t="n">
-        <v>56158000000</v>
+        <v>57209000000</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B169" t="n">
-        <v>57209000000</v>
+        <v>57700000000</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B170" t="n">
-        <v>57700000000</v>
+        <v>58639000000</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B171" t="n">
-        <v>58639000000</v>
+        <v>59763000000</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B172" t="n">
-        <v>59763000000</v>
+        <v>60010000000</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B173" t="n">
-        <v>60010000000</v>
+        <v>59951000000</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B174" t="n">
-        <v>59951000000</v>
+        <v>60106000000</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B175" t="n">
-        <v>60106000000</v>
+        <v>60824000000</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B176" t="n">
-        <v>60824000000</v>
+        <v>62080000000</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B177" t="n">
-        <v>62080000000</v>
+        <v>65168000000</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B178" t="n">
-        <v>65168000000</v>
+        <v>65050000000</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B179" t="n">
-        <v>65050000000</v>
+        <v>64390000000</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B180" t="n">
-        <v>64390000000</v>
+        <v>64984000000</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B181" t="n">
-        <v>64984000000</v>
+        <v>65141000000</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B182" t="n">
-        <v>65141000000</v>
-      </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
+        <v>67841000000</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.421060110842689</v>
+      </c>
+      <c r="D182" t="n">
+        <v>96406138979.67883</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B183" t="n">
-        <v>67841000000</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.421060110842689</v>
-      </c>
-      <c r="D183" t="n">
-        <v>96406138979.67883</v>
-      </c>
+        <v>66576000000</v>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B184" t="n">
-        <v>66576000000</v>
+        <v>66584000000</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B185" t="n">
-        <v>66584000000</v>
+        <v>66968000000</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B186" t="n">
-        <v>66968000000</v>
+        <v>66549000000</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B187" t="n">
-        <v>66549000000</v>
+        <v>66572000000</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B188" t="n">
-        <v>66572000000</v>
+        <v>68198000000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B189" t="n">
-        <v>68198000000</v>
+        <v>68983000000</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B190" t="n">
-        <v>68983000000</v>
+        <v>68692000000</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B191" t="n">
-        <v>68692000000</v>
+        <v>69166000000</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B192" t="n">
-        <v>69166000000</v>
+        <v>70950000000</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B193" t="n">
-        <v>70950000000</v>
+        <v>71582000000</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B194" t="n">
-        <v>71582000000</v>
+        <v>70746000000</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B195" t="n">
-        <v>70746000000</v>
+        <v>70932000000</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B196" t="n">
-        <v>70932000000</v>
+        <v>71575000000</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B197" t="n">
-        <v>71575000000</v>
+        <v>72684000000</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B198" t="n">
-        <v>72684000000</v>
+        <v>71724000000</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B199" t="n">
-        <v>71724000000</v>
+        <v>71979000000</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B200" t="n">
-        <v>71979000000</v>
+        <v>72204000000</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B201" t="n">
-        <v>72204000000</v>
+        <v>73578000000</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B202" t="n">
-        <v>73578000000</v>
+        <v>73056000000</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B203" t="n">
-        <v>73056000000</v>
+        <v>73068000000</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B204" t="n">
-        <v>73068000000</v>
+        <v>72606000000</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B205" t="n">
-        <v>72606000000</v>
+        <v>71525000000</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B206" t="n">
-        <v>71525000000</v>
+        <v>72175000000</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B207" t="n">
-        <v>72175000000</v>
+        <v>72855000000</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B208" t="n">
-        <v>72855000000</v>
+        <v>72332000000</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B209" t="n">
-        <v>72332000000</v>
+        <v>73262000000</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B210" t="n">
-        <v>73262000000</v>
+        <v>74810000000</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B211" t="n">
-        <v>74810000000</v>
+        <v>73920000000</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B212" t="n">
-        <v>73920000000</v>
+        <v>73161000000</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B213" t="n">
-        <v>73161000000</v>
+        <v>72833000000</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B214" t="n">
-        <v>72833000000</v>
+        <v>73502000000</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B215" t="n">
-        <v>73502000000</v>
+        <v>75262000000</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B216" t="n">
-        <v>75262000000</v>
+        <v>75935000000</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B217" t="n">
-        <v>75935000000</v>
+        <v>75717000000</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B218" t="n">
-        <v>75717000000</v>
+        <v>75525000000</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B219" t="n">
-        <v>75525000000</v>
+        <v>74655000000</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B220" t="n">
-        <v>74655000000</v>
+        <v>76630000000</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B221" t="n">
-        <v>76630000000</v>
+        <v>75188000000</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B222" t="n">
-        <v>75188000000</v>
+        <v>75809000000</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B223" t="n">
-        <v>75809000000</v>
+        <v>75243000000</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B224" t="n">
-        <v>75243000000</v>
+        <v>75721000000</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B225" t="n">
-        <v>75721000000</v>
+        <v>76770000000</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B226" t="n">
-        <v>76770000000</v>
+        <v>75620000000</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B227" t="n">
-        <v>75620000000</v>
+        <v>76874000000</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B228" t="n">
-        <v>76874000000</v>
+        <v>77423000000</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B229" t="n">
-        <v>77423000000</v>
+        <v>77689000000</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B230" t="n">
-        <v>77689000000</v>
+        <v>77465000000</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B231" t="n">
-        <v>77465000000</v>
+        <v>76636000000</v>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B232" t="n">
-        <v>76636000000</v>
+        <v>78422000000</v>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B233" t="n">
-        <v>78422000000</v>
+        <v>77827000000</v>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B234" t="n">
-        <v>77827000000</v>
+        <v>78419000000</v>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B235" t="n">
-        <v>78419000000</v>
+        <v>79961000000</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B236" t="n">
-        <v>79961000000</v>
+        <v>79903000000</v>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B237" t="n">
-        <v>79903000000</v>
+        <v>81247000000</v>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B238" t="n">
-        <v>81247000000</v>
+        <v>81397000000</v>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B239" t="n">
-        <v>81397000000</v>
+        <v>82278000000</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B240" t="n">
-        <v>82278000000</v>
+        <v>82357000000</v>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B241" t="n">
-        <v>82357000000</v>
+        <v>83722000000</v>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B242" t="n">
-        <v>83722000000</v>
+        <v>83831000000</v>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B243" t="n">
-        <v>83831000000</v>
+        <v>82083000000</v>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B244" t="n">
-        <v>82083000000</v>
+        <v>83579000000</v>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B245" t="n">
-        <v>83579000000</v>
+        <v>83142000000</v>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B246" t="n">
-        <v>83142000000</v>
+        <v>83870000000</v>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B247" t="n">
-        <v>83870000000</v>
+        <v>87080000000</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B248" t="n">
-        <v>87080000000</v>
+        <v>85751000000</v>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B249" t="n">
-        <v>85751000000</v>
+        <v>86550000000</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B250" t="n">
-        <v>86550000000</v>
+        <v>88768000000</v>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B251" t="n">
-        <v>88768000000</v>
+        <v>88681000000</v>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B252" t="n">
-        <v>88681000000</v>
+        <v>89673000000</v>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B253" t="n">
-        <v>89673000000</v>
+        <v>89297000000</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B254" t="n">
-        <v>89297000000</v>
+        <v>90012000000</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B255" t="n">
-        <v>90012000000</v>
+        <v>91205000000</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B256" t="n">
-        <v>91205000000</v>
+        <v>93743000000</v>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B257" t="n">
-        <v>93743000000</v>
+        <v>92659000000</v>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B258" t="n">
-        <v>92659000000</v>
+        <v>94032000000</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B259" t="n">
-        <v>94032000000</v>
+        <v>93819000000</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B260" t="n">
-        <v>93819000000</v>
+        <v>93353000000</v>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B261" t="n">
-        <v>93353000000</v>
+        <v>93631000000</v>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B262" t="n">
-        <v>93631000000</v>
+        <v>95503000000</v>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B263" t="n">
-        <v>95503000000</v>
+        <v>95766000000</v>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B264" t="n">
-        <v>95766000000</v>
+        <v>95741000000</v>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B265" t="n">
-        <v>95741000000</v>
+        <v>97689000000</v>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B266" t="n">
-        <v>97689000000</v>
+        <v>99787000000</v>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B267" t="n">
-        <v>99787000000</v>
+        <v>100963000000</v>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B268" t="n">
-        <v>100963000000</v>
+        <v>103231000000</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B269" t="n">
-        <v>103231000000</v>
+        <v>103512000000</v>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B270" t="n">
-        <v>103512000000</v>
+        <v>104774000000</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B271" t="n">
-        <v>104774000000</v>
+        <v>105566000000</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B272" t="n">
-        <v>105566000000</v>
+        <v>105181000000</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B273" t="n">
-        <v>105181000000</v>
+        <v>107854000000</v>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B274" t="n">
-        <v>107854000000</v>
+        <v>106773000000</v>
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B275" t="n">
-        <v>106773000000</v>
+        <v>106562000000</v>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B276" t="n">
-        <v>106562000000</v>
+        <v>105557000000</v>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B277" t="n">
-        <v>105557000000</v>
+        <v>104789000000</v>
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B278" t="n">
-        <v>104789000000</v>
+        <v>106039000000</v>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B279" t="n">
-        <v>106039000000</v>
+        <v>106178000000</v>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B280" t="n">
-        <v>106178000000</v>
+        <v>107808000000</v>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B281" t="n">
-        <v>107808000000</v>
+        <v>107823000000</v>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B282" t="n">
-        <v>107823000000</v>
+        <v>109719000000</v>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B283" t="n">
-        <v>109719000000</v>
+        <v>110798000000</v>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B284" t="n">
-        <v>110798000000</v>
+        <v>111413000000</v>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B285" t="n">
-        <v>111413000000</v>
+        <v>111861000000</v>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B286" t="n">
-        <v>111861000000</v>
+        <v>113980000000</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B287" t="n">
-        <v>113980000000</v>
+        <v>114215000000</v>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B288" t="n">
-        <v>114215000000</v>
+        <v>114963000000</v>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B289" t="n">
-        <v>114963000000</v>
+        <v>117770000000</v>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B290" t="n">
-        <v>117770000000</v>
+        <v>117253000000</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B291" t="n">
-        <v>117253000000</v>
+        <v>117084000000</v>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B292" t="n">
-        <v>117084000000</v>
+        <v>118937000000</v>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B293" t="n">
-        <v>118937000000</v>
-      </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
+        <v>119143000000</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6878052135635189</v>
+      </c>
+      <c r="D293" t="n">
+        <v>81947176559.59833</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B294" t="n">
-        <v>119143000000</v>
+        <v>119816000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.6878052135635189</v>
+        <v>0.6621201085876978</v>
       </c>
       <c r="D294" t="n">
-        <v>81947176559.59833</v>
+        <v>79332582930.54359</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B295" t="n">
-        <v>119816000000</v>
+        <v>120893000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.6621201085876978</v>
+        <v>0.6162948354492789</v>
       </c>
       <c r="D295" t="n">
-        <v>79332582930.54359</v>
+        <v>74505731541.96967</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B296" t="n">
-        <v>120893000000</v>
+        <v>122329000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.6162948354492789</v>
+        <v>0.6382842918235783</v>
       </c>
       <c r="D296" t="n">
-        <v>74505731541.96967</v>
+        <v>78080679134.48651</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B297" t="n">
-        <v>122329000000</v>
+        <v>122987000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.6382842918235783</v>
+        <v>0.6343165239454488</v>
       </c>
       <c r="D297" t="n">
-        <v>78080679134.48651</v>
+        <v>78012686330.47891</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B298" t="n">
-        <v>122987000000</v>
+        <v>124982000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.6343165239454488</v>
+        <v>0.608976310821509</v>
       </c>
       <c r="D298" t="n">
-        <v>78012686330.47891</v>
+        <v>76111077279.09384</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B299" t="n">
-        <v>124982000000</v>
+        <v>126112000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.608976310821509</v>
+        <v>0.6177415369409439</v>
       </c>
       <c r="D299" t="n">
-        <v>76111077279.09384</v>
+        <v>77904620706.69632</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B300" t="n">
-        <v>126112000000</v>
+        <v>126790000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.6177415369409439</v>
+        <v>0.6559097468188377</v>
       </c>
       <c r="D300" t="n">
-        <v>77904620706.69632</v>
+        <v>83162796799.16043</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B301" t="n">
-        <v>126790000000</v>
+        <v>127329000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.6559097468188377</v>
+        <v>0.6533812479581836</v>
       </c>
       <c r="D301" t="n">
-        <v>83162796799.16043</v>
+        <v>83194380921.26756</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B302" t="n">
-        <v>127329000000</v>
+        <v>128048000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.6533812479581836</v>
+        <v>0.6704210244033253</v>
       </c>
       <c r="D302" t="n">
-        <v>83194380921.26756</v>
+        <v>85846071332.797</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B303" t="n">
-        <v>128048000000</v>
+        <v>131146000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.6704210244033253</v>
+        <v>0.6844158510711108</v>
       </c>
       <c r="D303" t="n">
-        <v>85846071332.797</v>
+        <v>89758401204.5719</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B304" t="n">
-        <v>131146000000</v>
+        <v>131708000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.6844158510711108</v>
+        <v>0.7046719751955465</v>
       </c>
       <c r="D304" t="n">
-        <v>89758401204.5719</v>
+        <v>92810936509.05504</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B305" t="n">
-        <v>131708000000</v>
+        <v>133105000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.7046719751955465</v>
+        <v>0.6914194842010648</v>
       </c>
       <c r="D305" t="n">
-        <v>92810936509.05504</v>
+        <v>92031390444.58273</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B306" t="n">
-        <v>133105000000</v>
+        <v>134703000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.6914194842010648</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="D306" t="n">
-        <v>92031390444.58273</v>
+        <v>94528421052.63158</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B307" t="n">
-        <v>134703000000</v>
+        <v>136207000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.7159733657907925</v>
       </c>
       <c r="D307" t="n">
-        <v>94528421052.63158</v>
+        <v>97520584234.26648</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B308" t="n">
-        <v>136207000000</v>
+        <v>139067000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.7159733657907925</v>
+        <v>0.7410701052319549</v>
       </c>
       <c r="D308" t="n">
-        <v>97520584234.26648</v>
+        <v>103058396324.2923</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B309" t="n">
-        <v>139067000000</v>
+        <v>139023000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.7410701052319549</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D309" t="n">
-        <v>103058396324.2923</v>
+        <v>102418594371.5928</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B310" t="n">
-        <v>139023000000</v>
+        <v>140101000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.7367025195226168</v>
+        <v>0.7720219254226821</v>
       </c>
       <c r="D310" t="n">
-        <v>102418594371.5928</v>
+        <v>108161043773.6432</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B311" t="n">
-        <v>140101000000</v>
+        <v>140604000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.7720219254226821</v>
+        <v>0.7613826709304097</v>
       </c>
       <c r="D311" t="n">
-        <v>108161043773.6432</v>
+        <v>107053449063.4993</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B312" t="n">
-        <v>140604000000</v>
+        <v>139973000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.7613826709304097</v>
+        <v>0.7040270346381301</v>
       </c>
       <c r="D312" t="n">
-        <v>107053449063.4993</v>
+        <v>98544776119.40298</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B313" t="n">
-        <v>139973000000</v>
+        <v>142924000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.7040270346381301</v>
+        <v>0.7580351728320195</v>
       </c>
       <c r="D313" t="n">
-        <v>98544776119.40298</v>
+        <v>108341419041.8436</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B314" t="n">
-        <v>142924000000</v>
+        <v>144156000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.7580351728320195</v>
+        <v>0.772499034376207</v>
       </c>
       <c r="D314" t="n">
-        <v>108341419041.8436</v>
+        <v>111360370799.5365</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B315" t="n">
-        <v>144156000000</v>
+        <v>144974000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.772499034376207</v>
+        <v>0.7648183556405354</v>
       </c>
       <c r="D315" t="n">
-        <v>111360370799.5365</v>
+        <v>110878776290.631</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B316" t="n">
-        <v>144974000000</v>
+        <v>147844000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.7648183556405354</v>
+        <v>0.7654037504783774</v>
       </c>
       <c r="D316" t="n">
-        <v>110878776290.631</v>
+        <v>113160352085.7252</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B317" t="n">
-        <v>147844000000</v>
+        <v>149145000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.7654037504783774</v>
+        <v>0.7885813421654444</v>
       </c>
       <c r="D317" t="n">
-        <v>113160352085.7252</v>
+        <v>117612964277.2652</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B318" t="n">
-        <v>149145000000</v>
+        <v>148054000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7885813421654444</v>
+        <v>0.7991688643810436</v>
       </c>
       <c r="D318" t="n">
-        <v>117612964277.2652</v>
+        <v>118320147047.071</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B319" t="n">
-        <v>148054000000</v>
+        <v>151479000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.7991688643810436</v>
+        <v>0.7857311228097745</v>
       </c>
       <c r="D319" t="n">
-        <v>118320147047.071</v>
+        <v>119021764752.1018</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B320" t="n">
-        <v>151479000000</v>
+        <v>151507000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.7857311228097745</v>
+        <v>0.7821666014861166</v>
       </c>
       <c r="D320" t="n">
-        <v>119021764752.1018</v>
+        <v>118503715291.3571</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B321" t="n">
-        <v>151507000000</v>
+        <v>152157000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.7821666014861166</v>
+        <v>0.7838219156607619</v>
       </c>
       <c r="D321" t="n">
-        <v>118503715291.3571</v>
+        <v>119263991221.1945</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B322" t="n">
-        <v>152157000000</v>
+        <v>154052000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.7838219156607619</v>
+        <v>0.7620789513793629</v>
       </c>
       <c r="D322" t="n">
-        <v>119263991221.1945</v>
+        <v>117399786617.8936</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B323" t="n">
-        <v>154052000000</v>
+        <v>154528000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.7620789513793629</v>
+        <v>0.7336218912772358</v>
       </c>
       <c r="D323" t="n">
-        <v>117399786617.8936</v>
+        <v>113365123615.2887</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B324" t="n">
-        <v>154528000000</v>
+        <v>155108000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.7336218912772358</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D324" t="n">
-        <v>113365123615.2887</v>
+        <v>108924157303.3708</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B325" t="n">
-        <v>155108000000</v>
+        <v>156430000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.702247191011236</v>
+        <v>0.6715916722632639</v>
       </c>
       <c r="D325" t="n">
-        <v>108924157303.3708</v>
+        <v>105057085292.1424</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B326" t="n">
-        <v>156430000000</v>
+        <v>158344000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.6715916722632639</v>
+        <v>0.583056381552096</v>
       </c>
       <c r="D326" t="n">
-        <v>105057085292.1424</v>
+        <v>92323479680.48509</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B327" t="n">
-        <v>158344000000</v>
+        <v>160333000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.583056381552096</v>
+        <v>0.5493599956051201</v>
       </c>
       <c r="D327" t="n">
-        <v>92323479680.48509</v>
+        <v>88080536175.35571</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B328" t="n">
-        <v>160333000000</v>
+        <v>160893000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.5493599956051201</v>
+        <v>0.5782017924255565</v>
       </c>
       <c r="D328" t="n">
-        <v>88080536175.35571</v>
+        <v>93028620988.72505</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B329" t="n">
-        <v>160893000000</v>
+        <v>158009000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.5782017924255565</v>
+        <v>0.508440105755542</v>
       </c>
       <c r="D329" t="n">
-        <v>93028620988.72505</v>
+        <v>80338112670.32744</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B330" t="n">
-        <v>158009000000</v>
+        <v>159746000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.508440105755542</v>
+        <v>0.5003752814610959</v>
       </c>
       <c r="D330" t="n">
-        <v>80338112670.32744</v>
+        <v>79932949712.28423</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B331" t="n">
-        <v>159746000000</v>
+        <v>159188000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.5003752814610959</v>
+        <v>0.5603182607721185</v>
       </c>
       <c r="D331" t="n">
-        <v>79932949712.28423</v>
+        <v>89195943295.79201</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B332" t="n">
-        <v>159188000000</v>
+        <v>159673000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.5603182607721185</v>
+        <v>0.5646208570944611</v>
       </c>
       <c r="D332" t="n">
-        <v>89195943295.79201</v>
+        <v>90154706114.84389</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B333" t="n">
-        <v>159673000000</v>
+        <v>158329000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.5646208570944611</v>
+        <v>0.6402868485081316</v>
       </c>
       <c r="D333" t="n">
-        <v>90154706114.84389</v>
+        <v>101375976437.444</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B334" t="n">
-        <v>158329000000</v>
+        <v>157910000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.6402868485081316</v>
+        <v>0.6457445434586078</v>
       </c>
       <c r="D334" t="n">
-        <v>101375976437.444</v>
+        <v>101969520857.5488</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B335" t="n">
-        <v>157910000000</v>
+        <v>158591000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.6457445434586078</v>
+        <v>0.6620324395895399</v>
       </c>
       <c r="D335" t="n">
-        <v>101969520857.5488</v>
+        <v>104992386626.9447</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B336" t="n">
-        <v>158591000000</v>
+        <v>157915000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.6620324395895399</v>
+        <v>0.6853539853334247</v>
       </c>
       <c r="D336" t="n">
-        <v>104992386626.9447</v>
+        <v>108227674593.9278</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B337" t="n">
-        <v>157915000000</v>
+        <v>158781000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.6853539853334247</v>
+        <v>0.7233796296296295</v>
       </c>
       <c r="D337" t="n">
-        <v>108227674593.9278</v>
+        <v>114858940972.2222</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B338" t="n">
-        <v>158781000000</v>
+        <v>158790000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.7233796296296295</v>
+        <v>0.7175660160734788</v>
       </c>
       <c r="D338" t="n">
-        <v>114858940972.2222</v>
+        <v>113942307692.3077</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B339" t="n">
-        <v>158790000000</v>
+        <v>160392000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.7175660160734788</v>
+        <v>0.7161784716751414</v>
       </c>
       <c r="D339" t="n">
-        <v>113942307692.3077</v>
+        <v>114869297428.9193</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B340" t="n">
-        <v>160392000000</v>
+        <v>163056000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.7161784716751414</v>
+        <v>0.7235366471311772</v>
       </c>
       <c r="D340" t="n">
-        <v>114869297428.9193</v>
+        <v>117976991534.6212</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B341" t="n">
-        <v>163056000000</v>
+        <v>160311000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.7235366471311772</v>
+        <v>0.701508242721852</v>
       </c>
       <c r="D341" t="n">
-        <v>117976991534.6212</v>
+        <v>112459487898.9828</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B342" t="n">
-        <v>160311000000</v>
+        <v>160875000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.701508242721852</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D342" t="n">
-        <v>112459487898.9828</v>
+        <v>112350722815.8391</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B343" t="n">
-        <v>160875000000</v>
+        <v>161647000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.6983727913960472</v>
+        <v>0.7107825716113441</v>
       </c>
       <c r="D343" t="n">
-        <v>112350722815.8391</v>
+        <v>114895870353.2589</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B344" t="n">
-        <v>161647000000</v>
+        <v>163862000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.7107825716113441</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D344" t="n">
-        <v>114895870353.2589</v>
+        <v>119172363636.3636</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B345" t="n">
-        <v>163862000000</v>
+        <v>162781000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6824541049614413</v>
       </c>
       <c r="D345" t="n">
-        <v>119172363636.3636</v>
+        <v>111090561659.7284</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B346" t="n">
-        <v>162781000000</v>
+        <v>161316000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.6824541049614413</v>
+        <v>0.6854009595613434</v>
       </c>
       <c r="D346" t="n">
-        <v>111090561659.7284</v>
+        <v>110566141192.5977</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B347" t="n">
-        <v>161316000000</v>
+        <v>162437000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.6854009595613434</v>
+        <v>0.726321905868681</v>
       </c>
       <c r="D347" t="n">
-        <v>110566141192.5977</v>
+        <v>117981551423.5909</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B348" t="n">
-        <v>162437000000</v>
+        <v>162917000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.726321905868681</v>
+        <v>0.699839037021485</v>
       </c>
       <c r="D348" t="n">
-        <v>117981551423.5909</v>
+        <v>114015676394.4293</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B349" t="n">
-        <v>162917000000</v>
+        <v>164178000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.699839037021485</v>
+        <v>0.7341604874825637</v>
       </c>
       <c r="D349" t="n">
-        <v>114015676394.4293</v>
+        <v>120533000513.9123</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B350" t="n">
-        <v>164178000000</v>
+        <v>166485000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.7341604874825637</v>
+        <v>0.7666947788085563</v>
       </c>
       <c r="D350" t="n">
-        <v>120533000513.9123</v>
+        <v>127643180249.9425</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B351" t="n">
-        <v>166485000000</v>
+        <v>167970000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.7666947788085563</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D351" t="n">
-        <v>127643180249.9425</v>
+        <v>124764168461.7099</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B352" t="n">
-        <v>167970000000</v>
+        <v>171217000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7803964413922272</v>
       </c>
       <c r="D352" t="n">
-        <v>124764168461.7099</v>
+        <v>133617137505.853</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B353" t="n">
-        <v>171217000000</v>
+        <v>171348000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.7803964413922272</v>
+        <v>0.7729169887154119</v>
       </c>
       <c r="D353" t="n">
-        <v>133617137505.853</v>
+        <v>132437780182.4084</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B354" t="n">
-        <v>171348000000</v>
+        <v>172374000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7729169887154119</v>
+        <v>0.7526719855486979</v>
       </c>
       <c r="D354" t="n">
-        <v>132437780182.4084</v>
+        <v>129741080836.9712</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B355" t="n">
-        <v>172374000000</v>
+        <v>174074000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.7526719855486979</v>
+        <v>0.7614986293024673</v>
       </c>
       <c r="D355" t="n">
-        <v>129741080836.9712</v>
+        <v>132557112397.1977</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B356" t="n">
-        <v>174074000000</v>
+        <v>176860000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.7614986293024673</v>
+        <v>0.8101758081503687</v>
       </c>
       <c r="D356" t="n">
-        <v>132557112397.1977</v>
+        <v>143287693429.4742</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B357" t="n">
-        <v>176860000000</v>
+        <v>175745000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.8101758081503687</v>
+        <v>0.823519723297373</v>
       </c>
       <c r="D357" t="n">
-        <v>143287693429.4742</v>
+        <v>144729473770.8968</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B358" t="n">
-        <v>175745000000</v>
+        <v>176466000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.823519723297373</v>
+        <v>0.8285690612312535</v>
       </c>
       <c r="D358" t="n">
-        <v>144729473770.8968</v>
+        <v>146214267959.2344</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B359" t="n">
-        <v>176466000000</v>
+        <v>176967000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.8285690612312535</v>
+        <v>0.8798169980644026</v>
       </c>
       <c r="D359" t="n">
-        <v>146214267959.2344</v>
+        <v>155698574696.4631</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B360" t="n">
-        <v>176967000000</v>
+        <v>175197000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.8798169980644026</v>
+        <v>0.8538251366120219</v>
       </c>
       <c r="D360" t="n">
-        <v>155698574696.4631</v>
+        <v>149587602459.0164</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B361" t="n">
-        <v>175197000000</v>
+        <v>175793000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.8538251366120219</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D361" t="n">
-        <v>149587602459.0164</v>
+        <v>133825365408.039</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B362" t="n">
-        <v>175793000000</v>
+        <v>179139000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.7612667478684531</v>
+        <v>0.8076239702794379</v>
       </c>
       <c r="D362" t="n">
-        <v>133825365408.039</v>
+        <v>144676950411.8882</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B363" t="n">
-        <v>179139000000</v>
+        <v>181904000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.8076239702794379</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D363" t="n">
-        <v>144676950411.8882</v>
+        <v>142034824705.2393</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B364" t="n">
-        <v>181904000000</v>
+        <v>184189000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.7808229874287499</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D364" t="n">
-        <v>142034824705.2393</v>
+        <v>143192878799.6579</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B365" t="n">
-        <v>184189000000</v>
+        <v>182820000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.7774236181295188</v>
+        <v>0.8272667107875579</v>
       </c>
       <c r="D365" t="n">
-        <v>143192878799.6579</v>
+        <v>151240900066.1813</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B366" t="n">
-        <v>182820000000</v>
+        <v>184386000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.8272667107875579</v>
+        <v>0.8343763037129747</v>
       </c>
       <c r="D366" t="n">
-        <v>151240900066.1813</v>
+        <v>153847309136.4205</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B367" t="n">
-        <v>184386000000</v>
+        <v>186446000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.8343763037129747</v>
+        <v>0.8196049504139006</v>
       </c>
       <c r="D367" t="n">
-        <v>153847309136.4205</v>
+        <v>152812064584.8701</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B368" t="n">
-        <v>186446000000</v>
+        <v>189365000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.8196049504139006</v>
+        <v>0.8188666885031116</v>
       </c>
       <c r="D368" t="n">
-        <v>152812064584.8701</v>
+        <v>155064690468.3917</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B369" t="n">
-        <v>189365000000</v>
+        <v>188392000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.8188666885031116</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D369" t="n">
-        <v>155064690468.3917</v>
+        <v>141936261583.6661</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B370" t="n">
-        <v>188392000000</v>
+        <v>188815000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.7534091765237702</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D370" t="n">
-        <v>141936261583.6661</v>
+        <v>151427540299.9439</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B371" t="n">
-        <v>188815000000</v>
+        <v>192301000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.8019889325527308</v>
+        <v>0.8090614886731392</v>
       </c>
       <c r="D371" t="n">
-        <v>151427540299.9439</v>
+        <v>155583333333.3333</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B372" t="n">
-        <v>192301000000</v>
+        <v>190755000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.8090614886731392</v>
+        <v>0.8037939072421831</v>
       </c>
       <c r="D372" t="n">
-        <v>155583333333.3333</v>
+        <v>153327706775.9826</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B373" t="n">
-        <v>190755000000</v>
+        <v>191522000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.8037939072421831</v>
+        <v>0.8301510874979247</v>
       </c>
       <c r="D373" t="n">
-        <v>153327706775.9826</v>
+        <v>158992196579.7775</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B374" t="n">
-        <v>191522000000</v>
+        <v>192689000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.8301510874979247</v>
+        <v>0.8227067050596463</v>
       </c>
       <c r="D374" t="n">
-        <v>158992196579.7775</v>
+        <v>158526532291.2382</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B375" t="n">
-        <v>192689000000</v>
+        <v>196035000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.8227067050596463</v>
+        <v>0.8204791598293403</v>
       </c>
       <c r="D375" t="n">
-        <v>158526532291.2382</v>
+        <v>160842632097.1447</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B376" t="n">
-        <v>196035000000</v>
+        <v>200631000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.8204791598293403</v>
+        <v>0.8289811821271658</v>
       </c>
       <c r="D376" t="n">
-        <v>160842632097.1447</v>
+        <v>166319323551.3554</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B377" t="n">
-        <v>200631000000</v>
+        <v>199518000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.8289811821271658</v>
+        <v>0.839278220730172</v>
       </c>
       <c r="D377" t="n">
-        <v>166319323551.3554</v>
+        <v>167451112043.6425</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B378" t="n">
-        <v>199518000000</v>
+        <v>201848000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.839278220730172</v>
+        <v>0.8251505899826719</v>
       </c>
       <c r="D378" t="n">
-        <v>167451112043.6425</v>
+        <v>166554996286.8224</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B379" t="n">
-        <v>201848000000</v>
+        <v>203856000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.8251505899826719</v>
+        <v>0.8375910880308234</v>
       </c>
       <c r="D379" t="n">
-        <v>166554996286.8224</v>
+        <v>170747968841.6115</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B380" t="n">
-        <v>203856000000</v>
+        <v>205362000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.8375910880308234</v>
+        <v>0.8568980291345329</v>
       </c>
       <c r="D380" t="n">
-        <v>170747968841.6115</v>
+        <v>175974293059.1259</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B381" t="n">
-        <v>205362000000</v>
+        <v>206244000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.8568980291345329</v>
+        <v>0.7941550190597204</v>
       </c>
       <c r="D381" t="n">
-        <v>175974293059.1259</v>
+        <v>163789707750.953</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B382" t="n">
-        <v>206244000000</v>
+        <v>205153000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.7941550190597204</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D382" t="n">
-        <v>163789707750.953</v>
+        <v>158787151702.7864</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B383" t="n">
-        <v>205153000000</v>
+        <v>208329000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.7739938080495355</v>
+        <v>0.7981482959533882</v>
       </c>
       <c r="D383" t="n">
-        <v>158787151702.7864</v>
+        <v>166277436347.6734</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B384" t="n">
-        <v>208329000000</v>
+        <v>209263000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.7981482959533882</v>
+        <v>0.7725587144622992</v>
       </c>
       <c r="D384" t="n">
-        <v>166277436347.6734</v>
+        <v>161667954264.5241</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B385" t="n">
-        <v>209263000000</v>
+        <v>210802000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.7725587144622992</v>
+        <v>0.8302889405513119</v>
       </c>
       <c r="D385" t="n">
-        <v>161667954264.5241</v>
+        <v>175026569246.0977</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B386" t="n">
-        <v>210802000000</v>
+        <v>211633000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.8302889405513119</v>
+        <v>0.8258320257659592</v>
       </c>
       <c r="D386" t="n">
-        <v>175026569246.0977</v>
+        <v>174773309108.9272</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B387" t="n">
-        <v>211633000000</v>
+        <v>214001000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.8258320257659592</v>
+        <v>0.8127438231469442</v>
       </c>
       <c r="D387" t="n">
-        <v>174773309108.9272</v>
+        <v>173927990897.2692</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B388" t="n">
-        <v>214001000000</v>
+        <v>216074000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.8127438231469442</v>
+        <v>0.8220979940808945</v>
       </c>
       <c r="D388" t="n">
-        <v>173927990897.2692</v>
+        <v>177634001973.0352</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B389" t="n">
-        <v>216074000000</v>
+        <v>216142000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.8220979940808945</v>
+        <v>0.8087343307723414</v>
       </c>
       <c r="D389" t="n">
-        <v>177634001973.0352</v>
+        <v>174801455721.7954</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B390" t="n">
-        <v>216142000000</v>
+        <v>218953000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.8087343307723414</v>
+        <v>0.8389261744966443</v>
       </c>
       <c r="D390" t="n">
-        <v>174801455721.7954</v>
+        <v>183685402684.5638</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B391" t="n">
-        <v>218953000000</v>
+        <v>218025000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.8389261744966443</v>
+        <v>0.8677542519958347</v>
       </c>
       <c r="D391" t="n">
-        <v>183685402684.5638</v>
+        <v>189192120791.3918</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B392" t="n">
-        <v>218025000000</v>
+        <v>220662000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.8677542519958347</v>
+        <v>0.8618460742911315</v>
       </c>
       <c r="D392" t="n">
-        <v>189192120791.3918</v>
+        <v>190176678445.2296</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B393" t="n">
-        <v>220662000000</v>
+        <v>220034000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.8618460742911315</v>
+        <v>0.8503401360544218</v>
       </c>
       <c r="D393" t="n">
-        <v>190176678445.2296</v>
+        <v>187103741496.5987</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B394" t="n">
-        <v>220034000000</v>
+        <v>220294000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.8503401360544218</v>
+        <v>0.876577840112202</v>
       </c>
       <c r="D394" t="n">
-        <v>187103741496.5987</v>
+        <v>193104838709.6774</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B395" t="n">
-        <v>220294000000</v>
+        <v>221761000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.876577840112202</v>
+        <v>0.8502678343678259</v>
       </c>
       <c r="D395" t="n">
-        <v>193104838709.6774</v>
+        <v>188556245217.2434</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B396" t="n">
-        <v>221761000000</v>
+        <v>222495000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.8502678343678259</v>
+        <v>0.8366100560528738</v>
       </c>
       <c r="D396" t="n">
-        <v>188556245217.2434</v>
+        <v>186141554421.4841</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B397" t="n">
-        <v>222495000000</v>
+        <v>224916000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.8366100560528738</v>
+        <v>0.7815552950371238</v>
       </c>
       <c r="D397" t="n">
-        <v>186141554421.4841</v>
+        <v>175784290738.5697</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B398" t="n">
-        <v>224916000000</v>
+        <v>225561000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.7815552950371238</v>
+        <v>0.7793624814901411</v>
       </c>
       <c r="D398" t="n">
-        <v>175784290738.5697</v>
+        <v>175793780687.3977</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B399" t="n">
-        <v>225561000000</v>
+        <v>228548000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.7793624814901411</v>
+        <v>0.7842522155125089</v>
       </c>
       <c r="D399" t="n">
-        <v>175793780687.3977</v>
+        <v>179239275350.9529</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B400" t="n">
-        <v>228548000000</v>
+        <v>230571000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.7842522155125089</v>
+        <v>0.779666302822392</v>
       </c>
       <c r="D400" t="n">
-        <v>179239275350.9529</v>
+        <v>179768439108.0617</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B401" t="n">
-        <v>230571000000</v>
+        <v>230155000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.779666302822392</v>
+        <v>0.7260582298700355</v>
       </c>
       <c r="D401" t="n">
-        <v>179768439108.0617</v>
+        <v>167105931895.738</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B402" t="n">
-        <v>230155000000</v>
+        <v>233043000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.7260582298700355</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D402" t="n">
-        <v>167105931895.738</v>
+        <v>176360678068.715</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B403" t="n">
-        <v>233043000000</v>
+        <v>236828000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.7567731194187983</v>
+        <v>0.7472166180975864</v>
       </c>
       <c r="D403" t="n">
-        <v>176360678068.715</v>
+        <v>176961817230.8152</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B404" t="n">
-        <v>236828000000</v>
+        <v>238569000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7472166180975864</v>
+        <v>0.7609770945894528</v>
       </c>
       <c r="D404" t="n">
-        <v>176961817230.8152</v>
+        <v>181545544479.1112</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B405" t="n">
-        <v>238569000000</v>
+        <v>237679000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7609770945894528</v>
+        <v>0.7109341674960898</v>
       </c>
       <c r="D405" t="n">
-        <v>181545544479.1112</v>
+        <v>168974121996.3031</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B406" t="n">
-        <v>237679000000</v>
+        <v>240683000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7109341674960898</v>
+        <v>0.6779201410073893</v>
       </c>
       <c r="D406" t="n">
-        <v>168974121996.3031</v>
+        <v>163163853298.0815</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B407" t="n">
-        <v>240683000000</v>
+        <v>243516000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.6779201410073893</v>
+        <v>0.6592392379194411</v>
       </c>
       <c r="D407" t="n">
-        <v>163163853298.0815</v>
+        <v>160535302261.1906</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B408" t="n">
-        <v>243516000000</v>
+        <v>243435000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.6592392379194411</v>
+        <v>0.6347594261774788</v>
       </c>
       <c r="D408" t="n">
-        <v>160535302261.1906</v>
+        <v>154522660911.5146</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B409" t="n">
-        <v>243435000000</v>
+        <v>245301000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.6347594261774788</v>
+        <v>0.6401638819537802</v>
       </c>
       <c r="D409" t="n">
-        <v>154522660911.5146</v>
+        <v>157032840407.1442</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B410" t="n">
-        <v>245301000000</v>
+        <v>245876000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.6401638819537802</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="D410" t="n">
-        <v>157032840407.1442</v>
+        <v>166695593220.339</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B411" t="n">
-        <v>245876000000</v>
+        <v>251168000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6588483331137172</v>
       </c>
       <c r="D411" t="n">
-        <v>166695593220.339</v>
+        <v>165481618131.5061</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B412" t="n">
-        <v>251168000000</v>
+        <v>253283000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.6588483331137172</v>
+        <v>0.6832467887400929</v>
       </c>
       <c r="D412" t="n">
-        <v>165481618131.5061</v>
+        <v>173054796392.457</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B413" t="n">
-        <v>253283000000</v>
+        <v>252048000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.6832467887400929</v>
+        <v>0.6485504896556197</v>
       </c>
       <c r="D413" t="n">
-        <v>173054796392.457</v>
+        <v>163465853816.7196</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B414" t="n">
-        <v>252048000000</v>
+        <v>255151000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.6485504896556197</v>
+        <v>0.6592827004219409</v>
       </c>
       <c r="D414" t="n">
-        <v>163465853816.7196</v>
+        <v>168216640295.3586</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B415" t="n">
-        <v>255151000000</v>
+        <v>258960000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.6592827004219409</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D415" t="n">
-        <v>168216640295.3586</v>
+        <v>179186271796.2912</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B416" t="n">
-        <v>258960000000</v>
+        <v>262111000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.691945751453086</v>
+        <v>0.6982752601075344</v>
       </c>
       <c r="D416" t="n">
-        <v>179186271796.2912</v>
+        <v>183025626702.0459</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B417" t="n">
-        <v>262111000000</v>
+        <v>260867000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.6982752601075344</v>
+        <v>0.6766815536608473</v>
       </c>
       <c r="D417" t="n">
-        <v>183025626702.0459</v>
+        <v>176523886858.8442</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B418" t="n">
-        <v>260867000000</v>
+        <v>261594000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.6766815536608473</v>
+        <v>0.7132158904500393</v>
       </c>
       <c r="D418" t="n">
-        <v>176523886858.8442</v>
+        <v>186572997646.3876</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B419" t="n">
-        <v>261594000000</v>
+        <v>264903000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7132158904500393</v>
+        <v>0.7211365111415591</v>
       </c>
       <c r="D419" t="n">
-        <v>186572997646.3876</v>
+        <v>191031225210.9324</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B420" t="n">
-        <v>264903000000</v>
+        <v>263346000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7211365111415591</v>
+        <v>0.7248477819657873</v>
       </c>
       <c r="D420" t="n">
-        <v>191031225210.9324</v>
+        <v>190885763989.5622</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B421" t="n">
-        <v>263346000000</v>
+        <v>262940000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7248477819657873</v>
+        <v>0.7290755322251385</v>
       </c>
       <c r="D421" t="n">
-        <v>190885763989.5622</v>
+        <v>191703120443.2779</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B422" t="n">
-        <v>262940000000</v>
+        <v>267649000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7290755322251385</v>
+        <v>0.7151541157119359</v>
       </c>
       <c r="D422" t="n">
-        <v>191703120443.2779</v>
+        <v>191410283916.1839</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B423" t="n">
-        <v>267649000000</v>
+        <v>269673000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7151541157119359</v>
+        <v>0.7084661707403471</v>
       </c>
       <c r="D423" t="n">
-        <v>191410283916.1839</v>
+        <v>191054197662.0616</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B424" t="n">
-        <v>269673000000</v>
+        <v>272689000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7084661707403471</v>
+        <v>0.6930967563071805</v>
       </c>
       <c r="D424" t="n">
-        <v>191054197662.0616</v>
+        <v>188999861380.6487</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B425" t="n">
-        <v>272689000000</v>
+        <v>270611000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.6930967563071805</v>
+        <v>0.731368390258173</v>
       </c>
       <c r="D425" t="n">
-        <v>188999861380.6487</v>
+        <v>197916331456.1544</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B426" t="n">
-        <v>270611000000</v>
+        <v>271696000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.731368390258173</v>
+        <v>0.7195797654169965</v>
       </c>
       <c r="D426" t="n">
-        <v>197916331456.1544</v>
+        <v>195506943944.7363</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B427" t="n">
-        <v>271696000000</v>
+        <v>275412000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7195797654169965</v>
+        <v>0.7008199593524423</v>
       </c>
       <c r="D427" t="n">
-        <v>195506943944.7363</v>
+        <v>193014226645.1749</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B428" t="n">
-        <v>275412000000</v>
+        <v>278067000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7008199593524423</v>
+        <v>0.6869547296833138</v>
       </c>
       <c r="D428" t="n">
-        <v>193014226645.1749</v>
+        <v>191019440818.85</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B429" t="n">
-        <v>278067000000</v>
+        <v>276620000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.6869547296833138</v>
+        <v>0.7086167800453514</v>
       </c>
       <c r="D429" t="n">
-        <v>191019440818.85</v>
+        <v>196017573696.1451</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B430" t="n">
-        <v>276620000000</v>
+        <v>278031000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7086167800453514</v>
+        <v>0.7333528894103843</v>
       </c>
       <c r="D430" t="n">
-        <v>196017573696.1451</v>
+        <v>203894837195.6586</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B431" t="n">
-        <v>278031000000</v>
+        <v>282011000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.7333528894103843</v>
+        <v>0.7514841812579846</v>
       </c>
       <c r="D431" t="n">
-        <v>203894837195.6586</v>
+        <v>211926805440.7455</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B432" t="n">
-        <v>282011000000</v>
+        <v>280572000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.7514841812579846</v>
+        <v>0.7178235589692054</v>
       </c>
       <c r="D432" t="n">
-        <v>211926805440.7455</v>
+        <v>201401191587.1079</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B433" t="n">
-        <v>280572000000</v>
+        <v>281276000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7178235589692054</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D433" t="n">
-        <v>201401191587.1079</v>
+        <v>202809142692.3354</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B434" t="n">
-        <v>281276000000</v>
+        <v>286487000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.7210325185665873</v>
+        <v>0.6888001102080177</v>
       </c>
       <c r="D434" t="n">
-        <v>202809142692.3354</v>
+        <v>197332277173.1644</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B435" t="n">
-        <v>286487000000</v>
+        <v>289389000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.6888001102080177</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D435" t="n">
-        <v>197332277173.1644</v>
+        <v>197818716248.5474</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B436" t="n">
-        <v>289389000000</v>
+        <v>292600000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.6835737234260715</v>
+        <v>0.7098239636570131</v>
       </c>
       <c r="D436" t="n">
-        <v>197818716248.5474</v>
+        <v>207694491766.042</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B437" t="n">
-        <v>292600000000</v>
+        <v>290366000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7098239636570131</v>
+        <v>0.7368110816386678</v>
       </c>
       <c r="D437" t="n">
-        <v>207694491766.042</v>
+        <v>213944886531.0934</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B438" t="n">
-        <v>290366000000</v>
+        <v>292030000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7368110816386678</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D438" t="n">
-        <v>213944886531.0934</v>
+        <v>210563126397.0005</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B439" t="n">
-        <v>292030000000</v>
+        <v>295333000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7210325185665873</v>
+        <v>0.7245851749873197</v>
       </c>
       <c r="D439" t="n">
-        <v>210563126397.0005</v>
+        <v>213993913484.5301</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B440" t="n">
-        <v>295333000000</v>
+        <v>297516000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7245851749873197</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D440" t="n">
-        <v>213993913484.5301</v>
+        <v>209370865587.6143</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B441" t="n">
-        <v>297516000000</v>
+        <v>295316000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7037297677691766</v>
+        <v>0.7000840100812098</v>
       </c>
       <c r="D441" t="n">
-        <v>209370865587.6143</v>
+        <v>206746009521.1425</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B442" t="n">
-        <v>295316000000</v>
+        <v>297798000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7000840100812098</v>
+        <v>0.6769564040075818</v>
       </c>
       <c r="D442" t="n">
-        <v>206746009521.1425</v>
+        <v>201596263200.6498</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B443" t="n">
-        <v>297798000000</v>
+        <v>301499000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.6769564040075818</v>
+        <v>0.6818026863025841</v>
       </c>
       <c r="D443" t="n">
-        <v>201596263200.6498</v>
+        <v>205562828117.5428</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B444" t="n">
-        <v>301499000000</v>
+        <v>301799000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.6818026863025841</v>
+        <v>0.6625149065853981</v>
       </c>
       <c r="D444" t="n">
-        <v>205562828117.5428</v>
+        <v>199946336292.5666</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B445" t="n">
-        <v>301799000000</v>
+        <v>302781000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.6625149065853981</v>
+        <v>0.6620762711864407</v>
       </c>
       <c r="D445" t="n">
-        <v>199946336292.5666</v>
+        <v>200464115466.1017</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B446" t="n">
-        <v>302781000000</v>
+        <v>305435000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.6620762711864407</v>
+        <v>0.6522306287503261</v>
       </c>
       <c r="D446" t="n">
-        <v>200464115466.1017</v>
+        <v>199214062092.3559</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B447" t="n">
-        <v>305435000000</v>
+        <v>307946000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.6522306287503261</v>
+        <v>0.6884207627702053</v>
       </c>
       <c r="D447" t="n">
-        <v>199214062092.3559</v>
+        <v>211996420212.0336</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B448" t="n">
-        <v>307946000000</v>
+        <v>311406000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.6884207627702053</v>
+        <v>0.6717721348918447</v>
       </c>
       <c r="D448" t="n">
-        <v>211996420212.0336</v>
+        <v>209193873438.1298</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B449" t="n">
-        <v>311406000000</v>
+        <v>307559000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.6717721348918447</v>
+        <v>0.6920894179527994</v>
       </c>
       <c r="D449" t="n">
-        <v>209193873438.1298</v>
+        <v>212858329296.1451</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B450" t="n">
-        <v>307559000000</v>
+        <v>309109000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.6920894179527994</v>
+        <v>0.6811989100817439</v>
       </c>
       <c r="D450" t="n">
-        <v>212858329296.1451</v>
+        <v>210564713896.4578</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B451" t="n">
-        <v>309109000000</v>
+        <v>312159000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.6811989100817439</v>
+        <v>0.6805962022731913</v>
       </c>
       <c r="D451" t="n">
-        <v>210564713896.4578</v>
+        <v>212454229905.3971</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B452" t="n">
-        <v>312159000000</v>
+        <v>313888000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.6805962022731913</v>
+        <v>0.6674676278200508</v>
       </c>
       <c r="D452" t="n">
-        <v>212454229905.3971</v>
+        <v>209510078761.1801</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B453" t="n">
-        <v>313888000000</v>
+        <v>312948000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.6674676278200508</v>
+        <v>0.6535093451836361</v>
       </c>
       <c r="D453" t="n">
-        <v>209510078761.1801</v>
+        <v>204514442556.5286</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B454" t="n">
-        <v>312948000000</v>
+        <v>316000000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.6535093451836361</v>
+        <v>0.6721333512568893</v>
       </c>
       <c r="D454" t="n">
-        <v>204514442556.5286</v>
+        <v>212394138997.177</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B455" t="n">
-        <v>316000000000</v>
+        <v>318977000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.6721333512568893</v>
+        <v>0.6562110374696503</v>
       </c>
       <c r="D455" t="n">
-        <v>212394138997.177</v>
+        <v>209316228098.9566</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B456" t="n">
-        <v>318977000000</v>
+        <v>317171000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.6562110374696503</v>
+        <v>0.6312732782021336</v>
       </c>
       <c r="D456" t="n">
-        <v>209316228098.9566</v>
+        <v>200221576920.6489</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B457" t="n">
-        <v>317171000000</v>
+        <v>320212000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.6312732782021336</v>
+        <v>0.6260172780768749</v>
       </c>
       <c r="D457" t="n">
-        <v>200221576920.6489</v>
+        <v>200458244647.5523</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B458" t="n">
-        <v>320212000000</v>
+        <v>321673000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6260172780768749</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D458" t="n">
-        <v>200458244647.5523</v>
+        <v>206385859104.3244</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B459" t="n">
-        <v>321673000000</v>
+        <v>324328000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6416014371872193</v>
+        <v>0.6424257998201208</v>
       </c>
       <c r="D459" t="n">
-        <v>206385859104.3244</v>
+        <v>208356674804.0602</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B460" t="n">
-        <v>324328000000</v>
+        <v>326061000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.6424257998201208</v>
+        <v>0.6731287022078621</v>
       </c>
       <c r="D460" t="n">
-        <v>208356674804.0602</v>
+        <v>219481017770.5977</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B461" t="n">
-        <v>326061000000</v>
+        <v>322987000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.6731287022078621</v>
+        <v>0.6467050378322448</v>
       </c>
       <c r="D461" t="n">
-        <v>219481017770.5977</v>
+        <v>208877320054.3232</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B462" t="n">
-        <v>322987000000</v>
+        <v>326490000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.6467050378322448</v>
+        <v>0.625</v>
       </c>
       <c r="D462" t="n">
-        <v>208877320054.3232</v>
+        <v>204056250000</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B463" t="n">
-        <v>326490000000</v>
+        <v>337987000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.625</v>
+        <v>0.5975500448162534</v>
       </c>
       <c r="D463" t="n">
-        <v>204056250000</v>
+        <v>201964146997.311</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B464" t="n">
-        <v>337987000000</v>
+        <v>344965000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.5975500448162534</v>
+        <v>0.6122199093914534</v>
       </c>
       <c r="D464" t="n">
-        <v>201964146997.311</v>
+        <v>211194441043.2227</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B465" t="n">
-        <v>344965000000</v>
+        <v>343608000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.6122199093914534</v>
+        <v>0.620963735717834</v>
       </c>
       <c r="D465" t="n">
-        <v>211194441043.2227</v>
+        <v>213368107302.5335</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B466" t="n">
-        <v>343608000000</v>
+        <v>346397000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.620963735717834</v>
+        <v>0.6455361177457879</v>
       </c>
       <c r="D466" t="n">
-        <v>213368107302.5335</v>
+        <v>223611774578.7877</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B467" t="n">
-        <v>346397000000</v>
+        <v>350385000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.6455361177457879</v>
+        <v>0.6629980773055758</v>
       </c>
       <c r="D467" t="n">
-        <v>223611774578.7877</v>
+        <v>232304581316.7142</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B468" t="n">
-        <v>350385000000</v>
+        <v>354806000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.6629980773055758</v>
+        <v>0.6740815638692281</v>
       </c>
       <c r="D468" t="n">
-        <v>232304581316.7142</v>
+        <v>239168183350.1854</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B469" t="n">
-        <v>354806000000</v>
+        <v>355780000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.6740815638692281</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D469" t="n">
-        <v>239168183350.1854</v>
+        <v>235444378267.4872</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B470" t="n">
-        <v>355780000000</v>
+        <v>359598000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.661769571835087</v>
+        <v>0.6614631565021828</v>
       </c>
       <c r="D470" t="n">
-        <v>235444378267.4872</v>
+        <v>237860828151.8719</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B471" t="n">
-        <v>359598000000</v>
+        <v>360384000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.6614631565021828</v>
+        <v>0.7014098337658694</v>
       </c>
       <c r="D471" t="n">
-        <v>237860828151.8719</v>
+        <v>252776881531.8791</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B472" t="n">
-        <v>360384000000</v>
+        <v>365780000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7014098337658694</v>
+        <v>0.7185456635769203</v>
       </c>
       <c r="D472" t="n">
-        <v>252776881531.8791</v>
+        <v>262829632823.1659</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B473" t="n">
-        <v>365780000000</v>
+        <v>359421000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7185456635769203</v>
+        <v>0.7184940364994971</v>
       </c>
       <c r="D473" t="n">
-        <v>262829632823.1659</v>
+        <v>258241845092.6857</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B474" t="n">
-        <v>359421000000</v>
+        <v>361223000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7184940364994971</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D474" t="n">
-        <v>258241845092.6857</v>
+        <v>261376989869.754</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B475" t="n">
-        <v>361223000000</v>
+        <v>365809000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7235890014471781</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D475" t="n">
-        <v>261376989869.754</v>
+        <v>255471052447.7966</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B476" t="n">
-        <v>365809000000</v>
+        <v>368720000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.6983727913960472</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D476" t="n">
-        <v>255471052447.7966</v>
+        <v>264163920332.4258</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B477" t="n">
-        <v>368720000000</v>
+        <v>364349000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7164350193437455</v>
+        <v>0.7276961141027506</v>
       </c>
       <c r="D477" t="n">
-        <v>264163920332.4258</v>
+        <v>265135351477.2231</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B478" t="n">
-        <v>364349000000</v>
+        <v>366418000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.7276961141027506</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D478" t="n">
-        <v>265135351477.2231</v>
+        <v>256254283516.3298</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B479" t="n">
-        <v>366418000000</v>
+        <v>373053000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.6993496048674733</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D479" t="n">
-        <v>256254283516.3298</v>
+        <v>260311911241.3649</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B480" t="n">
-        <v>373053000000</v>
+        <v>369963000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.6977880120019538</v>
+        <v>0.7047713017125943</v>
       </c>
       <c r="D480" t="n">
-        <v>260311911241.3649</v>
+        <v>260739305095.4965</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B481" t="n">
-        <v>369963000000</v>
+        <v>374561000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7047713017125943</v>
+        <v>0.6902263942573164</v>
       </c>
       <c r="D481" t="n">
-        <v>260739305095.4965</v>
+        <v>258531888459.4147</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B482" t="n">
-        <v>374561000000</v>
+        <v>378237000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.6902263942573164</v>
+        <v>0.7174630506528914</v>
       </c>
       <c r="D482" t="n">
-        <v>258531888459.4147</v>
+        <v>271371071889.7977</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B483" t="n">
-        <v>378237000000</v>
+        <v>382985000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.7174630506528914</v>
+        <v>0.68259385665529</v>
       </c>
       <c r="D483" t="n">
-        <v>271371071889.7977</v>
+        <v>261423208191.1263</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B484" t="n">
-        <v>382985000000</v>
+        <v>391602000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.68259385665529</v>
+        <v>0.6842285323297982</v>
       </c>
       <c r="D484" t="n">
-        <v>261423208191.1263</v>
+        <v>267945261717.4136</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B485" t="n">
-        <v>391602000000</v>
+        <v>384879000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.6842285323297982</v>
+        <v>0.6577216521967904</v>
       </c>
       <c r="D485" t="n">
-        <v>267945261717.4136</v>
+        <v>253143251775.8485</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B486" t="n">
-        <v>384879000000</v>
+        <v>386923000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.6577216521967904</v>
+        <v>0.67778229632642</v>
       </c>
       <c r="D486" t="n">
-        <v>253143251775.8485</v>
+        <v>262249559441.5074</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B487" t="n">
-        <v>386923000000</v>
+        <v>390385000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.67778229632642</v>
+        <v>0.6935293709688606</v>
       </c>
       <c r="D487" t="n">
-        <v>262249559441.5074</v>
+        <v>270743463485.6786</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B488" t="n">
-        <v>390385000000</v>
+        <v>391962000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.6935293709688606</v>
+        <v>0.6458279514337381</v>
       </c>
       <c r="D488" t="n">
-        <v>270743463485.6786</v>
+        <v>253140015499.8708</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B489" t="n">
-        <v>391962000000</v>
+        <v>389603000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.6458279514337381</v>
+        <v>0.6513809275664409</v>
       </c>
       <c r="D489" t="n">
-        <v>253140015499.8708</v>
+        <v>253779963522.6681</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B490" t="n">
-        <v>389603000000</v>
+        <v>389035000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.6513809275664409</v>
+        <v>0.6244146113019045</v>
       </c>
       <c r="D490" t="n">
-        <v>253779963522.6681</v>
+        <v>242919138307.8364</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B491" t="n">
-        <v>389035000000</v>
+        <v>390828000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.6244146113019045</v>
+        <v>0.6292474200855777</v>
       </c>
       <c r="D491" t="n">
-        <v>242919138307.8364</v>
+        <v>245927510697.2061</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B492" t="n">
-        <v>390828000000</v>
+        <v>391713000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.6292474200855777</v>
+        <v>0.6118078923218109</v>
       </c>
       <c r="D492" t="n">
-        <v>245927510697.2061</v>
+        <v>239653104925.0535</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B493" t="n">
-        <v>391713000000</v>
+        <v>391912000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.6118078923218109</v>
+        <v>0.5599104143337066</v>
       </c>
       <c r="D493" t="n">
-        <v>239653104925.0535</v>
+        <v>219435610302.3516</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B494" t="n">
-        <v>391912000000</v>
+        <v>393508000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.5599104143337066</v>
+        <v>0.5812263876780006</v>
       </c>
       <c r="D494" t="n">
-        <v>219435610302.3516</v>
+        <v>228717233362.3947</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B495" t="n">
-        <v>393508000000</v>
+        <v>397263000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.5812263876780006</v>
+        <v>0.6297229219143576</v>
       </c>
       <c r="D495" t="n">
-        <v>228717233362.3947</v>
+        <v>250165617128.4635</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B496" t="n">
-        <v>397263000000</v>
+        <v>398778000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.6297229219143576</v>
+        <v>0.6353240152477764</v>
       </c>
       <c r="D496" t="n">
-        <v>250165617128.4635</v>
+        <v>253353240152.4778</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B497" t="n">
-        <v>398778000000</v>
+        <v>393400000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.6353240152477764</v>
+        <v>0.644122383252818</v>
       </c>
       <c r="D497" t="n">
-        <v>253353240152.4778</v>
+        <v>253397745571.6586</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B498" t="n">
-        <v>393400000000</v>
+        <v>394722000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.644122383252818</v>
+        <v>0.6185822095756526</v>
       </c>
       <c r="D498" t="n">
-        <v>253397745571.6586</v>
+        <v>244168006928.1207</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B499" t="n">
-        <v>394722000000</v>
+        <v>395721000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.6185822095756526</v>
+        <v>0.6257039169065198</v>
       </c>
       <c r="D499" t="n">
-        <v>244168006928.1207</v>
+        <v>247604179702.1649</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B500" t="n">
-        <v>395721000000</v>
+        <v>398520000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.6257039169065198</v>
+        <v>0.6183527083848628</v>
       </c>
       <c r="D500" t="n">
-        <v>247604179702.1649</v>
+        <v>246425921345.5355</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B501" t="n">
-        <v>398520000000</v>
+        <v>395740000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.6183527083848628</v>
+        <v>0.6019020103527146</v>
       </c>
       <c r="D501" t="n">
-        <v>246425921345.5355</v>
+        <v>238196701576.9833</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
@@ -458,5842 +458,5846 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B2" t="n">
-        <v>15365000000</v>
+        <v>15565000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B3" t="n">
-        <v>15565000000</v>
+        <v>16009000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B4" t="n">
-        <v>16009000000</v>
+        <v>16010000000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B5" t="n">
-        <v>16010000000</v>
+        <v>16294000000</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B6" t="n">
-        <v>16294000000</v>
+        <v>15223000000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B7" t="n">
-        <v>15223000000</v>
+        <v>15937000000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B8" t="n">
-        <v>15937000000</v>
+        <v>16438000000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B9" t="n">
-        <v>16438000000</v>
+        <v>17016000000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B10" t="n">
-        <v>17016000000</v>
+        <v>16972000000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B11" t="n">
-        <v>16972000000</v>
+        <v>17010000000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B12" t="n">
-        <v>17010000000</v>
+        <v>16545000000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B13" t="n">
-        <v>16545000000</v>
+        <v>16533000000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B14" t="n">
-        <v>16533000000</v>
+        <v>17141000000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B15" t="n">
-        <v>17141000000</v>
+        <v>18066000000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B16" t="n">
-        <v>18066000000</v>
+        <v>18329000000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B17" t="n">
-        <v>18329000000</v>
+        <v>18862000000</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B18" t="n">
-        <v>18862000000</v>
+        <v>17266000000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B19" t="n">
-        <v>17266000000</v>
+        <v>17486000000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B20" t="n">
-        <v>17486000000</v>
+        <v>18103000000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B21" t="n">
-        <v>18103000000</v>
+        <v>18410000000</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B22" t="n">
-        <v>18410000000</v>
+        <v>18810000000</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B23" t="n">
-        <v>18810000000</v>
+        <v>19245000000</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B24" t="n">
-        <v>19245000000</v>
+        <v>19147000000</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B25" t="n">
-        <v>19147000000</v>
+        <v>19340000000</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B26" t="n">
-        <v>19340000000</v>
+        <v>19884000000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B27" t="n">
-        <v>19884000000</v>
+        <v>20669000000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B28" t="n">
-        <v>20669000000</v>
+        <v>20758000000</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B29" t="n">
-        <v>20758000000</v>
+        <v>21203000000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B30" t="n">
-        <v>21203000000</v>
+        <v>19781000000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B31" t="n">
-        <v>19781000000</v>
+        <v>20863000000</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B32" t="n">
-        <v>20863000000</v>
+        <v>21393000000</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B33" t="n">
-        <v>21393000000</v>
+        <v>21696000000</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B34" t="n">
-        <v>21696000000</v>
+        <v>22273000000</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B35" t="n">
-        <v>22273000000</v>
+        <v>23152000000</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B36" t="n">
-        <v>23152000000</v>
+        <v>23213000000</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B37" t="n">
-        <v>23213000000</v>
+        <v>23738000000</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B38" t="n">
-        <v>23738000000</v>
+        <v>24145000000</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B39" t="n">
-        <v>24145000000</v>
+        <v>25020000000</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B40" t="n">
-        <v>25020000000</v>
+        <v>24897000000</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B41" t="n">
-        <v>24897000000</v>
+        <v>25250000000</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B42" t="n">
-        <v>25250000000</v>
+        <v>25030000000</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B43" t="n">
-        <v>25030000000</v>
+        <v>26165000000</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B44" t="n">
-        <v>26165000000</v>
+        <v>26778000000</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B45" t="n">
-        <v>26778000000</v>
+        <v>27918000000</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B46" t="n">
-        <v>27918000000</v>
+        <v>28862000000</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B47" t="n">
-        <v>28862000000</v>
+        <v>29239000000</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B48" t="n">
-        <v>29239000000</v>
+        <v>29420000000</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B49" t="n">
-        <v>29420000000</v>
+        <v>29721000000</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B50" t="n">
-        <v>29721000000</v>
+        <v>30474000000</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B51" t="n">
-        <v>30474000000</v>
+        <v>31397000000</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B52" t="n">
-        <v>31397000000</v>
+        <v>31474000000</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B53" t="n">
-        <v>31474000000</v>
+        <v>32213000000</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B54" t="n">
-        <v>32213000000</v>
+        <v>32386000000</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B55" t="n">
-        <v>32386000000</v>
+        <v>33068000000</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B56" t="n">
-        <v>33068000000</v>
+        <v>33392000000</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B57" t="n">
-        <v>33392000000</v>
+        <v>33824000000</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B58" t="n">
-        <v>33824000000</v>
+        <v>33851000000</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B59" t="n">
-        <v>33851000000</v>
+        <v>34550000000</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B60" t="n">
-        <v>34550000000</v>
+        <v>35002000000</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B61" t="n">
-        <v>35002000000</v>
+        <v>36018000000</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B62" t="n">
-        <v>36018000000</v>
+        <v>36675000000</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B63" t="n">
-        <v>36675000000</v>
+        <v>37807000000</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B64" t="n">
-        <v>37807000000</v>
+        <v>38370000000</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B65" t="n">
-        <v>38370000000</v>
+        <v>39366000000</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B66" t="n">
-        <v>39366000000</v>
+        <v>38543000000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B67" t="n">
-        <v>38543000000</v>
+        <v>38349000000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B68" t="n">
-        <v>38349000000</v>
+        <v>38741000000</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B69" t="n">
-        <v>38741000000</v>
+        <v>39583000000</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B70" t="n">
-        <v>39583000000</v>
+        <v>39428000000</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B71" t="n">
-        <v>39428000000</v>
+        <v>40102000000</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B72" t="n">
-        <v>40102000000</v>
+        <v>40578000000</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B73" t="n">
-        <v>40578000000</v>
+        <v>41887000000</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B74" t="n">
-        <v>41887000000</v>
+        <v>41893000000</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B75" t="n">
-        <v>41893000000</v>
+        <v>42932000000</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B76" t="n">
-        <v>42932000000</v>
+        <v>42531000000</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B77" t="n">
-        <v>42531000000</v>
+        <v>43592000000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B78" t="n">
-        <v>43592000000</v>
+        <v>35236000000</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B79" t="n">
-        <v>35236000000</v>
+        <v>34761000000</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B80" t="n">
-        <v>34761000000</v>
+        <v>34660000000</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B81" t="n">
-        <v>34660000000</v>
+        <v>35658000000</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B82" t="n">
-        <v>35658000000</v>
+        <v>35350000000</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B83" t="n">
-        <v>35350000000</v>
+        <v>35771000000</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B84" t="n">
-        <v>35771000000</v>
+        <v>34970000000</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B85" t="n">
-        <v>34970000000</v>
+        <v>36326000000</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B86" t="n">
-        <v>36326000000</v>
+        <v>35065000000</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B87" t="n">
-        <v>35065000000</v>
+        <v>35616000000</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B88" t="n">
-        <v>35616000000</v>
+        <v>35695000000</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B89" t="n">
-        <v>35695000000</v>
+        <v>36802000000</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B90" t="n">
-        <v>36802000000</v>
+        <v>36302000000</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B91" t="n">
-        <v>36302000000</v>
+        <v>36279000000</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B92" t="n">
-        <v>36279000000</v>
+        <v>36758000000</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B93" t="n">
-        <v>36758000000</v>
+        <v>37527000000</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B94" t="n">
-        <v>37527000000</v>
+        <v>37588000000</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B95" t="n">
-        <v>37588000000</v>
+        <v>38287000000</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B96" t="n">
-        <v>38287000000</v>
+        <v>38758000000</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B97" t="n">
-        <v>38758000000</v>
+        <v>38883000000</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B98" t="n">
-        <v>38883000000</v>
+        <v>38513000000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B99" t="n">
-        <v>38513000000</v>
+        <v>37957000000</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B100" t="n">
-        <v>37957000000</v>
+        <v>38744000000</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B101" t="n">
-        <v>38744000000</v>
+        <v>38287000000</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B102" t="n">
-        <v>38287000000</v>
+        <v>38284000000</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B103" t="n">
-        <v>38284000000</v>
+        <v>39326000000</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B104" t="n">
-        <v>39326000000</v>
+        <v>39661000000</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B105" t="n">
-        <v>39661000000</v>
+        <v>39063000000</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B106" t="n">
-        <v>39063000000</v>
+        <v>38534000000</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B107" t="n">
-        <v>38534000000</v>
+        <v>40088000000</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B108" t="n">
-        <v>40088000000</v>
+        <v>40767000000</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B109" t="n">
-        <v>40767000000</v>
+        <v>40828000000</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B110" t="n">
-        <v>40828000000</v>
+        <v>41145000000</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B111" t="n">
-        <v>41145000000</v>
+        <v>42586000000</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B112" t="n">
-        <v>42586000000</v>
+        <v>41948000000</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B113" t="n">
-        <v>41948000000</v>
+        <v>41220000000</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B114" t="n">
-        <v>41220000000</v>
+        <v>40854000000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B115" t="n">
-        <v>40854000000</v>
+        <v>41300000000</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B116" t="n">
-        <v>41300000000</v>
+        <v>42129000000</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B117" t="n">
-        <v>42129000000</v>
+        <v>42719000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B118" t="n">
-        <v>42719000000</v>
+        <v>41920000000</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B119" t="n">
-        <v>41920000000</v>
+        <v>42235000000</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B120" t="n">
-        <v>42235000000</v>
+        <v>42369000000</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B121" t="n">
-        <v>42369000000</v>
+        <v>43280000000</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B122" t="n">
-        <v>43280000000</v>
+        <v>42849000000</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B123" t="n">
-        <v>42849000000</v>
+        <v>43320000000</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B124" t="n">
-        <v>43320000000</v>
+        <v>44407000000</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B125" t="n">
-        <v>44407000000</v>
+        <v>44599000000</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B126" t="n">
-        <v>44599000000</v>
+        <v>45318000000</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B127" t="n">
-        <v>45318000000</v>
+        <v>45418000000</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B128" t="n">
-        <v>45418000000</v>
+        <v>45741000000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B129" t="n">
-        <v>45741000000</v>
+        <v>44756000000</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B130" t="n">
-        <v>44756000000</v>
+        <v>44868000000</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B131" t="n">
-        <v>44868000000</v>
+        <v>45313000000</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B132" t="n">
-        <v>45313000000</v>
+        <v>45461000000</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B133" t="n">
-        <v>45461000000</v>
+        <v>45784000000</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B134" t="n">
-        <v>45784000000</v>
+        <v>46380000000</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B135" t="n">
-        <v>46380000000</v>
+        <v>45538000000</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B136" t="n">
-        <v>45538000000</v>
+        <v>45785000000</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B137" t="n">
-        <v>45785000000</v>
+        <v>45582000000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B138" t="n">
-        <v>45582000000</v>
+        <v>45158000000</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B139" t="n">
-        <v>45158000000</v>
+        <v>46327000000</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B140" t="n">
-        <v>46327000000</v>
+        <v>47373000000</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B141" t="n">
-        <v>47373000000</v>
+        <v>47334000000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B142" t="n">
-        <v>47334000000</v>
+        <v>48759000000</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B143" t="n">
-        <v>48759000000</v>
+        <v>48711000000</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B144" t="n">
-        <v>48711000000</v>
+        <v>48355000000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B145" t="n">
-        <v>48355000000</v>
+        <v>48841000000</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B146" t="n">
-        <v>48841000000</v>
+        <v>49332000000</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B147" t="n">
-        <v>49332000000</v>
+        <v>49250000000</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B148" t="n">
-        <v>49250000000</v>
+        <v>48139000000</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B149" t="n">
-        <v>48139000000</v>
+        <v>48991000000</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B150" t="n">
-        <v>48991000000</v>
+        <v>50390000000</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B151" t="n">
-        <v>50390000000</v>
+        <v>50358000000</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B152" t="n">
-        <v>50358000000</v>
+        <v>51494000000</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B153" t="n">
-        <v>51494000000</v>
+        <v>51341000000</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B154" t="n">
-        <v>51341000000</v>
+        <v>51103000000</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B155" t="n">
-        <v>51103000000</v>
+        <v>51658000000</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B156" t="n">
-        <v>51658000000</v>
+        <v>51676000000</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B157" t="n">
-        <v>51676000000</v>
+        <v>52085000000</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B158" t="n">
-        <v>52085000000</v>
+        <v>52717000000</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B159" t="n">
-        <v>52717000000</v>
+        <v>53626000000</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B160" t="n">
-        <v>53626000000</v>
+        <v>54225000000</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B161" t="n">
-        <v>54225000000</v>
+        <v>54799000000</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B162" t="n">
-        <v>54799000000</v>
+        <v>54760000000</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B163" t="n">
-        <v>54760000000</v>
+        <v>55835000000</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B164" t="n">
-        <v>55835000000</v>
+        <v>56778000000</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B165" t="n">
-        <v>56778000000</v>
+        <v>56814000000</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B166" t="n">
-        <v>56814000000</v>
+        <v>56158000000</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B167" t="n">
-        <v>56158000000</v>
+        <v>57209000000</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B168" t="n">
-        <v>57209000000</v>
+        <v>57700000000</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B169" t="n">
-        <v>57700000000</v>
+        <v>58639000000</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B170" t="n">
-        <v>58639000000</v>
+        <v>59763000000</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B171" t="n">
-        <v>59763000000</v>
+        <v>60010000000</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B172" t="n">
-        <v>60010000000</v>
+        <v>59951000000</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B173" t="n">
-        <v>59951000000</v>
+        <v>60106000000</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B174" t="n">
-        <v>60106000000</v>
+        <v>60824000000</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B175" t="n">
-        <v>60824000000</v>
+        <v>62080000000</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B176" t="n">
-        <v>62080000000</v>
+        <v>65168000000</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B177" t="n">
-        <v>65168000000</v>
+        <v>65050000000</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B178" t="n">
-        <v>65050000000</v>
+        <v>64390000000</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B179" t="n">
-        <v>64390000000</v>
+        <v>64984000000</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B180" t="n">
-        <v>64984000000</v>
+        <v>65141000000</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B181" t="n">
-        <v>65141000000</v>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
+        <v>67841000000</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.421060110842689</v>
+      </c>
+      <c r="D181" t="n">
+        <v>96406138979.67883</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B182" t="n">
-        <v>67841000000</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.421060110842689</v>
-      </c>
-      <c r="D182" t="n">
-        <v>96406138979.67883</v>
-      </c>
+        <v>66576000000</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B183" t="n">
-        <v>66576000000</v>
+        <v>66584000000</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B184" t="n">
-        <v>66584000000</v>
+        <v>66968000000</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B185" t="n">
-        <v>66968000000</v>
+        <v>66549000000</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B186" t="n">
-        <v>66549000000</v>
+        <v>66572000000</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B187" t="n">
-        <v>66572000000</v>
+        <v>68198000000</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B188" t="n">
-        <v>68198000000</v>
+        <v>68983000000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B189" t="n">
-        <v>68983000000</v>
+        <v>68692000000</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B190" t="n">
-        <v>68692000000</v>
+        <v>69166000000</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B191" t="n">
-        <v>69166000000</v>
+        <v>70950000000</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B192" t="n">
-        <v>70950000000</v>
+        <v>71582000000</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B193" t="n">
-        <v>71582000000</v>
+        <v>70746000000</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B194" t="n">
-        <v>70746000000</v>
+        <v>70932000000</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B195" t="n">
-        <v>70932000000</v>
+        <v>71575000000</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B196" t="n">
-        <v>71575000000</v>
+        <v>72684000000</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B197" t="n">
-        <v>72684000000</v>
+        <v>71724000000</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B198" t="n">
-        <v>71724000000</v>
+        <v>71979000000</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B199" t="n">
-        <v>71979000000</v>
+        <v>72204000000</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B200" t="n">
-        <v>72204000000</v>
+        <v>73578000000</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B201" t="n">
-        <v>73578000000</v>
+        <v>73056000000</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B202" t="n">
-        <v>73056000000</v>
+        <v>73068000000</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B203" t="n">
-        <v>73068000000</v>
+        <v>72606000000</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B204" t="n">
-        <v>72606000000</v>
+        <v>71525000000</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B205" t="n">
-        <v>71525000000</v>
+        <v>72175000000</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B206" t="n">
-        <v>72175000000</v>
+        <v>72855000000</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B207" t="n">
-        <v>72855000000</v>
+        <v>72332000000</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B208" t="n">
-        <v>72332000000</v>
+        <v>73262000000</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B209" t="n">
-        <v>73262000000</v>
+        <v>74810000000</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B210" t="n">
-        <v>74810000000</v>
+        <v>73920000000</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B211" t="n">
-        <v>73920000000</v>
+        <v>73161000000</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B212" t="n">
-        <v>73161000000</v>
+        <v>72833000000</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B213" t="n">
-        <v>72833000000</v>
+        <v>73502000000</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B214" t="n">
-        <v>73502000000</v>
+        <v>75262000000</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B215" t="n">
-        <v>75262000000</v>
+        <v>75935000000</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B216" t="n">
-        <v>75935000000</v>
+        <v>75717000000</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B217" t="n">
-        <v>75717000000</v>
+        <v>75525000000</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B218" t="n">
-        <v>75525000000</v>
+        <v>74655000000</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B219" t="n">
-        <v>74655000000</v>
+        <v>76630000000</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B220" t="n">
-        <v>76630000000</v>
+        <v>75188000000</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B221" t="n">
-        <v>75188000000</v>
+        <v>75809000000</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B222" t="n">
-        <v>75809000000</v>
+        <v>75243000000</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B223" t="n">
-        <v>75243000000</v>
+        <v>75721000000</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B224" t="n">
-        <v>75721000000</v>
+        <v>76770000000</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B225" t="n">
-        <v>76770000000</v>
+        <v>75620000000</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B226" t="n">
-        <v>75620000000</v>
+        <v>76874000000</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B227" t="n">
-        <v>76874000000</v>
+        <v>77423000000</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B228" t="n">
-        <v>77423000000</v>
+        <v>77689000000</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B229" t="n">
-        <v>77689000000</v>
+        <v>77465000000</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B230" t="n">
-        <v>77465000000</v>
+        <v>76636000000</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B231" t="n">
-        <v>76636000000</v>
+        <v>78422000000</v>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B232" t="n">
-        <v>78422000000</v>
+        <v>77827000000</v>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B233" t="n">
-        <v>77827000000</v>
+        <v>78419000000</v>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B234" t="n">
-        <v>78419000000</v>
+        <v>79961000000</v>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B235" t="n">
-        <v>79961000000</v>
+        <v>79903000000</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B236" t="n">
-        <v>79903000000</v>
+        <v>81247000000</v>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B237" t="n">
-        <v>81247000000</v>
+        <v>81397000000</v>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B238" t="n">
-        <v>81397000000</v>
+        <v>82278000000</v>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B239" t="n">
-        <v>82278000000</v>
+        <v>82357000000</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B240" t="n">
-        <v>82357000000</v>
+        <v>83722000000</v>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B241" t="n">
-        <v>83722000000</v>
+        <v>83831000000</v>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B242" t="n">
-        <v>83831000000</v>
+        <v>82083000000</v>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B243" t="n">
-        <v>82083000000</v>
+        <v>83579000000</v>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B244" t="n">
-        <v>83579000000</v>
+        <v>83142000000</v>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B245" t="n">
-        <v>83142000000</v>
+        <v>83870000000</v>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B246" t="n">
-        <v>83870000000</v>
+        <v>87080000000</v>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B247" t="n">
-        <v>87080000000</v>
+        <v>85751000000</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B248" t="n">
-        <v>85751000000</v>
+        <v>86550000000</v>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B249" t="n">
-        <v>86550000000</v>
+        <v>88768000000</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B250" t="n">
-        <v>88768000000</v>
+        <v>88681000000</v>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B251" t="n">
-        <v>88681000000</v>
+        <v>89673000000</v>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B252" t="n">
-        <v>89673000000</v>
+        <v>89297000000</v>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B253" t="n">
-        <v>89297000000</v>
+        <v>90012000000</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B254" t="n">
-        <v>90012000000</v>
+        <v>91205000000</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B255" t="n">
-        <v>91205000000</v>
+        <v>93743000000</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B256" t="n">
-        <v>93743000000</v>
+        <v>92659000000</v>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B257" t="n">
-        <v>92659000000</v>
+        <v>94032000000</v>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B258" t="n">
-        <v>94032000000</v>
+        <v>93819000000</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B259" t="n">
-        <v>93819000000</v>
+        <v>93353000000</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B260" t="n">
-        <v>93353000000</v>
+        <v>93631000000</v>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B261" t="n">
-        <v>93631000000</v>
+        <v>95503000000</v>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B262" t="n">
-        <v>95503000000</v>
+        <v>95766000000</v>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B263" t="n">
-        <v>95766000000</v>
+        <v>95741000000</v>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B264" t="n">
-        <v>95741000000</v>
+        <v>97689000000</v>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B265" t="n">
-        <v>97689000000</v>
+        <v>99787000000</v>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B266" t="n">
-        <v>99787000000</v>
+        <v>100963000000</v>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B267" t="n">
-        <v>100963000000</v>
+        <v>103231000000</v>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B268" t="n">
-        <v>103231000000</v>
+        <v>103512000000</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B269" t="n">
-        <v>103512000000</v>
+        <v>104774000000</v>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B270" t="n">
-        <v>104774000000</v>
+        <v>105566000000</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B271" t="n">
-        <v>105566000000</v>
+        <v>105181000000</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B272" t="n">
-        <v>105181000000</v>
+        <v>107854000000</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B273" t="n">
-        <v>107854000000</v>
+        <v>106773000000</v>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B274" t="n">
-        <v>106773000000</v>
+        <v>106562000000</v>
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B275" t="n">
-        <v>106562000000</v>
+        <v>105557000000</v>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B276" t="n">
-        <v>105557000000</v>
+        <v>104789000000</v>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B277" t="n">
-        <v>104789000000</v>
+        <v>106039000000</v>
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B278" t="n">
-        <v>106039000000</v>
+        <v>106178000000</v>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B279" t="n">
-        <v>106178000000</v>
+        <v>107808000000</v>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B280" t="n">
-        <v>107808000000</v>
+        <v>107823000000</v>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B281" t="n">
-        <v>107823000000</v>
+        <v>109719000000</v>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B282" t="n">
-        <v>109719000000</v>
+        <v>110798000000</v>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B283" t="n">
-        <v>110798000000</v>
+        <v>111413000000</v>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B284" t="n">
-        <v>111413000000</v>
+        <v>111861000000</v>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B285" t="n">
-        <v>111861000000</v>
+        <v>113980000000</v>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B286" t="n">
-        <v>113980000000</v>
+        <v>114215000000</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B287" t="n">
-        <v>114215000000</v>
+        <v>114963000000</v>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B288" t="n">
-        <v>114963000000</v>
+        <v>117770000000</v>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B289" t="n">
-        <v>117770000000</v>
+        <v>117253000000</v>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B290" t="n">
-        <v>117253000000</v>
+        <v>117084000000</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B291" t="n">
-        <v>117084000000</v>
+        <v>118937000000</v>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B292" t="n">
-        <v>118937000000</v>
-      </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
+        <v>119143000000</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6878052135635189</v>
+      </c>
+      <c r="D292" t="n">
+        <v>81947176559.59833</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B293" t="n">
-        <v>119143000000</v>
+        <v>119816000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.6878052135635189</v>
+        <v>0.6621201085876978</v>
       </c>
       <c r="D293" t="n">
-        <v>81947176559.59833</v>
+        <v>79332582930.54359</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B294" t="n">
-        <v>119816000000</v>
+        <v>120893000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.6621201085876978</v>
+        <v>0.6162948354492789</v>
       </c>
       <c r="D294" t="n">
-        <v>79332582930.54359</v>
+        <v>74505731541.96967</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B295" t="n">
-        <v>120893000000</v>
+        <v>122329000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.6162948354492789</v>
+        <v>0.6382842918235783</v>
       </c>
       <c r="D295" t="n">
-        <v>74505731541.96967</v>
+        <v>78080679134.48651</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B296" t="n">
-        <v>122329000000</v>
+        <v>122987000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.6382842918235783</v>
+        <v>0.6343165239454488</v>
       </c>
       <c r="D296" t="n">
-        <v>78080679134.48651</v>
+        <v>78012686330.47891</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B297" t="n">
-        <v>122987000000</v>
+        <v>124982000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.6343165239454488</v>
+        <v>0.608976310821509</v>
       </c>
       <c r="D297" t="n">
-        <v>78012686330.47891</v>
+        <v>76111077279.09384</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B298" t="n">
-        <v>124982000000</v>
+        <v>126112000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.608976310821509</v>
+        <v>0.6177415369409439</v>
       </c>
       <c r="D298" t="n">
-        <v>76111077279.09384</v>
+        <v>77904620706.69632</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B299" t="n">
-        <v>126112000000</v>
+        <v>126790000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.6177415369409439</v>
+        <v>0.6559097468188377</v>
       </c>
       <c r="D299" t="n">
-        <v>77904620706.69632</v>
+        <v>83162796799.16043</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B300" t="n">
-        <v>126790000000</v>
+        <v>127329000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.6559097468188377</v>
+        <v>0.6533812479581836</v>
       </c>
       <c r="D300" t="n">
-        <v>83162796799.16043</v>
+        <v>83194380921.26756</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B301" t="n">
-        <v>127329000000</v>
+        <v>128048000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.6533812479581836</v>
+        <v>0.6704210244033253</v>
       </c>
       <c r="D301" t="n">
-        <v>83194380921.26756</v>
+        <v>85846071332.797</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B302" t="n">
-        <v>128048000000</v>
+        <v>131146000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.6704210244033253</v>
+        <v>0.6844158510711108</v>
       </c>
       <c r="D302" t="n">
-        <v>85846071332.797</v>
+        <v>89758401204.5719</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B303" t="n">
-        <v>131146000000</v>
+        <v>131708000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.6844158510711108</v>
+        <v>0.7046719751955465</v>
       </c>
       <c r="D303" t="n">
-        <v>89758401204.5719</v>
+        <v>92810936509.05504</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B304" t="n">
-        <v>131708000000</v>
+        <v>133105000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.7046719751955465</v>
+        <v>0.6914194842010648</v>
       </c>
       <c r="D304" t="n">
-        <v>92810936509.05504</v>
+        <v>92031390444.58273</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B305" t="n">
-        <v>133105000000</v>
+        <v>134703000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.6914194842010648</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="D305" t="n">
-        <v>92031390444.58273</v>
+        <v>94528421052.63158</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B306" t="n">
-        <v>134703000000</v>
+        <v>136207000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.7159733657907925</v>
       </c>
       <c r="D306" t="n">
-        <v>94528421052.63158</v>
+        <v>97520584234.26648</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B307" t="n">
-        <v>136207000000</v>
+        <v>139067000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.7159733657907925</v>
+        <v>0.7410701052319549</v>
       </c>
       <c r="D307" t="n">
-        <v>97520584234.26648</v>
+        <v>103058396324.2923</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B308" t="n">
-        <v>139067000000</v>
+        <v>139023000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.7410701052319549</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D308" t="n">
-        <v>103058396324.2923</v>
+        <v>102418594371.5928</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B309" t="n">
-        <v>139023000000</v>
+        <v>140101000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.7367025195226168</v>
+        <v>0.7720219254226821</v>
       </c>
       <c r="D309" t="n">
-        <v>102418594371.5928</v>
+        <v>108161043773.6432</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B310" t="n">
-        <v>140101000000</v>
+        <v>140604000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.7720219254226821</v>
+        <v>0.7613826709304097</v>
       </c>
       <c r="D310" t="n">
-        <v>108161043773.6432</v>
+        <v>107053449063.4993</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B311" t="n">
-        <v>140604000000</v>
+        <v>139973000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.7613826709304097</v>
+        <v>0.7040270346381301</v>
       </c>
       <c r="D311" t="n">
-        <v>107053449063.4993</v>
+        <v>98544776119.40298</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B312" t="n">
-        <v>139973000000</v>
+        <v>142924000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.7040270346381301</v>
+        <v>0.7580351728320195</v>
       </c>
       <c r="D312" t="n">
-        <v>98544776119.40298</v>
+        <v>108341419041.8436</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B313" t="n">
-        <v>142924000000</v>
+        <v>144156000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.7580351728320195</v>
+        <v>0.772499034376207</v>
       </c>
       <c r="D313" t="n">
-        <v>108341419041.8436</v>
+        <v>111360370799.5365</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B314" t="n">
-        <v>144156000000</v>
+        <v>144974000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.772499034376207</v>
+        <v>0.7648183556405354</v>
       </c>
       <c r="D314" t="n">
-        <v>111360370799.5365</v>
+        <v>110878776290.631</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B315" t="n">
-        <v>144974000000</v>
+        <v>147844000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.7648183556405354</v>
+        <v>0.7654037504783774</v>
       </c>
       <c r="D315" t="n">
-        <v>110878776290.631</v>
+        <v>113160352085.7252</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B316" t="n">
-        <v>147844000000</v>
+        <v>149145000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.7654037504783774</v>
+        <v>0.7885813421654444</v>
       </c>
       <c r="D316" t="n">
-        <v>113160352085.7252</v>
+        <v>117612964277.2652</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B317" t="n">
-        <v>149145000000</v>
+        <v>148054000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.7885813421654444</v>
+        <v>0.7991688643810436</v>
       </c>
       <c r="D317" t="n">
-        <v>117612964277.2652</v>
+        <v>118320147047.071</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B318" t="n">
-        <v>148054000000</v>
+        <v>151479000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7991688643810436</v>
+        <v>0.7857311228097745</v>
       </c>
       <c r="D318" t="n">
-        <v>118320147047.071</v>
+        <v>119021764752.1018</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B319" t="n">
-        <v>151479000000</v>
+        <v>151507000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.7857311228097745</v>
+        <v>0.7821666014861166</v>
       </c>
       <c r="D319" t="n">
-        <v>119021764752.1018</v>
+        <v>118503715291.3571</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B320" t="n">
-        <v>151507000000</v>
+        <v>152157000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.7821666014861166</v>
+        <v>0.7838219156607619</v>
       </c>
       <c r="D320" t="n">
-        <v>118503715291.3571</v>
+        <v>119263991221.1945</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B321" t="n">
-        <v>152157000000</v>
+        <v>154052000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.7838219156607619</v>
+        <v>0.7620789513793629</v>
       </c>
       <c r="D321" t="n">
-        <v>119263991221.1945</v>
+        <v>117399786617.8936</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B322" t="n">
-        <v>154052000000</v>
+        <v>154528000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.7620789513793629</v>
+        <v>0.7336218912772358</v>
       </c>
       <c r="D322" t="n">
-        <v>117399786617.8936</v>
+        <v>113365123615.2887</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B323" t="n">
-        <v>154528000000</v>
+        <v>155108000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.7336218912772358</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D323" t="n">
-        <v>113365123615.2887</v>
+        <v>108924157303.3708</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B324" t="n">
-        <v>155108000000</v>
+        <v>156430000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.702247191011236</v>
+        <v>0.6715916722632639</v>
       </c>
       <c r="D324" t="n">
-        <v>108924157303.3708</v>
+        <v>105057085292.1424</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B325" t="n">
-        <v>156430000000</v>
+        <v>158344000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.6715916722632639</v>
+        <v>0.583056381552096</v>
       </c>
       <c r="D325" t="n">
-        <v>105057085292.1424</v>
+        <v>92323479680.48509</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B326" t="n">
-        <v>158344000000</v>
+        <v>160333000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.583056381552096</v>
+        <v>0.5493599956051201</v>
       </c>
       <c r="D326" t="n">
-        <v>92323479680.48509</v>
+        <v>88080536175.35571</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B327" t="n">
-        <v>160333000000</v>
+        <v>160893000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.5493599956051201</v>
+        <v>0.5782017924255565</v>
       </c>
       <c r="D327" t="n">
-        <v>88080536175.35571</v>
+        <v>93028620988.72505</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B328" t="n">
-        <v>160893000000</v>
+        <v>158009000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.5782017924255565</v>
+        <v>0.508440105755542</v>
       </c>
       <c r="D328" t="n">
-        <v>93028620988.72505</v>
+        <v>80338112670.32744</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B329" t="n">
-        <v>158009000000</v>
+        <v>159746000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.508440105755542</v>
+        <v>0.5003752814610959</v>
       </c>
       <c r="D329" t="n">
-        <v>80338112670.32744</v>
+        <v>79932949712.28423</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B330" t="n">
-        <v>159746000000</v>
+        <v>159188000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.5003752814610959</v>
+        <v>0.5603182607721185</v>
       </c>
       <c r="D330" t="n">
-        <v>79932949712.28423</v>
+        <v>89195943295.79201</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B331" t="n">
-        <v>159188000000</v>
+        <v>159673000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.5603182607721185</v>
+        <v>0.5646208570944611</v>
       </c>
       <c r="D331" t="n">
-        <v>89195943295.79201</v>
+        <v>90154706114.84389</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B332" t="n">
-        <v>159673000000</v>
+        <v>158329000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.5646208570944611</v>
+        <v>0.6402868485081316</v>
       </c>
       <c r="D332" t="n">
-        <v>90154706114.84389</v>
+        <v>101375976437.444</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B333" t="n">
-        <v>158329000000</v>
+        <v>157910000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.6402868485081316</v>
+        <v>0.6457445434586078</v>
       </c>
       <c r="D333" t="n">
-        <v>101375976437.444</v>
+        <v>101969520857.5488</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B334" t="n">
-        <v>157910000000</v>
+        <v>158591000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.6457445434586078</v>
+        <v>0.6620324395895399</v>
       </c>
       <c r="D334" t="n">
-        <v>101969520857.5488</v>
+        <v>104992386626.9447</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B335" t="n">
-        <v>158591000000</v>
+        <v>157915000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.6620324395895399</v>
+        <v>0.6853539853334247</v>
       </c>
       <c r="D335" t="n">
-        <v>104992386626.9447</v>
+        <v>108227674593.9278</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B336" t="n">
-        <v>157915000000</v>
+        <v>158781000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.6853539853334247</v>
+        <v>0.7233796296296295</v>
       </c>
       <c r="D336" t="n">
-        <v>108227674593.9278</v>
+        <v>114858940972.2222</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B337" t="n">
-        <v>158781000000</v>
+        <v>158790000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.7233796296296295</v>
+        <v>0.7175660160734788</v>
       </c>
       <c r="D337" t="n">
-        <v>114858940972.2222</v>
+        <v>113942307692.3077</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B338" t="n">
-        <v>158790000000</v>
+        <v>160392000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.7175660160734788</v>
+        <v>0.7161784716751414</v>
       </c>
       <c r="D338" t="n">
-        <v>113942307692.3077</v>
+        <v>114869297428.9193</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B339" t="n">
-        <v>160392000000</v>
+        <v>163056000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.7161784716751414</v>
+        <v>0.7235366471311772</v>
       </c>
       <c r="D339" t="n">
-        <v>114869297428.9193</v>
+        <v>117976991534.6212</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B340" t="n">
-        <v>163056000000</v>
+        <v>160311000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.7235366471311772</v>
+        <v>0.701508242721852</v>
       </c>
       <c r="D340" t="n">
-        <v>117976991534.6212</v>
+        <v>112459487898.9828</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B341" t="n">
-        <v>160311000000</v>
+        <v>160875000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.701508242721852</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D341" t="n">
-        <v>112459487898.9828</v>
+        <v>112350722815.8391</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B342" t="n">
-        <v>160875000000</v>
+        <v>161647000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.6983727913960472</v>
+        <v>0.7107825716113441</v>
       </c>
       <c r="D342" t="n">
-        <v>112350722815.8391</v>
+        <v>114895870353.2589</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B343" t="n">
-        <v>161647000000</v>
+        <v>163862000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.7107825716113441</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D343" t="n">
-        <v>114895870353.2589</v>
+        <v>119172363636.3636</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B344" t="n">
-        <v>163862000000</v>
+        <v>162781000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6824541049614413</v>
       </c>
       <c r="D344" t="n">
-        <v>119172363636.3636</v>
+        <v>111090561659.7284</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B345" t="n">
-        <v>162781000000</v>
+        <v>161316000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.6824541049614413</v>
+        <v>0.6854009595613434</v>
       </c>
       <c r="D345" t="n">
-        <v>111090561659.7284</v>
+        <v>110566141192.5977</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B346" t="n">
-        <v>161316000000</v>
+        <v>162437000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.6854009595613434</v>
+        <v>0.726321905868681</v>
       </c>
       <c r="D346" t="n">
-        <v>110566141192.5977</v>
+        <v>117981551423.5909</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B347" t="n">
-        <v>162437000000</v>
+        <v>162917000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.726321905868681</v>
+        <v>0.699839037021485</v>
       </c>
       <c r="D347" t="n">
-        <v>117981551423.5909</v>
+        <v>114015676394.4293</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B348" t="n">
-        <v>162917000000</v>
+        <v>164178000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.699839037021485</v>
+        <v>0.7341604874825637</v>
       </c>
       <c r="D348" t="n">
-        <v>114015676394.4293</v>
+        <v>120533000513.9123</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B349" t="n">
-        <v>164178000000</v>
+        <v>166485000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.7341604874825637</v>
+        <v>0.7666947788085563</v>
       </c>
       <c r="D349" t="n">
-        <v>120533000513.9123</v>
+        <v>127643180249.9425</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B350" t="n">
-        <v>166485000000</v>
+        <v>167970000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.7666947788085563</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D350" t="n">
-        <v>127643180249.9425</v>
+        <v>124764168461.7099</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B351" t="n">
-        <v>167970000000</v>
+        <v>171217000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7803964413922272</v>
       </c>
       <c r="D351" t="n">
-        <v>124764168461.7099</v>
+        <v>133617137505.853</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B352" t="n">
-        <v>171217000000</v>
+        <v>171348000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.7803964413922272</v>
+        <v>0.7729169887154119</v>
       </c>
       <c r="D352" t="n">
-        <v>133617137505.853</v>
+        <v>132437780182.4084</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B353" t="n">
-        <v>171348000000</v>
+        <v>172374000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.7729169887154119</v>
+        <v>0.7526719855486979</v>
       </c>
       <c r="D353" t="n">
-        <v>132437780182.4084</v>
+        <v>129741080836.9712</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B354" t="n">
-        <v>172374000000</v>
+        <v>174074000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7526719855486979</v>
+        <v>0.7614986293024673</v>
       </c>
       <c r="D354" t="n">
-        <v>129741080836.9712</v>
+        <v>132557112397.1977</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B355" t="n">
-        <v>174074000000</v>
+        <v>176860000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.7614986293024673</v>
+        <v>0.8101758081503687</v>
       </c>
       <c r="D355" t="n">
-        <v>132557112397.1977</v>
+        <v>143287693429.4742</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B356" t="n">
-        <v>176860000000</v>
+        <v>175745000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.8101758081503687</v>
+        <v>0.823519723297373</v>
       </c>
       <c r="D356" t="n">
-        <v>143287693429.4742</v>
+        <v>144729473770.8968</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B357" t="n">
-        <v>175745000000</v>
+        <v>176466000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.823519723297373</v>
+        <v>0.8285690612312535</v>
       </c>
       <c r="D357" t="n">
-        <v>144729473770.8968</v>
+        <v>146214267959.2344</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B358" t="n">
-        <v>176466000000</v>
+        <v>176967000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.8285690612312535</v>
+        <v>0.8798169980644026</v>
       </c>
       <c r="D358" t="n">
-        <v>146214267959.2344</v>
+        <v>155698574696.4631</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B359" t="n">
-        <v>176967000000</v>
+        <v>175197000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.8798169980644026</v>
+        <v>0.8538251366120219</v>
       </c>
       <c r="D359" t="n">
-        <v>155698574696.4631</v>
+        <v>149587602459.0164</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B360" t="n">
-        <v>175197000000</v>
+        <v>175793000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.8538251366120219</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D360" t="n">
-        <v>149587602459.0164</v>
+        <v>133825365408.039</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B361" t="n">
-        <v>175793000000</v>
+        <v>179139000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.7612667478684531</v>
+        <v>0.8076239702794379</v>
       </c>
       <c r="D361" t="n">
-        <v>133825365408.039</v>
+        <v>144676950411.8882</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B362" t="n">
-        <v>179139000000</v>
+        <v>181904000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.8076239702794379</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D362" t="n">
-        <v>144676950411.8882</v>
+        <v>142034824705.2393</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B363" t="n">
-        <v>181904000000</v>
+        <v>184189000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.7808229874287499</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D363" t="n">
-        <v>142034824705.2393</v>
+        <v>143192878799.6579</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B364" t="n">
-        <v>184189000000</v>
+        <v>182820000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.7774236181295188</v>
+        <v>0.8272667107875579</v>
       </c>
       <c r="D364" t="n">
-        <v>143192878799.6579</v>
+        <v>151240900066.1813</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B365" t="n">
-        <v>182820000000</v>
+        <v>184386000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.8272667107875579</v>
+        <v>0.8343763037129747</v>
       </c>
       <c r="D365" t="n">
-        <v>151240900066.1813</v>
+        <v>153847309136.4205</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B366" t="n">
-        <v>184386000000</v>
+        <v>186446000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.8343763037129747</v>
+        <v>0.8196049504139006</v>
       </c>
       <c r="D366" t="n">
-        <v>153847309136.4205</v>
+        <v>152812064584.8701</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B367" t="n">
-        <v>186446000000</v>
+        <v>189365000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.8196049504139006</v>
+        <v>0.8188666885031116</v>
       </c>
       <c r="D367" t="n">
-        <v>152812064584.8701</v>
+        <v>155064690468.3917</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B368" t="n">
-        <v>189365000000</v>
+        <v>188392000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.8188666885031116</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D368" t="n">
-        <v>155064690468.3917</v>
+        <v>141936261583.6661</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B369" t="n">
-        <v>188392000000</v>
+        <v>188815000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.7534091765237702</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D369" t="n">
-        <v>141936261583.6661</v>
+        <v>151427540299.9439</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B370" t="n">
-        <v>188815000000</v>
+        <v>192301000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.8019889325527308</v>
+        <v>0.8090614886731392</v>
       </c>
       <c r="D370" t="n">
-        <v>151427540299.9439</v>
+        <v>155583333333.3333</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B371" t="n">
-        <v>192301000000</v>
+        <v>190755000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.8090614886731392</v>
+        <v>0.8037939072421831</v>
       </c>
       <c r="D371" t="n">
-        <v>155583333333.3333</v>
+        <v>153327706775.9826</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B372" t="n">
-        <v>190755000000</v>
+        <v>191522000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.8037939072421831</v>
+        <v>0.8301510874979247</v>
       </c>
       <c r="D372" t="n">
-        <v>153327706775.9826</v>
+        <v>158992196579.7775</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B373" t="n">
-        <v>191522000000</v>
+        <v>192689000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.8301510874979247</v>
+        <v>0.8227067050596463</v>
       </c>
       <c r="D373" t="n">
-        <v>158992196579.7775</v>
+        <v>158526532291.2382</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B374" t="n">
-        <v>192689000000</v>
+        <v>196035000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.8227067050596463</v>
+        <v>0.8204791598293403</v>
       </c>
       <c r="D374" t="n">
-        <v>158526532291.2382</v>
+        <v>160842632097.1447</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B375" t="n">
-        <v>196035000000</v>
+        <v>200631000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.8204791598293403</v>
+        <v>0.8289811821271658</v>
       </c>
       <c r="D375" t="n">
-        <v>160842632097.1447</v>
+        <v>166319323551.3554</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B376" t="n">
-        <v>200631000000</v>
+        <v>199518000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.8289811821271658</v>
+        <v>0.839278220730172</v>
       </c>
       <c r="D376" t="n">
-        <v>166319323551.3554</v>
+        <v>167451112043.6425</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B377" t="n">
-        <v>199518000000</v>
+        <v>201848000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.839278220730172</v>
+        <v>0.8251505899826719</v>
       </c>
       <c r="D377" t="n">
-        <v>167451112043.6425</v>
+        <v>166554996286.8224</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B378" t="n">
-        <v>201848000000</v>
+        <v>203856000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.8251505899826719</v>
+        <v>0.8375910880308234</v>
       </c>
       <c r="D378" t="n">
-        <v>166554996286.8224</v>
+        <v>170747968841.6115</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B379" t="n">
-        <v>203856000000</v>
+        <v>205362000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.8375910880308234</v>
+        <v>0.8568980291345329</v>
       </c>
       <c r="D379" t="n">
-        <v>170747968841.6115</v>
+        <v>175974293059.1259</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B380" t="n">
-        <v>205362000000</v>
+        <v>206244000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.8568980291345329</v>
+        <v>0.7941550190597204</v>
       </c>
       <c r="D380" t="n">
-        <v>175974293059.1259</v>
+        <v>163789707750.953</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B381" t="n">
-        <v>206244000000</v>
+        <v>205153000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.7941550190597204</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D381" t="n">
-        <v>163789707750.953</v>
+        <v>158787151702.7864</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B382" t="n">
-        <v>205153000000</v>
+        <v>208329000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.7739938080495355</v>
+        <v>0.7981482959533882</v>
       </c>
       <c r="D382" t="n">
-        <v>158787151702.7864</v>
+        <v>166277436347.6734</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B383" t="n">
-        <v>208329000000</v>
+        <v>209263000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.7981482959533882</v>
+        <v>0.7725587144622992</v>
       </c>
       <c r="D383" t="n">
-        <v>166277436347.6734</v>
+        <v>161667954264.5241</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B384" t="n">
-        <v>209263000000</v>
+        <v>210802000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.7725587144622992</v>
+        <v>0.8302889405513119</v>
       </c>
       <c r="D384" t="n">
-        <v>161667954264.5241</v>
+        <v>175026569246.0977</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B385" t="n">
-        <v>210802000000</v>
+        <v>211633000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.8302889405513119</v>
+        <v>0.8258320257659592</v>
       </c>
       <c r="D385" t="n">
-        <v>175026569246.0977</v>
+        <v>174773309108.9272</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B386" t="n">
-        <v>211633000000</v>
+        <v>214001000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.8258320257659592</v>
+        <v>0.8127438231469442</v>
       </c>
       <c r="D386" t="n">
-        <v>174773309108.9272</v>
+        <v>173927990897.2692</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B387" t="n">
-        <v>214001000000</v>
+        <v>216074000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.8127438231469442</v>
+        <v>0.8220979940808945</v>
       </c>
       <c r="D387" t="n">
-        <v>173927990897.2692</v>
+        <v>177634001973.0352</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B388" t="n">
-        <v>216074000000</v>
+        <v>216142000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.8220979940808945</v>
+        <v>0.8087343307723414</v>
       </c>
       <c r="D388" t="n">
-        <v>177634001973.0352</v>
+        <v>174801455721.7954</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B389" t="n">
-        <v>216142000000</v>
+        <v>218953000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.8087343307723414</v>
+        <v>0.8389261744966443</v>
       </c>
       <c r="D389" t="n">
-        <v>174801455721.7954</v>
+        <v>183685402684.5638</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B390" t="n">
-        <v>218953000000</v>
+        <v>218025000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.8389261744966443</v>
+        <v>0.8677542519958347</v>
       </c>
       <c r="D390" t="n">
-        <v>183685402684.5638</v>
+        <v>189192120791.3918</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B391" t="n">
-        <v>218025000000</v>
+        <v>220662000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.8677542519958347</v>
+        <v>0.8618460742911315</v>
       </c>
       <c r="D391" t="n">
-        <v>189192120791.3918</v>
+        <v>190176678445.2296</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B392" t="n">
-        <v>220662000000</v>
+        <v>220034000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.8618460742911315</v>
+        <v>0.8503401360544218</v>
       </c>
       <c r="D392" t="n">
-        <v>190176678445.2296</v>
+        <v>187103741496.5987</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B393" t="n">
-        <v>220034000000</v>
+        <v>220294000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.8503401360544218</v>
+        <v>0.876577840112202</v>
       </c>
       <c r="D393" t="n">
-        <v>187103741496.5987</v>
+        <v>193104838709.6774</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B394" t="n">
-        <v>220294000000</v>
+        <v>221761000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.876577840112202</v>
+        <v>0.8502678343678259</v>
       </c>
       <c r="D394" t="n">
-        <v>193104838709.6774</v>
+        <v>188556245217.2434</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B395" t="n">
-        <v>221761000000</v>
+        <v>222495000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.8502678343678259</v>
+        <v>0.8366100560528738</v>
       </c>
       <c r="D395" t="n">
-        <v>188556245217.2434</v>
+        <v>186141554421.4841</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B396" t="n">
-        <v>222495000000</v>
+        <v>224916000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.8366100560528738</v>
+        <v>0.7815552950371238</v>
       </c>
       <c r="D396" t="n">
-        <v>186141554421.4841</v>
+        <v>175784290738.5697</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B397" t="n">
-        <v>224916000000</v>
+        <v>225561000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.7815552950371238</v>
+        <v>0.7793624814901411</v>
       </c>
       <c r="D397" t="n">
-        <v>175784290738.5697</v>
+        <v>175793780687.3977</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B398" t="n">
-        <v>225561000000</v>
+        <v>228548000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.7793624814901411</v>
+        <v>0.7842522155125089</v>
       </c>
       <c r="D398" t="n">
-        <v>175793780687.3977</v>
+        <v>179239275350.9529</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B399" t="n">
-        <v>228548000000</v>
+        <v>230571000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.7842522155125089</v>
+        <v>0.779666302822392</v>
       </c>
       <c r="D399" t="n">
-        <v>179239275350.9529</v>
+        <v>179768439108.0617</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B400" t="n">
-        <v>230571000000</v>
+        <v>230155000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.779666302822392</v>
+        <v>0.7260582298700355</v>
       </c>
       <c r="D400" t="n">
-        <v>179768439108.0617</v>
+        <v>167105931895.738</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B401" t="n">
-        <v>230155000000</v>
+        <v>233043000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.7260582298700355</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D401" t="n">
-        <v>167105931895.738</v>
+        <v>176360678068.715</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B402" t="n">
-        <v>233043000000</v>
+        <v>236828000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.7567731194187983</v>
+        <v>0.7472166180975864</v>
       </c>
       <c r="D402" t="n">
-        <v>176360678068.715</v>
+        <v>176961817230.8152</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B403" t="n">
-        <v>236828000000</v>
+        <v>238569000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.7472166180975864</v>
+        <v>0.7609770945894528</v>
       </c>
       <c r="D403" t="n">
-        <v>176961817230.8152</v>
+        <v>181545544479.1112</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B404" t="n">
-        <v>238569000000</v>
+        <v>237679000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7609770945894528</v>
+        <v>0.7109341674960898</v>
       </c>
       <c r="D404" t="n">
-        <v>181545544479.1112</v>
+        <v>168974121996.3031</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B405" t="n">
-        <v>237679000000</v>
+        <v>240683000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7109341674960898</v>
+        <v>0.6779201410073893</v>
       </c>
       <c r="D405" t="n">
-        <v>168974121996.3031</v>
+        <v>163163853298.0815</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B406" t="n">
-        <v>240683000000</v>
+        <v>243516000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.6779201410073893</v>
+        <v>0.6592392379194411</v>
       </c>
       <c r="D406" t="n">
-        <v>163163853298.0815</v>
+        <v>160535302261.1906</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B407" t="n">
-        <v>243516000000</v>
+        <v>243435000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.6592392379194411</v>
+        <v>0.6347594261774788</v>
       </c>
       <c r="D407" t="n">
-        <v>160535302261.1906</v>
+        <v>154522660911.5146</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B408" t="n">
-        <v>243435000000</v>
+        <v>245301000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.6347594261774788</v>
+        <v>0.6401638819537802</v>
       </c>
       <c r="D408" t="n">
-        <v>154522660911.5146</v>
+        <v>157032840407.1442</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B409" t="n">
-        <v>245301000000</v>
+        <v>245876000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.6401638819537802</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="D409" t="n">
-        <v>157032840407.1442</v>
+        <v>166695593220.339</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B410" t="n">
-        <v>245876000000</v>
+        <v>251168000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6588483331137172</v>
       </c>
       <c r="D410" t="n">
-        <v>166695593220.339</v>
+        <v>165481618131.5061</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B411" t="n">
-        <v>251168000000</v>
+        <v>253283000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.6588483331137172</v>
+        <v>0.6832467887400929</v>
       </c>
       <c r="D411" t="n">
-        <v>165481618131.5061</v>
+        <v>173054796392.457</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B412" t="n">
-        <v>253283000000</v>
+        <v>252048000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.6832467887400929</v>
+        <v>0.6485504896556197</v>
       </c>
       <c r="D412" t="n">
-        <v>173054796392.457</v>
+        <v>163465853816.7196</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B413" t="n">
-        <v>252048000000</v>
+        <v>255151000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.6485504896556197</v>
+        <v>0.6592827004219409</v>
       </c>
       <c r="D413" t="n">
-        <v>163465853816.7196</v>
+        <v>168216640295.3586</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B414" t="n">
-        <v>255151000000</v>
+        <v>258960000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.6592827004219409</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D414" t="n">
-        <v>168216640295.3586</v>
+        <v>179186271796.2912</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B415" t="n">
-        <v>258960000000</v>
+        <v>262111000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.691945751453086</v>
+        <v>0.6982752601075344</v>
       </c>
       <c r="D415" t="n">
-        <v>179186271796.2912</v>
+        <v>183025626702.0459</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B416" t="n">
-        <v>262111000000</v>
+        <v>260867000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.6982752601075344</v>
+        <v>0.6766815536608473</v>
       </c>
       <c r="D416" t="n">
-        <v>183025626702.0459</v>
+        <v>176523886858.8442</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B417" t="n">
-        <v>260867000000</v>
+        <v>261594000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.6766815536608473</v>
+        <v>0.7132158904500393</v>
       </c>
       <c r="D417" t="n">
-        <v>176523886858.8442</v>
+        <v>186572997646.3876</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B418" t="n">
-        <v>261594000000</v>
+        <v>264903000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7132158904500393</v>
+        <v>0.7211365111415591</v>
       </c>
       <c r="D418" t="n">
-        <v>186572997646.3876</v>
+        <v>191031225210.9324</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B419" t="n">
-        <v>264903000000</v>
+        <v>263346000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7211365111415591</v>
+        <v>0.7248477819657873</v>
       </c>
       <c r="D419" t="n">
-        <v>191031225210.9324</v>
+        <v>190885763989.5622</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B420" t="n">
-        <v>263346000000</v>
+        <v>262940000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7248477819657873</v>
+        <v>0.7290755322251385</v>
       </c>
       <c r="D420" t="n">
-        <v>190885763989.5622</v>
+        <v>191703120443.2779</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B421" t="n">
-        <v>262940000000</v>
+        <v>267649000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7290755322251385</v>
+        <v>0.7151541157119359</v>
       </c>
       <c r="D421" t="n">
-        <v>191703120443.2779</v>
+        <v>191410283916.1839</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B422" t="n">
-        <v>267649000000</v>
+        <v>269673000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7151541157119359</v>
+        <v>0.7084661707403471</v>
       </c>
       <c r="D422" t="n">
-        <v>191410283916.1839</v>
+        <v>191054197662.0616</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B423" t="n">
-        <v>269673000000</v>
+        <v>272689000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7084661707403471</v>
+        <v>0.6930967563071805</v>
       </c>
       <c r="D423" t="n">
-        <v>191054197662.0616</v>
+        <v>188999861380.6487</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B424" t="n">
-        <v>272689000000</v>
+        <v>270611000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.6930967563071805</v>
+        <v>0.731368390258173</v>
       </c>
       <c r="D424" t="n">
-        <v>188999861380.6487</v>
+        <v>197916331456.1544</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B425" t="n">
-        <v>270611000000</v>
+        <v>271696000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.731368390258173</v>
+        <v>0.7195797654169965</v>
       </c>
       <c r="D425" t="n">
-        <v>197916331456.1544</v>
+        <v>195506943944.7363</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B426" t="n">
-        <v>271696000000</v>
+        <v>275412000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7195797654169965</v>
+        <v>0.7008199593524423</v>
       </c>
       <c r="D426" t="n">
-        <v>195506943944.7363</v>
+        <v>193014226645.1749</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B427" t="n">
-        <v>275412000000</v>
+        <v>278067000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7008199593524423</v>
+        <v>0.6869547296833138</v>
       </c>
       <c r="D427" t="n">
-        <v>193014226645.1749</v>
+        <v>191019440818.85</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B428" t="n">
-        <v>278067000000</v>
+        <v>276620000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.6869547296833138</v>
+        <v>0.7086167800453514</v>
       </c>
       <c r="D428" t="n">
-        <v>191019440818.85</v>
+        <v>196017573696.1451</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B429" t="n">
-        <v>276620000000</v>
+        <v>278031000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7086167800453514</v>
+        <v>0.7333528894103843</v>
       </c>
       <c r="D429" t="n">
-        <v>196017573696.1451</v>
+        <v>203894837195.6586</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B430" t="n">
-        <v>278031000000</v>
+        <v>282011000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7333528894103843</v>
+        <v>0.7514841812579846</v>
       </c>
       <c r="D430" t="n">
-        <v>203894837195.6586</v>
+        <v>211926805440.7455</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B431" t="n">
-        <v>282011000000</v>
+        <v>280572000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.7514841812579846</v>
+        <v>0.7178235589692054</v>
       </c>
       <c r="D431" t="n">
-        <v>211926805440.7455</v>
+        <v>201401191587.1079</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B432" t="n">
-        <v>280572000000</v>
+        <v>281276000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.7178235589692054</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D432" t="n">
-        <v>201401191587.1079</v>
+        <v>202809142692.3354</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B433" t="n">
-        <v>281276000000</v>
+        <v>286487000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7210325185665873</v>
+        <v>0.6888001102080177</v>
       </c>
       <c r="D433" t="n">
-        <v>202809142692.3354</v>
+        <v>197332277173.1644</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B434" t="n">
-        <v>286487000000</v>
+        <v>289389000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.6888001102080177</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D434" t="n">
-        <v>197332277173.1644</v>
+        <v>197818716248.5474</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B435" t="n">
-        <v>289389000000</v>
+        <v>292600000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.6835737234260715</v>
+        <v>0.7098239636570131</v>
       </c>
       <c r="D435" t="n">
-        <v>197818716248.5474</v>
+        <v>207694491766.042</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B436" t="n">
-        <v>292600000000</v>
+        <v>290366000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7098239636570131</v>
+        <v>0.7368110816386678</v>
       </c>
       <c r="D436" t="n">
-        <v>207694491766.042</v>
+        <v>213944886531.0934</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B437" t="n">
-        <v>290366000000</v>
+        <v>292030000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7368110816386678</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D437" t="n">
-        <v>213944886531.0934</v>
+        <v>210563126397.0005</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B438" t="n">
-        <v>292030000000</v>
+        <v>295333000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7210325185665873</v>
+        <v>0.7245851749873197</v>
       </c>
       <c r="D438" t="n">
-        <v>210563126397.0005</v>
+        <v>213993913484.5301</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B439" t="n">
-        <v>295333000000</v>
+        <v>297516000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7245851749873197</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D439" t="n">
-        <v>213993913484.5301</v>
+        <v>209370865587.6143</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B440" t="n">
-        <v>297516000000</v>
+        <v>295316000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7037297677691766</v>
+        <v>0.7000840100812098</v>
       </c>
       <c r="D440" t="n">
-        <v>209370865587.6143</v>
+        <v>206746009521.1425</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B441" t="n">
-        <v>295316000000</v>
+        <v>297798000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7000840100812098</v>
+        <v>0.6769564040075818</v>
       </c>
       <c r="D441" t="n">
-        <v>206746009521.1425</v>
+        <v>201596263200.6498</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B442" t="n">
-        <v>297798000000</v>
+        <v>301499000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.6769564040075818</v>
+        <v>0.6818026863025841</v>
       </c>
       <c r="D442" t="n">
-        <v>201596263200.6498</v>
+        <v>205562828117.5428</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B443" t="n">
-        <v>301499000000</v>
+        <v>301799000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.6818026863025841</v>
+        <v>0.6625149065853981</v>
       </c>
       <c r="D443" t="n">
-        <v>205562828117.5428</v>
+        <v>199946336292.5666</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B444" t="n">
-        <v>301799000000</v>
+        <v>302781000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.6625149065853981</v>
+        <v>0.6620762711864407</v>
       </c>
       <c r="D444" t="n">
-        <v>199946336292.5666</v>
+        <v>200464115466.1017</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B445" t="n">
-        <v>302781000000</v>
+        <v>305435000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.6620762711864407</v>
+        <v>0.6522306287503261</v>
       </c>
       <c r="D445" t="n">
-        <v>200464115466.1017</v>
+        <v>199214062092.3559</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B446" t="n">
-        <v>305435000000</v>
+        <v>307946000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.6522306287503261</v>
+        <v>0.6884207627702053</v>
       </c>
       <c r="D446" t="n">
-        <v>199214062092.3559</v>
+        <v>211996420212.0336</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B447" t="n">
-        <v>307946000000</v>
+        <v>311406000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.6884207627702053</v>
+        <v>0.6717721348918447</v>
       </c>
       <c r="D447" t="n">
-        <v>211996420212.0336</v>
+        <v>209193873438.1298</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B448" t="n">
-        <v>311406000000</v>
+        <v>307559000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.6717721348918447</v>
+        <v>0.6920894179527994</v>
       </c>
       <c r="D448" t="n">
-        <v>209193873438.1298</v>
+        <v>212858329296.1451</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B449" t="n">
-        <v>307559000000</v>
+        <v>309109000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.6920894179527994</v>
+        <v>0.6811989100817439</v>
       </c>
       <c r="D449" t="n">
-        <v>212858329296.1451</v>
+        <v>210564713896.4578</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B450" t="n">
-        <v>309109000000</v>
+        <v>312159000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.6811989100817439</v>
+        <v>0.6805962022731913</v>
       </c>
       <c r="D450" t="n">
-        <v>210564713896.4578</v>
+        <v>212454229905.3971</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B451" t="n">
-        <v>312159000000</v>
+        <v>313888000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.6805962022731913</v>
+        <v>0.6674676278200508</v>
       </c>
       <c r="D451" t="n">
-        <v>212454229905.3971</v>
+        <v>209510078761.1801</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B452" t="n">
-        <v>313888000000</v>
+        <v>312948000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.6674676278200508</v>
+        <v>0.6535093451836361</v>
       </c>
       <c r="D452" t="n">
-        <v>209510078761.1801</v>
+        <v>204514442556.5286</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B453" t="n">
-        <v>312948000000</v>
+        <v>316000000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.6535093451836361</v>
+        <v>0.6721333512568893</v>
       </c>
       <c r="D453" t="n">
-        <v>204514442556.5286</v>
+        <v>212394138997.177</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B454" t="n">
-        <v>316000000000</v>
+        <v>318977000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.6721333512568893</v>
+        <v>0.6562110374696503</v>
       </c>
       <c r="D454" t="n">
-        <v>212394138997.177</v>
+        <v>209316228098.9566</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B455" t="n">
-        <v>318977000000</v>
+        <v>317171000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.6562110374696503</v>
+        <v>0.6312732782021336</v>
       </c>
       <c r="D455" t="n">
-        <v>209316228098.9566</v>
+        <v>200221576920.6489</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B456" t="n">
-        <v>317171000000</v>
+        <v>320212000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.6312732782021336</v>
+        <v>0.6260172780768749</v>
       </c>
       <c r="D456" t="n">
-        <v>200221576920.6489</v>
+        <v>200458244647.5523</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B457" t="n">
-        <v>320212000000</v>
+        <v>321673000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.6260172780768749</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D457" t="n">
-        <v>200458244647.5523</v>
+        <v>206385859104.3244</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B458" t="n">
-        <v>321673000000</v>
+        <v>324328000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6416014371872193</v>
+        <v>0.6424257998201208</v>
       </c>
       <c r="D458" t="n">
-        <v>206385859104.3244</v>
+        <v>208356674804.0602</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B459" t="n">
-        <v>324328000000</v>
+        <v>326061000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6424257998201208</v>
+        <v>0.6731287022078621</v>
       </c>
       <c r="D459" t="n">
-        <v>208356674804.0602</v>
+        <v>219481017770.5977</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B460" t="n">
-        <v>326061000000</v>
+        <v>322987000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.6731287022078621</v>
+        <v>0.6467050378322448</v>
       </c>
       <c r="D460" t="n">
-        <v>219481017770.5977</v>
+        <v>208877320054.3232</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B461" t="n">
-        <v>322987000000</v>
+        <v>326490000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.6467050378322448</v>
+        <v>0.625</v>
       </c>
       <c r="D461" t="n">
-        <v>208877320054.3232</v>
+        <v>204056250000</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B462" t="n">
-        <v>326490000000</v>
+        <v>337987000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.625</v>
+        <v>0.5975500448162534</v>
       </c>
       <c r="D462" t="n">
-        <v>204056250000</v>
+        <v>201964146997.311</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B463" t="n">
-        <v>337987000000</v>
+        <v>344965000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.5975500448162534</v>
+        <v>0.6122199093914534</v>
       </c>
       <c r="D463" t="n">
-        <v>201964146997.311</v>
+        <v>211194441043.2227</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B464" t="n">
-        <v>344965000000</v>
+        <v>343608000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.6122199093914534</v>
+        <v>0.620963735717834</v>
       </c>
       <c r="D464" t="n">
-        <v>211194441043.2227</v>
+        <v>213368107302.5335</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B465" t="n">
-        <v>343608000000</v>
+        <v>346397000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.620963735717834</v>
+        <v>0.6455361177457879</v>
       </c>
       <c r="D465" t="n">
-        <v>213368107302.5335</v>
+        <v>223611774578.7877</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B466" t="n">
-        <v>346397000000</v>
+        <v>350385000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.6455361177457879</v>
+        <v>0.6629980773055758</v>
       </c>
       <c r="D466" t="n">
-        <v>223611774578.7877</v>
+        <v>232304581316.7142</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B467" t="n">
-        <v>350385000000</v>
+        <v>354806000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.6629980773055758</v>
+        <v>0.6740815638692281</v>
       </c>
       <c r="D467" t="n">
-        <v>232304581316.7142</v>
+        <v>239168183350.1854</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B468" t="n">
-        <v>354806000000</v>
+        <v>355780000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.6740815638692281</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D468" t="n">
-        <v>239168183350.1854</v>
+        <v>235444378267.4872</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B469" t="n">
-        <v>355780000000</v>
+        <v>359598000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.661769571835087</v>
+        <v>0.6614631565021828</v>
       </c>
       <c r="D469" t="n">
-        <v>235444378267.4872</v>
+        <v>237860828151.8719</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B470" t="n">
-        <v>359598000000</v>
+        <v>360384000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.6614631565021828</v>
+        <v>0.7014098337658694</v>
       </c>
       <c r="D470" t="n">
-        <v>237860828151.8719</v>
+        <v>252776881531.8791</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B471" t="n">
-        <v>360384000000</v>
+        <v>365780000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7014098337658694</v>
+        <v>0.7185456635769203</v>
       </c>
       <c r="D471" t="n">
-        <v>252776881531.8791</v>
+        <v>262829632823.1659</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B472" t="n">
-        <v>365780000000</v>
+        <v>359421000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7185456635769203</v>
+        <v>0.7184940364994971</v>
       </c>
       <c r="D472" t="n">
-        <v>262829632823.1659</v>
+        <v>258241845092.6857</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B473" t="n">
-        <v>359421000000</v>
+        <v>361223000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7184940364994971</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D473" t="n">
-        <v>258241845092.6857</v>
+        <v>261376989869.754</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B474" t="n">
-        <v>361223000000</v>
+        <v>365809000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7235890014471781</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D474" t="n">
-        <v>261376989869.754</v>
+        <v>255471052447.7966</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B475" t="n">
-        <v>365809000000</v>
+        <v>368720000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.6983727913960472</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D475" t="n">
-        <v>255471052447.7966</v>
+        <v>264163920332.4258</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B476" t="n">
-        <v>368720000000</v>
+        <v>364349000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.7164350193437455</v>
+        <v>0.7276961141027506</v>
       </c>
       <c r="D476" t="n">
-        <v>264163920332.4258</v>
+        <v>265135351477.2231</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B477" t="n">
-        <v>364349000000</v>
+        <v>366418000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7276961141027506</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D477" t="n">
-        <v>265135351477.2231</v>
+        <v>256254283516.3298</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B478" t="n">
-        <v>366418000000</v>
+        <v>373053000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.6993496048674733</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D478" t="n">
-        <v>256254283516.3298</v>
+        <v>260311911241.3649</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B479" t="n">
-        <v>373053000000</v>
+        <v>369963000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.6977880120019538</v>
+        <v>0.7047713017125943</v>
       </c>
       <c r="D479" t="n">
-        <v>260311911241.3649</v>
+        <v>260739305095.4965</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B480" t="n">
-        <v>369963000000</v>
+        <v>374561000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7047713017125943</v>
+        <v>0.6902263942573164</v>
       </c>
       <c r="D480" t="n">
-        <v>260739305095.4965</v>
+        <v>258531888459.4147</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B481" t="n">
-        <v>374561000000</v>
+        <v>378237000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.6902263942573164</v>
+        <v>0.7174630506528914</v>
       </c>
       <c r="D481" t="n">
-        <v>258531888459.4147</v>
+        <v>271371071889.7977</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B482" t="n">
-        <v>378237000000</v>
+        <v>382985000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7174630506528914</v>
+        <v>0.68259385665529</v>
       </c>
       <c r="D482" t="n">
-        <v>271371071889.7977</v>
+        <v>261423208191.1263</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B483" t="n">
-        <v>382985000000</v>
+        <v>391602000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.68259385665529</v>
+        <v>0.6842285323297982</v>
       </c>
       <c r="D483" t="n">
-        <v>261423208191.1263</v>
+        <v>267945261717.4136</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B484" t="n">
-        <v>391602000000</v>
+        <v>384879000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.6842285323297982</v>
+        <v>0.6577216521967904</v>
       </c>
       <c r="D484" t="n">
-        <v>267945261717.4136</v>
+        <v>253143251775.8485</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B485" t="n">
-        <v>384879000000</v>
+        <v>386923000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.6577216521967904</v>
+        <v>0.67778229632642</v>
       </c>
       <c r="D485" t="n">
-        <v>253143251775.8485</v>
+        <v>262249559441.5074</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B486" t="n">
-        <v>386923000000</v>
+        <v>390385000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.67778229632642</v>
+        <v>0.6935293709688606</v>
       </c>
       <c r="D486" t="n">
-        <v>262249559441.5074</v>
+        <v>270743463485.6786</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B487" t="n">
-        <v>390385000000</v>
+        <v>391962000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.6935293709688606</v>
+        <v>0.6458279514337381</v>
       </c>
       <c r="D487" t="n">
-        <v>270743463485.6786</v>
+        <v>253140015499.8708</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B488" t="n">
-        <v>391962000000</v>
+        <v>389603000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.6458279514337381</v>
+        <v>0.6513809275664409</v>
       </c>
       <c r="D488" t="n">
-        <v>253140015499.8708</v>
+        <v>253779963522.6681</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B489" t="n">
-        <v>389603000000</v>
+        <v>389035000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.6513809275664409</v>
+        <v>0.6244146113019045</v>
       </c>
       <c r="D489" t="n">
-        <v>253779963522.6681</v>
+        <v>242919138307.8364</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B490" t="n">
-        <v>389035000000</v>
+        <v>390828000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.6244146113019045</v>
+        <v>0.6292474200855777</v>
       </c>
       <c r="D490" t="n">
-        <v>242919138307.8364</v>
+        <v>245927510697.2061</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B491" t="n">
-        <v>390828000000</v>
+        <v>391713000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.6292474200855777</v>
+        <v>0.6118078923218109</v>
       </c>
       <c r="D491" t="n">
-        <v>245927510697.2061</v>
+        <v>239653104925.0535</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B492" t="n">
-        <v>391713000000</v>
+        <v>391912000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.6118078923218109</v>
+        <v>0.5599104143337066</v>
       </c>
       <c r="D492" t="n">
-        <v>239653104925.0535</v>
+        <v>219435610302.3516</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B493" t="n">
-        <v>391912000000</v>
+        <v>393508000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.5599104143337066</v>
+        <v>0.5812263876780006</v>
       </c>
       <c r="D493" t="n">
-        <v>219435610302.3516</v>
+        <v>228717233362.3947</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B494" t="n">
-        <v>393508000000</v>
+        <v>397263000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.5812263876780006</v>
+        <v>0.6297229219143576</v>
       </c>
       <c r="D494" t="n">
-        <v>228717233362.3947</v>
+        <v>250165617128.4635</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B495" t="n">
-        <v>397263000000</v>
+        <v>398778000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.6297229219143576</v>
+        <v>0.6353240152477764</v>
       </c>
       <c r="D495" t="n">
-        <v>250165617128.4635</v>
+        <v>253353240152.4778</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B496" t="n">
-        <v>398778000000</v>
+        <v>393400000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.6353240152477764</v>
+        <v>0.644122383252818</v>
       </c>
       <c r="D496" t="n">
-        <v>253353240152.4778</v>
+        <v>253397745571.6586</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B497" t="n">
-        <v>393400000000</v>
+        <v>394722000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.644122383252818</v>
+        <v>0.6185822095756526</v>
       </c>
       <c r="D497" t="n">
-        <v>253397745571.6586</v>
+        <v>244168006928.1207</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B498" t="n">
-        <v>394722000000</v>
+        <v>395721000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.6185822095756526</v>
+        <v>0.6257039169065198</v>
       </c>
       <c r="D498" t="n">
-        <v>244168006928.1207</v>
+        <v>247604179702.1649</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B499" t="n">
-        <v>395721000000</v>
+        <v>398520000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.6257039169065198</v>
+        <v>0.6183527083848628</v>
       </c>
       <c r="D499" t="n">
-        <v>247604179702.1649</v>
+        <v>246425921345.5355</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B500" t="n">
-        <v>398520000000</v>
+        <v>395740000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.6183527083848628</v>
+        <v>0.6019020103527146</v>
       </c>
       <c r="D500" t="n">
-        <v>246425921345.5355</v>
+        <v>238196701576.9833</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B501" t="n">
-        <v>395740000000</v>
+        <v>399129000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.6019020103527146</v>
+        <v>0.6139489194499017</v>
       </c>
       <c r="D501" t="n">
-        <v>238196701576.9833</v>
+        <v>245044818271.1198</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
@@ -483,8 +483,12 @@
       <c r="B4" t="n">
         <v>16010000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12888050000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -493,8 +497,12 @@
       <c r="B5" t="n">
         <v>16294000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12790790000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -503,8 +511,12 @@
       <c r="B6" t="n">
         <v>15223000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11645595000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -513,8 +525,12 @@
       <c r="B7" t="n">
         <v>15937000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12303364000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -523,8 +539,12 @@
       <c r="B8" t="n">
         <v>16438000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>0.7615</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12517537000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -533,8 +553,12 @@
       <c r="B9" t="n">
         <v>17016000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0.7425</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12634380000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -543,8 +567,12 @@
       <c r="B10" t="n">
         <v>16972000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12389560000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -553,8 +581,12 @@
       <c r="B11" t="n">
         <v>17010000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.7272999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12371373000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -563,8 +595,12 @@
       <c r="B12" t="n">
         <v>16545000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11862765000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -573,8 +609,12 @@
       <c r="B13" t="n">
         <v>16533000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11705364000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -583,8 +623,12 @@
       <c r="B14" t="n">
         <v>17141000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12324379000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -593,8 +637,12 @@
       <c r="B15" t="n">
         <v>18066000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0.7325</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13233345000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -603,8 +651,12 @@
       <c r="B16" t="n">
         <v>18329000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13215209000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -613,8 +665,12 @@
       <c r="B17" t="n">
         <v>18862000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>0.7155</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13495761000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -623,8 +679,12 @@
       <c r="B18" t="n">
         <v>17266000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>0.6525</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11266065000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -633,8 +693,12 @@
       <c r="B19" t="n">
         <v>17486000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0.6592</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11526771200</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -643,8 +707,12 @@
       <c r="B20" t="n">
         <v>18103000000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>0.6627999999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11998668400</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -653,8 +721,12 @@
       <c r="B21" t="n">
         <v>18410000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.6555</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12067755000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -663,8 +735,12 @@
       <c r="B22" t="n">
         <v>18810000000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12282930000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -673,8 +749,12 @@
       <c r="B23" t="n">
         <v>19245000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0.6485</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12480382500</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -683,8 +763,12 @@
       <c r="B24" t="n">
         <v>19147000000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12598726000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -693,8 +777,12 @@
       <c r="B25" t="n">
         <v>19340000000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0.6615</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12793410000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -703,8 +791,12 @@
       <c r="B26" t="n">
         <v>19884000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13083672000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -713,8 +805,12 @@
       <c r="B27" t="n">
         <v>20669000000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0.6545</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13527860500</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -723,8 +819,12 @@
       <c r="B28" t="n">
         <v>20758000000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0.6493</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13478169400</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -733,8 +833,12 @@
       <c r="B29" t="n">
         <v>21203000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0.6662</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14125438600</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -743,8 +847,12 @@
       <c r="B30" t="n">
         <v>19781000000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>0.6637999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>13130627800</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -753,8 +861,12 @@
       <c r="B31" t="n">
         <v>20863000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="D31" t="n">
+        <v>13644402000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -763,8 +875,12 @@
       <c r="B32" t="n">
         <v>21393000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0.6471</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13843410300</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -773,8 +889,12 @@
       <c r="B33" t="n">
         <v>21696000000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="D33" t="n">
+        <v>13755264000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -783,8 +903,12 @@
       <c r="B34" t="n">
         <v>22273000000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>0.4945</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11013998500</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -793,8 +917,12 @@
       <c r="B35" t="n">
         <v>23152000000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0.4995</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11564424000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -803,8 +931,12 @@
       <c r="B36" t="n">
         <v>23213000000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11304731000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -813,8 +945,12 @@
       <c r="B37" t="n">
         <v>23738000000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11586517800</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -823,8 +959,12 @@
       <c r="B38" t="n">
         <v>24145000000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11758615000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -833,8 +973,12 @@
       <c r="B39" t="n">
         <v>25020000000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>0.4755</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11897010000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -843,8 +987,12 @@
       <c r="B40" t="n">
         <v>24897000000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11701590000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -853,8 +1001,12 @@
       <c r="B41" t="n">
         <v>25250000000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>0.4445</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11223625000</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -863,8 +1015,12 @@
       <c r="B42" t="n">
         <v>25030000000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11588890000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -873,8 +1029,12 @@
       <c r="B43" t="n">
         <v>26165000000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11878910000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -883,8 +1043,12 @@
       <c r="B44" t="n">
         <v>26778000000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>0.4507</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12068844600</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -893,8 +1057,12 @@
       <c r="B45" t="n">
         <v>27918000000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="D45" t="n">
+        <v>13512312000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -903,8 +1071,12 @@
       <c r="B46" t="n">
         <v>28862000000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>0.5263</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15190070600</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -913,8 +1085,12 @@
       <c r="B47" t="n">
         <v>29239000000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>0.5425</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15862157500</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -923,8 +1099,12 @@
       <c r="B48" t="n">
         <v>29420000000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>0.5475</v>
+      </c>
+      <c r="D48" t="n">
+        <v>16107450000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -933,8 +1113,12 @@
       <c r="B49" t="n">
         <v>29721000000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17119296000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -943,8 +1127,12 @@
       <c r="B50" t="n">
         <v>30474000000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="D50" t="n">
+        <v>17461602000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -953,8 +1141,12 @@
       <c r="B51" t="n">
         <v>31397000000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>0.5004999999999999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15714198500</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -963,8 +1155,12 @@
       <c r="B52" t="n">
         <v>31474000000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>0.5355</v>
+      </c>
+      <c r="D52" t="n">
+        <v>16854327000</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -973,8 +1169,12 @@
       <c r="B53" t="n">
         <v>32213000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="D53" t="n">
+        <v>16847399000</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -983,8 +1183,12 @@
       <c r="B54" t="n">
         <v>32386000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>0.5352</v>
+      </c>
+      <c r="D54" t="n">
+        <v>17332987200</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -993,8 +1197,12 @@
       <c r="B55" t="n">
         <v>33068000000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>0.5843</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19321632400</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1003,8 +1211,12 @@
       <c r="B56" t="n">
         <v>33392000000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>18799696000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1013,8 +1225,12 @@
       <c r="B57" t="n">
         <v>33824000000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="D57" t="n">
+        <v>18569376000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1023,8 +1239,12 @@
       <c r="B58" t="n">
         <v>33851000000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>0.5205</v>
+      </c>
+      <c r="D58" t="n">
+        <v>17619445500</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1033,8 +1253,12 @@
       <c r="B59" t="n">
         <v>34550000000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>0.4865</v>
+      </c>
+      <c r="D59" t="n">
+        <v>16808575000</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1043,8 +1267,12 @@
       <c r="B60" t="n">
         <v>35002000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="D60" t="n">
+        <v>17087976400</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1053,8 +1281,12 @@
       <c r="B61" t="n">
         <v>36018000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="D61" t="n">
+        <v>18261126000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1063,8 +1295,12 @@
       <c r="B62" t="n">
         <v>36675000000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>0.5108</v>
+      </c>
+      <c r="D62" t="n">
+        <v>18733590000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1073,8 +1309,12 @@
       <c r="B63" t="n">
         <v>37807000000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>0.5305</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20056613500</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -1083,8 +1323,12 @@
       <c r="B64" t="n">
         <v>38370000000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="D64" t="n">
+        <v>20796540000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -1093,8 +1337,12 @@
       <c r="B65" t="n">
         <v>39366000000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="D65" t="n">
+        <v>22143375000</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -1103,8 +1351,12 @@
       <c r="B66" t="n">
         <v>38543000000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="D66" t="n">
+        <v>21603351500</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -1113,8 +1365,12 @@
       <c r="B67" t="n">
         <v>38349000000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>0.5782</v>
+      </c>
+      <c r="D67" t="n">
+        <v>22173391800</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -1123,8 +1379,12 @@
       <c r="B68" t="n">
         <v>38741000000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>0.5868</v>
+      </c>
+      <c r="D68" t="n">
+        <v>22733218800</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -1133,8 +1393,12 @@
       <c r="B69" t="n">
         <v>39583000000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="D69" t="n">
+        <v>23512302000</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -1143,8 +1407,12 @@
       <c r="B70" t="n">
         <v>39428000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D70" t="n">
+        <v>22473960000</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -1153,8 +1421,12 @@
       <c r="B71" t="n">
         <v>40102000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>0.6073</v>
+      </c>
+      <c r="D71" t="n">
+        <v>24353944600</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -1163,8 +1435,12 @@
       <c r="B72" t="n">
         <v>40578000000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>0.6415</v>
+      </c>
+      <c r="D72" t="n">
+        <v>26030787000</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -1173,8 +1449,12 @@
       <c r="B73" t="n">
         <v>41887000000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="D73" t="n">
+        <v>24880878000</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -1183,8 +1463,12 @@
       <c r="B74" t="n">
         <v>41893000000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="D74" t="n">
+        <v>27188557000</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -1193,8 +1477,12 @@
       <c r="B75" t="n">
         <v>42932000000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="D75" t="n">
+        <v>28463916000</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -1203,8 +1491,12 @@
       <c r="B76" t="n">
         <v>42531000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>0.6595</v>
+      </c>
+      <c r="D76" t="n">
+        <v>28049194500</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -1213,8 +1505,12 @@
       <c r="B77" t="n">
         <v>43592000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="D77" t="n">
+        <v>28945088000</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -1223,8 +1519,12 @@
       <c r="B78" t="n">
         <v>35236000000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D78" t="n">
+        <v>22903400000</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -1233,8 +1533,12 @@
       <c r="B79" t="n">
         <v>34761000000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>0.6737</v>
+      </c>
+      <c r="D79" t="n">
+        <v>23418485700</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -1243,8 +1547,12 @@
       <c r="B80" t="n">
         <v>34660000000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>0.6945</v>
+      </c>
+      <c r="D80" t="n">
+        <v>24071370000</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -1253,8 +1561,12 @@
       <c r="B81" t="n">
         <v>35658000000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>0.6758999999999999</v>
+      </c>
+      <c r="D81" t="n">
+        <v>24101242200</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -1263,8 +1575,12 @@
       <c r="B82" t="n">
         <v>35350000000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>0.6679</v>
+      </c>
+      <c r="D82" t="n">
+        <v>23610265000</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -1273,8 +1589,12 @@
       <c r="B83" t="n">
         <v>35771000000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="D83" t="n">
+        <v>21748768000</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -1283,8 +1603,12 @@
       <c r="B84" t="n">
         <v>34970000000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>0.6133999999999999</v>
+      </c>
+      <c r="D84" t="n">
+        <v>21450598000</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -1293,8 +1617,12 @@
       <c r="B85" t="n">
         <v>36326000000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>0.6248</v>
+      </c>
+      <c r="D85" t="n">
+        <v>22696484800</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -1303,8 +1631,12 @@
       <c r="B86" t="n">
         <v>35065000000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>0.6563</v>
+      </c>
+      <c r="D86" t="n">
+        <v>23013159500</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -1313,8 +1645,12 @@
       <c r="B87" t="n">
         <v>35616000000</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D87" t="n">
+        <v>22438080000</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -1323,8 +1659,12 @@
       <c r="B88" t="n">
         <v>35695000000</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>21417000000</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -1333,8 +1673,12 @@
       <c r="B89" t="n">
         <v>36802000000</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="D89" t="n">
+        <v>22927646000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -1343,8 +1687,12 @@
       <c r="B90" t="n">
         <v>36302000000</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="D90" t="n">
+        <v>22253126000</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -1353,8 +1701,12 @@
       <c r="B91" t="n">
         <v>36279000000</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="D91" t="n">
+        <v>22293445500</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -1363,8 +1715,12 @@
       <c r="B92" t="n">
         <v>36758000000</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="D92" t="n">
+        <v>21503430000</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -1373,8 +1729,12 @@
       <c r="B93" t="n">
         <v>37527000000</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="D93" t="n">
+        <v>21465444000</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -1383,8 +1743,12 @@
       <c r="B94" t="n">
         <v>37588000000</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="D94" t="n">
+        <v>22026568000</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -1393,8 +1757,12 @@
       <c r="B95" t="n">
         <v>38287000000</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="D95" t="n">
+        <v>22723334500</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -1403,8 +1771,12 @@
       <c r="B96" t="n">
         <v>38758000000</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>0.5899</v>
+      </c>
+      <c r="D96" t="n">
+        <v>22863344200</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -1413,8 +1785,12 @@
       <c r="B97" t="n">
         <v>38883000000</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="D97" t="n">
+        <v>22882645500</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -1423,8 +1799,12 @@
       <c r="B98" t="n">
         <v>38513000000</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="D98" t="n">
+        <v>22734223900</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -1433,8 +1813,12 @@
       <c r="B99" t="n">
         <v>37957000000</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>0.5945</v>
+      </c>
+      <c r="D99" t="n">
+        <v>22565436500</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -1443,8 +1827,12 @@
       <c r="B100" t="n">
         <v>38744000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="D100" t="n">
+        <v>23312264800</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -1453,8 +1841,12 @@
       <c r="B101" t="n">
         <v>38287000000</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="D101" t="n">
+        <v>22551043000</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -1463,8 +1855,12 @@
       <c r="B102" t="n">
         <v>38284000000</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="D102" t="n">
+        <v>22189406400</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -1473,8 +1869,12 @@
       <c r="B103" t="n">
         <v>39326000000</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="D103" t="n">
+        <v>22651776000</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -1483,8 +1883,12 @@
       <c r="B104" t="n">
         <v>39661000000</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>0.5768</v>
+      </c>
+      <c r="D104" t="n">
+        <v>22876464800</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -1493,8 +1897,12 @@
       <c r="B105" t="n">
         <v>39063000000</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="D105" t="n">
+        <v>22969044000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -1503,8 +1911,12 @@
       <c r="B106" t="n">
         <v>38534000000</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="D106" t="n">
+        <v>22812128000</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -1513,8 +1925,12 @@
       <c r="B107" t="n">
         <v>40088000000</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>0.6155</v>
+      </c>
+      <c r="D107" t="n">
+        <v>24674164000</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -1523,8 +1939,12 @@
       <c r="B108" t="n">
         <v>40767000000</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="D108" t="n">
+        <v>25108395300</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -1533,8 +1953,12 @@
       <c r="B109" t="n">
         <v>40828000000</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>0.6151</v>
+      </c>
+      <c r="D109" t="n">
+        <v>25113302800</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -1543,8 +1967,12 @@
       <c r="B110" t="n">
         <v>41145000000</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="D110" t="n">
+        <v>25057305000</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -1553,8 +1981,12 @@
       <c r="B111" t="n">
         <v>42586000000</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="D111" t="n">
+        <v>24997982000</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -1563,8 +1995,12 @@
       <c r="B112" t="n">
         <v>41948000000</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="D112" t="n">
+        <v>25126852000</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -1573,8 +2009,12 @@
       <c r="B113" t="n">
         <v>41220000000</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="D113" t="n">
+        <v>24699024000</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -1583,8 +2023,12 @@
       <c r="B114" t="n">
         <v>40854000000</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>0.5866</v>
+      </c>
+      <c r="D114" t="n">
+        <v>23964956400</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -1593,8 +2037,12 @@
       <c r="B115" t="n">
         <v>41300000000</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="D115" t="n">
+        <v>24305050000</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -1603,8 +2051,12 @@
       <c r="B116" t="n">
         <v>42129000000</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>0.5816</v>
+      </c>
+      <c r="D116" t="n">
+        <v>24502226400</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -1613,8 +2065,12 @@
       <c r="B117" t="n">
         <v>42719000000</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="D117" t="n">
+        <v>24606144000</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -1623,8 +2079,12 @@
       <c r="B118" t="n">
         <v>41920000000</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="D118" t="n">
+        <v>23974048000</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -1633,8 +2093,12 @@
       <c r="B119" t="n">
         <v>42235000000</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
+      <c r="C119" t="n">
+        <v>0.5736</v>
+      </c>
+      <c r="D119" t="n">
+        <v>24225996000</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -1643,8 +2107,12 @@
       <c r="B120" t="n">
         <v>42369000000</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="C120" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="D120" t="n">
+        <v>24018986100</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -1653,8 +2121,12 @@
       <c r="B121" t="n">
         <v>43280000000</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
+      <c r="C121" t="n">
+        <v>0.5581</v>
+      </c>
+      <c r="D121" t="n">
+        <v>24154568000</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -1663,8 +2135,12 @@
       <c r="B122" t="n">
         <v>42849000000</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="D122" t="n">
+        <v>24059713500</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -1673,8 +2149,12 @@
       <c r="B123" t="n">
         <v>43320000000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>0.5407999999999999</v>
+      </c>
+      <c r="D123" t="n">
+        <v>23427456000</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -1683,8 +2163,12 @@
       <c r="B124" t="n">
         <v>44407000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>0.5405</v>
+      </c>
+      <c r="D124" t="n">
+        <v>24001983500</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -1693,8 +2177,12 @@
       <c r="B125" t="n">
         <v>44599000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>0.5465</v>
+      </c>
+      <c r="D125" t="n">
+        <v>24373353500</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -1703,8 +2191,12 @@
       <c r="B126" t="n">
         <v>45318000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="D126" t="n">
+        <v>24743628000</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -1713,8 +2205,12 @@
       <c r="B127" t="n">
         <v>45418000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
+      <c r="C127" t="n">
+        <v>0.5383</v>
+      </c>
+      <c r="D127" t="n">
+        <v>24448509400</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -1723,8 +2219,12 @@
       <c r="B128" t="n">
         <v>45741000000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
+      <c r="C128" t="n">
+        <v>0.5357</v>
+      </c>
+      <c r="D128" t="n">
+        <v>24503453700</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -1733,8 +2233,12 @@
       <c r="B129" t="n">
         <v>44756000000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>0.5429</v>
+      </c>
+      <c r="D129" t="n">
+        <v>24298032400</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -1743,8 +2247,12 @@
       <c r="B130" t="n">
         <v>44868000000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
+      <c r="C130" t="n">
+        <v>0.5458</v>
+      </c>
+      <c r="D130" t="n">
+        <v>24488954400</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -1753,8 +2261,12 @@
       <c r="B131" t="n">
         <v>45313000000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
+      <c r="C131" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="D131" t="n">
+        <v>24423707000</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -1763,8 +2275,12 @@
       <c r="B132" t="n">
         <v>45461000000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+      <c r="C132" t="n">
+        <v>0.5377</v>
+      </c>
+      <c r="D132" t="n">
+        <v>24444379700</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -1773,8 +2289,12 @@
       <c r="B133" t="n">
         <v>45784000000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+      <c r="C133" t="n">
+        <v>0.5253</v>
+      </c>
+      <c r="D133" t="n">
+        <v>24050335200</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -1783,8 +2303,12 @@
       <c r="B134" t="n">
         <v>46380000000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
+      <c r="C134" t="n">
+        <v>0.5114</v>
+      </c>
+      <c r="D134" t="n">
+        <v>23718732000</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -1793,8 +2317,12 @@
       <c r="B135" t="n">
         <v>45538000000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
+      <c r="C135" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="D135" t="n">
+        <v>23406532000</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -1803,8 +2331,12 @@
       <c r="B136" t="n">
         <v>45785000000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
+      <c r="C136" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="D136" t="n">
+        <v>23670845000</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -1813,8 +2345,12 @@
       <c r="B137" t="n">
         <v>45582000000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="n">
+        <v>0.5236</v>
+      </c>
+      <c r="D137" t="n">
+        <v>23866735200</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -1823,8 +2359,12 @@
       <c r="B138" t="n">
         <v>45158000000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+      <c r="C138" t="n">
+        <v>0.5314</v>
+      </c>
+      <c r="D138" t="n">
+        <v>23996961200</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -1833,8 +2373,12 @@
       <c r="B139" t="n">
         <v>46327000000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
+      <c r="C139" t="n">
+        <v>0.5416</v>
+      </c>
+      <c r="D139" t="n">
+        <v>25090703200</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -1843,8 +2387,12 @@
       <c r="B140" t="n">
         <v>47373000000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+      <c r="C140" t="n">
+        <v>0.5395</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25557733500</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -1853,8 +2401,12 @@
       <c r="B141" t="n">
         <v>47334000000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+      <c r="C141" t="n">
+        <v>0.5372</v>
+      </c>
+      <c r="D141" t="n">
+        <v>25427824800</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -1863,8 +2415,12 @@
       <c r="B142" t="n">
         <v>48759000000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
+      <c r="C142" t="n">
+        <v>0.5539999999999999</v>
+      </c>
+      <c r="D142" t="n">
+        <v>27012486000</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -1873,8 +2429,12 @@
       <c r="B143" t="n">
         <v>48711000000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+      <c r="C143" t="n">
+        <v>0.5548999999999999</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27029733900</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -1883,8 +2443,12 @@
       <c r="B144" t="n">
         <v>48355000000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+      <c r="C144" t="n">
+        <v>0.5505</v>
+      </c>
+      <c r="D144" t="n">
+        <v>26619427500</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -1893,8 +2457,12 @@
       <c r="B145" t="n">
         <v>48841000000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="C145" t="n">
+        <v>0.5537</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27043261700</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -1903,8 +2471,12 @@
       <c r="B146" t="n">
         <v>49332000000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+      <c r="C146" t="n">
+        <v>0.5467</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26969804400</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -1913,8 +2485,12 @@
       <c r="B147" t="n">
         <v>49250000000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
+      <c r="C147" t="n">
+        <v>0.5599</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27575075000</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -1923,8 +2499,12 @@
       <c r="B148" t="n">
         <v>48139000000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
+      <c r="C148" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27496996800</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -1933,8 +2513,12 @@
       <c r="B149" t="n">
         <v>48991000000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
+      <c r="C149" t="n">
+        <v>0.5761999999999999</v>
+      </c>
+      <c r="D149" t="n">
+        <v>28228614200</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -1943,8 +2527,12 @@
       <c r="B150" t="n">
         <v>50390000000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
+      <c r="C150" t="n">
+        <v>0.5640999999999999</v>
+      </c>
+      <c r="D150" t="n">
+        <v>28424999000</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -1953,8 +2541,12 @@
       <c r="B151" t="n">
         <v>50358000000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
+      <c r="C151" t="n">
+        <v>0.5783</v>
+      </c>
+      <c r="D151" t="n">
+        <v>29122031400</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -1963,8 +2555,12 @@
       <c r="B152" t="n">
         <v>51494000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="C152" t="n">
+        <v>0.5936</v>
+      </c>
+      <c r="D152" t="n">
+        <v>30566838400</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -1973,8 +2569,12 @@
       <c r="B153" t="n">
         <v>51341000000</v>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
+      <c r="C153" t="n">
+        <v>0.5948</v>
+      </c>
+      <c r="D153" t="n">
+        <v>30537626800</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -1983,8 +2583,12 @@
       <c r="B154" t="n">
         <v>51103000000</v>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
+      <c r="C154" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="D154" t="n">
+        <v>30774226600</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -1993,8 +2597,12 @@
       <c r="B155" t="n">
         <v>51658000000</v>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
+      <c r="C155" t="n">
+        <v>0.6022999999999999</v>
+      </c>
+      <c r="D155" t="n">
+        <v>31113613400</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -2003,8 +2611,12 @@
       <c r="B156" t="n">
         <v>51676000000</v>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
+      <c r="C156" t="n">
+        <v>0.6027</v>
+      </c>
+      <c r="D156" t="n">
+        <v>31145125200</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -2013,8 +2625,12 @@
       <c r="B157" t="n">
         <v>52085000000</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+      <c r="C157" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="D157" t="n">
+        <v>32073943000</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -2023,8 +2639,12 @@
       <c r="B158" t="n">
         <v>52717000000</v>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+      <c r="C158" t="n">
+        <v>0.6294</v>
+      </c>
+      <c r="D158" t="n">
+        <v>33180079800</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -2033,8 +2653,12 @@
       <c r="B159" t="n">
         <v>53626000000</v>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
+      <c r="C159" t="n">
+        <v>0.6399</v>
+      </c>
+      <c r="D159" t="n">
+        <v>34315277400</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -2043,8 +2667,12 @@
       <c r="B160" t="n">
         <v>54225000000</v>
       </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
+      <c r="C160" t="n">
+        <v>0.6372</v>
+      </c>
+      <c r="D160" t="n">
+        <v>34552170000</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -2053,8 +2681,12 @@
       <c r="B161" t="n">
         <v>54799000000</v>
       </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
+      <c r="C161" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="D161" t="n">
+        <v>34742566000</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -2063,8 +2695,12 @@
       <c r="B162" t="n">
         <v>54760000000</v>
       </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
+      <c r="C162" t="n">
+        <v>0.6554</v>
+      </c>
+      <c r="D162" t="n">
+        <v>35889704000</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -2073,8 +2709,12 @@
       <c r="B163" t="n">
         <v>55835000000</v>
       </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
+      <c r="C163" t="n">
+        <v>0.6712</v>
+      </c>
+      <c r="D163" t="n">
+        <v>37476452000</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -2083,8 +2723,12 @@
       <c r="B164" t="n">
         <v>56778000000</v>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+      <c r="C164" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="D164" t="n">
+        <v>37763047800</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -2093,8 +2737,12 @@
       <c r="B165" t="n">
         <v>56814000000</v>
       </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
+      <c r="C165" t="n">
+        <v>0.6701</v>
+      </c>
+      <c r="D165" t="n">
+        <v>38071061400</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -2103,8 +2751,12 @@
       <c r="B166" t="n">
         <v>56158000000</v>
       </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
+      <c r="C166" t="n">
+        <v>0.6756</v>
+      </c>
+      <c r="D166" t="n">
+        <v>37940344800</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -2113,8 +2765,12 @@
       <c r="B167" t="n">
         <v>57209000000</v>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
+      <c r="C167" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="D167" t="n">
+        <v>37300268000</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -2123,8 +2779,12 @@
       <c r="B168" t="n">
         <v>57700000000</v>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+      <c r="C168" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="D168" t="n">
+        <v>37908900000</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -2133,8 +2793,12 @@
       <c r="B169" t="n">
         <v>58639000000</v>
       </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
+      <c r="C169" t="n">
+        <v>0.6591</v>
+      </c>
+      <c r="D169" t="n">
+        <v>38648964900</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -2143,8 +2807,12 @@
       <c r="B170" t="n">
         <v>59763000000</v>
       </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
+      <c r="C170" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="D170" t="n">
+        <v>39025239000</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -2153,8 +2821,12 @@
       <c r="B171" t="n">
         <v>60010000000</v>
       </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
+      <c r="C171" t="n">
+        <v>0.6536999999999999</v>
+      </c>
+      <c r="D171" t="n">
+        <v>39228537000</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -2163,8 +2835,12 @@
       <c r="B172" t="n">
         <v>59951000000</v>
       </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
+      <c r="C172" t="n">
+        <v>0.6723</v>
+      </c>
+      <c r="D172" t="n">
+        <v>40305057300</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -2173,8 +2849,12 @@
       <c r="B173" t="n">
         <v>60106000000</v>
       </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
+      <c r="C173" t="n">
+        <v>0.6735</v>
+      </c>
+      <c r="D173" t="n">
+        <v>40481391000</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -2183,8 +2863,12 @@
       <c r="B174" t="n">
         <v>60824000000</v>
       </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
+      <c r="C174" t="n">
+        <v>0.6825</v>
+      </c>
+      <c r="D174" t="n">
+        <v>41512380000</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -2193,8 +2877,12 @@
       <c r="B175" t="n">
         <v>62080000000</v>
       </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
+      <c r="C175" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="D175" t="n">
+        <v>42680000000</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -2203,8 +2891,12 @@
       <c r="B176" t="n">
         <v>65168000000</v>
       </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+      <c r="C176" t="n">
+        <v>0.6796</v>
+      </c>
+      <c r="D176" t="n">
+        <v>44288172800</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -2213,8 +2905,12 @@
       <c r="B177" t="n">
         <v>65050000000</v>
       </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
+      <c r="C177" t="n">
+        <v>0.6843</v>
+      </c>
+      <c r="D177" t="n">
+        <v>44513715000</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -2223,8 +2919,12 @@
       <c r="B178" t="n">
         <v>64390000000</v>
       </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
+      <c r="C178" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="D178" t="n">
+        <v>44268125000</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -2233,8 +2933,12 @@
       <c r="B179" t="n">
         <v>64984000000</v>
       </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
+      <c r="C179" t="n">
+        <v>0.6888</v>
+      </c>
+      <c r="D179" t="n">
+        <v>44760979200</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -2243,8 +2947,12 @@
       <c r="B180" t="n">
         <v>65141000000</v>
       </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="C180" t="n">
+        <v>0.6994</v>
+      </c>
+      <c r="D180" t="n">
+        <v>45559615400</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -2254,10 +2962,10 @@
         <v>67841000000</v>
       </c>
       <c r="C181" t="n">
-        <v>1.421060110842689</v>
+        <v>0.7071999999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>96406138979.67883</v>
+        <v>47977155199.99999</v>
       </c>
     </row>
     <row r="182">
@@ -2267,8 +2975,12 @@
       <c r="B182" t="n">
         <v>66576000000</v>
       </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
+      <c r="C182" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="D182" t="n">
+        <v>47435400000</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -2277,8 +2989,12 @@
       <c r="B183" t="n">
         <v>66584000000</v>
       </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="C183" t="n">
+        <v>0.7065</v>
+      </c>
+      <c r="D183" t="n">
+        <v>47041596000</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -2287,8 +3003,12 @@
       <c r="B184" t="n">
         <v>66968000000</v>
       </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
+      <c r="C184" t="n">
+        <v>0.6896</v>
+      </c>
+      <c r="D184" t="n">
+        <v>46181132800</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -2297,8 +3017,12 @@
       <c r="B185" t="n">
         <v>66549000000</v>
       </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
+      <c r="C185" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="D185" t="n">
+        <v>46344723600</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -2307,8 +3031,12 @@
       <c r="B186" t="n">
         <v>66572000000</v>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
+      <c r="C186" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="D186" t="n">
+        <v>46267540000</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -2317,8 +3045,12 @@
       <c r="B187" t="n">
         <v>68198000000</v>
       </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
+      <c r="C187" t="n">
+        <v>0.6936</v>
+      </c>
+      <c r="D187" t="n">
+        <v>47302132800</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -2327,8 +3059,12 @@
       <c r="B188" t="n">
         <v>68983000000</v>
       </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
+      <c r="C188" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>47529287000</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -2337,8 +3073,12 @@
       <c r="B189" t="n">
         <v>68692000000</v>
       </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+      <c r="C189" t="n">
+        <v>0.6811</v>
+      </c>
+      <c r="D189" t="n">
+        <v>46786121200</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -2347,8 +3087,12 @@
       <c r="B190" t="n">
         <v>69166000000</v>
       </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="C190" t="n">
+        <v>0.6491</v>
+      </c>
+      <c r="D190" t="n">
+        <v>44895650600</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -2357,8 +3101,12 @@
       <c r="B191" t="n">
         <v>70950000000</v>
       </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>0.6385999999999999</v>
+      </c>
+      <c r="D191" t="n">
+        <v>45308669999.99999</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -2367,8 +3115,12 @@
       <c r="B192" t="n">
         <v>71582000000</v>
       </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
+      <c r="C192" t="n">
+        <v>0.6419</v>
+      </c>
+      <c r="D192" t="n">
+        <v>45948485800</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -2377,8 +3129,12 @@
       <c r="B193" t="n">
         <v>70746000000</v>
       </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>0.6207</v>
+      </c>
+      <c r="D193" t="n">
+        <v>43912042200</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -2387,8 +3143,12 @@
       <c r="B194" t="n">
         <v>70932000000</v>
       </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="D194" t="n">
+        <v>43687018800</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -2397,8 +3157,12 @@
       <c r="B195" t="n">
         <v>71575000000</v>
       </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+      <c r="C195" t="n">
+        <v>0.5821999999999999</v>
+      </c>
+      <c r="D195" t="n">
+        <v>41670964999.99999</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -2407,8 +3171,12 @@
       <c r="B196" t="n">
         <v>72684000000</v>
       </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
+      <c r="C196" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="D196" t="n">
+        <v>42781802400</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -2417,8 +3185,12 @@
       <c r="B197" t="n">
         <v>71724000000</v>
       </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>0.5846</v>
+      </c>
+      <c r="D197" t="n">
+        <v>41929850400</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -2427,8 +3199,12 @@
       <c r="B198" t="n">
         <v>71979000000</v>
       </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
+      <c r="C198" t="n">
+        <v>0.5516</v>
+      </c>
+      <c r="D198" t="n">
+        <v>39703616400</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -2437,8 +3213,12 @@
       <c r="B199" t="n">
         <v>72204000000</v>
       </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+      <c r="C199" t="n">
+        <v>0.5532</v>
+      </c>
+      <c r="D199" t="n">
+        <v>39943252800</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -2447,8 +3227,12 @@
       <c r="B200" t="n">
         <v>73578000000</v>
       </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
+      <c r="C200" t="n">
+        <v>0.5336</v>
+      </c>
+      <c r="D200" t="n">
+        <v>39261220800</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -2457,8 +3241,12 @@
       <c r="B201" t="n">
         <v>73056000000</v>
       </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
+      <c r="C201" t="n">
+        <v>0.5193</v>
+      </c>
+      <c r="D201" t="n">
+        <v>37937980800</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -2467,8 +3255,12 @@
       <c r="B202" t="n">
         <v>73068000000</v>
       </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
+      <c r="C202" t="n">
+        <v>0.5107</v>
+      </c>
+      <c r="D202" t="n">
+        <v>37315827600</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -2477,8 +3269,12 @@
       <c r="B203" t="n">
         <v>72606000000</v>
       </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+      <c r="C203" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="D203" t="n">
+        <v>35939970000</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -2487,8 +3283,12 @@
       <c r="B204" t="n">
         <v>71525000000</v>
       </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+      <c r="C204" t="n">
+        <v>0.5017</v>
+      </c>
+      <c r="D204" t="n">
+        <v>35884092500</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -2497,8 +3297,12 @@
       <c r="B205" t="n">
         <v>72175000000</v>
       </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="C205" t="n">
+        <v>0.5286999999999999</v>
+      </c>
+      <c r="D205" t="n">
+        <v>38158922500</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -2507,8 +3311,12 @@
       <c r="B206" t="n">
         <v>72855000000</v>
       </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
+      <c r="C206" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="D206" t="n">
+        <v>38248875000</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -2517,8 +3325,12 @@
       <c r="B207" t="n">
         <v>72332000000</v>
       </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
+      <c r="C207" t="n">
+        <v>0.5276999999999999</v>
+      </c>
+      <c r="D207" t="n">
+        <v>38169596399.99999</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -2527,8 +3339,12 @@
       <c r="B208" t="n">
         <v>73262000000</v>
       </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
+      <c r="C208" t="n">
+        <v>0.5417</v>
+      </c>
+      <c r="D208" t="n">
+        <v>39686025400</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -2537,8 +3353,12 @@
       <c r="B209" t="n">
         <v>74810000000</v>
       </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
+      <c r="C209" t="n">
+        <v>0.5213</v>
+      </c>
+      <c r="D209" t="n">
+        <v>38998453000</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -2547,8 +3367,12 @@
       <c r="B210" t="n">
         <v>73920000000</v>
       </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
+      <c r="C210" t="n">
+        <v>0.5347999999999999</v>
+      </c>
+      <c r="D210" t="n">
+        <v>39532415999.99999</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -2557,8 +3381,12 @@
       <c r="B211" t="n">
         <v>73161000000</v>
       </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
+      <c r="C211" t="n">
+        <v>0.5589999999999999</v>
+      </c>
+      <c r="D211" t="n">
+        <v>40896998999.99999</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -2567,8 +3395,12 @@
       <c r="B212" t="n">
         <v>72833000000</v>
       </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+      <c r="C212" t="n">
+        <v>0.5344</v>
+      </c>
+      <c r="D212" t="n">
+        <v>38921955200</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -2577,8 +3409,12 @@
       <c r="B213" t="n">
         <v>73502000000</v>
       </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
+      <c r="C213" t="n">
+        <v>0.5355</v>
+      </c>
+      <c r="D213" t="n">
+        <v>39360321000</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -2587,8 +3423,12 @@
       <c r="B214" t="n">
         <v>75262000000</v>
       </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
+      <c r="C214" t="n">
+        <v>0.5312</v>
+      </c>
+      <c r="D214" t="n">
+        <v>39979174400</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -2597,8 +3437,12 @@
       <c r="B215" t="n">
         <v>75935000000</v>
       </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+      <c r="C215" t="n">
+        <v>0.5185999999999999</v>
+      </c>
+      <c r="D215" t="n">
+        <v>39379891000</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -2607,8 +3451,12 @@
       <c r="B216" t="n">
         <v>75717000000</v>
       </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
+      <c r="C216" t="n">
+        <v>0.5185999999999999</v>
+      </c>
+      <c r="D216" t="n">
+        <v>39266836200</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -2617,8 +3465,12 @@
       <c r="B217" t="n">
         <v>75525000000</v>
       </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
+      <c r="C217" t="n">
+        <v>0.5078</v>
+      </c>
+      <c r="D217" t="n">
+        <v>38351595000</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -2627,8 +3479,12 @@
       <c r="B218" t="n">
         <v>74655000000</v>
       </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
+      <c r="C218" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="D218" t="n">
+        <v>37999395000</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -2637,8 +3493,12 @@
       <c r="B219" t="n">
         <v>76630000000</v>
       </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
+      <c r="C219" t="n">
+        <v>0.5246</v>
+      </c>
+      <c r="D219" t="n">
+        <v>40200098000</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -2647,8 +3507,12 @@
       <c r="B220" t="n">
         <v>75188000000</v>
       </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
+      <c r="C220" t="n">
+        <v>0.4965</v>
+      </c>
+      <c r="D220" t="n">
+        <v>37330842000</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -2657,8 +3521,12 @@
       <c r="B221" t="n">
         <v>75809000000</v>
       </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
+      <c r="C221" t="n">
+        <v>0.4893</v>
+      </c>
+      <c r="D221" t="n">
+        <v>37093343700</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -2667,8 +3535,12 @@
       <c r="B222" t="n">
         <v>75243000000</v>
       </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
+      <c r="C222" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="D222" t="n">
+        <v>37395771000</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -2677,8 +3549,12 @@
       <c r="B223" t="n">
         <v>75721000000</v>
       </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
+      <c r="C223" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="D223" t="n">
+        <v>36770117600</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -2687,8 +3563,12 @@
       <c r="B224" t="n">
         <v>76770000000</v>
       </c>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
+      <c r="C224" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="D224" t="n">
+        <v>35160660000</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -2697,8 +3577,12 @@
       <c r="B225" t="n">
         <v>75620000000</v>
       </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
+      <c r="C225" t="n">
+        <v>0.4686</v>
+      </c>
+      <c r="D225" t="n">
+        <v>35435532000</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -2707,8 +3591,12 @@
       <c r="B226" t="n">
         <v>76874000000</v>
       </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
+      <c r="C226" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="D226" t="n">
+        <v>34939233000</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -2717,8 +3605,12 @@
       <c r="B227" t="n">
         <v>77423000000</v>
       </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
+      <c r="C227" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="D227" t="n">
+        <v>33067363300</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -2727,8 +3619,12 @@
       <c r="B228" t="n">
         <v>77689000000</v>
       </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
+      <c r="C228" t="n">
+        <v>0.4076</v>
+      </c>
+      <c r="D228" t="n">
+        <v>31666036400</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -2737,8 +3633,12 @@
       <c r="B229" t="n">
         <v>77465000000</v>
       </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
+      <c r="C229" t="n">
+        <v>0.3948</v>
+      </c>
+      <c r="D229" t="n">
+        <v>30583182000</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -2747,8 +3647,12 @@
       <c r="B230" t="n">
         <v>76636000000</v>
       </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
+      <c r="C230" t="n">
+        <v>0.4129</v>
+      </c>
+      <c r="D230" t="n">
+        <v>31643004400</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -2757,8 +3661,12 @@
       <c r="B231" t="n">
         <v>78422000000</v>
       </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
+      <c r="C231" t="n">
+        <v>0.4434</v>
+      </c>
+      <c r="D231" t="n">
+        <v>34772314800</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -2767,8 +3675,12 @@
       <c r="B232" t="n">
         <v>77827000000</v>
       </c>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
+      <c r="C232" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="D232" t="n">
+        <v>34555188000</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -2777,8 +3689,12 @@
       <c r="B233" t="n">
         <v>78419000000</v>
       </c>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
+      <c r="C233" t="n">
+        <v>0.4314</v>
+      </c>
+      <c r="D233" t="n">
+        <v>33829956600</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -2787,8 +3703,12 @@
       <c r="B234" t="n">
         <v>79961000000</v>
       </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
+      <c r="C234" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="D234" t="n">
+        <v>32256267400</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -2797,8 +3717,12 @@
       <c r="B235" t="n">
         <v>79903000000</v>
       </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="D235" t="n">
+        <v>33063861400</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -2807,8 +3731,12 @@
       <c r="B236" t="n">
         <v>81247000000</v>
       </c>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
+      <c r="C236" t="n">
+        <v>0.4093</v>
+      </c>
+      <c r="D236" t="n">
+        <v>33254397100</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -2817,8 +3745,12 @@
       <c r="B237" t="n">
         <v>81397000000</v>
       </c>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
+      <c r="C237" t="n">
+        <v>0.4065</v>
+      </c>
+      <c r="D237" t="n">
+        <v>33087880500</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -2827,8 +3759,12 @@
       <c r="B238" t="n">
         <v>82278000000</v>
       </c>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
+      <c r="C238" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="D238" t="n">
+        <v>34063092000</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -2837,8 +3773,12 @@
       <c r="B239" t="n">
         <v>82357000000</v>
       </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
+      <c r="C239" t="n">
+        <v>0.4387</v>
+      </c>
+      <c r="D239" t="n">
+        <v>36130015900</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -2847,8 +3787,12 @@
       <c r="B240" t="n">
         <v>83722000000</v>
       </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
+      <c r="C240" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="D240" t="n">
+        <v>34116715000</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -2857,8 +3801,12 @@
       <c r="B241" t="n">
         <v>83831000000</v>
       </c>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
+      <c r="C241" t="n">
+        <v>0.4111</v>
+      </c>
+      <c r="D241" t="n">
+        <v>34462924100</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -2867,8 +3815,12 @@
       <c r="B242" t="n">
         <v>82083000000</v>
       </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
+      <c r="C242" t="n">
+        <v>0.4159</v>
+      </c>
+      <c r="D242" t="n">
+        <v>34138319700</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -2877,8 +3829,12 @@
       <c r="B243" t="n">
         <v>83579000000</v>
       </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
+      <c r="C243" t="n">
+        <v>0.4181</v>
+      </c>
+      <c r="D243" t="n">
+        <v>34944379900</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -2887,8 +3843,12 @@
       <c r="B244" t="n">
         <v>83142000000</v>
       </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
+      <c r="C244" t="n">
+        <v>0.4162</v>
+      </c>
+      <c r="D244" t="n">
+        <v>34603700400</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -2897,8 +3857,12 @@
       <c r="B245" t="n">
         <v>83870000000</v>
       </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
+      <c r="C245" t="n">
+        <v>0.4216</v>
+      </c>
+      <c r="D245" t="n">
+        <v>35359592000</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -2907,8 +3871,12 @@
       <c r="B246" t="n">
         <v>87080000000</v>
       </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
+      <c r="C246" t="n">
+        <v>0.4405</v>
+      </c>
+      <c r="D246" t="n">
+        <v>38358740000</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -2917,8 +3885,12 @@
       <c r="B247" t="n">
         <v>85751000000</v>
       </c>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
+      <c r="C247" t="n">
+        <v>0.4475</v>
+      </c>
+      <c r="D247" t="n">
+        <v>38373572500</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -2927,8 +3899,12 @@
       <c r="B248" t="n">
         <v>86550000000</v>
       </c>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
+      <c r="C248" t="n">
+        <v>0.4805</v>
+      </c>
+      <c r="D248" t="n">
+        <v>41587275000</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -2937,8 +3913,12 @@
       <c r="B249" t="n">
         <v>88768000000</v>
       </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
+      <c r="C249" t="n">
+        <v>0.4864</v>
+      </c>
+      <c r="D249" t="n">
+        <v>43176755200</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -2947,8 +3927,12 @@
       <c r="B250" t="n">
         <v>88681000000</v>
       </c>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
+      <c r="C250" t="n">
+        <v>0.4657</v>
+      </c>
+      <c r="D250" t="n">
+        <v>41298741700</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -2957,8 +3941,12 @@
       <c r="B251" t="n">
         <v>89673000000</v>
       </c>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
+      <c r="C251" t="n">
+        <v>0.4689</v>
+      </c>
+      <c r="D251" t="n">
+        <v>42047669700</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -2967,8 +3955,12 @@
       <c r="B252" t="n">
         <v>89297000000</v>
       </c>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
+      <c r="C252" t="n">
+        <v>0.4693</v>
+      </c>
+      <c r="D252" t="n">
+        <v>41907082100</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -2977,8 +3969,12 @@
       <c r="B253" t="n">
         <v>90012000000</v>
       </c>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
+      <c r="C253" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="D253" t="n">
+        <v>43736830800</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -2987,8 +3983,12 @@
       <c r="B254" t="n">
         <v>91205000000</v>
       </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
+      <c r="C254" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="D254" t="n">
+        <v>45447451500</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -2997,8 +3997,12 @@
       <c r="B255" t="n">
         <v>93743000000</v>
       </c>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
+      <c r="C255" t="n">
+        <v>0.5226999999999999</v>
+      </c>
+      <c r="D255" t="n">
+        <v>48999466099.99999</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -3007,8 +4011,12 @@
       <c r="B256" t="n">
         <v>92659000000</v>
       </c>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
+      <c r="C256" t="n">
+        <v>0.5445</v>
+      </c>
+      <c r="D256" t="n">
+        <v>50452825500</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -3017,8 +4025,12 @@
       <c r="B257" t="n">
         <v>94032000000</v>
       </c>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
+      <c r="C257" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="D257" t="n">
+        <v>52601500800</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -3027,8 +4039,12 @@
       <c r="B258" t="n">
         <v>93819000000</v>
       </c>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr"/>
+      <c r="C258" t="n">
+        <v>0.5548999999999999</v>
+      </c>
+      <c r="D258" t="n">
+        <v>52060163099.99999</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -3037,8 +4053,12 @@
       <c r="B259" t="n">
         <v>93353000000</v>
       </c>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
+      <c r="C259" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="D259" t="n">
+        <v>52343027100</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -3047,8 +4067,12 @@
       <c r="B260" t="n">
         <v>93631000000</v>
       </c>
-      <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr"/>
+      <c r="C260" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="D260" t="n">
+        <v>54025086999.99999</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -3057,8 +4081,12 @@
       <c r="B261" t="n">
         <v>95503000000</v>
       </c>
-      <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr"/>
+      <c r="C261" t="n">
+        <v>0.5874</v>
+      </c>
+      <c r="D261" t="n">
+        <v>56098462200</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -3067,8 +4095,12 @@
       <c r="B262" t="n">
         <v>95766000000</v>
       </c>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
+      <c r="C262" t="n">
+        <v>0.5810999999999999</v>
+      </c>
+      <c r="D262" t="n">
+        <v>55649622599.99999</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -3077,8 +4109,12 @@
       <c r="B263" t="n">
         <v>95741000000</v>
       </c>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
+      <c r="C263" t="n">
+        <v>0.5780999999999999</v>
+      </c>
+      <c r="D263" t="n">
+        <v>55347872099.99999</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -3087,8 +4123,12 @@
       <c r="B264" t="n">
         <v>97689000000</v>
       </c>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
+      <c r="C264" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="D264" t="n">
+        <v>58124955000</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -3097,8 +4137,12 @@
       <c r="B265" t="n">
         <v>99787000000</v>
       </c>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
+      <c r="C265" t="n">
+        <v>0.6136</v>
+      </c>
+      <c r="D265" t="n">
+        <v>61229303200</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -3107,8 +4151,12 @@
       <c r="B266" t="n">
         <v>100963000000</v>
       </c>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
+      <c r="C266" t="n">
+        <v>0.6395</v>
+      </c>
+      <c r="D266" t="n">
+        <v>64565838499.99999</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -3117,8 +4165,12 @@
       <c r="B267" t="n">
         <v>103231000000</v>
       </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
+      <c r="C267" t="n">
+        <v>0.6556</v>
+      </c>
+      <c r="D267" t="n">
+        <v>67678243599.99999</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -3127,8 +4179,12 @@
       <c r="B268" t="n">
         <v>103512000000</v>
       </c>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
+      <c r="C268" t="n">
+        <v>0.6737</v>
+      </c>
+      <c r="D268" t="n">
+        <v>69736034400</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -3137,8 +4193,12 @@
       <c r="B269" t="n">
         <v>104774000000</v>
       </c>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr"/>
+      <c r="C269" t="n">
+        <v>0.6869999999999999</v>
+      </c>
+      <c r="D269" t="n">
+        <v>71979738000</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -3147,8 +4207,12 @@
       <c r="B270" t="n">
         <v>105566000000</v>
       </c>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr"/>
+      <c r="C270" t="n">
+        <v>0.6685</v>
+      </c>
+      <c r="D270" t="n">
+        <v>70570871000</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -3157,8 +4221,12 @@
       <c r="B271" t="n">
         <v>105181000000</v>
       </c>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
+      <c r="C271" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="D271" t="n">
+        <v>65811751700</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -3167,8 +4235,12 @@
       <c r="B272" t="n">
         <v>107854000000</v>
       </c>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr"/>
+      <c r="C272" t="n">
+        <v>0.6318</v>
+      </c>
+      <c r="D272" t="n">
+        <v>68142157200</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -3177,8 +4249,12 @@
       <c r="B273" t="n">
         <v>106773000000</v>
       </c>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
+      <c r="C273" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="D273" t="n">
+        <v>67907628000</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -3187,8 +4263,12 @@
       <c r="B274" t="n">
         <v>106562000000</v>
       </c>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
+      <c r="C274" t="n">
+        <v>0.6354</v>
+      </c>
+      <c r="D274" t="n">
+        <v>67709494800</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -3197,8 +4277,12 @@
       <c r="B275" t="n">
         <v>105557000000</v>
       </c>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
+      <c r="C275" t="n">
+        <v>0.6551</v>
+      </c>
+      <c r="D275" t="n">
+        <v>69150390700</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -3207,8 +4291,12 @@
       <c r="B276" t="n">
         <v>104789000000</v>
       </c>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
+      <c r="C276" t="n">
+        <v>0.6777</v>
+      </c>
+      <c r="D276" t="n">
+        <v>71015505300</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -3217,8 +4305,12 @@
       <c r="B277" t="n">
         <v>106039000000</v>
       </c>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
+      <c r="C277" t="n">
+        <v>0.6844</v>
+      </c>
+      <c r="D277" t="n">
+        <v>72573091600</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -3227,8 +4319,12 @@
       <c r="B278" t="n">
         <v>106178000000</v>
       </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr"/>
+      <c r="C278" t="n">
+        <v>0.7139</v>
+      </c>
+      <c r="D278" t="n">
+        <v>75800474200</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -3237,8 +4333,12 @@
       <c r="B279" t="n">
         <v>107808000000</v>
       </c>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
+      <c r="C279" t="n">
+        <v>0.7196</v>
+      </c>
+      <c r="D279" t="n">
+        <v>77578636800</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -3247,8 +4347,12 @@
       <c r="B280" t="n">
         <v>107823000000</v>
       </c>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
+      <c r="C280" t="n">
+        <v>0.7104</v>
+      </c>
+      <c r="D280" t="n">
+        <v>76597459200</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -3257,8 +4361,12 @@
       <c r="B281" t="n">
         <v>109719000000</v>
       </c>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
+      <c r="C281" t="n">
+        <v>0.7263999999999999</v>
+      </c>
+      <c r="D281" t="n">
+        <v>79699881600</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -3267,8 +4375,12 @@
       <c r="B282" t="n">
         <v>110798000000</v>
       </c>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
+      <c r="C282" t="n">
+        <v>0.7116</v>
+      </c>
+      <c r="D282" t="n">
+        <v>78843856800</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -3277,8 +4389,12 @@
       <c r="B283" t="n">
         <v>111413000000</v>
       </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
+      <c r="C283" t="n">
+        <v>0.7309</v>
+      </c>
+      <c r="D283" t="n">
+        <v>81431761700</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -3287,8 +4403,12 @@
       <c r="B284" t="n">
         <v>111861000000</v>
       </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
+      <c r="C284" t="n">
+        <v>0.7047</v>
+      </c>
+      <c r="D284" t="n">
+        <v>78828446700</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -3297,8 +4417,12 @@
       <c r="B285" t="n">
         <v>113980000000</v>
       </c>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
+      <c r="C285" t="n">
+        <v>0.6972</v>
+      </c>
+      <c r="D285" t="n">
+        <v>79466856000</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -3307,8 +4431,12 @@
       <c r="B286" t="n">
         <v>114215000000</v>
       </c>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
+      <c r="C286" t="n">
+        <v>0.6802</v>
+      </c>
+      <c r="D286" t="n">
+        <v>77689043000</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -3317,8 +4445,12 @@
       <c r="B287" t="n">
         <v>114963000000</v>
       </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr"/>
+      <c r="C287" t="n">
+        <v>0.6960999999999999</v>
+      </c>
+      <c r="D287" t="n">
+        <v>80025744300</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -3327,8 +4459,12 @@
       <c r="B288" t="n">
         <v>117770000000</v>
       </c>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr"/>
+      <c r="C288" t="n">
+        <v>0.6915</v>
+      </c>
+      <c r="D288" t="n">
+        <v>81437955000</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -3337,8 +4473,12 @@
       <c r="B289" t="n">
         <v>117253000000</v>
       </c>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
+      <c r="C289" t="n">
+        <v>0.7001999999999999</v>
+      </c>
+      <c r="D289" t="n">
+        <v>82100550599.99998</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -3347,8 +4487,12 @@
       <c r="B290" t="n">
         <v>117084000000</v>
       </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
+      <c r="C290" t="n">
+        <v>0.7027</v>
+      </c>
+      <c r="D290" t="n">
+        <v>82274926800</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -3357,8 +4501,12 @@
       <c r="B291" t="n">
         <v>118937000000</v>
       </c>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
+      <c r="C291" t="n">
+        <v>0.6827</v>
+      </c>
+      <c r="D291" t="n">
+        <v>81198289900</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -3368,10 +4516,10 @@
         <v>119143000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.6878052135635189</v>
+        <v>0.6882</v>
       </c>
       <c r="D292" t="n">
-        <v>81947176559.59833</v>
+        <v>81994212600</v>
       </c>
     </row>
     <row r="293">
@@ -3382,10 +4530,10 @@
         <v>119816000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.6621201085876978</v>
+        <v>0.6617</v>
       </c>
       <c r="D293" t="n">
-        <v>79332582930.54359</v>
+        <v>79282247200</v>
       </c>
     </row>
     <row r="294">
@@ -3396,10 +4544,10 @@
         <v>120893000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.6162948354492789</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="D294" t="n">
-        <v>74505731541.96967</v>
+        <v>74397552200</v>
       </c>
     </row>
     <row r="295">
@@ -3410,10 +4558,10 @@
         <v>122329000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.6382842918235783</v>
+        <v>0.6384</v>
       </c>
       <c r="D295" t="n">
-        <v>78080679134.48651</v>
+        <v>78094833600</v>
       </c>
     </row>
     <row r="296">
@@ -3424,10 +4572,10 @@
         <v>122987000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.6343165239454488</v>
+        <v>0.6342</v>
       </c>
       <c r="D296" t="n">
-        <v>78012686330.47891</v>
+        <v>77998355400</v>
       </c>
     </row>
     <row r="297">
@@ -3438,10 +4586,10 @@
         <v>124982000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.608976310821509</v>
+        <v>0.6092</v>
       </c>
       <c r="D297" t="n">
-        <v>76111077279.09384</v>
+        <v>76139034400</v>
       </c>
     </row>
     <row r="298">
@@ -3452,10 +4600,10 @@
         <v>126112000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.6177415369409439</v>
+        <v>0.6184999999999999</v>
       </c>
       <c r="D298" t="n">
-        <v>77904620706.69632</v>
+        <v>78000271999.99998</v>
       </c>
     </row>
     <row r="299">
@@ -3466,10 +4614,10 @@
         <v>126790000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.6559097468188377</v>
+        <v>0.6561</v>
       </c>
       <c r="D299" t="n">
-        <v>83162796799.16043</v>
+        <v>83186919000</v>
       </c>
     </row>
     <row r="300">
@@ -3480,10 +4628,10 @@
         <v>127329000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.6533812479581836</v>
+        <v>0.6526999999999999</v>
       </c>
       <c r="D300" t="n">
-        <v>83194380921.26756</v>
+        <v>83107638300</v>
       </c>
     </row>
     <row r="301">
@@ -3494,10 +4642,10 @@
         <v>128048000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.6704210244033253</v>
+        <v>0.6702</v>
       </c>
       <c r="D301" t="n">
-        <v>85846071332.797</v>
+        <v>85817769600</v>
       </c>
     </row>
     <row r="302">
@@ -3508,10 +4656,10 @@
         <v>131146000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.6844158510711108</v>
+        <v>0.6841</v>
       </c>
       <c r="D302" t="n">
-        <v>89758401204.5719</v>
+        <v>89716978600</v>
       </c>
     </row>
     <row r="303">
@@ -3522,10 +4670,10 @@
         <v>131708000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.7046719751955465</v>
+        <v>0.7043</v>
       </c>
       <c r="D303" t="n">
-        <v>92810936509.05504</v>
+        <v>92761944400</v>
       </c>
     </row>
     <row r="304">
@@ -3536,10 +4684,10 @@
         <v>133105000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.6914194842010648</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D304" t="n">
-        <v>92031390444.58273</v>
+        <v>91975555000</v>
       </c>
     </row>
     <row r="305">
@@ -3550,10 +4698,10 @@
         <v>134703000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.7010999999999999</v>
       </c>
       <c r="D305" t="n">
-        <v>94528421052.63158</v>
+        <v>94440273300</v>
       </c>
     </row>
     <row r="306">
@@ -3564,10 +4712,10 @@
         <v>136207000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.7159733657907925</v>
+        <v>0.7144</v>
       </c>
       <c r="D306" t="n">
-        <v>97520584234.26648</v>
+        <v>97306280800</v>
       </c>
     </row>
     <row r="307">
@@ -3578,10 +4726,10 @@
         <v>139067000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.7410701052319549</v>
+        <v>0.7403999999999999</v>
       </c>
       <c r="D307" t="n">
-        <v>103058396324.2923</v>
+        <v>102965206800</v>
       </c>
     </row>
     <row r="308">
@@ -3592,10 +4740,10 @@
         <v>139023000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.7367025195226168</v>
+        <v>0.7366</v>
       </c>
       <c r="D308" t="n">
-        <v>102418594371.5928</v>
+        <v>102404341800</v>
       </c>
     </row>
     <row r="309">
@@ -3606,10 +4754,10 @@
         <v>140101000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.7720219254226821</v>
+        <v>0.7711</v>
       </c>
       <c r="D309" t="n">
-        <v>108161043773.6432</v>
+        <v>108031881100</v>
       </c>
     </row>
     <row r="310">
@@ -3620,10 +4768,10 @@
         <v>140604000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.7613826709304097</v>
+        <v>0.7623</v>
       </c>
       <c r="D310" t="n">
-        <v>107053449063.4993</v>
+        <v>107182429200</v>
       </c>
     </row>
     <row r="311">
@@ -3634,10 +4782,10 @@
         <v>139973000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.7040270346381301</v>
+        <v>0.7018</v>
       </c>
       <c r="D311" t="n">
-        <v>98544776119.40298</v>
+        <v>98233051400</v>
       </c>
     </row>
     <row r="312">
@@ -3648,10 +4796,10 @@
         <v>142924000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.7580351728320195</v>
+        <v>0.7576499999999999</v>
       </c>
       <c r="D312" t="n">
-        <v>108341419041.8436</v>
+        <v>108286368600</v>
       </c>
     </row>
     <row r="313">
@@ -3662,10 +4810,10 @@
         <v>144156000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.772499034376207</v>
+        <v>0.77313</v>
       </c>
       <c r="D313" t="n">
-        <v>111360370799.5365</v>
+        <v>111451328280</v>
       </c>
     </row>
     <row r="314">
@@ -3676,10 +4824,10 @@
         <v>144974000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.7648183556405354</v>
+        <v>0.7621</v>
       </c>
       <c r="D314" t="n">
-        <v>110878776290.631</v>
+        <v>110484685400</v>
       </c>
     </row>
     <row r="315">
@@ -3690,10 +4838,10 @@
         <v>147844000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.7654037504783774</v>
+        <v>0.7674</v>
       </c>
       <c r="D315" t="n">
-        <v>113160352085.7252</v>
+        <v>113455485600</v>
       </c>
     </row>
     <row r="316">
@@ -3704,10 +4852,10 @@
         <v>149145000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.7885813421654444</v>
+        <v>0.7876</v>
       </c>
       <c r="D316" t="n">
-        <v>117612964277.2652</v>
+        <v>117466602000</v>
       </c>
     </row>
     <row r="317">
@@ -3718,10 +4866,10 @@
         <v>148054000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.7991688643810436</v>
+        <v>0.79933</v>
       </c>
       <c r="D317" t="n">
-        <v>118320147047.071</v>
+        <v>118344003820</v>
       </c>
     </row>
     <row r="318">
@@ -3732,10 +4880,10 @@
         <v>151479000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7857311228097745</v>
+        <v>0.7859</v>
       </c>
       <c r="D318" t="n">
-        <v>119021764752.1018</v>
+        <v>119047346100</v>
       </c>
     </row>
     <row r="319">
@@ -3746,10 +4894,10 @@
         <v>151507000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.7821666014861166</v>
+        <v>0.782</v>
       </c>
       <c r="D319" t="n">
-        <v>118503715291.3571</v>
+        <v>118478474000</v>
       </c>
     </row>
     <row r="320">
@@ -3760,10 +4908,10 @@
         <v>152157000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.7838219156607619</v>
+        <v>0.78335</v>
       </c>
       <c r="D320" t="n">
-        <v>119263991221.1945</v>
+        <v>119192185950</v>
       </c>
     </row>
     <row r="321">
@@ -3774,10 +4922,10 @@
         <v>154052000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.7620789513793629</v>
+        <v>0.7622</v>
       </c>
       <c r="D321" t="n">
-        <v>117399786617.8936</v>
+        <v>117418434400</v>
       </c>
     </row>
     <row r="322">
@@ -3788,10 +4936,10 @@
         <v>154528000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.7336218912772358</v>
+        <v>0.73415</v>
       </c>
       <c r="D322" t="n">
-        <v>113365123615.2887</v>
+        <v>113446731200</v>
       </c>
     </row>
     <row r="323">
@@ -3802,10 +4950,10 @@
         <v>155108000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.702247191011236</v>
+        <v>0.6997599999999999</v>
       </c>
       <c r="D323" t="n">
-        <v>108924157303.3708</v>
+        <v>108538374080</v>
       </c>
     </row>
     <row r="324">
@@ -3816,10 +4964,10 @@
         <v>156430000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.6715916722632639</v>
+        <v>0.66955</v>
       </c>
       <c r="D324" t="n">
-        <v>105057085292.1424</v>
+        <v>104737706500</v>
       </c>
     </row>
     <row r="325">
@@ -3830,10 +4978,10 @@
         <v>158344000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.583056381552096</v>
+        <v>0.584</v>
       </c>
       <c r="D325" t="n">
-        <v>92323479680.48509</v>
+        <v>92472896000</v>
       </c>
     </row>
     <row r="326">
@@ -3844,10 +4992,10 @@
         <v>160333000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.5493599956051201</v>
+        <v>0.5489499999999999</v>
       </c>
       <c r="D326" t="n">
-        <v>88080536175.35571</v>
+        <v>88014800349.99998</v>
       </c>
     </row>
     <row r="327">
@@ -3858,10 +5006,10 @@
         <v>160893000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.5782017924255565</v>
+        <v>0.58363</v>
       </c>
       <c r="D327" t="n">
-        <v>93028620988.72505</v>
+        <v>93901981590</v>
       </c>
     </row>
     <row r="328">
@@ -3872,10 +5020,10 @@
         <v>158009000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.508440105755542</v>
+        <v>0.5075999999999999</v>
       </c>
       <c r="D328" t="n">
-        <v>80338112670.32744</v>
+        <v>80205368399.99998</v>
       </c>
     </row>
     <row r="329">
@@ -3886,10 +5034,10 @@
         <v>159746000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.5003752814610959</v>
+        <v>0.50069</v>
       </c>
       <c r="D329" t="n">
-        <v>79932949712.28423</v>
+        <v>79983224740</v>
       </c>
     </row>
     <row r="330">
@@ -3900,10 +5048,10 @@
         <v>159188000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.5603182607721185</v>
+        <v>0.55914</v>
       </c>
       <c r="D330" t="n">
-        <v>89195943295.79201</v>
+        <v>89008378320</v>
       </c>
     </row>
     <row r="331">
@@ -3914,10 +5062,10 @@
         <v>159673000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.5646208570944611</v>
+        <v>0.56489</v>
       </c>
       <c r="D331" t="n">
-        <v>90154706114.84389</v>
+        <v>90197680970</v>
       </c>
     </row>
     <row r="332">
@@ -3928,10 +5076,10 @@
         <v>158329000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.6402868485081316</v>
+        <v>0.64083</v>
       </c>
       <c r="D332" t="n">
-        <v>101375976437.444</v>
+        <v>101461973070</v>
       </c>
     </row>
     <row r="333">
@@ -3942,10 +5090,10 @@
         <v>157910000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.6457445434586078</v>
+        <v>0.64544</v>
       </c>
       <c r="D333" t="n">
-        <v>101969520857.5488</v>
+        <v>101921430400</v>
       </c>
     </row>
     <row r="334">
@@ -3956,10 +5104,10 @@
         <v>158591000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.6620324395895399</v>
+        <v>0.6619699999999999</v>
       </c>
       <c r="D334" t="n">
-        <v>104992386626.9447</v>
+        <v>104982484270</v>
       </c>
     </row>
     <row r="335">
@@ -3970,10 +5118,10 @@
         <v>157915000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.6853539853334247</v>
+        <v>0.68509</v>
       </c>
       <c r="D335" t="n">
-        <v>108227674593.9278</v>
+        <v>108185987350</v>
       </c>
     </row>
     <row r="336">
@@ -3984,10 +5132,10 @@
         <v>158781000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.7233796296296295</v>
+        <v>0.7226899999999999</v>
       </c>
       <c r="D336" t="n">
-        <v>114858940972.2222</v>
+        <v>114749440890</v>
       </c>
     </row>
     <row r="337">
@@ -3998,10 +5146,10 @@
         <v>158790000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.7175660160734788</v>
+        <v>0.71712</v>
       </c>
       <c r="D337" t="n">
-        <v>113942307692.3077</v>
+        <v>113871484800</v>
       </c>
     </row>
     <row r="338">
@@ -4012,10 +5160,10 @@
         <v>160392000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.7161784716751414</v>
+        <v>0.71532</v>
       </c>
       <c r="D338" t="n">
-        <v>114869297428.9193</v>
+        <v>114731605440</v>
       </c>
     </row>
     <row r="339">
@@ -4026,10 +5174,10 @@
         <v>163056000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.7235366471311772</v>
+        <v>0.72542</v>
       </c>
       <c r="D339" t="n">
-        <v>117976991534.6212</v>
+        <v>118284083520</v>
       </c>
     </row>
     <row r="340">
@@ -4040,10 +5188,10 @@
         <v>160311000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.701508242721852</v>
+        <v>0.70141</v>
       </c>
       <c r="D340" t="n">
-        <v>112459487898.9828</v>
+        <v>112443738510</v>
       </c>
     </row>
     <row r="341">
@@ -4054,10 +5202,10 @@
         <v>160875000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.6983727913960472</v>
+        <v>0.6979</v>
       </c>
       <c r="D341" t="n">
-        <v>112350722815.8391</v>
+        <v>112274662500</v>
       </c>
     </row>
     <row r="342">
@@ -4068,10 +5216,10 @@
         <v>161647000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.7107825716113441</v>
+        <v>0.71027</v>
       </c>
       <c r="D342" t="n">
-        <v>114895870353.2589</v>
+        <v>114813014690</v>
       </c>
     </row>
     <row r="343">
@@ -4082,10 +5230,10 @@
         <v>163862000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.72676</v>
       </c>
       <c r="D343" t="n">
-        <v>119172363636.3636</v>
+        <v>119088347120</v>
       </c>
     </row>
     <row r="344">
@@ -4096,10 +5244,10 @@
         <v>162781000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.6824541049614413</v>
+        <v>0.68037</v>
       </c>
       <c r="D344" t="n">
-        <v>111090561659.7284</v>
+        <v>110751308970</v>
       </c>
     </row>
     <row r="345">
@@ -4110,10 +5258,10 @@
         <v>161316000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.6854009595613434</v>
+        <v>0.68453</v>
       </c>
       <c r="D345" t="n">
-        <v>110566141192.5977</v>
+        <v>110425641480</v>
       </c>
     </row>
     <row r="346">
@@ -4124,10 +5272,10 @@
         <v>162437000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.726321905868681</v>
+        <v>0.72551</v>
       </c>
       <c r="D346" t="n">
-        <v>117981551423.5909</v>
+        <v>117849667870</v>
       </c>
     </row>
     <row r="347">
@@ -4138,10 +5286,10 @@
         <v>162917000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.699839037021485</v>
+        <v>0.69886</v>
       </c>
       <c r="D347" t="n">
-        <v>114015676394.4293</v>
+        <v>113856174620</v>
       </c>
     </row>
     <row r="348">
@@ -4152,10 +5300,10 @@
         <v>164178000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.7341604874825637</v>
+        <v>0.7341299999999999</v>
       </c>
       <c r="D348" t="n">
-        <v>120533000513.9123</v>
+        <v>120527995140</v>
       </c>
     </row>
     <row r="349">
@@ -4166,10 +5314,10 @@
         <v>166485000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.7666947788085563</v>
+        <v>0.76208</v>
       </c>
       <c r="D349" t="n">
-        <v>127643180249.9425</v>
+        <v>126874888800</v>
       </c>
     </row>
     <row r="350">
@@ -4180,10 +5328,10 @@
         <v>167970000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.74249</v>
       </c>
       <c r="D350" t="n">
-        <v>124764168461.7099</v>
+        <v>124716045300</v>
       </c>
     </row>
     <row r="351">
@@ -4194,10 +5342,10 @@
         <v>171217000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.7803964413922272</v>
+        <v>0.77796</v>
       </c>
       <c r="D351" t="n">
-        <v>133617137505.853</v>
+        <v>133199977320</v>
       </c>
     </row>
     <row r="352">
@@ -4208,10 +5356,10 @@
         <v>171348000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.7729169887154119</v>
+        <v>0.77262</v>
       </c>
       <c r="D352" t="n">
-        <v>132437780182.4084</v>
+        <v>132386891760</v>
       </c>
     </row>
     <row r="353">
@@ -4222,10 +5370,10 @@
         <v>172374000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.7526719855486979</v>
+        <v>0.7521</v>
       </c>
       <c r="D353" t="n">
-        <v>129741080836.9712</v>
+        <v>129642485400</v>
       </c>
     </row>
     <row r="354">
@@ -4236,10 +5384,10 @@
         <v>174074000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7614986293024673</v>
+        <v>0.7613799999999999</v>
       </c>
       <c r="D354" t="n">
-        <v>132557112397.1977</v>
+        <v>132536462120</v>
       </c>
     </row>
     <row r="355">
@@ -4250,10 +5398,10 @@
         <v>176860000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.8101758081503687</v>
+        <v>0.80946</v>
       </c>
       <c r="D355" t="n">
-        <v>143287693429.4742</v>
+        <v>143161095600</v>
       </c>
     </row>
     <row r="356">
@@ -4264,10 +5412,10 @@
         <v>175745000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.823519723297373</v>
+        <v>0.82359</v>
       </c>
       <c r="D356" t="n">
-        <v>144729473770.8968</v>
+        <v>144741824550</v>
       </c>
     </row>
     <row r="357">
@@ -4278,10 +5426,10 @@
         <v>176466000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.8285690612312535</v>
+        <v>0.82907</v>
       </c>
       <c r="D357" t="n">
-        <v>146214267959.2344</v>
+        <v>146302666620</v>
       </c>
     </row>
     <row r="358">
@@ -4292,10 +5440,10 @@
         <v>176967000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.8798169980644026</v>
+        <v>0.87895</v>
       </c>
       <c r="D358" t="n">
-        <v>155698574696.4631</v>
+        <v>155545144650</v>
       </c>
     </row>
     <row r="359">
@@ -4306,10 +5454,10 @@
         <v>175197000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.8538251366120219</v>
+        <v>0.85386</v>
       </c>
       <c r="D359" t="n">
-        <v>149587602459.0164</v>
+        <v>149593710420</v>
       </c>
     </row>
     <row r="360">
@@ -4320,10 +5468,10 @@
         <v>175793000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.7612667478684531</v>
+        <v>0.76214</v>
       </c>
       <c r="D360" t="n">
-        <v>133825365408.039</v>
+        <v>133978877020</v>
       </c>
     </row>
     <row r="361">
@@ -4334,10 +5482,10 @@
         <v>179139000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.8076239702794379</v>
+        <v>0.80658</v>
       </c>
       <c r="D361" t="n">
-        <v>144676950411.8882</v>
+        <v>144489934620</v>
       </c>
     </row>
     <row r="362">
@@ -4348,10 +5496,10 @@
         <v>181904000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.7808229874287499</v>
+        <v>0.7799199999999999</v>
       </c>
       <c r="D362" t="n">
-        <v>142034824705.2393</v>
+        <v>141870567680</v>
       </c>
     </row>
     <row r="363">
@@ -4362,10 +5510,10 @@
         <v>184189000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.7774236181295188</v>
+        <v>0.77718</v>
       </c>
       <c r="D363" t="n">
-        <v>143192878799.6579</v>
+        <v>143148007020</v>
       </c>
     </row>
     <row r="364">
@@ -4376,10 +5524,10 @@
         <v>182820000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.8272667107875579</v>
+        <v>0.82656</v>
       </c>
       <c r="D364" t="n">
-        <v>151240900066.1813</v>
+        <v>151111699200</v>
       </c>
     </row>
     <row r="365">
@@ -4390,10 +5538,10 @@
         <v>184386000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.8343763037129747</v>
+        <v>0.83395</v>
       </c>
       <c r="D365" t="n">
-        <v>153847309136.4205</v>
+        <v>153768704700</v>
       </c>
     </row>
     <row r="366">
@@ -4404,10 +5552,10 @@
         <v>186446000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.8196049504139006</v>
+        <v>0.81773</v>
       </c>
       <c r="D366" t="n">
-        <v>152812064584.8701</v>
+        <v>152462487580</v>
       </c>
     </row>
     <row r="367">
@@ -4418,10 +5566,10 @@
         <v>189365000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.8188666885031116</v>
+        <v>0.81843</v>
       </c>
       <c r="D367" t="n">
-        <v>155064690468.3917</v>
+        <v>154981996950</v>
       </c>
     </row>
     <row r="368">
@@ -4432,10 +5580,10 @@
         <v>188392000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.7534091765237702</v>
+        <v>0.75331</v>
       </c>
       <c r="D368" t="n">
-        <v>141936261583.6661</v>
+        <v>141917577520</v>
       </c>
     </row>
     <row r="369">
@@ -4446,10 +5594,10 @@
         <v>188815000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.8019889325527308</v>
+        <v>0.80074</v>
       </c>
       <c r="D369" t="n">
-        <v>151427540299.9439</v>
+        <v>151191723100</v>
       </c>
     </row>
     <row r="370">
@@ -4460,10 +5608,10 @@
         <v>192301000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.8090614886731392</v>
+        <v>0.8086099999999999</v>
       </c>
       <c r="D370" t="n">
-        <v>155583333333.3333</v>
+        <v>155496511610</v>
       </c>
     </row>
     <row r="371">
@@ -4474,10 +5622,10 @@
         <v>190755000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.8037939072421831</v>
+        <v>0.80283</v>
       </c>
       <c r="D371" t="n">
-        <v>153327706775.9826</v>
+        <v>153143836650</v>
       </c>
     </row>
     <row r="372">
@@ -4488,10 +5636,10 @@
         <v>191522000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.8301510874979247</v>
+        <v>0.8300299999999999</v>
       </c>
       <c r="D372" t="n">
-        <v>158992196579.7775</v>
+        <v>158969005660</v>
       </c>
     </row>
     <row r="373">
@@ -4502,10 +5650,10 @@
         <v>192689000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.8227067050596463</v>
+        <v>0.8224399999999999</v>
       </c>
       <c r="D373" t="n">
-        <v>158526532291.2382</v>
+        <v>158475141160</v>
       </c>
     </row>
     <row r="374">
@@ -4516,10 +5664,10 @@
         <v>196035000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.8204791598293403</v>
+        <v>0.82007</v>
       </c>
       <c r="D374" t="n">
-        <v>160842632097.1447</v>
+        <v>160762422450</v>
       </c>
     </row>
     <row r="375">
@@ -4530,10 +5678,10 @@
         <v>200631000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.8289811821271658</v>
+        <v>0.82679</v>
       </c>
       <c r="D375" t="n">
-        <v>166319323551.3554</v>
+        <v>165879704490</v>
       </c>
     </row>
     <row r="376">
@@ -4544,10 +5692,10 @@
         <v>199518000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.839278220730172</v>
+        <v>0.8389099999999999</v>
       </c>
       <c r="D376" t="n">
-        <v>167451112043.6425</v>
+        <v>167377645380</v>
       </c>
     </row>
     <row r="377">
@@ -4558,10 +5706,10 @@
         <v>201848000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.8251505899826719</v>
+        <v>0.8247099999999999</v>
       </c>
       <c r="D377" t="n">
-        <v>166554996286.8224</v>
+        <v>166466064080</v>
       </c>
     </row>
     <row r="378">
@@ -4572,10 +5720,10 @@
         <v>203856000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.8375910880308234</v>
+        <v>0.83599</v>
       </c>
       <c r="D378" t="n">
-        <v>170747968841.6115</v>
+        <v>170421577440</v>
       </c>
     </row>
     <row r="379">
@@ -4586,10 +5734,10 @@
         <v>205362000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.8568980291345329</v>
+        <v>0.85626</v>
       </c>
       <c r="D379" t="n">
-        <v>175974293059.1259</v>
+        <v>175843266120</v>
       </c>
     </row>
     <row r="380">
@@ -4600,10 +5748,10 @@
         <v>206244000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.7941550190597204</v>
+        <v>0.79406</v>
       </c>
       <c r="D380" t="n">
-        <v>163789707750.953</v>
+        <v>163770110640</v>
       </c>
     </row>
     <row r="381">
@@ -4614,10 +5762,10 @@
         <v>205153000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.7739938080495355</v>
+        <v>0.77374</v>
       </c>
       <c r="D381" t="n">
-        <v>158787151702.7864</v>
+        <v>158735082220</v>
       </c>
     </row>
     <row r="382">
@@ -4628,10 +5776,10 @@
         <v>208329000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.7981482959533882</v>
+        <v>0.79842</v>
       </c>
       <c r="D382" t="n">
-        <v>166277436347.6734</v>
+        <v>166334040180</v>
       </c>
     </row>
     <row r="383">
@@ -4642,10 +5790,10 @@
         <v>209263000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.7725587144622992</v>
+        <v>0.7720899999999999</v>
       </c>
       <c r="D383" t="n">
-        <v>161667954264.5241</v>
+        <v>161569869670</v>
       </c>
     </row>
     <row r="384">
@@ -4656,10 +5804,10 @@
         <v>210802000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.8302889405513119</v>
+        <v>0.8295899999999999</v>
       </c>
       <c r="D384" t="n">
-        <v>175026569246.0977</v>
+        <v>174879231180</v>
       </c>
     </row>
     <row r="385">
@@ -4670,10 +5818,10 @@
         <v>211633000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.8258320257659592</v>
+        <v>0.82585</v>
       </c>
       <c r="D385" t="n">
-        <v>174773309108.9272</v>
+        <v>174777113050</v>
       </c>
     </row>
     <row r="386">
@@ -4684,10 +5832,10 @@
         <v>214001000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.8127438231469442</v>
+        <v>0.8126599999999999</v>
       </c>
       <c r="D386" t="n">
-        <v>173927990897.2692</v>
+        <v>173910052660</v>
       </c>
     </row>
     <row r="387">
@@ -4698,10 +5846,10 @@
         <v>216074000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.8220979940808945</v>
+        <v>0.82281</v>
       </c>
       <c r="D387" t="n">
-        <v>177634001973.0352</v>
+        <v>177787847940</v>
       </c>
     </row>
     <row r="388">
@@ -4712,10 +5860,10 @@
         <v>216142000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.8087343307723414</v>
+        <v>0.80759</v>
       </c>
       <c r="D388" t="n">
-        <v>174801455721.7954</v>
+        <v>174554117780</v>
       </c>
     </row>
     <row r="389">
@@ -4726,10 +5874,10 @@
         <v>218953000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.8389261744966443</v>
+        <v>0.83795</v>
       </c>
       <c r="D389" t="n">
-        <v>183685402684.5638</v>
+        <v>183471666350</v>
       </c>
     </row>
     <row r="390">
@@ -4740,10 +5888,10 @@
         <v>218025000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.8677542519958347</v>
+        <v>0.86669</v>
       </c>
       <c r="D390" t="n">
-        <v>189192120791.3918</v>
+        <v>188960087250</v>
       </c>
     </row>
     <row r="391">
@@ -4754,10 +5902,10 @@
         <v>220662000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.8618460742911315</v>
+        <v>0.86156</v>
       </c>
       <c r="D391" t="n">
-        <v>190176678445.2296</v>
+        <v>190113552720</v>
       </c>
     </row>
     <row r="392">
@@ -4768,10 +5916,10 @@
         <v>220034000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.8503401360544218</v>
+        <v>0.84855</v>
       </c>
       <c r="D392" t="n">
-        <v>187103741496.5987</v>
+        <v>186709850700</v>
       </c>
     </row>
     <row r="393">
@@ -4782,10 +5930,10 @@
         <v>220294000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.876577840112202</v>
+        <v>0.87559</v>
       </c>
       <c r="D393" t="n">
-        <v>193104838709.6774</v>
+        <v>192887223460</v>
       </c>
     </row>
     <row r="394">
@@ -4796,10 +5944,10 @@
         <v>221761000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.8502678343678259</v>
+        <v>0.84962</v>
       </c>
       <c r="D394" t="n">
-        <v>188556245217.2434</v>
+        <v>188412580820</v>
       </c>
     </row>
     <row r="395">
@@ -4810,10 +5958,10 @@
         <v>222495000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.8366100560528738</v>
+        <v>0.8347599999999999</v>
       </c>
       <c r="D395" t="n">
-        <v>186141554421.4841</v>
+        <v>185729926200</v>
       </c>
     </row>
     <row r="396">
@@ -4824,10 +5972,10 @@
         <v>224916000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.7815552950371238</v>
+        <v>0.78076</v>
       </c>
       <c r="D396" t="n">
-        <v>175784290738.5697</v>
+        <v>175605416160</v>
       </c>
     </row>
     <row r="397">
@@ -4838,10 +5986,10 @@
         <v>225561000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.7793624814901411</v>
+        <v>0.7783</v>
       </c>
       <c r="D397" t="n">
-        <v>175793780687.3977</v>
+        <v>175554126300</v>
       </c>
     </row>
     <row r="398">
@@ -4852,10 +6000,10 @@
         <v>228548000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.7842522155125089</v>
+        <v>0.78309</v>
       </c>
       <c r="D398" t="n">
-        <v>179239275350.9529</v>
+        <v>178973653320</v>
       </c>
     </row>
     <row r="399">
@@ -4866,10 +6014,10 @@
         <v>230571000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.779666302822392</v>
+        <v>0.77918</v>
       </c>
       <c r="D399" t="n">
-        <v>179768439108.0617</v>
+        <v>179656311780</v>
       </c>
     </row>
     <row r="400">
@@ -4880,10 +6028,10 @@
         <v>230155000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.7260582298700355</v>
+        <v>0.724</v>
       </c>
       <c r="D400" t="n">
-        <v>167105931895.738</v>
+        <v>166632220000</v>
       </c>
     </row>
     <row r="401">
@@ -4894,10 +6042,10 @@
         <v>233043000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.7567731194187983</v>
+        <v>0.75642</v>
       </c>
       <c r="D401" t="n">
-        <v>176360678068.715</v>
+        <v>176278386060</v>
       </c>
     </row>
     <row r="402">
@@ -4908,10 +6056,10 @@
         <v>236828000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.7472166180975864</v>
+        <v>0.74615</v>
       </c>
       <c r="D402" t="n">
-        <v>176961817230.8152</v>
+        <v>176709212200</v>
       </c>
     </row>
     <row r="403">
@@ -4922,10 +6070,10 @@
         <v>238569000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.7609770945894528</v>
+        <v>0.76141</v>
       </c>
       <c r="D403" t="n">
-        <v>181545544479.1112</v>
+        <v>181648822290</v>
       </c>
     </row>
     <row r="404">
@@ -4936,10 +6084,10 @@
         <v>237679000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7109341674960898</v>
+        <v>0.71031</v>
       </c>
       <c r="D404" t="n">
-        <v>168974121996.3031</v>
+        <v>168825770490</v>
       </c>
     </row>
     <row r="405">
@@ -4950,10 +6098,10 @@
         <v>240683000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.6779201410073893</v>
+        <v>0.67631</v>
       </c>
       <c r="D405" t="n">
-        <v>163163853298.0815</v>
+        <v>162776319730</v>
       </c>
     </row>
     <row r="406">
@@ -4964,10 +6112,10 @@
         <v>243516000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.6592392379194411</v>
+        <v>0.65881</v>
       </c>
       <c r="D406" t="n">
-        <v>160535302261.1906</v>
+        <v>160430775960</v>
       </c>
     </row>
     <row r="407">
@@ -4978,10 +6126,10 @@
         <v>243435000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.6347594261774788</v>
+        <v>0.63361</v>
       </c>
       <c r="D407" t="n">
-        <v>154522660911.5146</v>
+        <v>154242850350</v>
       </c>
     </row>
     <row r="408">
@@ -4992,10 +6140,10 @@
         <v>245301000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.6401638819537802</v>
+        <v>0.63962</v>
       </c>
       <c r="D408" t="n">
-        <v>157032840407.1442</v>
+        <v>156899425620</v>
       </c>
     </row>
     <row r="409">
@@ -5006,10 +6154,10 @@
         <v>245876000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.67677</v>
       </c>
       <c r="D409" t="n">
-        <v>166695593220.339</v>
+        <v>166401500520</v>
       </c>
     </row>
     <row r="410">
@@ -5020,10 +6168,10 @@
         <v>251168000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.6588483331137172</v>
+        <v>0.65801</v>
       </c>
       <c r="D410" t="n">
-        <v>165481618131.5061</v>
+        <v>165271055680</v>
       </c>
     </row>
     <row r="411">
@@ -5034,10 +6182,10 @@
         <v>253283000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.6832467887400929</v>
+        <v>0.68286</v>
       </c>
       <c r="D411" t="n">
-        <v>173054796392.457</v>
+        <v>172956829380</v>
       </c>
     </row>
     <row r="412">
@@ -5048,10 +6196,10 @@
         <v>252048000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.6485504896556197</v>
+        <v>0.6478</v>
       </c>
       <c r="D412" t="n">
-        <v>163465853816.7196</v>
+        <v>163276694400</v>
       </c>
     </row>
     <row r="413">
@@ -5062,10 +6210,10 @@
         <v>255151000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.6592827004219409</v>
+        <v>0.65895</v>
       </c>
       <c r="D413" t="n">
-        <v>168216640295.3586</v>
+        <v>168131751450</v>
       </c>
     </row>
     <row r="414">
@@ -5076,10 +6224,10 @@
         <v>258960000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.691945751453086</v>
+        <v>0.69052</v>
       </c>
       <c r="D414" t="n">
-        <v>179186271796.2912</v>
+        <v>178817059200</v>
       </c>
     </row>
     <row r="415">
@@ -5090,10 +6238,10 @@
         <v>262111000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.6982752601075344</v>
+        <v>0.69783</v>
       </c>
       <c r="D415" t="n">
-        <v>183025626702.0459</v>
+        <v>182908919130</v>
       </c>
     </row>
     <row r="416">
@@ -5104,10 +6252,10 @@
         <v>260867000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.6766815536608473</v>
+        <v>0.6762</v>
       </c>
       <c r="D416" t="n">
-        <v>176523886858.8442</v>
+        <v>176398265400</v>
       </c>
     </row>
     <row r="417">
@@ -5118,10 +6266,10 @@
         <v>261594000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7132158904500393</v>
+        <v>0.71299</v>
       </c>
       <c r="D417" t="n">
-        <v>186572997646.3876</v>
+        <v>186513906060</v>
       </c>
     </row>
     <row r="418">
@@ -5132,10 +6280,10 @@
         <v>264903000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7211365111415591</v>
+        <v>0.7208599999999999</v>
       </c>
       <c r="D418" t="n">
-        <v>191031225210.9324</v>
+        <v>190957976580</v>
       </c>
     </row>
     <row r="419">
@@ -5146,10 +6294,10 @@
         <v>263346000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7248477819657873</v>
+        <v>0.72485</v>
       </c>
       <c r="D419" t="n">
-        <v>190885763989.5622</v>
+        <v>190886348100</v>
       </c>
     </row>
     <row r="420">
@@ -5160,10 +6308,10 @@
         <v>262940000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7290755322251385</v>
+        <v>0.72829</v>
       </c>
       <c r="D420" t="n">
-        <v>191703120443.2779</v>
+        <v>191496572600</v>
       </c>
     </row>
     <row r="421">
@@ -5174,10 +6322,10 @@
         <v>267649000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7151541157119359</v>
+        <v>0.71505</v>
       </c>
       <c r="D421" t="n">
-        <v>191410283916.1839</v>
+        <v>191382417450</v>
       </c>
     </row>
     <row r="422">
@@ -5188,10 +6336,10 @@
         <v>269673000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7084661707403471</v>
+        <v>0.70823</v>
       </c>
       <c r="D422" t="n">
-        <v>191054197662.0616</v>
+        <v>190990508790</v>
       </c>
     </row>
     <row r="423">
@@ -5202,10 +6350,10 @@
         <v>272689000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.6930967563071805</v>
+        <v>0.69195</v>
       </c>
       <c r="D423" t="n">
-        <v>188999861380.6487</v>
+        <v>188687153550</v>
       </c>
     </row>
     <row r="424">
@@ -5216,10 +6364,10 @@
         <v>270611000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.731368390258173</v>
+        <v>0.73115</v>
       </c>
       <c r="D424" t="n">
-        <v>197916331456.1544</v>
+        <v>197857232650</v>
       </c>
     </row>
     <row r="425">
@@ -5230,10 +6378,10 @@
         <v>271696000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7195797654169965</v>
+        <v>0.71909</v>
       </c>
       <c r="D425" t="n">
-        <v>195506943944.7363</v>
+        <v>195373876640</v>
       </c>
     </row>
     <row r="426">
@@ -5244,10 +6392,10 @@
         <v>275412000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7008199593524423</v>
+        <v>0.7004899999999999</v>
       </c>
       <c r="D426" t="n">
-        <v>193014226645.1749</v>
+        <v>192923351880</v>
       </c>
     </row>
     <row r="427">
@@ -5258,10 +6406,10 @@
         <v>278067000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.6869547296833138</v>
+        <v>0.68587</v>
       </c>
       <c r="D427" t="n">
-        <v>191019440818.85</v>
+        <v>190717813290</v>
       </c>
     </row>
     <row r="428">
@@ -5272,10 +6420,10 @@
         <v>276620000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7086167800453514</v>
+        <v>0.7082499999999999</v>
       </c>
       <c r="D428" t="n">
-        <v>196017573696.1451</v>
+        <v>195916115000</v>
       </c>
     </row>
     <row r="429">
@@ -5286,10 +6434,10 @@
         <v>278031000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7333528894103843</v>
+        <v>0.7331</v>
       </c>
       <c r="D429" t="n">
-        <v>203894837195.6586</v>
+        <v>203824526100</v>
       </c>
     </row>
     <row r="430">
@@ -5300,10 +6448,10 @@
         <v>282011000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7514841812579846</v>
+        <v>0.75149</v>
       </c>
       <c r="D430" t="n">
-        <v>211926805440.7455</v>
+        <v>211928446390</v>
       </c>
     </row>
     <row r="431">
@@ -5314,10 +6462,10 @@
         <v>280572000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.7178235589692054</v>
+        <v>0.71763</v>
       </c>
       <c r="D431" t="n">
-        <v>201401191587.1079</v>
+        <v>201346884360</v>
       </c>
     </row>
     <row r="432">
@@ -5328,10 +6476,10 @@
         <v>281276000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.7210325185665873</v>
+        <v>0.71994</v>
       </c>
       <c r="D432" t="n">
-        <v>202809142692.3354</v>
+        <v>202501843440</v>
       </c>
     </row>
     <row r="433">
@@ -5342,10 +6490,10 @@
         <v>286487000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.6888001102080177</v>
+        <v>0.6846099999999999</v>
       </c>
       <c r="D433" t="n">
-        <v>197332277173.1644</v>
+        <v>196131865070</v>
       </c>
     </row>
     <row r="434">
@@ -5356,10 +6504,10 @@
         <v>289389000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.6835737234260715</v>
+        <v>0.68315</v>
       </c>
       <c r="D434" t="n">
-        <v>197818716248.5474</v>
+        <v>197696095350</v>
       </c>
     </row>
     <row r="435">
@@ -5370,10 +6518,10 @@
         <v>292600000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7098239636570131</v>
+        <v>0.70935</v>
       </c>
       <c r="D435" t="n">
-        <v>207694491766.042</v>
+        <v>207555810000</v>
       </c>
     </row>
     <row r="436">
@@ -5384,10 +6532,10 @@
         <v>290366000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7368110816386678</v>
+        <v>0.7363999999999999</v>
       </c>
       <c r="D436" t="n">
-        <v>213944886531.0934</v>
+        <v>213825522400</v>
       </c>
     </row>
     <row r="437">
@@ -5398,10 +6546,10 @@
         <v>292030000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7210325185665873</v>
+        <v>0.72088</v>
       </c>
       <c r="D437" t="n">
-        <v>210563126397.0005</v>
+        <v>210518586400</v>
       </c>
     </row>
     <row r="438">
@@ -5412,10 +6560,10 @@
         <v>295333000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7245851749873197</v>
+        <v>0.72407</v>
       </c>
       <c r="D438" t="n">
-        <v>213993913484.5301</v>
+        <v>213841765310</v>
       </c>
     </row>
     <row r="439">
@@ -5426,10 +6574,10 @@
         <v>297516000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7037297677691766</v>
+        <v>0.7035399999999999</v>
       </c>
       <c r="D439" t="n">
-        <v>209370865587.6143</v>
+        <v>209314406640</v>
       </c>
     </row>
     <row r="440">
@@ -5440,10 +6588,10 @@
         <v>295316000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7000840100812098</v>
+        <v>0.69991</v>
       </c>
       <c r="D440" t="n">
-        <v>206746009521.1425</v>
+        <v>206694621560</v>
       </c>
     </row>
     <row r="441">
@@ -5454,10 +6602,10 @@
         <v>297798000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.6769564040075818</v>
+        <v>0.67764</v>
       </c>
       <c r="D441" t="n">
-        <v>201596263200.6498</v>
+        <v>201799836720</v>
       </c>
     </row>
     <row r="442">
@@ -5468,10 +6616,10 @@
         <v>301499000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.6818026863025841</v>
+        <v>0.68175</v>
       </c>
       <c r="D442" t="n">
-        <v>205562828117.5428</v>
+        <v>205546943250</v>
       </c>
     </row>
     <row r="443">
@@ -5482,10 +6630,10 @@
         <v>301799000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.6625149065853981</v>
+        <v>0.66187</v>
       </c>
       <c r="D443" t="n">
-        <v>199946336292.5666</v>
+        <v>199751704130</v>
       </c>
     </row>
     <row r="444">
@@ -5496,10 +6644,10 @@
         <v>302781000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.6620762711864407</v>
+        <v>0.66151</v>
       </c>
       <c r="D444" t="n">
-        <v>200464115466.1017</v>
+        <v>200292659310</v>
       </c>
     </row>
     <row r="445">
@@ -5510,10 +6658,10 @@
         <v>305435000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.6522306287503261</v>
+        <v>0.6516999999999999</v>
       </c>
       <c r="D445" t="n">
-        <v>199214062092.3559</v>
+        <v>199051989500</v>
       </c>
     </row>
     <row r="446">
@@ -5524,10 +6672,10 @@
         <v>307946000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.6884207627702053</v>
+        <v>0.6879</v>
       </c>
       <c r="D446" t="n">
-        <v>211996420212.0336</v>
+        <v>211836053400</v>
       </c>
     </row>
     <row r="447">
@@ -5538,10 +6686,10 @@
         <v>311406000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.6717721348918447</v>
+        <v>0.67047</v>
       </c>
       <c r="D447" t="n">
-        <v>209193873438.1298</v>
+        <v>208788380820</v>
       </c>
     </row>
     <row r="448">
@@ -5552,10 +6700,10 @@
         <v>307559000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.6920894179527994</v>
+        <v>0.69147</v>
       </c>
       <c r="D448" t="n">
-        <v>212858329296.1451</v>
+        <v>212667821730</v>
       </c>
     </row>
     <row r="449">
@@ -5566,10 +6714,10 @@
         <v>309109000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.6811989100817439</v>
+        <v>0.6807299999999999</v>
       </c>
       <c r="D449" t="n">
-        <v>210564713896.4578</v>
+        <v>210419769570</v>
       </c>
     </row>
     <row r="450">
@@ -5580,10 +6728,10 @@
         <v>312159000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.6805962022731913</v>
+        <v>0.68052</v>
       </c>
       <c r="D450" t="n">
-        <v>212454229905.3971</v>
+        <v>212430442680</v>
       </c>
     </row>
     <row r="451">
@@ -5594,10 +6742,10 @@
         <v>313888000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.6674676278200508</v>
+        <v>0.66734</v>
       </c>
       <c r="D451" t="n">
-        <v>209510078761.1801</v>
+        <v>209470017920</v>
       </c>
     </row>
     <row r="452">
@@ -5608,10 +6756,10 @@
         <v>312948000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.6535093451836361</v>
+        <v>0.65338</v>
       </c>
       <c r="D452" t="n">
-        <v>204514442556.5286</v>
+        <v>204473964240</v>
       </c>
     </row>
     <row r="453">
@@ -5622,10 +6770,10 @@
         <v>316000000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.6721333512568893</v>
+        <v>0.67178</v>
       </c>
       <c r="D453" t="n">
-        <v>212394138997.177</v>
+        <v>212282480000</v>
       </c>
     </row>
     <row r="454">
@@ -5636,10 +6784,10 @@
         <v>318977000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.6562110374696503</v>
+        <v>0.65554</v>
       </c>
       <c r="D454" t="n">
-        <v>209316228098.9566</v>
+        <v>209102182580</v>
       </c>
     </row>
     <row r="455">
@@ -5650,10 +6798,10 @@
         <v>317171000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.6312732782021336</v>
+        <v>0.63086</v>
       </c>
       <c r="D455" t="n">
-        <v>200221576920.6489</v>
+        <v>200090497060</v>
       </c>
     </row>
     <row r="456">
@@ -5664,10 +6812,10 @@
         <v>320212000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.6260172780768749</v>
+        <v>0.6262799999999999</v>
       </c>
       <c r="D456" t="n">
-        <v>200458244647.5523</v>
+        <v>200542371360</v>
       </c>
     </row>
     <row r="457">
@@ -5678,10 +6826,10 @@
         <v>321673000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.6416014371872193</v>
+        <v>0.6413</v>
       </c>
       <c r="D457" t="n">
-        <v>206385859104.3244</v>
+        <v>206288894900</v>
       </c>
     </row>
     <row r="458">
@@ -5692,10 +6840,10 @@
         <v>324328000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6424257998201208</v>
+        <v>0.64179</v>
       </c>
       <c r="D458" t="n">
-        <v>208356674804.0602</v>
+        <v>208150467120</v>
       </c>
     </row>
     <row r="459">
@@ -5706,10 +6854,10 @@
         <v>326061000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6731287022078621</v>
+        <v>0.6733399999999999</v>
       </c>
       <c r="D459" t="n">
-        <v>219481017770.5977</v>
+        <v>219549913740</v>
       </c>
     </row>
     <row r="460">
@@ -5720,10 +6868,10 @@
         <v>322987000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.6467050378322448</v>
+        <v>0.64647</v>
       </c>
       <c r="D460" t="n">
-        <v>208877320054.3232</v>
+        <v>208801405890</v>
       </c>
     </row>
     <row r="461">
@@ -5734,10 +6882,10 @@
         <v>326490000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.625</v>
+        <v>0.62444</v>
       </c>
       <c r="D461" t="n">
-        <v>204056250000</v>
+        <v>203873415600</v>
       </c>
     </row>
     <row r="462">
@@ -5748,10 +6896,10 @@
         <v>337987000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.5975500448162534</v>
+        <v>0.59607</v>
       </c>
       <c r="D462" t="n">
-        <v>201964146997.311</v>
+        <v>201463911090</v>
       </c>
     </row>
     <row r="463">
@@ -5762,10 +6910,10 @@
         <v>344965000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.6122199093914534</v>
+        <v>0.61265</v>
       </c>
       <c r="D463" t="n">
-        <v>211194441043.2227</v>
+        <v>211342807250</v>
       </c>
     </row>
     <row r="464">
@@ -5776,10 +6924,10 @@
         <v>343608000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.620963735717834</v>
+        <v>0.6204999999999999</v>
       </c>
       <c r="D464" t="n">
-        <v>213368107302.5335</v>
+        <v>213208764000</v>
       </c>
     </row>
     <row r="465">
@@ -5790,10 +6938,10 @@
         <v>346397000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.6455361177457879</v>
+        <v>0.64541</v>
       </c>
       <c r="D465" t="n">
-        <v>223611774578.7877</v>
+        <v>223568087770</v>
       </c>
     </row>
     <row r="466">
@@ -5804,10 +6952,10 @@
         <v>350385000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.6629980773055758</v>
+        <v>0.66255</v>
       </c>
       <c r="D466" t="n">
-        <v>232304581316.7142</v>
+        <v>232147581750</v>
       </c>
     </row>
     <row r="467">
@@ -5818,10 +6966,10 @@
         <v>354806000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.6740815638692281</v>
+        <v>0.67333</v>
       </c>
       <c r="D467" t="n">
-        <v>239168183350.1854</v>
+        <v>238901523980</v>
       </c>
     </row>
     <row r="468">
@@ -5832,10 +6980,10 @@
         <v>355780000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.661769571835087</v>
+        <v>0.66122</v>
       </c>
       <c r="D468" t="n">
-        <v>235444378267.4872</v>
+        <v>235248851600</v>
       </c>
     </row>
     <row r="469">
@@ -5846,10 +6994,10 @@
         <v>359598000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.6614631565021828</v>
+        <v>0.66105</v>
       </c>
       <c r="D469" t="n">
-        <v>237860828151.8719</v>
+        <v>237712257900</v>
       </c>
     </row>
     <row r="470">
@@ -5860,10 +7008,10 @@
         <v>360384000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7014098337658694</v>
+        <v>0.7013</v>
       </c>
       <c r="D470" t="n">
-        <v>252776881531.8791</v>
+        <v>252737299200</v>
       </c>
     </row>
     <row r="471">
@@ -5874,10 +7022,10 @@
         <v>365780000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7185456635769203</v>
+        <v>0.71872</v>
       </c>
       <c r="D471" t="n">
-        <v>262829632823.1659</v>
+        <v>262893401600</v>
       </c>
     </row>
     <row r="472">
@@ -5888,10 +7036,10 @@
         <v>359421000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7184940364994971</v>
+        <v>0.71768</v>
       </c>
       <c r="D472" t="n">
-        <v>258241845092.6857</v>
+        <v>257949263280</v>
       </c>
     </row>
     <row r="473">
@@ -5902,10 +7050,10 @@
         <v>361223000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7235890014471781</v>
+        <v>0.72287</v>
       </c>
       <c r="D473" t="n">
-        <v>261376989869.754</v>
+        <v>261117270010</v>
       </c>
     </row>
     <row r="474">
@@ -5916,10 +7064,10 @@
         <v>365809000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.6983727913960472</v>
+        <v>0.6983699999999999</v>
       </c>
       <c r="D474" t="n">
-        <v>255471052447.7966</v>
+        <v>255470031330</v>
       </c>
     </row>
     <row r="475">
@@ -5930,10 +7078,10 @@
         <v>368720000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7164350193437455</v>
+        <v>0.71557</v>
       </c>
       <c r="D475" t="n">
-        <v>264163920332.4258</v>
+        <v>263844970400</v>
       </c>
     </row>
     <row r="476">
@@ -5944,10 +7092,10 @@
         <v>364349000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.7276961141027506</v>
+        <v>0.72692</v>
       </c>
       <c r="D476" t="n">
-        <v>265135351477.2231</v>
+        <v>264852575080</v>
       </c>
     </row>
     <row r="477">
@@ -5958,10 +7106,10 @@
         <v>366418000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.6993496048674733</v>
+        <v>0.698</v>
       </c>
       <c r="D477" t="n">
-        <v>256254283516.3298</v>
+        <v>255759764000</v>
       </c>
     </row>
     <row r="478">
@@ -5972,10 +7120,10 @@
         <v>373053000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.6977880120019538</v>
+        <v>0.69692</v>
       </c>
       <c r="D478" t="n">
-        <v>260311911241.3649</v>
+        <v>259988096760</v>
       </c>
     </row>
     <row r="479">
@@ -5986,10 +7134,10 @@
         <v>369963000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7047713017125943</v>
+        <v>0.7040299999999999</v>
       </c>
       <c r="D479" t="n">
-        <v>260739305095.4965</v>
+        <v>260465050890</v>
       </c>
     </row>
     <row r="480">
@@ -6000,10 +7148,10 @@
         <v>374561000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.6902263942573164</v>
+        <v>0.6896099999999999</v>
       </c>
       <c r="D480" t="n">
-        <v>258531888459.4147</v>
+        <v>258301011210</v>
       </c>
     </row>
     <row r="481">
@@ -6014,10 +7162,10 @@
         <v>378237000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7174630506528914</v>
+        <v>0.71663</v>
       </c>
       <c r="D481" t="n">
-        <v>271371071889.7977</v>
+        <v>271055981310</v>
       </c>
     </row>
     <row r="482">
@@ -6028,10 +7176,10 @@
         <v>382985000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.68259385665529</v>
+        <v>0.6821699999999999</v>
       </c>
       <c r="D482" t="n">
-        <v>261423208191.1263</v>
+        <v>261260877450</v>
       </c>
     </row>
     <row r="483">
@@ -6042,10 +7190,10 @@
         <v>391602000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.6842285323297982</v>
+        <v>0.6846</v>
       </c>
       <c r="D483" t="n">
-        <v>267945261717.4136</v>
+        <v>268090729200</v>
       </c>
     </row>
     <row r="484">
@@ -6056,10 +7204,10 @@
         <v>384879000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.6577216521967904</v>
+        <v>0.65748</v>
       </c>
       <c r="D484" t="n">
-        <v>253143251775.8485</v>
+        <v>253050244920</v>
       </c>
     </row>
     <row r="485">
@@ -6070,10 +7218,10 @@
         <v>386923000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.67778229632642</v>
+        <v>0.67677</v>
       </c>
       <c r="D485" t="n">
-        <v>262249559441.5074</v>
+        <v>261857878710</v>
       </c>
     </row>
     <row r="486">
@@ -6084,10 +7232,10 @@
         <v>390385000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.6935293709688606</v>
+        <v>0.69314</v>
       </c>
       <c r="D486" t="n">
-        <v>270743463485.6786</v>
+        <v>270591458900</v>
       </c>
     </row>
     <row r="487">
@@ -6098,10 +7246,10 @@
         <v>391962000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.6458279514337381</v>
+        <v>0.64551</v>
       </c>
       <c r="D487" t="n">
-        <v>253140015499.8708</v>
+        <v>253015390620</v>
       </c>
     </row>
     <row r="488">
@@ -6112,10 +7260,10 @@
         <v>389603000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.6513809275664409</v>
+        <v>0.6511899999999999</v>
       </c>
       <c r="D488" t="n">
-        <v>253779963522.6681</v>
+        <v>253705577570</v>
       </c>
     </row>
     <row r="489">
@@ -6126,10 +7274,10 @@
         <v>389035000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.6244146113019045</v>
+        <v>0.62382</v>
       </c>
       <c r="D489" t="n">
-        <v>242919138307.8364</v>
+        <v>242687813700</v>
       </c>
     </row>
     <row r="490">
@@ -6140,10 +7288,10 @@
         <v>390828000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.6292474200855777</v>
+        <v>0.62898</v>
       </c>
       <c r="D490" t="n">
-        <v>245927510697.2061</v>
+        <v>245822995440</v>
       </c>
     </row>
     <row r="491">
@@ -6154,10 +7302,10 @@
         <v>391713000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.6118078923218109</v>
+        <v>0.6118</v>
       </c>
       <c r="D491" t="n">
-        <v>239653104925.0535</v>
+        <v>239650013400</v>
       </c>
     </row>
     <row r="492">
@@ -6168,10 +7316,10 @@
         <v>391912000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.5599104143337066</v>
+        <v>0.55948</v>
       </c>
       <c r="D492" t="n">
-        <v>219435610302.3516</v>
+        <v>219266925760</v>
       </c>
     </row>
     <row r="493">
@@ -6182,10 +7330,10 @@
         <v>393508000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.5812263876780006</v>
+        <v>0.58125</v>
       </c>
       <c r="D493" t="n">
-        <v>228717233362.3947</v>
+        <v>228726525000</v>
       </c>
     </row>
     <row r="494">
@@ -6196,10 +7344,10 @@
         <v>397263000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.6297229219143576</v>
+        <v>0.62946</v>
       </c>
       <c r="D494" t="n">
-        <v>250165617128.4635</v>
+        <v>250061167980</v>
       </c>
     </row>
     <row r="495">
@@ -6210,10 +7358,10 @@
         <v>398778000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.6353240152477764</v>
+        <v>0.6345</v>
       </c>
       <c r="D495" t="n">
-        <v>253353240152.4778</v>
+        <v>253024641000</v>
       </c>
     </row>
     <row r="496">
@@ -6224,10 +7372,10 @@
         <v>393400000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.644122383252818</v>
+        <v>0.64377</v>
       </c>
       <c r="D496" t="n">
-        <v>253397745571.6586</v>
+        <v>253259118000</v>
       </c>
     </row>
     <row r="497">
@@ -6238,10 +7386,10 @@
         <v>394722000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.6185822095756526</v>
+        <v>0.61837</v>
       </c>
       <c r="D497" t="n">
-        <v>244168006928.1207</v>
+        <v>244084243140</v>
       </c>
     </row>
     <row r="498">
@@ -6252,10 +7400,10 @@
         <v>395721000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.6257039169065198</v>
+        <v>0.62525</v>
       </c>
       <c r="D498" t="n">
-        <v>247604179702.1649</v>
+        <v>247424555250</v>
       </c>
     </row>
     <row r="499">
@@ -6266,10 +7414,10 @@
         <v>398520000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.6183527083848628</v>
+        <v>0.61788</v>
       </c>
       <c r="D499" t="n">
-        <v>246425921345.5355</v>
+        <v>246237537600</v>
       </c>
     </row>
     <row r="500">
@@ -6280,10 +7428,10 @@
         <v>395740000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.6019020103527146</v>
+        <v>0.6018</v>
       </c>
       <c r="D500" t="n">
-        <v>238196701576.9833</v>
+        <v>238156332000</v>
       </c>
     </row>
     <row r="501">
@@ -6294,10 +7442,10 @@
         <v>399129000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.6139489194499017</v>
+        <v>0.61354</v>
       </c>
       <c r="D501" t="n">
-        <v>245044818271.1198</v>
+        <v>244881606660</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
@@ -458,6994 +458,5858 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B2" t="n">
-        <v>15565000000</v>
+        <v>16294000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B3" t="n">
-        <v>16009000000</v>
+        <v>15223000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B4" t="n">
-        <v>16010000000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12888050000</v>
-      </c>
+        <v>15937000000</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B5" t="n">
-        <v>16294000000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12790790000</v>
-      </c>
+        <v>16438000000</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B6" t="n">
-        <v>15223000000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11645595000</v>
-      </c>
+        <v>17016000000</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B7" t="n">
-        <v>15937000000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.772</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12303364000</v>
-      </c>
+        <v>16972000000</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B8" t="n">
-        <v>16438000000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7615</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12517537000</v>
-      </c>
+        <v>17010000000</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B9" t="n">
-        <v>17016000000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7425</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12634380000</v>
-      </c>
+        <v>16545000000</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B10" t="n">
-        <v>16972000000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12389560000</v>
-      </c>
+        <v>16533000000</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B11" t="n">
-        <v>17010000000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7272999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12371373000</v>
-      </c>
+        <v>17141000000</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B12" t="n">
-        <v>16545000000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11862765000</v>
-      </c>
+        <v>18066000000</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B13" t="n">
-        <v>16533000000</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11705364000</v>
-      </c>
+        <v>18329000000</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B14" t="n">
-        <v>17141000000</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.719</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12324379000</v>
-      </c>
+        <v>18862000000</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B15" t="n">
-        <v>18066000000</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7325</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13233345000</v>
-      </c>
+        <v>17266000000</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B16" t="n">
-        <v>18329000000</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.721</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13215209000</v>
-      </c>
+        <v>17486000000</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B17" t="n">
-        <v>18862000000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7155</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13495761000</v>
-      </c>
+        <v>18103000000</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B18" t="n">
-        <v>17266000000</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6525</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11266065000</v>
-      </c>
+        <v>18410000000</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B19" t="n">
-        <v>17486000000</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6592</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11526771200</v>
-      </c>
+        <v>18810000000</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B20" t="n">
-        <v>18103000000</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6627999999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11998668400</v>
-      </c>
+        <v>19245000000</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B21" t="n">
-        <v>18410000000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.6555</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12067755000</v>
-      </c>
+        <v>19147000000</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B22" t="n">
-        <v>18810000000</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="D22" t="n">
-        <v>12282930000</v>
-      </c>
+        <v>19340000000</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B23" t="n">
-        <v>19245000000</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6485</v>
-      </c>
-      <c r="D23" t="n">
-        <v>12480382500</v>
-      </c>
+        <v>19884000000</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B24" t="n">
-        <v>19147000000</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="D24" t="n">
-        <v>12598726000</v>
-      </c>
+        <v>20669000000</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B25" t="n">
-        <v>19340000000</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.6615</v>
-      </c>
-      <c r="D25" t="n">
-        <v>12793410000</v>
-      </c>
+        <v>20758000000</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B26" t="n">
-        <v>19884000000</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="D26" t="n">
-        <v>13083672000</v>
-      </c>
+        <v>21203000000</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B27" t="n">
-        <v>20669000000</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.6545</v>
-      </c>
-      <c r="D27" t="n">
-        <v>13527860500</v>
-      </c>
+        <v>19781000000</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B28" t="n">
-        <v>20758000000</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.6493</v>
-      </c>
-      <c r="D28" t="n">
-        <v>13478169400</v>
-      </c>
+        <v>20863000000</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B29" t="n">
-        <v>21203000000</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.6662</v>
-      </c>
-      <c r="D29" t="n">
-        <v>14125438600</v>
-      </c>
+        <v>21393000000</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B30" t="n">
-        <v>19781000000</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.6637999999999999</v>
-      </c>
-      <c r="D30" t="n">
-        <v>13130627800</v>
-      </c>
+        <v>21696000000</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B31" t="n">
-        <v>20863000000</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="D31" t="n">
-        <v>13644402000</v>
-      </c>
+        <v>22273000000</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B32" t="n">
-        <v>21393000000</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.6471</v>
-      </c>
-      <c r="D32" t="n">
-        <v>13843410300</v>
-      </c>
+        <v>23152000000</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B33" t="n">
-        <v>21696000000</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="D33" t="n">
-        <v>13755264000</v>
-      </c>
+        <v>23213000000</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B34" t="n">
-        <v>22273000000</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.4945</v>
-      </c>
-      <c r="D34" t="n">
-        <v>11013998500</v>
-      </c>
+        <v>23738000000</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B35" t="n">
-        <v>23152000000</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.4995</v>
-      </c>
-      <c r="D35" t="n">
-        <v>11564424000</v>
-      </c>
+        <v>24145000000</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B36" t="n">
-        <v>23213000000</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D36" t="n">
-        <v>11304731000</v>
-      </c>
+        <v>25020000000</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B37" t="n">
-        <v>23738000000</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="D37" t="n">
-        <v>11586517800</v>
-      </c>
+        <v>24897000000</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B38" t="n">
-        <v>24145000000</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D38" t="n">
-        <v>11758615000</v>
-      </c>
+        <v>25250000000</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B39" t="n">
-        <v>25020000000</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.4755</v>
-      </c>
-      <c r="D39" t="n">
-        <v>11897010000</v>
-      </c>
+        <v>25030000000</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B40" t="n">
-        <v>24897000000</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11701590000</v>
-      </c>
+        <v>26165000000</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B41" t="n">
-        <v>25250000000</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.4445</v>
-      </c>
-      <c r="D41" t="n">
-        <v>11223625000</v>
-      </c>
+        <v>26778000000</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B42" t="n">
-        <v>25030000000</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="D42" t="n">
-        <v>11588890000</v>
-      </c>
+        <v>27918000000</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B43" t="n">
-        <v>26165000000</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="D43" t="n">
-        <v>11878910000</v>
-      </c>
+        <v>28862000000</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B44" t="n">
-        <v>26778000000</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.4507</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12068844600</v>
-      </c>
+        <v>29239000000</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B45" t="n">
-        <v>27918000000</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="D45" t="n">
-        <v>13512312000</v>
-      </c>
+        <v>29420000000</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B46" t="n">
-        <v>28862000000</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5263</v>
-      </c>
-      <c r="D46" t="n">
-        <v>15190070600</v>
-      </c>
+        <v>29721000000</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B47" t="n">
-        <v>29239000000</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5425</v>
-      </c>
-      <c r="D47" t="n">
-        <v>15862157500</v>
-      </c>
+        <v>30474000000</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B48" t="n">
-        <v>29420000000</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5475</v>
-      </c>
-      <c r="D48" t="n">
-        <v>16107450000</v>
-      </c>
+        <v>31397000000</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B49" t="n">
-        <v>29721000000</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="D49" t="n">
-        <v>17119296000</v>
-      </c>
+        <v>31474000000</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B50" t="n">
-        <v>30474000000</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="D50" t="n">
-        <v>17461602000</v>
-      </c>
+        <v>32213000000</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B51" t="n">
-        <v>31397000000</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5004999999999999</v>
-      </c>
-      <c r="D51" t="n">
-        <v>15714198500</v>
-      </c>
+        <v>32386000000</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B52" t="n">
-        <v>31474000000</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5355</v>
-      </c>
-      <c r="D52" t="n">
-        <v>16854327000</v>
-      </c>
+        <v>33068000000</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B53" t="n">
-        <v>32213000000</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="D53" t="n">
-        <v>16847399000</v>
-      </c>
+        <v>33392000000</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B54" t="n">
-        <v>32386000000</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5352</v>
-      </c>
-      <c r="D54" t="n">
-        <v>17332987200</v>
-      </c>
+        <v>33824000000</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B55" t="n">
-        <v>33068000000</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5843</v>
-      </c>
-      <c r="D55" t="n">
-        <v>19321632400</v>
-      </c>
+        <v>33851000000</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B56" t="n">
-        <v>33392000000</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="D56" t="n">
-        <v>18799696000</v>
-      </c>
+        <v>34550000000</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B57" t="n">
-        <v>33824000000</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="D57" t="n">
-        <v>18569376000</v>
-      </c>
+        <v>35002000000</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B58" t="n">
-        <v>33851000000</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5205</v>
-      </c>
-      <c r="D58" t="n">
-        <v>17619445500</v>
-      </c>
+        <v>36018000000</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B59" t="n">
-        <v>34550000000</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.4865</v>
-      </c>
-      <c r="D59" t="n">
-        <v>16808575000</v>
-      </c>
+        <v>36675000000</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B60" t="n">
-        <v>35002000000</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.4882</v>
-      </c>
-      <c r="D60" t="n">
-        <v>17087976400</v>
-      </c>
+        <v>37807000000</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B61" t="n">
-        <v>36018000000</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="D61" t="n">
-        <v>18261126000</v>
-      </c>
+        <v>38370000000</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B62" t="n">
-        <v>36675000000</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5108</v>
-      </c>
-      <c r="D62" t="n">
-        <v>18733590000</v>
-      </c>
+        <v>39366000000</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B63" t="n">
-        <v>37807000000</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5305</v>
-      </c>
-      <c r="D63" t="n">
-        <v>20056613500</v>
-      </c>
+        <v>38543000000</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B64" t="n">
-        <v>38370000000</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="D64" t="n">
-        <v>20796540000</v>
-      </c>
+        <v>38349000000</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B65" t="n">
-        <v>39366000000</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>22143375000</v>
-      </c>
+        <v>38741000000</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B66" t="n">
-        <v>38543000000</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="D66" t="n">
-        <v>21603351500</v>
-      </c>
+        <v>39583000000</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B67" t="n">
-        <v>38349000000</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5782</v>
-      </c>
-      <c r="D67" t="n">
-        <v>22173391800</v>
-      </c>
+        <v>39428000000</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B68" t="n">
-        <v>38741000000</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="D68" t="n">
-        <v>22733218800</v>
-      </c>
+        <v>40102000000</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B69" t="n">
-        <v>39583000000</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="D69" t="n">
-        <v>23512302000</v>
-      </c>
+        <v>40578000000</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B70" t="n">
-        <v>39428000000</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D70" t="n">
-        <v>22473960000</v>
-      </c>
+        <v>41887000000</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B71" t="n">
-        <v>40102000000</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.6073</v>
-      </c>
-      <c r="D71" t="n">
-        <v>24353944600</v>
-      </c>
+        <v>41893000000</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B72" t="n">
-        <v>40578000000</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.6415</v>
-      </c>
-      <c r="D72" t="n">
-        <v>26030787000</v>
-      </c>
+        <v>42932000000</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B73" t="n">
-        <v>41887000000</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="D73" t="n">
-        <v>24880878000</v>
-      </c>
+        <v>42531000000</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B74" t="n">
-        <v>41893000000</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="D74" t="n">
-        <v>27188557000</v>
-      </c>
+        <v>43592000000</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B75" t="n">
-        <v>42932000000</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="D75" t="n">
-        <v>28463916000</v>
-      </c>
+        <v>35236000000</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B76" t="n">
-        <v>42531000000</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.6595</v>
-      </c>
-      <c r="D76" t="n">
-        <v>28049194500</v>
-      </c>
+        <v>34761000000</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B77" t="n">
-        <v>43592000000</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="D77" t="n">
-        <v>28945088000</v>
-      </c>
+        <v>34660000000</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B78" t="n">
-        <v>35236000000</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D78" t="n">
-        <v>22903400000</v>
-      </c>
+        <v>35658000000</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B79" t="n">
-        <v>34761000000</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.6737</v>
-      </c>
-      <c r="D79" t="n">
-        <v>23418485700</v>
-      </c>
+        <v>35350000000</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B80" t="n">
-        <v>34660000000</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.6945</v>
-      </c>
-      <c r="D80" t="n">
-        <v>24071370000</v>
-      </c>
+        <v>35771000000</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B81" t="n">
-        <v>35658000000</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.6758999999999999</v>
-      </c>
-      <c r="D81" t="n">
-        <v>24101242200</v>
-      </c>
+        <v>34970000000</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B82" t="n">
-        <v>35350000000</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.6679</v>
-      </c>
-      <c r="D82" t="n">
-        <v>23610265000</v>
-      </c>
+        <v>36326000000</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B83" t="n">
-        <v>35771000000</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="D83" t="n">
-        <v>21748768000</v>
-      </c>
+        <v>35065000000</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B84" t="n">
-        <v>34970000000</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.6133999999999999</v>
-      </c>
-      <c r="D84" t="n">
-        <v>21450598000</v>
-      </c>
+        <v>35616000000</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B85" t="n">
-        <v>36326000000</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.6248</v>
-      </c>
-      <c r="D85" t="n">
-        <v>22696484800</v>
-      </c>
+        <v>35695000000</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B86" t="n">
-        <v>35065000000</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.6563</v>
-      </c>
-      <c r="D86" t="n">
-        <v>23013159500</v>
-      </c>
+        <v>36802000000</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B87" t="n">
-        <v>35616000000</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D87" t="n">
-        <v>22438080000</v>
-      </c>
+        <v>36302000000</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B88" t="n">
-        <v>35695000000</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D88" t="n">
-        <v>21417000000</v>
-      </c>
+        <v>36279000000</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B89" t="n">
-        <v>36802000000</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="D89" t="n">
-        <v>22927646000</v>
-      </c>
+        <v>36758000000</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B90" t="n">
-        <v>36302000000</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="D90" t="n">
-        <v>22253126000</v>
-      </c>
+        <v>37527000000</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B91" t="n">
-        <v>36279000000</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="D91" t="n">
-        <v>22293445500</v>
-      </c>
+        <v>37588000000</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B92" t="n">
-        <v>36758000000</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.585</v>
-      </c>
-      <c r="D92" t="n">
-        <v>21503430000</v>
-      </c>
+        <v>38287000000</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B93" t="n">
-        <v>37527000000</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="D93" t="n">
-        <v>21465444000</v>
-      </c>
+        <v>38758000000</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B94" t="n">
-        <v>37588000000</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.586</v>
-      </c>
-      <c r="D94" t="n">
-        <v>22026568000</v>
-      </c>
+        <v>38883000000</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B95" t="n">
-        <v>38287000000</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.5935</v>
-      </c>
-      <c r="D95" t="n">
-        <v>22723334500</v>
-      </c>
+        <v>38513000000</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B96" t="n">
-        <v>38758000000</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.5899</v>
-      </c>
-      <c r="D96" t="n">
-        <v>22863344200</v>
-      </c>
+        <v>37957000000</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B97" t="n">
-        <v>38883000000</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="D97" t="n">
-        <v>22882645500</v>
-      </c>
+        <v>38744000000</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B98" t="n">
-        <v>38513000000</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.5903</v>
-      </c>
-      <c r="D98" t="n">
-        <v>22734223900</v>
-      </c>
+        <v>38287000000</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B99" t="n">
-        <v>37957000000</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.5945</v>
-      </c>
-      <c r="D99" t="n">
-        <v>22565436500</v>
-      </c>
+        <v>38284000000</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B100" t="n">
-        <v>38744000000</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.6017</v>
-      </c>
-      <c r="D100" t="n">
-        <v>23312264800</v>
-      </c>
+        <v>39326000000</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B101" t="n">
-        <v>38287000000</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.589</v>
-      </c>
-      <c r="D101" t="n">
-        <v>22551043000</v>
-      </c>
+        <v>39661000000</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B102" t="n">
-        <v>38284000000</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.5796</v>
-      </c>
-      <c r="D102" t="n">
-        <v>22189406400</v>
-      </c>
+        <v>39063000000</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B103" t="n">
-        <v>39326000000</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="D103" t="n">
-        <v>22651776000</v>
-      </c>
+        <v>38534000000</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B104" t="n">
-        <v>39661000000</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.5768</v>
-      </c>
-      <c r="D104" t="n">
-        <v>22876464800</v>
-      </c>
+        <v>40088000000</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B105" t="n">
-        <v>39063000000</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="D105" t="n">
-        <v>22969044000</v>
-      </c>
+        <v>40767000000</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B106" t="n">
-        <v>38534000000</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="D106" t="n">
-        <v>22812128000</v>
-      </c>
+        <v>40828000000</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B107" t="n">
-        <v>40088000000</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.6155</v>
-      </c>
-      <c r="D107" t="n">
-        <v>24674164000</v>
-      </c>
+        <v>41145000000</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B108" t="n">
-        <v>40767000000</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.6159</v>
-      </c>
-      <c r="D108" t="n">
-        <v>25108395300</v>
-      </c>
+        <v>42586000000</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B109" t="n">
-        <v>40828000000</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.6151</v>
-      </c>
-      <c r="D109" t="n">
-        <v>25113302800</v>
-      </c>
+        <v>41948000000</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B110" t="n">
-        <v>41145000000</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="D110" t="n">
-        <v>25057305000</v>
-      </c>
+        <v>41220000000</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B111" t="n">
-        <v>42586000000</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="D111" t="n">
-        <v>24997982000</v>
-      </c>
+        <v>40854000000</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B112" t="n">
-        <v>41948000000</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="D112" t="n">
-        <v>25126852000</v>
-      </c>
+        <v>41300000000</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B113" t="n">
-        <v>41220000000</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="D113" t="n">
-        <v>24699024000</v>
-      </c>
+        <v>42129000000</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B114" t="n">
-        <v>40854000000</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.5866</v>
-      </c>
-      <c r="D114" t="n">
-        <v>23964956400</v>
-      </c>
+        <v>42719000000</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B115" t="n">
-        <v>41300000000</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="D115" t="n">
-        <v>24305050000</v>
-      </c>
+        <v>41920000000</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B116" t="n">
-        <v>42129000000</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.5816</v>
-      </c>
-      <c r="D116" t="n">
-        <v>24502226400</v>
-      </c>
+        <v>42235000000</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B117" t="n">
-        <v>42719000000</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="D117" t="n">
-        <v>24606144000</v>
-      </c>
+        <v>42369000000</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B118" t="n">
-        <v>41920000000</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.5719</v>
-      </c>
-      <c r="D118" t="n">
-        <v>23974048000</v>
-      </c>
+        <v>43280000000</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B119" t="n">
-        <v>42235000000</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.5736</v>
-      </c>
-      <c r="D119" t="n">
-        <v>24225996000</v>
-      </c>
+        <v>42849000000</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B120" t="n">
-        <v>42369000000</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="D120" t="n">
-        <v>24018986100</v>
-      </c>
+        <v>43320000000</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B121" t="n">
-        <v>43280000000</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.5581</v>
-      </c>
-      <c r="D121" t="n">
-        <v>24154568000</v>
-      </c>
+        <v>44407000000</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B122" t="n">
-        <v>42849000000</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="D122" t="n">
-        <v>24059713500</v>
-      </c>
+        <v>44599000000</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B123" t="n">
-        <v>43320000000</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.5407999999999999</v>
-      </c>
-      <c r="D123" t="n">
-        <v>23427456000</v>
-      </c>
+        <v>45318000000</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B124" t="n">
-        <v>44407000000</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.5405</v>
-      </c>
-      <c r="D124" t="n">
-        <v>24001983500</v>
-      </c>
+        <v>45418000000</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B125" t="n">
-        <v>44599000000</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.5465</v>
-      </c>
-      <c r="D125" t="n">
-        <v>24373353500</v>
-      </c>
+        <v>45741000000</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B126" t="n">
-        <v>45318000000</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="D126" t="n">
-        <v>24743628000</v>
-      </c>
+        <v>44756000000</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B127" t="n">
-        <v>45418000000</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.5383</v>
-      </c>
-      <c r="D127" t="n">
-        <v>24448509400</v>
-      </c>
+        <v>44868000000</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B128" t="n">
-        <v>45741000000</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.5357</v>
-      </c>
-      <c r="D128" t="n">
-        <v>24503453700</v>
-      </c>
+        <v>45313000000</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B129" t="n">
-        <v>44756000000</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.5429</v>
-      </c>
-      <c r="D129" t="n">
-        <v>24298032400</v>
-      </c>
+        <v>45461000000</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B130" t="n">
-        <v>44868000000</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.5458</v>
-      </c>
-      <c r="D130" t="n">
-        <v>24488954400</v>
-      </c>
+        <v>45784000000</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B131" t="n">
-        <v>45313000000</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="D131" t="n">
-        <v>24423707000</v>
-      </c>
+        <v>46380000000</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B132" t="n">
-        <v>45461000000</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.5377</v>
-      </c>
-      <c r="D132" t="n">
-        <v>24444379700</v>
-      </c>
+        <v>45538000000</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B133" t="n">
-        <v>45784000000</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.5253</v>
-      </c>
-      <c r="D133" t="n">
-        <v>24050335200</v>
-      </c>
+        <v>45785000000</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B134" t="n">
-        <v>46380000000</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.5114</v>
-      </c>
-      <c r="D134" t="n">
-        <v>23718732000</v>
-      </c>
+        <v>45582000000</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B135" t="n">
-        <v>45538000000</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="D135" t="n">
-        <v>23406532000</v>
-      </c>
+        <v>45158000000</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B136" t="n">
-        <v>45785000000</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="D136" t="n">
-        <v>23670845000</v>
-      </c>
+        <v>46327000000</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B137" t="n">
-        <v>45582000000</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.5236</v>
-      </c>
-      <c r="D137" t="n">
-        <v>23866735200</v>
-      </c>
+        <v>47373000000</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B138" t="n">
-        <v>45158000000</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.5314</v>
-      </c>
-      <c r="D138" t="n">
-        <v>23996961200</v>
-      </c>
+        <v>47334000000</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B139" t="n">
-        <v>46327000000</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.5416</v>
-      </c>
-      <c r="D139" t="n">
-        <v>25090703200</v>
-      </c>
+        <v>48759000000</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B140" t="n">
-        <v>47373000000</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.5395</v>
-      </c>
-      <c r="D140" t="n">
-        <v>25557733500</v>
-      </c>
+        <v>48711000000</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B141" t="n">
-        <v>47334000000</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.5372</v>
-      </c>
-      <c r="D141" t="n">
-        <v>25427824800</v>
-      </c>
+        <v>48355000000</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B142" t="n">
-        <v>48759000000</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.5539999999999999</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27012486000</v>
-      </c>
+        <v>48841000000</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B143" t="n">
-        <v>48711000000</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.5548999999999999</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27029733900</v>
-      </c>
+        <v>49332000000</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B144" t="n">
-        <v>48355000000</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.5505</v>
-      </c>
-      <c r="D144" t="n">
-        <v>26619427500</v>
-      </c>
+        <v>49250000000</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B145" t="n">
-        <v>48841000000</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.5537</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27043261700</v>
-      </c>
+        <v>48139000000</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B146" t="n">
-        <v>49332000000</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.5467</v>
-      </c>
-      <c r="D146" t="n">
-        <v>26969804400</v>
-      </c>
+        <v>48991000000</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B147" t="n">
-        <v>49250000000</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.5599</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27575075000</v>
-      </c>
+        <v>50390000000</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B148" t="n">
-        <v>48139000000</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.5712</v>
-      </c>
-      <c r="D148" t="n">
-        <v>27496996800</v>
-      </c>
+        <v>50358000000</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B149" t="n">
-        <v>48991000000</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.5761999999999999</v>
-      </c>
-      <c r="D149" t="n">
-        <v>28228614200</v>
-      </c>
+        <v>51494000000</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B150" t="n">
-        <v>50390000000</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.5640999999999999</v>
-      </c>
-      <c r="D150" t="n">
-        <v>28424999000</v>
-      </c>
+        <v>51341000000</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B151" t="n">
-        <v>50358000000</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.5783</v>
-      </c>
-      <c r="D151" t="n">
-        <v>29122031400</v>
-      </c>
+        <v>51103000000</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B152" t="n">
-        <v>51494000000</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.5936</v>
-      </c>
-      <c r="D152" t="n">
-        <v>30566838400</v>
-      </c>
+        <v>51658000000</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B153" t="n">
-        <v>51341000000</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.5948</v>
-      </c>
-      <c r="D153" t="n">
-        <v>30537626800</v>
-      </c>
+        <v>51676000000</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B154" t="n">
-        <v>51103000000</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.6022</v>
-      </c>
-      <c r="D154" t="n">
-        <v>30774226600</v>
-      </c>
+        <v>52085000000</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B155" t="n">
-        <v>51658000000</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.6022999999999999</v>
-      </c>
-      <c r="D155" t="n">
-        <v>31113613400</v>
-      </c>
+        <v>52717000000</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B156" t="n">
-        <v>51676000000</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.6027</v>
-      </c>
-      <c r="D156" t="n">
-        <v>31145125200</v>
-      </c>
+        <v>53626000000</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B157" t="n">
-        <v>52085000000</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="D157" t="n">
-        <v>32073943000</v>
-      </c>
+        <v>54225000000</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B158" t="n">
-        <v>52717000000</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.6294</v>
-      </c>
-      <c r="D158" t="n">
-        <v>33180079800</v>
-      </c>
+        <v>54799000000</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B159" t="n">
-        <v>53626000000</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.6399</v>
-      </c>
-      <c r="D159" t="n">
-        <v>34315277400</v>
-      </c>
+        <v>54760000000</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B160" t="n">
-        <v>54225000000</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.6372</v>
-      </c>
-      <c r="D160" t="n">
-        <v>34552170000</v>
-      </c>
+        <v>55835000000</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B161" t="n">
-        <v>54799000000</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="D161" t="n">
-        <v>34742566000</v>
-      </c>
+        <v>56778000000</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B162" t="n">
-        <v>54760000000</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.6554</v>
-      </c>
-      <c r="D162" t="n">
-        <v>35889704000</v>
-      </c>
+        <v>56814000000</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B163" t="n">
-        <v>55835000000</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.6712</v>
-      </c>
-      <c r="D163" t="n">
-        <v>37476452000</v>
-      </c>
+        <v>56158000000</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B164" t="n">
-        <v>56778000000</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.6651</v>
-      </c>
-      <c r="D164" t="n">
-        <v>37763047800</v>
-      </c>
+        <v>57209000000</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B165" t="n">
-        <v>56814000000</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.6701</v>
-      </c>
-      <c r="D165" t="n">
-        <v>38071061400</v>
-      </c>
+        <v>57700000000</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B166" t="n">
-        <v>56158000000</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.6756</v>
-      </c>
-      <c r="D166" t="n">
-        <v>37940344800</v>
-      </c>
+        <v>58639000000</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B167" t="n">
-        <v>57209000000</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="D167" t="n">
-        <v>37300268000</v>
-      </c>
+        <v>59763000000</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B168" t="n">
-        <v>57700000000</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="D168" t="n">
-        <v>37908900000</v>
-      </c>
+        <v>60010000000</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B169" t="n">
-        <v>58639000000</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.6591</v>
-      </c>
-      <c r="D169" t="n">
-        <v>38648964900</v>
-      </c>
+        <v>59951000000</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B170" t="n">
-        <v>59763000000</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="D170" t="n">
-        <v>39025239000</v>
-      </c>
+        <v>60106000000</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B171" t="n">
-        <v>60010000000</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.6536999999999999</v>
-      </c>
-      <c r="D171" t="n">
-        <v>39228537000</v>
-      </c>
+        <v>60824000000</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B172" t="n">
-        <v>59951000000</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.6723</v>
-      </c>
-      <c r="D172" t="n">
-        <v>40305057300</v>
-      </c>
+        <v>62080000000</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B173" t="n">
-        <v>60106000000</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.6735</v>
-      </c>
-      <c r="D173" t="n">
-        <v>40481391000</v>
-      </c>
+        <v>65168000000</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B174" t="n">
-        <v>60824000000</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.6825</v>
-      </c>
-      <c r="D174" t="n">
-        <v>41512380000</v>
-      </c>
+        <v>65050000000</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B175" t="n">
-        <v>62080000000</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="D175" t="n">
-        <v>42680000000</v>
-      </c>
+        <v>64390000000</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B176" t="n">
-        <v>65168000000</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.6796</v>
-      </c>
-      <c r="D176" t="n">
-        <v>44288172800</v>
-      </c>
+        <v>64984000000</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B177" t="n">
-        <v>65050000000</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.6843</v>
-      </c>
-      <c r="D177" t="n">
-        <v>44513715000</v>
-      </c>
+        <v>65141000000</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B178" t="n">
-        <v>64390000000</v>
+        <v>67841000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6875</v>
+        <v>1.421060110842689</v>
       </c>
       <c r="D178" t="n">
-        <v>44268125000</v>
+        <v>96406138979.67883</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B179" t="n">
-        <v>64984000000</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.6888</v>
-      </c>
-      <c r="D179" t="n">
-        <v>44760979200</v>
-      </c>
+        <v>66576000000</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B180" t="n">
-        <v>65141000000</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.6994</v>
-      </c>
-      <c r="D180" t="n">
-        <v>45559615400</v>
-      </c>
+        <v>66584000000</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B181" t="n">
-        <v>67841000000</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.7071999999999999</v>
-      </c>
-      <c r="D181" t="n">
-        <v>47977155199.99999</v>
-      </c>
+        <v>66968000000</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B182" t="n">
-        <v>66576000000</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.7125</v>
-      </c>
-      <c r="D182" t="n">
-        <v>47435400000</v>
-      </c>
+        <v>66549000000</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B183" t="n">
-        <v>66584000000</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.7065</v>
-      </c>
-      <c r="D183" t="n">
-        <v>47041596000</v>
-      </c>
+        <v>66572000000</v>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B184" t="n">
-        <v>66968000000</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.6896</v>
-      </c>
-      <c r="D184" t="n">
-        <v>46181132800</v>
-      </c>
+        <v>68198000000</v>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B185" t="n">
-        <v>66549000000</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.6964</v>
-      </c>
-      <c r="D185" t="n">
-        <v>46344723600</v>
-      </c>
+        <v>68983000000</v>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B186" t="n">
-        <v>66572000000</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="D186" t="n">
-        <v>46267540000</v>
-      </c>
+        <v>68692000000</v>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B187" t="n">
-        <v>68198000000</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.6936</v>
-      </c>
-      <c r="D187" t="n">
-        <v>47302132800</v>
-      </c>
+        <v>69166000000</v>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B188" t="n">
-        <v>68983000000</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="D188" t="n">
-        <v>47529287000</v>
-      </c>
+        <v>70950000000</v>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B189" t="n">
-        <v>68692000000</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.6811</v>
-      </c>
-      <c r="D189" t="n">
-        <v>46786121200</v>
-      </c>
+        <v>71582000000</v>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B190" t="n">
-        <v>69166000000</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.6491</v>
-      </c>
-      <c r="D190" t="n">
-        <v>44895650600</v>
-      </c>
+        <v>70746000000</v>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B191" t="n">
-        <v>70950000000</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.6385999999999999</v>
-      </c>
-      <c r="D191" t="n">
-        <v>45308669999.99999</v>
-      </c>
+        <v>70932000000</v>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B192" t="n">
-        <v>71582000000</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.6419</v>
-      </c>
-      <c r="D192" t="n">
-        <v>45948485800</v>
-      </c>
+        <v>71575000000</v>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B193" t="n">
-        <v>70746000000</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.6207</v>
-      </c>
-      <c r="D193" t="n">
-        <v>43912042200</v>
-      </c>
+        <v>72684000000</v>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B194" t="n">
-        <v>70932000000</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.6159</v>
-      </c>
-      <c r="D194" t="n">
-        <v>43687018800</v>
-      </c>
+        <v>71724000000</v>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B195" t="n">
-        <v>71575000000</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.5821999999999999</v>
-      </c>
-      <c r="D195" t="n">
-        <v>41670964999.99999</v>
-      </c>
+        <v>71979000000</v>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B196" t="n">
-        <v>72684000000</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.5886</v>
-      </c>
-      <c r="D196" t="n">
-        <v>42781802400</v>
-      </c>
+        <v>72204000000</v>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B197" t="n">
-        <v>71724000000</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.5846</v>
-      </c>
-      <c r="D197" t="n">
-        <v>41929850400</v>
-      </c>
+        <v>73578000000</v>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B198" t="n">
-        <v>71979000000</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.5516</v>
-      </c>
-      <c r="D198" t="n">
-        <v>39703616400</v>
-      </c>
+        <v>73056000000</v>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B199" t="n">
-        <v>72204000000</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.5532</v>
-      </c>
-      <c r="D199" t="n">
-        <v>39943252800</v>
-      </c>
+        <v>73068000000</v>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B200" t="n">
-        <v>73578000000</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.5336</v>
-      </c>
-      <c r="D200" t="n">
-        <v>39261220800</v>
-      </c>
+        <v>72606000000</v>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B201" t="n">
-        <v>73056000000</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.5193</v>
-      </c>
-      <c r="D201" t="n">
-        <v>37937980800</v>
-      </c>
+        <v>71525000000</v>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B202" t="n">
-        <v>73068000000</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.5107</v>
-      </c>
-      <c r="D202" t="n">
-        <v>37315827600</v>
-      </c>
+        <v>72175000000</v>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B203" t="n">
-        <v>72606000000</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="D203" t="n">
-        <v>35939970000</v>
-      </c>
+        <v>72855000000</v>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B204" t="n">
-        <v>71525000000</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.5017</v>
-      </c>
-      <c r="D204" t="n">
-        <v>35884092500</v>
-      </c>
+        <v>72332000000</v>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B205" t="n">
-        <v>72175000000</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.5286999999999999</v>
-      </c>
-      <c r="D205" t="n">
-        <v>38158922500</v>
-      </c>
+        <v>73262000000</v>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B206" t="n">
-        <v>72855000000</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="D206" t="n">
-        <v>38248875000</v>
-      </c>
+        <v>74810000000</v>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B207" t="n">
-        <v>72332000000</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.5276999999999999</v>
-      </c>
-      <c r="D207" t="n">
-        <v>38169596399.99999</v>
-      </c>
+        <v>73920000000</v>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B208" t="n">
-        <v>73262000000</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.5417</v>
-      </c>
-      <c r="D208" t="n">
-        <v>39686025400</v>
-      </c>
+        <v>73161000000</v>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B209" t="n">
-        <v>74810000000</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.5213</v>
-      </c>
-      <c r="D209" t="n">
-        <v>38998453000</v>
-      </c>
+        <v>72833000000</v>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B210" t="n">
-        <v>73920000000</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.5347999999999999</v>
-      </c>
-      <c r="D210" t="n">
-        <v>39532415999.99999</v>
-      </c>
+        <v>73502000000</v>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B211" t="n">
-        <v>73161000000</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.5589999999999999</v>
-      </c>
-      <c r="D211" t="n">
-        <v>40896998999.99999</v>
-      </c>
+        <v>75262000000</v>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B212" t="n">
-        <v>72833000000</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.5344</v>
-      </c>
-      <c r="D212" t="n">
-        <v>38921955200</v>
-      </c>
+        <v>75935000000</v>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B213" t="n">
-        <v>73502000000</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.5355</v>
-      </c>
-      <c r="D213" t="n">
-        <v>39360321000</v>
-      </c>
+        <v>75717000000</v>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B214" t="n">
-        <v>75262000000</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.5312</v>
-      </c>
-      <c r="D214" t="n">
-        <v>39979174400</v>
-      </c>
+        <v>75525000000</v>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B215" t="n">
-        <v>75935000000</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0.5185999999999999</v>
-      </c>
-      <c r="D215" t="n">
-        <v>39379891000</v>
-      </c>
+        <v>74655000000</v>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B216" t="n">
-        <v>75717000000</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0.5185999999999999</v>
-      </c>
-      <c r="D216" t="n">
-        <v>39266836200</v>
-      </c>
+        <v>76630000000</v>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B217" t="n">
-        <v>75525000000</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0.5078</v>
-      </c>
-      <c r="D217" t="n">
-        <v>38351595000</v>
-      </c>
+        <v>75188000000</v>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B218" t="n">
-        <v>74655000000</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="D218" t="n">
-        <v>37999395000</v>
-      </c>
+        <v>75809000000</v>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B219" t="n">
-        <v>76630000000</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0.5246</v>
-      </c>
-      <c r="D219" t="n">
-        <v>40200098000</v>
-      </c>
+        <v>75243000000</v>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B220" t="n">
-        <v>75188000000</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.4965</v>
-      </c>
-      <c r="D220" t="n">
-        <v>37330842000</v>
-      </c>
+        <v>75721000000</v>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B221" t="n">
-        <v>75809000000</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0.4893</v>
-      </c>
-      <c r="D221" t="n">
-        <v>37093343700</v>
-      </c>
+        <v>76770000000</v>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B222" t="n">
-        <v>75243000000</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="D222" t="n">
-        <v>37395771000</v>
-      </c>
+        <v>75620000000</v>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B223" t="n">
-        <v>75721000000</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0.4856</v>
-      </c>
-      <c r="D223" t="n">
-        <v>36770117600</v>
-      </c>
+        <v>76874000000</v>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B224" t="n">
-        <v>76770000000</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="D224" t="n">
-        <v>35160660000</v>
-      </c>
+        <v>77423000000</v>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B225" t="n">
-        <v>75620000000</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0.4686</v>
-      </c>
-      <c r="D225" t="n">
-        <v>35435532000</v>
-      </c>
+        <v>77689000000</v>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B226" t="n">
-        <v>76874000000</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="D226" t="n">
-        <v>34939233000</v>
-      </c>
+        <v>77465000000</v>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B227" t="n">
-        <v>77423000000</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="D227" t="n">
-        <v>33067363300</v>
-      </c>
+        <v>76636000000</v>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B228" t="n">
-        <v>77689000000</v>
-      </c>
-      <c r="C228" t="n">
-        <v>0.4076</v>
-      </c>
-      <c r="D228" t="n">
-        <v>31666036400</v>
-      </c>
+        <v>78422000000</v>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B229" t="n">
-        <v>77465000000</v>
-      </c>
-      <c r="C229" t="n">
-        <v>0.3948</v>
-      </c>
-      <c r="D229" t="n">
-        <v>30583182000</v>
-      </c>
+        <v>77827000000</v>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B230" t="n">
-        <v>76636000000</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0.4129</v>
-      </c>
-      <c r="D230" t="n">
-        <v>31643004400</v>
-      </c>
+        <v>78419000000</v>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B231" t="n">
-        <v>78422000000</v>
-      </c>
-      <c r="C231" t="n">
-        <v>0.4434</v>
-      </c>
-      <c r="D231" t="n">
-        <v>34772314800</v>
-      </c>
+        <v>79961000000</v>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B232" t="n">
-        <v>77827000000</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="D232" t="n">
-        <v>34555188000</v>
-      </c>
+        <v>79903000000</v>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B233" t="n">
-        <v>78419000000</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0.4314</v>
-      </c>
-      <c r="D233" t="n">
-        <v>33829956600</v>
-      </c>
+        <v>81247000000</v>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B234" t="n">
-        <v>79961000000</v>
-      </c>
-      <c r="C234" t="n">
-        <v>0.4034</v>
-      </c>
-      <c r="D234" t="n">
-        <v>32256267400</v>
-      </c>
+        <v>81397000000</v>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B235" t="n">
-        <v>79903000000</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="D235" t="n">
-        <v>33063861400</v>
-      </c>
+        <v>82278000000</v>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B236" t="n">
-        <v>81247000000</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0.4093</v>
-      </c>
-      <c r="D236" t="n">
-        <v>33254397100</v>
-      </c>
+        <v>82357000000</v>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B237" t="n">
-        <v>81397000000</v>
-      </c>
-      <c r="C237" t="n">
-        <v>0.4065</v>
-      </c>
-      <c r="D237" t="n">
-        <v>33087880500</v>
-      </c>
+        <v>83722000000</v>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B238" t="n">
-        <v>82278000000</v>
-      </c>
-      <c r="C238" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="D238" t="n">
-        <v>34063092000</v>
-      </c>
+        <v>83831000000</v>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B239" t="n">
-        <v>82357000000</v>
-      </c>
-      <c r="C239" t="n">
-        <v>0.4387</v>
-      </c>
-      <c r="D239" t="n">
-        <v>36130015900</v>
-      </c>
+        <v>82083000000</v>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B240" t="n">
-        <v>83722000000</v>
-      </c>
-      <c r="C240" t="n">
-        <v>0.4075</v>
-      </c>
-      <c r="D240" t="n">
-        <v>34116715000</v>
-      </c>
+        <v>83579000000</v>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B241" t="n">
-        <v>83831000000</v>
-      </c>
-      <c r="C241" t="n">
-        <v>0.4111</v>
-      </c>
-      <c r="D241" t="n">
-        <v>34462924100</v>
-      </c>
+        <v>83142000000</v>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B242" t="n">
-        <v>82083000000</v>
-      </c>
-      <c r="C242" t="n">
-        <v>0.4159</v>
-      </c>
-      <c r="D242" t="n">
-        <v>34138319700</v>
-      </c>
+        <v>83870000000</v>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B243" t="n">
-        <v>83579000000</v>
-      </c>
-      <c r="C243" t="n">
-        <v>0.4181</v>
-      </c>
-      <c r="D243" t="n">
-        <v>34944379900</v>
-      </c>
+        <v>87080000000</v>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B244" t="n">
-        <v>83142000000</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.4162</v>
-      </c>
-      <c r="D244" t="n">
-        <v>34603700400</v>
-      </c>
+        <v>85751000000</v>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B245" t="n">
-        <v>83870000000</v>
-      </c>
-      <c r="C245" t="n">
-        <v>0.4216</v>
-      </c>
-      <c r="D245" t="n">
-        <v>35359592000</v>
-      </c>
+        <v>86550000000</v>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B246" t="n">
-        <v>87080000000</v>
-      </c>
-      <c r="C246" t="n">
-        <v>0.4405</v>
-      </c>
-      <c r="D246" t="n">
-        <v>38358740000</v>
-      </c>
+        <v>88768000000</v>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B247" t="n">
-        <v>85751000000</v>
-      </c>
-      <c r="C247" t="n">
-        <v>0.4475</v>
-      </c>
-      <c r="D247" t="n">
-        <v>38373572500</v>
-      </c>
+        <v>88681000000</v>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B248" t="n">
-        <v>86550000000</v>
-      </c>
-      <c r="C248" t="n">
-        <v>0.4805</v>
-      </c>
-      <c r="D248" t="n">
-        <v>41587275000</v>
-      </c>
+        <v>89673000000</v>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B249" t="n">
-        <v>88768000000</v>
-      </c>
-      <c r="C249" t="n">
-        <v>0.4864</v>
-      </c>
-      <c r="D249" t="n">
-        <v>43176755200</v>
-      </c>
+        <v>89297000000</v>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B250" t="n">
-        <v>88681000000</v>
-      </c>
-      <c r="C250" t="n">
-        <v>0.4657</v>
-      </c>
-      <c r="D250" t="n">
-        <v>41298741700</v>
-      </c>
+        <v>90012000000</v>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B251" t="n">
-        <v>89673000000</v>
-      </c>
-      <c r="C251" t="n">
-        <v>0.4689</v>
-      </c>
-      <c r="D251" t="n">
-        <v>42047669700</v>
-      </c>
+        <v>91205000000</v>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B252" t="n">
-        <v>89297000000</v>
-      </c>
-      <c r="C252" t="n">
-        <v>0.4693</v>
-      </c>
-      <c r="D252" t="n">
-        <v>41907082100</v>
-      </c>
+        <v>93743000000</v>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B253" t="n">
-        <v>90012000000</v>
-      </c>
-      <c r="C253" t="n">
-        <v>0.4859</v>
-      </c>
-      <c r="D253" t="n">
-        <v>43736830800</v>
-      </c>
+        <v>92659000000</v>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B254" t="n">
-        <v>91205000000</v>
-      </c>
-      <c r="C254" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="D254" t="n">
-        <v>45447451500</v>
-      </c>
+        <v>94032000000</v>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B255" t="n">
-        <v>93743000000</v>
-      </c>
-      <c r="C255" t="n">
-        <v>0.5226999999999999</v>
-      </c>
-      <c r="D255" t="n">
-        <v>48999466099.99999</v>
-      </c>
+        <v>93819000000</v>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B256" t="n">
-        <v>92659000000</v>
-      </c>
-      <c r="C256" t="n">
-        <v>0.5445</v>
-      </c>
-      <c r="D256" t="n">
-        <v>50452825500</v>
-      </c>
+        <v>93353000000</v>
+      </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B257" t="n">
-        <v>94032000000</v>
-      </c>
-      <c r="C257" t="n">
-        <v>0.5594</v>
-      </c>
-      <c r="D257" t="n">
-        <v>52601500800</v>
-      </c>
+        <v>93631000000</v>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B258" t="n">
-        <v>93819000000</v>
-      </c>
-      <c r="C258" t="n">
-        <v>0.5548999999999999</v>
-      </c>
-      <c r="D258" t="n">
-        <v>52060163099.99999</v>
-      </c>
+        <v>95503000000</v>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B259" t="n">
-        <v>93353000000</v>
-      </c>
-      <c r="C259" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="D259" t="n">
-        <v>52343027100</v>
-      </c>
+        <v>95766000000</v>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B260" t="n">
-        <v>93631000000</v>
-      </c>
-      <c r="C260" t="n">
-        <v>0.577</v>
-      </c>
-      <c r="D260" t="n">
-        <v>54025086999.99999</v>
-      </c>
+        <v>95741000000</v>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B261" t="n">
-        <v>95503000000</v>
-      </c>
-      <c r="C261" t="n">
-        <v>0.5874</v>
-      </c>
-      <c r="D261" t="n">
-        <v>56098462200</v>
-      </c>
+        <v>97689000000</v>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B262" t="n">
-        <v>95766000000</v>
-      </c>
-      <c r="C262" t="n">
-        <v>0.5810999999999999</v>
-      </c>
-      <c r="D262" t="n">
-        <v>55649622599.99999</v>
-      </c>
+        <v>99787000000</v>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B263" t="n">
-        <v>95741000000</v>
-      </c>
-      <c r="C263" t="n">
-        <v>0.5780999999999999</v>
-      </c>
-      <c r="D263" t="n">
-        <v>55347872099.99999</v>
-      </c>
+        <v>100963000000</v>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B264" t="n">
-        <v>97689000000</v>
-      </c>
-      <c r="C264" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="D264" t="n">
-        <v>58124955000</v>
-      </c>
+        <v>103231000000</v>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B265" t="n">
-        <v>99787000000</v>
-      </c>
-      <c r="C265" t="n">
-        <v>0.6136</v>
-      </c>
-      <c r="D265" t="n">
-        <v>61229303200</v>
-      </c>
+        <v>103512000000</v>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B266" t="n">
-        <v>100963000000</v>
-      </c>
-      <c r="C266" t="n">
-        <v>0.6395</v>
-      </c>
-      <c r="D266" t="n">
-        <v>64565838499.99999</v>
-      </c>
+        <v>104774000000</v>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B267" t="n">
-        <v>103231000000</v>
-      </c>
-      <c r="C267" t="n">
-        <v>0.6556</v>
-      </c>
-      <c r="D267" t="n">
-        <v>67678243599.99999</v>
-      </c>
+        <v>105566000000</v>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B268" t="n">
-        <v>103512000000</v>
-      </c>
-      <c r="C268" t="n">
-        <v>0.6737</v>
-      </c>
-      <c r="D268" t="n">
-        <v>69736034400</v>
-      </c>
+        <v>105181000000</v>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B269" t="n">
-        <v>104774000000</v>
-      </c>
-      <c r="C269" t="n">
-        <v>0.6869999999999999</v>
-      </c>
-      <c r="D269" t="n">
-        <v>71979738000</v>
-      </c>
+        <v>107854000000</v>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B270" t="n">
-        <v>105566000000</v>
-      </c>
-      <c r="C270" t="n">
-        <v>0.6685</v>
-      </c>
-      <c r="D270" t="n">
-        <v>70570871000</v>
-      </c>
+        <v>106773000000</v>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B271" t="n">
-        <v>105181000000</v>
-      </c>
-      <c r="C271" t="n">
-        <v>0.6257</v>
-      </c>
-      <c r="D271" t="n">
-        <v>65811751700</v>
-      </c>
+        <v>106562000000</v>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B272" t="n">
-        <v>107854000000</v>
-      </c>
-      <c r="C272" t="n">
-        <v>0.6318</v>
-      </c>
-      <c r="D272" t="n">
-        <v>68142157200</v>
-      </c>
+        <v>105557000000</v>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B273" t="n">
-        <v>106773000000</v>
-      </c>
-      <c r="C273" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="D273" t="n">
-        <v>67907628000</v>
-      </c>
+        <v>104789000000</v>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B274" t="n">
-        <v>106562000000</v>
-      </c>
-      <c r="C274" t="n">
-        <v>0.6354</v>
-      </c>
-      <c r="D274" t="n">
-        <v>67709494800</v>
-      </c>
+        <v>106039000000</v>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B275" t="n">
-        <v>105557000000</v>
-      </c>
-      <c r="C275" t="n">
-        <v>0.6551</v>
-      </c>
-      <c r="D275" t="n">
-        <v>69150390700</v>
-      </c>
+        <v>106178000000</v>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B276" t="n">
-        <v>104789000000</v>
-      </c>
-      <c r="C276" t="n">
-        <v>0.6777</v>
-      </c>
-      <c r="D276" t="n">
-        <v>71015505300</v>
-      </c>
+        <v>107808000000</v>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B277" t="n">
-        <v>106039000000</v>
-      </c>
-      <c r="C277" t="n">
-        <v>0.6844</v>
-      </c>
-      <c r="D277" t="n">
-        <v>72573091600</v>
-      </c>
+        <v>107823000000</v>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B278" t="n">
-        <v>106178000000</v>
-      </c>
-      <c r="C278" t="n">
-        <v>0.7139</v>
-      </c>
-      <c r="D278" t="n">
-        <v>75800474200</v>
-      </c>
+        <v>109719000000</v>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B279" t="n">
-        <v>107808000000</v>
-      </c>
-      <c r="C279" t="n">
-        <v>0.7196</v>
-      </c>
-      <c r="D279" t="n">
-        <v>77578636800</v>
-      </c>
+        <v>110798000000</v>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B280" t="n">
-        <v>107823000000</v>
-      </c>
-      <c r="C280" t="n">
-        <v>0.7104</v>
-      </c>
-      <c r="D280" t="n">
-        <v>76597459200</v>
-      </c>
+        <v>111413000000</v>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B281" t="n">
-        <v>109719000000</v>
-      </c>
-      <c r="C281" t="n">
-        <v>0.7263999999999999</v>
-      </c>
-      <c r="D281" t="n">
-        <v>79699881600</v>
-      </c>
+        <v>111861000000</v>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B282" t="n">
-        <v>110798000000</v>
-      </c>
-      <c r="C282" t="n">
-        <v>0.7116</v>
-      </c>
-      <c r="D282" t="n">
-        <v>78843856800</v>
-      </c>
+        <v>113980000000</v>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B283" t="n">
-        <v>111413000000</v>
-      </c>
-      <c r="C283" t="n">
-        <v>0.7309</v>
-      </c>
-      <c r="D283" t="n">
-        <v>81431761700</v>
-      </c>
+        <v>114215000000</v>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B284" t="n">
-        <v>111861000000</v>
-      </c>
-      <c r="C284" t="n">
-        <v>0.7047</v>
-      </c>
-      <c r="D284" t="n">
-        <v>78828446700</v>
-      </c>
+        <v>114963000000</v>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B285" t="n">
-        <v>113980000000</v>
-      </c>
-      <c r="C285" t="n">
-        <v>0.6972</v>
-      </c>
-      <c r="D285" t="n">
-        <v>79466856000</v>
-      </c>
+        <v>117770000000</v>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B286" t="n">
-        <v>114215000000</v>
-      </c>
-      <c r="C286" t="n">
-        <v>0.6802</v>
-      </c>
-      <c r="D286" t="n">
-        <v>77689043000</v>
-      </c>
+        <v>117253000000</v>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B287" t="n">
-        <v>114963000000</v>
-      </c>
-      <c r="C287" t="n">
-        <v>0.6960999999999999</v>
-      </c>
-      <c r="D287" t="n">
-        <v>80025744300</v>
-      </c>
+        <v>117084000000</v>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B288" t="n">
-        <v>117770000000</v>
-      </c>
-      <c r="C288" t="n">
-        <v>0.6915</v>
-      </c>
-      <c r="D288" t="n">
-        <v>81437955000</v>
-      </c>
+        <v>118937000000</v>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B289" t="n">
-        <v>117253000000</v>
+        <v>119143000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.7001999999999999</v>
+        <v>0.6878052135635189</v>
       </c>
       <c r="D289" t="n">
-        <v>82100550599.99998</v>
+        <v>81947176559.59833</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B290" t="n">
-        <v>117084000000</v>
+        <v>119816000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.7027</v>
+        <v>0.6621201085876978</v>
       </c>
       <c r="D290" t="n">
-        <v>82274926800</v>
+        <v>79332582930.54359</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B291" t="n">
-        <v>118937000000</v>
+        <v>120893000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.6827</v>
+        <v>0.6162948354492789</v>
       </c>
       <c r="D291" t="n">
-        <v>81198289900</v>
+        <v>74505731541.96967</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B292" t="n">
-        <v>119143000000</v>
+        <v>122329000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.6882</v>
+        <v>0.6382842918235783</v>
       </c>
       <c r="D292" t="n">
-        <v>81994212600</v>
+        <v>78080679134.48651</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B293" t="n">
-        <v>119816000000</v>
+        <v>122987000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.6617</v>
+        <v>0.6343165239454488</v>
       </c>
       <c r="D293" t="n">
-        <v>79282247200</v>
+        <v>78012686330.47891</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B294" t="n">
-        <v>120893000000</v>
+        <v>124982000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.608976310821509</v>
       </c>
       <c r="D294" t="n">
-        <v>74397552200</v>
+        <v>76111077279.09384</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B295" t="n">
-        <v>122329000000</v>
+        <v>126112000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.6384</v>
+        <v>0.6177415369409439</v>
       </c>
       <c r="D295" t="n">
-        <v>78094833600</v>
+        <v>77904620706.69632</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B296" t="n">
-        <v>122987000000</v>
+        <v>126790000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.6342</v>
+        <v>0.6559097468188377</v>
       </c>
       <c r="D296" t="n">
-        <v>77998355400</v>
+        <v>83162796799.16043</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B297" t="n">
-        <v>124982000000</v>
+        <v>127329000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.6092</v>
+        <v>0.6533812479581836</v>
       </c>
       <c r="D297" t="n">
-        <v>76139034400</v>
+        <v>83194380921.26756</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B298" t="n">
-        <v>126112000000</v>
+        <v>128048000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.6184999999999999</v>
+        <v>0.6704210244033253</v>
       </c>
       <c r="D298" t="n">
-        <v>78000271999.99998</v>
+        <v>85846071332.797</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B299" t="n">
-        <v>126790000000</v>
+        <v>131146000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.6561</v>
+        <v>0.6844158510711108</v>
       </c>
       <c r="D299" t="n">
-        <v>83186919000</v>
+        <v>89758401204.5719</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B300" t="n">
-        <v>127329000000</v>
+        <v>131708000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.6526999999999999</v>
+        <v>0.7046719751955465</v>
       </c>
       <c r="D300" t="n">
-        <v>83107638300</v>
+        <v>92810936509.05504</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B301" t="n">
-        <v>128048000000</v>
+        <v>133105000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.6702</v>
+        <v>0.6914194842010648</v>
       </c>
       <c r="D301" t="n">
-        <v>85817769600</v>
+        <v>92031390444.58273</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B302" t="n">
-        <v>131146000000</v>
+        <v>134703000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.6841</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="D302" t="n">
-        <v>89716978600</v>
+        <v>94528421052.63158</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B303" t="n">
-        <v>131708000000</v>
+        <v>136207000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.7043</v>
+        <v>0.7159733657907925</v>
       </c>
       <c r="D303" t="n">
-        <v>92761944400</v>
+        <v>97520584234.26648</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B304" t="n">
-        <v>133105000000</v>
+        <v>139067000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.7410701052319549</v>
       </c>
       <c r="D304" t="n">
-        <v>91975555000</v>
+        <v>103058396324.2923</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B305" t="n">
-        <v>134703000000</v>
+        <v>139023000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.7010999999999999</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D305" t="n">
-        <v>94440273300</v>
+        <v>102418594371.5928</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B306" t="n">
-        <v>136207000000</v>
+        <v>140101000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.7144</v>
+        <v>0.7720219254226821</v>
       </c>
       <c r="D306" t="n">
-        <v>97306280800</v>
+        <v>108161043773.6432</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B307" t="n">
-        <v>139067000000</v>
+        <v>140604000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.7403999999999999</v>
+        <v>0.7613826709304097</v>
       </c>
       <c r="D307" t="n">
-        <v>102965206800</v>
+        <v>107053449063.4993</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B308" t="n">
-        <v>139023000000</v>
+        <v>139973000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.7366</v>
+        <v>0.7040270346381301</v>
       </c>
       <c r="D308" t="n">
-        <v>102404341800</v>
+        <v>98544776119.40298</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B309" t="n">
-        <v>140101000000</v>
+        <v>142924000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.7711</v>
+        <v>0.7580351728320195</v>
       </c>
       <c r="D309" t="n">
-        <v>108031881100</v>
+        <v>108341419041.8436</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B310" t="n">
-        <v>140604000000</v>
+        <v>144156000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.7623</v>
+        <v>0.772499034376207</v>
       </c>
       <c r="D310" t="n">
-        <v>107182429200</v>
+        <v>111360370799.5365</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B311" t="n">
-        <v>139973000000</v>
+        <v>144974000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.7018</v>
+        <v>0.7648183556405354</v>
       </c>
       <c r="D311" t="n">
-        <v>98233051400</v>
+        <v>110878776290.631</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B312" t="n">
-        <v>142924000000</v>
+        <v>147844000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.7576499999999999</v>
+        <v>0.7654037504783774</v>
       </c>
       <c r="D312" t="n">
-        <v>108286368600</v>
+        <v>113160352085.7252</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B313" t="n">
-        <v>144156000000</v>
+        <v>149145000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.77313</v>
+        <v>0.7885813421654444</v>
       </c>
       <c r="D313" t="n">
-        <v>111451328280</v>
+        <v>117612964277.2652</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B314" t="n">
-        <v>144974000000</v>
+        <v>148054000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.7621</v>
+        <v>0.7991688643810436</v>
       </c>
       <c r="D314" t="n">
-        <v>110484685400</v>
+        <v>118320147047.071</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B315" t="n">
-        <v>147844000000</v>
+        <v>151479000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.7674</v>
+        <v>0.7857311228097745</v>
       </c>
       <c r="D315" t="n">
-        <v>113455485600</v>
+        <v>119021764752.1018</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B316" t="n">
-        <v>149145000000</v>
+        <v>151507000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.7876</v>
+        <v>0.7821666014861166</v>
       </c>
       <c r="D316" t="n">
-        <v>117466602000</v>
+        <v>118503715291.3571</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B317" t="n">
-        <v>148054000000</v>
+        <v>152157000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.79933</v>
+        <v>0.7838219156607619</v>
       </c>
       <c r="D317" t="n">
-        <v>118344003820</v>
+        <v>119263991221.1945</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B318" t="n">
-        <v>151479000000</v>
+        <v>154052000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7859</v>
+        <v>0.7620789513793629</v>
       </c>
       <c r="D318" t="n">
-        <v>119047346100</v>
+        <v>117399786617.8936</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B319" t="n">
-        <v>151507000000</v>
+        <v>154528000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.782</v>
+        <v>0.7336218912772358</v>
       </c>
       <c r="D319" t="n">
-        <v>118478474000</v>
+        <v>113365123615.2887</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B320" t="n">
-        <v>152157000000</v>
+        <v>155108000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.78335</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D320" t="n">
-        <v>119192185950</v>
+        <v>108924157303.3708</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B321" t="n">
-        <v>154052000000</v>
+        <v>156430000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.7622</v>
+        <v>0.6715916722632639</v>
       </c>
       <c r="D321" t="n">
-        <v>117418434400</v>
+        <v>105057085292.1424</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B322" t="n">
-        <v>154528000000</v>
+        <v>158344000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.73415</v>
+        <v>0.583056381552096</v>
       </c>
       <c r="D322" t="n">
-        <v>113446731200</v>
+        <v>92323479680.48509</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B323" t="n">
-        <v>155108000000</v>
+        <v>160333000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.6997599999999999</v>
+        <v>0.5493599956051201</v>
       </c>
       <c r="D323" t="n">
-        <v>108538374080</v>
+        <v>88080536175.35571</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B324" t="n">
-        <v>156430000000</v>
+        <v>160893000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.66955</v>
+        <v>0.5782017924255565</v>
       </c>
       <c r="D324" t="n">
-        <v>104737706500</v>
+        <v>93028620988.72505</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B325" t="n">
-        <v>158344000000</v>
+        <v>158009000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.584</v>
+        <v>0.508440105755542</v>
       </c>
       <c r="D325" t="n">
-        <v>92472896000</v>
+        <v>80338112670.32744</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B326" t="n">
-        <v>160333000000</v>
+        <v>159746000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.5489499999999999</v>
+        <v>0.5003752814610959</v>
       </c>
       <c r="D326" t="n">
-        <v>88014800349.99998</v>
+        <v>79932949712.28423</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B327" t="n">
-        <v>160893000000</v>
+        <v>159188000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.58363</v>
+        <v>0.5603182607721185</v>
       </c>
       <c r="D327" t="n">
-        <v>93901981590</v>
+        <v>89195943295.79201</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B328" t="n">
-        <v>158009000000</v>
+        <v>159673000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.5075999999999999</v>
+        <v>0.5646208570944611</v>
       </c>
       <c r="D328" t="n">
-        <v>80205368399.99998</v>
+        <v>90154706114.84389</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B329" t="n">
-        <v>159746000000</v>
+        <v>158329000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.50069</v>
+        <v>0.6402868485081316</v>
       </c>
       <c r="D329" t="n">
-        <v>79983224740</v>
+        <v>101375976437.444</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B330" t="n">
-        <v>159188000000</v>
+        <v>157910000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.55914</v>
+        <v>0.6457445434586078</v>
       </c>
       <c r="D330" t="n">
-        <v>89008378320</v>
+        <v>101969520857.5488</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B331" t="n">
-        <v>159673000000</v>
+        <v>158591000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.56489</v>
+        <v>0.6620324395895399</v>
       </c>
       <c r="D331" t="n">
-        <v>90197680970</v>
+        <v>104992386626.9447</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B332" t="n">
-        <v>158329000000</v>
+        <v>157915000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.64083</v>
+        <v>0.6853539853334247</v>
       </c>
       <c r="D332" t="n">
-        <v>101461973070</v>
+        <v>108227674593.9278</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B333" t="n">
-        <v>157910000000</v>
+        <v>158781000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.64544</v>
+        <v>0.7233796296296295</v>
       </c>
       <c r="D333" t="n">
-        <v>101921430400</v>
+        <v>114858940972.2222</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B334" t="n">
-        <v>158591000000</v>
+        <v>158790000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.6619699999999999</v>
+        <v>0.7175660160734788</v>
       </c>
       <c r="D334" t="n">
-        <v>104982484270</v>
+        <v>113942307692.3077</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B335" t="n">
-        <v>157915000000</v>
+        <v>160392000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.68509</v>
+        <v>0.7161784716751414</v>
       </c>
       <c r="D335" t="n">
-        <v>108185987350</v>
+        <v>114869297428.9193</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B336" t="n">
-        <v>158781000000</v>
+        <v>163056000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.7226899999999999</v>
+        <v>0.7235366471311772</v>
       </c>
       <c r="D336" t="n">
-        <v>114749440890</v>
+        <v>117976991534.6212</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B337" t="n">
-        <v>158790000000</v>
+        <v>160311000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.71712</v>
+        <v>0.701508242721852</v>
       </c>
       <c r="D337" t="n">
-        <v>113871484800</v>
+        <v>112459487898.9828</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B338" t="n">
-        <v>160392000000</v>
+        <v>160875000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.71532</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D338" t="n">
-        <v>114731605440</v>
+        <v>112350722815.8391</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B339" t="n">
-        <v>163056000000</v>
+        <v>161647000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.72542</v>
+        <v>0.7107825716113441</v>
       </c>
       <c r="D339" t="n">
-        <v>118284083520</v>
+        <v>114895870353.2589</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B340" t="n">
-        <v>160311000000</v>
+        <v>163862000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.70141</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D340" t="n">
-        <v>112443738510</v>
+        <v>119172363636.3636</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B341" t="n">
-        <v>160875000000</v>
+        <v>162781000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.6979</v>
+        <v>0.6824541049614413</v>
       </c>
       <c r="D341" t="n">
-        <v>112274662500</v>
+        <v>111090561659.7284</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B342" t="n">
-        <v>161647000000</v>
+        <v>161316000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.71027</v>
+        <v>0.6854009595613434</v>
       </c>
       <c r="D342" t="n">
-        <v>114813014690</v>
+        <v>110566141192.5977</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B343" t="n">
-        <v>163862000000</v>
+        <v>162437000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.72676</v>
+        <v>0.726321905868681</v>
       </c>
       <c r="D343" t="n">
-        <v>119088347120</v>
+        <v>117981551423.5909</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B344" t="n">
-        <v>162781000000</v>
+        <v>162917000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.68037</v>
+        <v>0.699839037021485</v>
       </c>
       <c r="D344" t="n">
-        <v>110751308970</v>
+        <v>114015676394.4293</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B345" t="n">
-        <v>161316000000</v>
+        <v>164178000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.68453</v>
+        <v>0.7341604874825637</v>
       </c>
       <c r="D345" t="n">
-        <v>110425641480</v>
+        <v>120533000513.9123</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B346" t="n">
-        <v>162437000000</v>
+        <v>166485000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.72551</v>
+        <v>0.7666947788085563</v>
       </c>
       <c r="D346" t="n">
-        <v>117849667870</v>
+        <v>127643180249.9425</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B347" t="n">
-        <v>162917000000</v>
+        <v>167970000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.69886</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D347" t="n">
-        <v>113856174620</v>
+        <v>124764168461.7099</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B348" t="n">
-        <v>164178000000</v>
+        <v>171217000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.7341299999999999</v>
+        <v>0.7803964413922272</v>
       </c>
       <c r="D348" t="n">
-        <v>120527995140</v>
+        <v>133617137505.853</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B349" t="n">
-        <v>166485000000</v>
+        <v>171348000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.76208</v>
+        <v>0.7729169887154119</v>
       </c>
       <c r="D349" t="n">
-        <v>126874888800</v>
+        <v>132437780182.4084</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B350" t="n">
-        <v>167970000000</v>
+        <v>172374000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.74249</v>
+        <v>0.7526719855486979</v>
       </c>
       <c r="D350" t="n">
-        <v>124716045300</v>
+        <v>129741080836.9712</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B351" t="n">
-        <v>171217000000</v>
+        <v>174074000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.77796</v>
+        <v>0.7614986293024673</v>
       </c>
       <c r="D351" t="n">
-        <v>133199977320</v>
+        <v>132557112397.1977</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B352" t="n">
-        <v>171348000000</v>
+        <v>176860000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.77262</v>
+        <v>0.8101758081503687</v>
       </c>
       <c r="D352" t="n">
-        <v>132386891760</v>
+        <v>143287693429.4742</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B353" t="n">
-        <v>172374000000</v>
+        <v>175745000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.7521</v>
+        <v>0.823519723297373</v>
       </c>
       <c r="D353" t="n">
-        <v>129642485400</v>
+        <v>144729473770.8968</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B354" t="n">
-        <v>174074000000</v>
+        <v>176466000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7613799999999999</v>
+        <v>0.8285690612312535</v>
       </c>
       <c r="D354" t="n">
-        <v>132536462120</v>
+        <v>146214267959.2344</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B355" t="n">
-        <v>176860000000</v>
+        <v>176967000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.80946</v>
+        <v>0.8798169980644026</v>
       </c>
       <c r="D355" t="n">
-        <v>143161095600</v>
+        <v>155698574696.4631</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B356" t="n">
-        <v>175745000000</v>
+        <v>175197000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.82359</v>
+        <v>0.8538251366120219</v>
       </c>
       <c r="D356" t="n">
-        <v>144741824550</v>
+        <v>149587602459.0164</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B357" t="n">
-        <v>176466000000</v>
+        <v>175793000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.82907</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D357" t="n">
-        <v>146302666620</v>
+        <v>133825365408.039</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B358" t="n">
-        <v>176967000000</v>
+        <v>179139000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.87895</v>
+        <v>0.8076239702794379</v>
       </c>
       <c r="D358" t="n">
-        <v>155545144650</v>
+        <v>144676950411.8882</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B359" t="n">
-        <v>175197000000</v>
+        <v>181904000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.85386</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D359" t="n">
-        <v>149593710420</v>
+        <v>142034824705.2393</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B360" t="n">
-        <v>175793000000</v>
+        <v>184189000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.76214</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D360" t="n">
-        <v>133978877020</v>
+        <v>143192878799.6579</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B361" t="n">
-        <v>179139000000</v>
+        <v>182820000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.80658</v>
+        <v>0.8272667107875579</v>
       </c>
       <c r="D361" t="n">
-        <v>144489934620</v>
+        <v>151240900066.1813</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B362" t="n">
-        <v>181904000000</v>
+        <v>184386000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.7799199999999999</v>
+        <v>0.8343763037129747</v>
       </c>
       <c r="D362" t="n">
-        <v>141870567680</v>
+        <v>153847309136.4205</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B363" t="n">
-        <v>184189000000</v>
+        <v>186446000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.77718</v>
+        <v>0.8196049504139006</v>
       </c>
       <c r="D363" t="n">
-        <v>143148007020</v>
+        <v>152812064584.8701</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B364" t="n">
-        <v>182820000000</v>
+        <v>189365000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.82656</v>
+        <v>0.8188666885031116</v>
       </c>
       <c r="D364" t="n">
-        <v>151111699200</v>
+        <v>155064690468.3917</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B365" t="n">
-        <v>184386000000</v>
+        <v>188392000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.83395</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D365" t="n">
-        <v>153768704700</v>
+        <v>141936261583.6661</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B366" t="n">
-        <v>186446000000</v>
+        <v>188815000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.81773</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D366" t="n">
-        <v>152462487580</v>
+        <v>151427540299.9439</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B367" t="n">
-        <v>189365000000</v>
+        <v>192301000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.81843</v>
+        <v>0.8090614886731392</v>
       </c>
       <c r="D367" t="n">
-        <v>154981996950</v>
+        <v>155583333333.3333</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B368" t="n">
-        <v>188392000000</v>
+        <v>190755000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.75331</v>
+        <v>0.8037939072421831</v>
       </c>
       <c r="D368" t="n">
-        <v>141917577520</v>
+        <v>153327706775.9826</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B369" t="n">
-        <v>188815000000</v>
+        <v>191522000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.80074</v>
+        <v>0.8301510874979247</v>
       </c>
       <c r="D369" t="n">
-        <v>151191723100</v>
+        <v>158992196579.7775</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B370" t="n">
-        <v>192301000000</v>
+        <v>192689000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.8086099999999999</v>
+        <v>0.8227067050596463</v>
       </c>
       <c r="D370" t="n">
-        <v>155496511610</v>
+        <v>158526532291.2382</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B371" t="n">
-        <v>190755000000</v>
+        <v>196035000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.80283</v>
+        <v>0.8204791598293403</v>
       </c>
       <c r="D371" t="n">
-        <v>153143836650</v>
+        <v>160842632097.1447</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B372" t="n">
-        <v>191522000000</v>
+        <v>200631000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.8300299999999999</v>
+        <v>0.8289811821271658</v>
       </c>
       <c r="D372" t="n">
-        <v>158969005660</v>
+        <v>166319323551.3554</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B373" t="n">
-        <v>192689000000</v>
+        <v>199518000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.8224399999999999</v>
+        <v>0.839278220730172</v>
       </c>
       <c r="D373" t="n">
-        <v>158475141160</v>
+        <v>167451112043.6425</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B374" t="n">
-        <v>196035000000</v>
+        <v>201848000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.82007</v>
+        <v>0.8251505899826719</v>
       </c>
       <c r="D374" t="n">
-        <v>160762422450</v>
+        <v>166554996286.8224</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B375" t="n">
-        <v>200631000000</v>
+        <v>203856000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.82679</v>
+        <v>0.8375910880308234</v>
       </c>
       <c r="D375" t="n">
-        <v>165879704490</v>
+        <v>170747968841.6115</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B376" t="n">
-        <v>199518000000</v>
+        <v>205362000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.8389099999999999</v>
+        <v>0.8568980291345329</v>
       </c>
       <c r="D376" t="n">
-        <v>167377645380</v>
+        <v>175974293059.1259</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B377" t="n">
-        <v>201848000000</v>
+        <v>206244000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.8247099999999999</v>
+        <v>0.7941550190597204</v>
       </c>
       <c r="D377" t="n">
-        <v>166466064080</v>
+        <v>163789707750.953</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B378" t="n">
-        <v>203856000000</v>
+        <v>205153000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.83599</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D378" t="n">
-        <v>170421577440</v>
+        <v>158787151702.7864</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B379" t="n">
-        <v>205362000000</v>
+        <v>208329000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.85626</v>
+        <v>0.7981482959533882</v>
       </c>
       <c r="D379" t="n">
-        <v>175843266120</v>
+        <v>166277436347.6734</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B380" t="n">
-        <v>206244000000</v>
+        <v>209263000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.79406</v>
+        <v>0.7725587144622992</v>
       </c>
       <c r="D380" t="n">
-        <v>163770110640</v>
+        <v>161667954264.5241</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B381" t="n">
-        <v>205153000000</v>
+        <v>210802000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.77374</v>
+        <v>0.8302889405513119</v>
       </c>
       <c r="D381" t="n">
-        <v>158735082220</v>
+        <v>175026569246.0977</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B382" t="n">
-        <v>208329000000</v>
+        <v>211633000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.79842</v>
+        <v>0.8258320257659592</v>
       </c>
       <c r="D382" t="n">
-        <v>166334040180</v>
+        <v>174773309108.9272</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B383" t="n">
-        <v>209263000000</v>
+        <v>214001000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.7720899999999999</v>
+        <v>0.8127438231469442</v>
       </c>
       <c r="D383" t="n">
-        <v>161569869670</v>
+        <v>173927990897.2692</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B384" t="n">
-        <v>210802000000</v>
+        <v>216074000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.8295899999999999</v>
+        <v>0.8220979940808945</v>
       </c>
       <c r="D384" t="n">
-        <v>174879231180</v>
+        <v>177634001973.0352</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B385" t="n">
-        <v>211633000000</v>
+        <v>216142000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.82585</v>
+        <v>0.8087343307723414</v>
       </c>
       <c r="D385" t="n">
-        <v>174777113050</v>
+        <v>174801455721.7954</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B386" t="n">
-        <v>214001000000</v>
+        <v>218953000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.8126599999999999</v>
+        <v>0.8389261744966443</v>
       </c>
       <c r="D386" t="n">
-        <v>173910052660</v>
+        <v>183685402684.5638</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B387" t="n">
-        <v>216074000000</v>
+        <v>218025000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.82281</v>
+        <v>0.8677542519958347</v>
       </c>
       <c r="D387" t="n">
-        <v>177787847940</v>
+        <v>189192120791.3918</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B388" t="n">
-        <v>216142000000</v>
+        <v>220662000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.80759</v>
+        <v>0.8618460742911315</v>
       </c>
       <c r="D388" t="n">
-        <v>174554117780</v>
+        <v>190176678445.2296</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B389" t="n">
-        <v>218953000000</v>
+        <v>220034000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.83795</v>
+        <v>0.8503401360544218</v>
       </c>
       <c r="D389" t="n">
-        <v>183471666350</v>
+        <v>187103741496.5987</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B390" t="n">
-        <v>218025000000</v>
+        <v>220294000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.86669</v>
+        <v>0.876577840112202</v>
       </c>
       <c r="D390" t="n">
-        <v>188960087250</v>
+        <v>193104838709.6774</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B391" t="n">
-        <v>220662000000</v>
+        <v>221761000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.86156</v>
+        <v>0.8502678343678259</v>
       </c>
       <c r="D391" t="n">
-        <v>190113552720</v>
+        <v>188556245217.2434</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B392" t="n">
-        <v>220034000000</v>
+        <v>222495000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.84855</v>
+        <v>0.8366100560528738</v>
       </c>
       <c r="D392" t="n">
-        <v>186709850700</v>
+        <v>186141554421.4841</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B393" t="n">
-        <v>220294000000</v>
+        <v>224916000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.87559</v>
+        <v>0.7815552950371238</v>
       </c>
       <c r="D393" t="n">
-        <v>192887223460</v>
+        <v>175784290738.5697</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B394" t="n">
-        <v>221761000000</v>
+        <v>225561000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.84962</v>
+        <v>0.7793624814901411</v>
       </c>
       <c r="D394" t="n">
-        <v>188412580820</v>
+        <v>175793780687.3977</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B395" t="n">
-        <v>222495000000</v>
+        <v>228548000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.8347599999999999</v>
+        <v>0.7842522155125089</v>
       </c>
       <c r="D395" t="n">
-        <v>185729926200</v>
+        <v>179239275350.9529</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B396" t="n">
-        <v>224916000000</v>
+        <v>230571000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.78076</v>
+        <v>0.779666302822392</v>
       </c>
       <c r="D396" t="n">
-        <v>175605416160</v>
+        <v>179768439108.0617</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B397" t="n">
-        <v>225561000000</v>
+        <v>230155000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.7783</v>
+        <v>0.7260582298700355</v>
       </c>
       <c r="D397" t="n">
-        <v>175554126300</v>
+        <v>167105931895.738</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B398" t="n">
-        <v>228548000000</v>
+        <v>233043000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.78309</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D398" t="n">
-        <v>178973653320</v>
+        <v>176360678068.715</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B399" t="n">
-        <v>230571000000</v>
+        <v>236828000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.77918</v>
+        <v>0.7472166180975864</v>
       </c>
       <c r="D399" t="n">
-        <v>179656311780</v>
+        <v>176961817230.8152</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B400" t="n">
-        <v>230155000000</v>
+        <v>238569000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.724</v>
+        <v>0.7609770945894528</v>
       </c>
       <c r="D400" t="n">
-        <v>166632220000</v>
+        <v>181545544479.1112</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B401" t="n">
-        <v>233043000000</v>
+        <v>237679000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.75642</v>
+        <v>0.7109341674960898</v>
       </c>
       <c r="D401" t="n">
-        <v>176278386060</v>
+        <v>168974121996.3031</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B402" t="n">
-        <v>236828000000</v>
+        <v>240683000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.74615</v>
+        <v>0.6779201410073893</v>
       </c>
       <c r="D402" t="n">
-        <v>176709212200</v>
+        <v>163163853298.0815</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B403" t="n">
-        <v>238569000000</v>
+        <v>243516000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.76141</v>
+        <v>0.6592392379194411</v>
       </c>
       <c r="D403" t="n">
-        <v>181648822290</v>
+        <v>160535302261.1906</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B404" t="n">
-        <v>237679000000</v>
+        <v>243435000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.71031</v>
+        <v>0.6347594261774788</v>
       </c>
       <c r="D404" t="n">
-        <v>168825770490</v>
+        <v>154522660911.5146</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B405" t="n">
-        <v>240683000000</v>
+        <v>245301000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.67631</v>
+        <v>0.6401638819537802</v>
       </c>
       <c r="D405" t="n">
-        <v>162776319730</v>
+        <v>157032840407.1442</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B406" t="n">
-        <v>243516000000</v>
+        <v>245876000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.65881</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="D406" t="n">
-        <v>160430775960</v>
+        <v>166695593220.339</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B407" t="n">
-        <v>243435000000</v>
+        <v>251168000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.63361</v>
+        <v>0.6588483331137172</v>
       </c>
       <c r="D407" t="n">
-        <v>154242850350</v>
+        <v>165481618131.5061</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B408" t="n">
-        <v>245301000000</v>
+        <v>253283000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.63962</v>
+        <v>0.6832467887400929</v>
       </c>
       <c r="D408" t="n">
-        <v>156899425620</v>
+        <v>173054796392.457</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B409" t="n">
-        <v>245876000000</v>
+        <v>252048000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.67677</v>
+        <v>0.6485504896556197</v>
       </c>
       <c r="D409" t="n">
-        <v>166401500520</v>
+        <v>163465853816.7196</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B410" t="n">
-        <v>251168000000</v>
+        <v>255151000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.65801</v>
+        <v>0.6592827004219409</v>
       </c>
       <c r="D410" t="n">
-        <v>165271055680</v>
+        <v>168216640295.3586</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B411" t="n">
-        <v>253283000000</v>
+        <v>258960000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.68286</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D411" t="n">
-        <v>172956829380</v>
+        <v>179186271796.2912</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B412" t="n">
-        <v>252048000000</v>
+        <v>262111000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.6478</v>
+        <v>0.6982752601075344</v>
       </c>
       <c r="D412" t="n">
-        <v>163276694400</v>
+        <v>183025626702.0459</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B413" t="n">
-        <v>255151000000</v>
+        <v>260867000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.65895</v>
+        <v>0.6766815536608473</v>
       </c>
       <c r="D413" t="n">
-        <v>168131751450</v>
+        <v>176523886858.8442</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B414" t="n">
-        <v>258960000000</v>
+        <v>261594000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.69052</v>
+        <v>0.7132158904500393</v>
       </c>
       <c r="D414" t="n">
-        <v>178817059200</v>
+        <v>186572997646.3876</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B415" t="n">
-        <v>262111000000</v>
+        <v>264903000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.69783</v>
+        <v>0.7211365111415591</v>
       </c>
       <c r="D415" t="n">
-        <v>182908919130</v>
+        <v>191031225210.9324</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B416" t="n">
-        <v>260867000000</v>
+        <v>263346000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.6762</v>
+        <v>0.7248477819657873</v>
       </c>
       <c r="D416" t="n">
-        <v>176398265400</v>
+        <v>190885763989.5622</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B417" t="n">
-        <v>261594000000</v>
+        <v>262940000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.71299</v>
+        <v>0.7290755322251385</v>
       </c>
       <c r="D417" t="n">
-        <v>186513906060</v>
+        <v>191703120443.2779</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B418" t="n">
-        <v>264903000000</v>
+        <v>267649000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7208599999999999</v>
+        <v>0.7151541157119359</v>
       </c>
       <c r="D418" t="n">
-        <v>190957976580</v>
+        <v>191410283916.1839</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B419" t="n">
-        <v>263346000000</v>
+        <v>269673000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.72485</v>
+        <v>0.7084661707403471</v>
       </c>
       <c r="D419" t="n">
-        <v>190886348100</v>
+        <v>191054197662.0616</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B420" t="n">
-        <v>262940000000</v>
+        <v>272689000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.72829</v>
+        <v>0.6930967563071805</v>
       </c>
       <c r="D420" t="n">
-        <v>191496572600</v>
+        <v>188999861380.6487</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B421" t="n">
-        <v>267649000000</v>
+        <v>270611000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.71505</v>
+        <v>0.731368390258173</v>
       </c>
       <c r="D421" t="n">
-        <v>191382417450</v>
+        <v>197916331456.1544</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B422" t="n">
-        <v>269673000000</v>
+        <v>271696000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.70823</v>
+        <v>0.7195797654169965</v>
       </c>
       <c r="D422" t="n">
-        <v>190990508790</v>
+        <v>195506943944.7363</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B423" t="n">
-        <v>272689000000</v>
+        <v>275412000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.69195</v>
+        <v>0.7008199593524423</v>
       </c>
       <c r="D423" t="n">
-        <v>188687153550</v>
+        <v>193014226645.1749</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B424" t="n">
-        <v>270611000000</v>
+        <v>278067000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.73115</v>
+        <v>0.6869547296833138</v>
       </c>
       <c r="D424" t="n">
-        <v>197857232650</v>
+        <v>191019440818.85</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B425" t="n">
-        <v>271696000000</v>
+        <v>276620000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.71909</v>
+        <v>0.7086167800453514</v>
       </c>
       <c r="D425" t="n">
-        <v>195373876640</v>
+        <v>196017573696.1451</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B426" t="n">
-        <v>275412000000</v>
+        <v>278031000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7004899999999999</v>
+        <v>0.7333528894103843</v>
       </c>
       <c r="D426" t="n">
-        <v>192923351880</v>
+        <v>203894837195.6586</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B427" t="n">
-        <v>278067000000</v>
+        <v>282011000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.68587</v>
+        <v>0.7514841812579846</v>
       </c>
       <c r="D427" t="n">
-        <v>190717813290</v>
+        <v>211926805440.7455</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B428" t="n">
-        <v>276620000000</v>
+        <v>280572000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7082499999999999</v>
+        <v>0.7178235589692054</v>
       </c>
       <c r="D428" t="n">
-        <v>195916115000</v>
+        <v>201401191587.1079</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B429" t="n">
-        <v>278031000000</v>
+        <v>281276000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7331</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D429" t="n">
-        <v>203824526100</v>
+        <v>202809142692.3354</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B430" t="n">
-        <v>282011000000</v>
+        <v>286487000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.75149</v>
+        <v>0.6888001102080177</v>
       </c>
       <c r="D430" t="n">
-        <v>211928446390</v>
+        <v>197332277173.1644</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B431" t="n">
-        <v>280572000000</v>
+        <v>289389000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.71763</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D431" t="n">
-        <v>201346884360</v>
+        <v>197818716248.5474</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B432" t="n">
-        <v>281276000000</v>
+        <v>292600000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.71994</v>
+        <v>0.7098239636570131</v>
       </c>
       <c r="D432" t="n">
-        <v>202501843440</v>
+        <v>207694491766.042</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B433" t="n">
-        <v>286487000000</v>
+        <v>290366000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.6846099999999999</v>
+        <v>0.7368110816386678</v>
       </c>
       <c r="D433" t="n">
-        <v>196131865070</v>
+        <v>213944886531.0934</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B434" t="n">
-        <v>289389000000</v>
+        <v>292030000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.68315</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D434" t="n">
-        <v>197696095350</v>
+        <v>210563126397.0005</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B435" t="n">
-        <v>292600000000</v>
+        <v>295333000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.70935</v>
+        <v>0.7245851749873197</v>
       </c>
       <c r="D435" t="n">
-        <v>207555810000</v>
+        <v>213993913484.5301</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B436" t="n">
-        <v>290366000000</v>
+        <v>297516000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7363999999999999</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D436" t="n">
-        <v>213825522400</v>
+        <v>209370865587.6143</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B437" t="n">
-        <v>292030000000</v>
+        <v>295316000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.72088</v>
+        <v>0.7000840100812098</v>
       </c>
       <c r="D437" t="n">
-        <v>210518586400</v>
+        <v>206746009521.1425</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B438" t="n">
-        <v>295333000000</v>
+        <v>297798000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.72407</v>
+        <v>0.6769564040075818</v>
       </c>
       <c r="D438" t="n">
-        <v>213841765310</v>
+        <v>201596263200.6498</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B439" t="n">
-        <v>297516000000</v>
+        <v>301499000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7035399999999999</v>
+        <v>0.6818026863025841</v>
       </c>
       <c r="D439" t="n">
-        <v>209314406640</v>
+        <v>205562828117.5428</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B440" t="n">
-        <v>295316000000</v>
+        <v>301799000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.69991</v>
+        <v>0.6625149065853981</v>
       </c>
       <c r="D440" t="n">
-        <v>206694621560</v>
+        <v>199946336292.5666</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B441" t="n">
-        <v>297798000000</v>
+        <v>302781000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.67764</v>
+        <v>0.6620762711864407</v>
       </c>
       <c r="D441" t="n">
-        <v>201799836720</v>
+        <v>200464115466.1017</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B442" t="n">
-        <v>301499000000</v>
+        <v>305435000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.68175</v>
+        <v>0.6522306287503261</v>
       </c>
       <c r="D442" t="n">
-        <v>205546943250</v>
+        <v>199214062092.3559</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B443" t="n">
-        <v>301799000000</v>
+        <v>307946000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.66187</v>
+        <v>0.6884207627702053</v>
       </c>
       <c r="D443" t="n">
-        <v>199751704130</v>
+        <v>211996420212.0336</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B444" t="n">
-        <v>302781000000</v>
+        <v>311406000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.66151</v>
+        <v>0.6717721348918447</v>
       </c>
       <c r="D444" t="n">
-        <v>200292659310</v>
+        <v>209193873438.1298</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B445" t="n">
-        <v>305435000000</v>
+        <v>307559000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.6516999999999999</v>
+        <v>0.6920894179527994</v>
       </c>
       <c r="D445" t="n">
-        <v>199051989500</v>
+        <v>212858329296.1451</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B446" t="n">
-        <v>307946000000</v>
+        <v>309109000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.6879</v>
+        <v>0.6811989100817439</v>
       </c>
       <c r="D446" t="n">
-        <v>211836053400</v>
+        <v>210564713896.4578</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B447" t="n">
-        <v>311406000000</v>
+        <v>312159000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.67047</v>
+        <v>0.6805962022731913</v>
       </c>
       <c r="D447" t="n">
-        <v>208788380820</v>
+        <v>212454229905.3971</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B448" t="n">
-        <v>307559000000</v>
+        <v>313888000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.69147</v>
+        <v>0.6674676278200508</v>
       </c>
       <c r="D448" t="n">
-        <v>212667821730</v>
+        <v>209510078761.1801</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B449" t="n">
-        <v>309109000000</v>
+        <v>312948000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.6807299999999999</v>
+        <v>0.6535093451836361</v>
       </c>
       <c r="D449" t="n">
-        <v>210419769570</v>
+        <v>204514442556.5286</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B450" t="n">
-        <v>312159000000</v>
+        <v>316000000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.68052</v>
+        <v>0.6721333512568893</v>
       </c>
       <c r="D450" t="n">
-        <v>212430442680</v>
+        <v>212394138997.177</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B451" t="n">
-        <v>313888000000</v>
+        <v>318977000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.66734</v>
+        <v>0.6562110374696503</v>
       </c>
       <c r="D451" t="n">
-        <v>209470017920</v>
+        <v>209316228098.9566</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B452" t="n">
-        <v>312948000000</v>
+        <v>317171000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.65338</v>
+        <v>0.6312732782021336</v>
       </c>
       <c r="D452" t="n">
-        <v>204473964240</v>
+        <v>200221576920.6489</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B453" t="n">
-        <v>316000000000</v>
+        <v>320212000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.67178</v>
+        <v>0.6260172780768749</v>
       </c>
       <c r="D453" t="n">
-        <v>212282480000</v>
+        <v>200458244647.5523</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B454" t="n">
-        <v>318977000000</v>
+        <v>321673000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.65554</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D454" t="n">
-        <v>209102182580</v>
+        <v>206385859104.3244</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B455" t="n">
-        <v>317171000000</v>
+        <v>324328000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.63086</v>
+        <v>0.6424257998201208</v>
       </c>
       <c r="D455" t="n">
-        <v>200090497060</v>
+        <v>208356674804.0602</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B456" t="n">
-        <v>320212000000</v>
+        <v>326061000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.6262799999999999</v>
+        <v>0.6731287022078621</v>
       </c>
       <c r="D456" t="n">
-        <v>200542371360</v>
+        <v>219481017770.5977</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B457" t="n">
-        <v>321673000000</v>
+        <v>322987000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.6413</v>
+        <v>0.6467050378322448</v>
       </c>
       <c r="D457" t="n">
-        <v>206288894900</v>
+        <v>208877320054.3232</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B458" t="n">
-        <v>324328000000</v>
+        <v>326490000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.64179</v>
+        <v>0.625</v>
       </c>
       <c r="D458" t="n">
-        <v>208150467120</v>
+        <v>204056250000</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B459" t="n">
-        <v>326061000000</v>
+        <v>337987000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6733399999999999</v>
+        <v>0.5975500448162534</v>
       </c>
       <c r="D459" t="n">
-        <v>219549913740</v>
+        <v>201964146997.311</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B460" t="n">
-        <v>322987000000</v>
+        <v>344965000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.64647</v>
+        <v>0.6122199093914534</v>
       </c>
       <c r="D460" t="n">
-        <v>208801405890</v>
+        <v>211194441043.2227</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B461" t="n">
-        <v>326490000000</v>
+        <v>343608000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.62444</v>
+        <v>0.620963735717834</v>
       </c>
       <c r="D461" t="n">
-        <v>203873415600</v>
+        <v>213368107302.5335</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B462" t="n">
-        <v>337987000000</v>
+        <v>346397000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.59607</v>
+        <v>0.6455361177457879</v>
       </c>
       <c r="D462" t="n">
-        <v>201463911090</v>
+        <v>223611774578.7877</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B463" t="n">
-        <v>344965000000</v>
+        <v>350385000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.61265</v>
+        <v>0.6629980773055758</v>
       </c>
       <c r="D463" t="n">
-        <v>211342807250</v>
+        <v>232304581316.7142</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B464" t="n">
-        <v>343608000000</v>
+        <v>354806000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.6204999999999999</v>
+        <v>0.6740815638692281</v>
       </c>
       <c r="D464" t="n">
-        <v>213208764000</v>
+        <v>239168183350.1854</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B465" t="n">
-        <v>346397000000</v>
+        <v>355780000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.64541</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D465" t="n">
-        <v>223568087770</v>
+        <v>235444378267.4872</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B466" t="n">
-        <v>350385000000</v>
+        <v>359598000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.66255</v>
+        <v>0.6614631565021828</v>
       </c>
       <c r="D466" t="n">
-        <v>232147581750</v>
+        <v>237860828151.8719</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B467" t="n">
-        <v>354806000000</v>
+        <v>360384000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.67333</v>
+        <v>0.7014098337658694</v>
       </c>
       <c r="D467" t="n">
-        <v>238901523980</v>
+        <v>252776881531.8791</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B468" t="n">
-        <v>355780000000</v>
+        <v>365780000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.66122</v>
+        <v>0.7185456635769203</v>
       </c>
       <c r="D468" t="n">
-        <v>235248851600</v>
+        <v>262829632823.1659</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B469" t="n">
-        <v>359598000000</v>
+        <v>359421000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.66105</v>
+        <v>0.7184940364994971</v>
       </c>
       <c r="D469" t="n">
-        <v>237712257900</v>
+        <v>258241845092.6857</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B470" t="n">
-        <v>360384000000</v>
+        <v>361223000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7013</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D470" t="n">
-        <v>252737299200</v>
+        <v>261376989869.754</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B471" t="n">
-        <v>365780000000</v>
+        <v>365809000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.71872</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D471" t="n">
-        <v>262893401600</v>
+        <v>255471052447.7966</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B472" t="n">
-        <v>359421000000</v>
+        <v>368720000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.71768</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D472" t="n">
-        <v>257949263280</v>
+        <v>264163920332.4258</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B473" t="n">
-        <v>361223000000</v>
+        <v>364349000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.72287</v>
+        <v>0.7276961141027506</v>
       </c>
       <c r="D473" t="n">
-        <v>261117270010</v>
+        <v>265135351477.2231</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B474" t="n">
-        <v>365809000000</v>
+        <v>366418000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.6983699999999999</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D474" t="n">
-        <v>255470031330</v>
+        <v>256254283516.3298</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B475" t="n">
-        <v>368720000000</v>
+        <v>373053000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.71557</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D475" t="n">
-        <v>263844970400</v>
+        <v>260311911241.3649</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B476" t="n">
-        <v>364349000000</v>
+        <v>369963000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.72692</v>
+        <v>0.7047713017125943</v>
       </c>
       <c r="D476" t="n">
-        <v>264852575080</v>
+        <v>260739305095.4965</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B477" t="n">
-        <v>366418000000</v>
+        <v>374561000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.698</v>
+        <v>0.6902263942573164</v>
       </c>
       <c r="D477" t="n">
-        <v>255759764000</v>
+        <v>258531888459.4147</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B478" t="n">
-        <v>373053000000</v>
+        <v>378237000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.69692</v>
+        <v>0.7174630506528914</v>
       </c>
       <c r="D478" t="n">
-        <v>259988096760</v>
+        <v>271371071889.7977</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B479" t="n">
-        <v>369963000000</v>
+        <v>382985000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7040299999999999</v>
+        <v>0.68259385665529</v>
       </c>
       <c r="D479" t="n">
-        <v>260465050890</v>
+        <v>261423208191.1263</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B480" t="n">
-        <v>374561000000</v>
+        <v>391602000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.6896099999999999</v>
+        <v>0.6842285323297982</v>
       </c>
       <c r="D480" t="n">
-        <v>258301011210</v>
+        <v>267945261717.4136</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B481" t="n">
-        <v>378237000000</v>
+        <v>384879000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.71663</v>
+        <v>0.6577216521967904</v>
       </c>
       <c r="D481" t="n">
-        <v>271055981310</v>
+        <v>253143251775.8485</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B482" t="n">
-        <v>382985000000</v>
+        <v>386923000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.6821699999999999</v>
+        <v>0.67778229632642</v>
       </c>
       <c r="D482" t="n">
-        <v>261260877450</v>
+        <v>262249559441.5074</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B483" t="n">
-        <v>391602000000</v>
+        <v>390385000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.6846</v>
+        <v>0.6935293709688606</v>
       </c>
       <c r="D483" t="n">
-        <v>268090729200</v>
+        <v>270743463485.6786</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B484" t="n">
-        <v>384879000000</v>
+        <v>391962000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.65748</v>
+        <v>0.6458279514337381</v>
       </c>
       <c r="D484" t="n">
-        <v>253050244920</v>
+        <v>253140015499.8708</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B485" t="n">
-        <v>386923000000</v>
+        <v>389603000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.67677</v>
+        <v>0.6513809275664409</v>
       </c>
       <c r="D485" t="n">
-        <v>261857878710</v>
+        <v>253779963522.6681</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B486" t="n">
-        <v>390385000000</v>
+        <v>389035000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.69314</v>
+        <v>0.6244146113019045</v>
       </c>
       <c r="D486" t="n">
-        <v>270591458900</v>
+        <v>242919138307.8364</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B487" t="n">
-        <v>391962000000</v>
+        <v>390828000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.64551</v>
+        <v>0.6292474200855777</v>
       </c>
       <c r="D487" t="n">
-        <v>253015390620</v>
+        <v>245927510697.2061</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B488" t="n">
-        <v>389603000000</v>
+        <v>391713000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.6511899999999999</v>
+        <v>0.6118078923218109</v>
       </c>
       <c r="D488" t="n">
-        <v>253705577570</v>
+        <v>239653104925.0535</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B489" t="n">
-        <v>389035000000</v>
+        <v>391912000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.62382</v>
+        <v>0.5599104143337066</v>
       </c>
       <c r="D489" t="n">
-        <v>242687813700</v>
+        <v>219435610302.3516</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B490" t="n">
-        <v>390828000000</v>
+        <v>393508000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.62898</v>
+        <v>0.5812263876780006</v>
       </c>
       <c r="D490" t="n">
-        <v>245822995440</v>
+        <v>228717233362.3947</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B491" t="n">
-        <v>391713000000</v>
+        <v>397263000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.6118</v>
+        <v>0.6297229219143576</v>
       </c>
       <c r="D491" t="n">
-        <v>239650013400</v>
+        <v>250165617128.4635</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B492" t="n">
-        <v>391912000000</v>
+        <v>398778000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.55948</v>
+        <v>0.6353240152477764</v>
       </c>
       <c r="D492" t="n">
-        <v>219266925760</v>
+        <v>253353240152.4778</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B493" t="n">
-        <v>393508000000</v>
+        <v>393400000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.58125</v>
+        <v>0.644122383252818</v>
       </c>
       <c r="D493" t="n">
-        <v>228726525000</v>
+        <v>253397745571.6586</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B494" t="n">
-        <v>397263000000</v>
+        <v>394722000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.62946</v>
+        <v>0.6185822095756526</v>
       </c>
       <c r="D494" t="n">
-        <v>250061167980</v>
+        <v>244168006928.1207</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B495" t="n">
-        <v>398778000000</v>
+        <v>395721000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.6345</v>
+        <v>0.6257039169065198</v>
       </c>
       <c r="D495" t="n">
-        <v>253024641000</v>
+        <v>247604179702.1649</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B496" t="n">
-        <v>393400000000</v>
+        <v>398520000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.64377</v>
+        <v>0.6183527083848628</v>
       </c>
       <c r="D496" t="n">
-        <v>253259118000</v>
+        <v>246425921345.5355</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B497" t="n">
-        <v>394722000000</v>
+        <v>395740000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.61837</v>
+        <v>0.6019020103527146</v>
       </c>
       <c r="D497" t="n">
-        <v>244084243140</v>
+        <v>238196701576.9833</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B498" t="n">
-        <v>395721000000</v>
+        <v>399129000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.62525</v>
+        <v>0.6139489194499017</v>
       </c>
       <c r="D498" t="n">
-        <v>247424555250</v>
+        <v>245044818271.1198</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B499" t="n">
-        <v>398520000000</v>
+        <v>403358000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.61788</v>
+        <v>0.6208866261020738</v>
       </c>
       <c r="D499" t="n">
-        <v>246237537600</v>
+        <v>250439587731.2803</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B500" t="n">
-        <v>395740000000</v>
+        <v>403361000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.6018</v>
+        <v>0.5967299200381907</v>
       </c>
       <c r="D500" t="n">
-        <v>238156332000</v>
+        <v>240697577276.5246</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B501" t="n">
-        <v>399129000000</v>
+        <v>404877000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.61354</v>
+        <v>0.5998800239952009</v>
       </c>
       <c r="D501" t="n">
-        <v>244881606660</v>
+        <v>242877624475.1049</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>New Zealand_M2 (NZD)</t>
+  </si>
+  <si>
+    <t>New Zealand_FX (USD)</t>
+  </si>
+  <si>
+    <t>New Zealand_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,5893 +385,5309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>New Zealand_M2 (NZD)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>New Zealand_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>New Zealand_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>29983</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>16294000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30011</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>15223000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30042</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>15937000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30072</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>16438000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30103</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>17016000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30133</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>16972000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30164</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>17010000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30195</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>16545000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30225</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>16533000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30256</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>17141000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30286</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>18066000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30317</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>18329000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30348</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>18862000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30376</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>17266000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30407</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>17486000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>30437</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>18103000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>30468</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>18410000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>30498</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>18810000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>30529</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>19245000000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>30560</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>19147000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>30590</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>19340000000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>30621</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>19884000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>30651</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>20669000000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>30682</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>20758000000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>30713</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>21203000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>30742</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>19781000000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>30773</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>20863000000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>30803</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>21393000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>30834</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>21696000000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>30864</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>22273000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>30895</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>23152000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>30926</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>23213000000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>30956</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>23738000000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>30987</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>24145000000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>31017</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>25020000000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>31048</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>24897000000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>31079</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>25250000000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>31107</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>25030000000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>31138</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>26165000000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>31168</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>26778000000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>31199</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>27918000000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>31229</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>28862000000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>31260</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>29239000000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>31291</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>29420000000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>31321</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>29721000000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>31352</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>30474000000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>31382</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>31397000000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>31413</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>31474000000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>31444</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>32213000000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>31472</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>32386000000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>31503</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>33068000000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>31533</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>33392000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>31564</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>33824000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>31594</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>33851000000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>31625</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>34550000000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>31656</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>35002000000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>31686</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>36018000000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>31717</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>36675000000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>31747</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>37807000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>31778</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>38370000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>31809</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>39366000000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>31837</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>38543000000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>31868</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>38349000000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>31898</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>38741000000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>31929</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>39583000000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>31959</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>39428000000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>31990</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>40102000000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>32021</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>40578000000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>32051</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>41887000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>32082</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>41893000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>32112</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>42932000000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>32143</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>42531000000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>32174</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>43592000000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>32203</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>35236000000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>32234</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>34761000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>32264</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>34660000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>32295</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>35658000000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>32325</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>35350000000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>32356</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>35771000000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>32387</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>34970000000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>32417</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>36326000000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>32448</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>35065000000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>32478</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>35616000000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>32509</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>35695000000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>32540</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>36802000000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>32568</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>36302000000</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>32599</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>36279000000</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>32629</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>36758000000</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>32660</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>37527000000</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>32690</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>37588000000</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>32721</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>38287000000</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>32752</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>38758000000</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>32782</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>38883000000</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>32813</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>38513000000</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>32843</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>37957000000</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>32874</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>38744000000</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>32905</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>38287000000</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>32933</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>38284000000</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>32964</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>39326000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>32994</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>39661000000</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>33025</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>39063000000</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>33055</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>38534000000</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>33086</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>40088000000</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>33117</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>40767000000</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>33147</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>40828000000</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>33178</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>41145000000</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>33208</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>42586000000</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>33239</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>41948000000</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>33270</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>41220000000</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>33298</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>40854000000</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>33329</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>41300000000</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>33359</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>42129000000</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>33390</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>42719000000</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>33420</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>41920000000</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>33451</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>42235000000</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>33482</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>42369000000</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>33512</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>43280000000</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>33543</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>42849000000</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>33573</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>43320000000</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>33604</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>44407000000</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>33635</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>44599000000</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>33664</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>45318000000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>33695</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>45418000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>33725</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>45741000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>33756</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>44756000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>33786</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>44868000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>33817</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>45313000000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>33848</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>45461000000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>33878</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>45784000000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>33909</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>46380000000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>33939</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>45538000000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>33970</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>45785000000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>34001</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>45582000000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>34029</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>45158000000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>34060</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>46327000000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>34090</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>47373000000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>34121</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>47334000000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>34151</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>48759000000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>34182</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>48711000000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>34213</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>48355000000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>34243</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>48841000000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>34274</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>49332000000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>34304</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>49250000000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
         <v>34335</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>48139000000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
         <v>34366</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>48991000000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
         <v>34394</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>50390000000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
         <v>34425</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>50358000000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
         <v>34455</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>51494000000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
         <v>34486</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>51341000000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
         <v>34516</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>51103000000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
         <v>34547</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>51658000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
         <v>34578</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>51676000000</v>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
         <v>34608</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>52085000000</v>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
         <v>34639</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>52717000000</v>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
         <v>34669</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>53626000000</v>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
         <v>34700</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>54225000000</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
         <v>34731</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>54799000000</v>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
         <v>34759</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>54760000000</v>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
         <v>34790</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>55835000000</v>
       </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
         <v>34820</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>56778000000</v>
       </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
         <v>34851</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>56814000000</v>
       </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
         <v>34881</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>56158000000</v>
       </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
         <v>34912</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>57209000000</v>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
         <v>34943</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>57700000000</v>
       </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
         <v>34973</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>58639000000</v>
       </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
         <v>35004</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>59763000000</v>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
         <v>35034</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>60010000000</v>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
         <v>35065</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>59951000000</v>
       </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
         <v>35096</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>60106000000</v>
       </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
         <v>35125</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>60824000000</v>
       </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
         <v>35156</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>62080000000</v>
       </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
         <v>35186</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>65168000000</v>
       </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
         <v>35217</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>65050000000</v>
       </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
         <v>35247</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>64390000000</v>
       </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
         <v>35278</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>64984000000</v>
       </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35309</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>65141000000</v>
       </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35339</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>67841000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>1.421060110842689</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>96406138979.67883</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35370</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>66576000000</v>
       </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35400</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>66584000000</v>
       </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35431</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>66968000000</v>
       </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35462</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>66549000000</v>
       </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35490</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>66572000000</v>
       </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35521</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>68198000000</v>
       </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35551</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>68983000000</v>
       </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35582</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>68692000000</v>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35612</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>69166000000</v>
       </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35643</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>70950000000</v>
       </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35674</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>71582000000</v>
       </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35704</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>70746000000</v>
       </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35735</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>70932000000</v>
       </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35765</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>71575000000</v>
       </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
         <v>35796</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>72684000000</v>
       </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
         <v>35827</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>71724000000</v>
       </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
         <v>35855</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>71979000000</v>
       </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
         <v>35886</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>72204000000</v>
       </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
         <v>35916</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>73578000000</v>
       </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
         <v>35947</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>73056000000</v>
       </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
         <v>35977</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>73068000000</v>
       </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
         <v>36008</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>72606000000</v>
       </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
         <v>36039</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>71525000000</v>
       </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
         <v>36069</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>72175000000</v>
       </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
         <v>36100</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>72855000000</v>
       </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
         <v>36130</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>72332000000</v>
       </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
         <v>36161</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>73262000000</v>
       </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
         <v>36192</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>74810000000</v>
       </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
         <v>36220</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>73920000000</v>
       </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
         <v>36251</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>73161000000</v>
       </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
         <v>36281</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>72833000000</v>
       </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
         <v>36312</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>73502000000</v>
       </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
         <v>36342</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>75262000000</v>
       </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
         <v>36373</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>75935000000</v>
       </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
         <v>36404</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>75717000000</v>
       </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
         <v>36434</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>75525000000</v>
       </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
         <v>36465</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>74655000000</v>
       </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
         <v>36495</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>76630000000</v>
       </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
         <v>36526</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>75188000000</v>
       </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
         <v>36557</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>75809000000</v>
       </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
         <v>36586</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>75243000000</v>
       </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
         <v>36617</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>75721000000</v>
       </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
         <v>36647</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>76770000000</v>
       </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
         <v>36678</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>75620000000</v>
       </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
         <v>36708</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>76874000000</v>
       </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
         <v>36739</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>77423000000</v>
       </c>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
         <v>36770</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>77689000000</v>
       </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
         <v>36800</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>77465000000</v>
       </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
         <v>36831</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>76636000000</v>
       </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
         <v>36861</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>78422000000</v>
       </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
         <v>36892</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>77827000000</v>
       </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
         <v>36923</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>78419000000</v>
       </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
         <v>36951</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>79961000000</v>
       </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
         <v>36982</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>79903000000</v>
       </c>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
         <v>37012</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>81247000000</v>
       </c>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
         <v>37043</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>81397000000</v>
       </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
         <v>37073</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>82278000000</v>
       </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
         <v>37104</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>82357000000</v>
       </c>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
         <v>37135</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>83722000000</v>
       </c>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
         <v>37165</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>83831000000</v>
       </c>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
         <v>37196</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>82083000000</v>
       </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
         <v>37226</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>83579000000</v>
       </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
         <v>37257</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>83142000000</v>
       </c>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
         <v>37288</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>83870000000</v>
       </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
         <v>37316</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>87080000000</v>
       </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
         <v>37347</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>85751000000</v>
       </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
         <v>37377</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>86550000000</v>
       </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
         <v>37408</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>88768000000</v>
       </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
         <v>37438</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>88681000000</v>
       </c>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
         <v>37469</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>89673000000</v>
       </c>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
         <v>37500</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>89297000000</v>
       </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
         <v>37530</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>90012000000</v>
       </c>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
         <v>37561</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>91205000000</v>
       </c>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
         <v>37591</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>93743000000</v>
       </c>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
         <v>37622</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>92659000000</v>
       </c>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
         <v>37653</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>94032000000</v>
       </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
         <v>37681</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>93819000000</v>
       </c>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
         <v>37712</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>93353000000</v>
       </c>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
         <v>37742</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>93631000000</v>
       </c>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
         <v>37773</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>95503000000</v>
       </c>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
         <v>37803</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>95766000000</v>
       </c>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
         <v>37834</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>95741000000</v>
       </c>
-      <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
         <v>37865</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>97689000000</v>
       </c>
-      <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
         <v>37895</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>99787000000</v>
       </c>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
         <v>37926</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>100963000000</v>
       </c>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
         <v>37956</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>103231000000</v>
       </c>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
         <v>37987</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>103512000000</v>
       </c>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
         <v>38018</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>104774000000</v>
       </c>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
         <v>38047</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>105566000000</v>
       </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
         <v>38078</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>105181000000</v>
       </c>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
         <v>38108</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>107854000000</v>
       </c>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
         <v>38139</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>106773000000</v>
       </c>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
         <v>38169</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>106562000000</v>
       </c>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
         <v>38200</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>105557000000</v>
       </c>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
         <v>38231</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>104789000000</v>
       </c>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
         <v>38261</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>106039000000</v>
       </c>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
         <v>38292</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>106178000000</v>
       </c>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
         <v>38322</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>107808000000</v>
       </c>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
         <v>38353</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>107823000000</v>
       </c>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
         <v>38384</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>109719000000</v>
       </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
         <v>38412</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>110798000000</v>
       </c>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
         <v>38443</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>111413000000</v>
       </c>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
         <v>38473</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>111861000000</v>
       </c>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
         <v>38504</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>113980000000</v>
       </c>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
         <v>38534</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>114215000000</v>
       </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
         <v>38565</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>114963000000</v>
       </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
         <v>38596</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>117770000000</v>
       </c>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
         <v>38626</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>117253000000</v>
       </c>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
         <v>38657</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>117084000000</v>
       </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
         <v>38687</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>118937000000</v>
       </c>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38718</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>119143000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.6878052135635189</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>81947176559.59833</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38749</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>119816000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.6621201085876978</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>79332582930.54359</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38777</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>120893000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.6162948354492789</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>74505731541.96967</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38808</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>122329000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.6382842918235783</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>78080679134.48651</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38838</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>122987000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.6343165239454488</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>78012686330.47891</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38869</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>124982000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.608976310821509</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>76111077279.09384</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38899</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>126112000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.6177415369409439</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>77904620706.69632</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>38930</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>126790000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.6559097468188377</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>83162796799.16043</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>38961</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>127329000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.6533812479581836</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>83194380921.26756</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>38991</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>128048000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.6704210244033253</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>85846071332.797</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39022</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>131146000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.6844158510711108</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>89758401204.5719</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39052</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>131708000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.7046719751955465</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>92810936509.05504</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39083</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>133105000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.6914194842010648</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>92031390444.58273</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39114</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>134703000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.7017543859649122</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>94528421052.63158</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39142</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>136207000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.7159733657907925</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>97520584234.26648</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39173</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>139067000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.7410701052319549</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>103058396324.2923</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39203</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>139023000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.7367025195226168</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>102418594371.5928</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39234</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>140101000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.7720219254226821</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>108161043773.6432</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39264</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>140604000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.7613826709304097</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>107053449063.4993</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39295</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>139973000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.7040270346381301</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>98544776119.40298</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39326</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>142924000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.7580351728320195</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>108341419041.8436</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39356</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>144156000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.772499034376207</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>111360370799.5365</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39387</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>144974000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.7648183556405354</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>110878776290.631</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39417</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>147844000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.7654037504783774</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>113160352085.7252</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39448</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>149145000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.7885813421654444</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>117612964277.2652</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39479</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>148054000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.7991688643810436</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>118320147047.071</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39508</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>151479000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.7857311228097745</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>119021764752.1018</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39539</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>151507000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.7821666014861166</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>118503715291.3571</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39569</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>152157000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.7838219156607619</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>119263991221.1945</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39600</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>154052000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.7620789513793629</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>117399786617.8936</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39630</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>154528000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.7336218912772358</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>113365123615.2887</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39661</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>155108000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.702247191011236</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>108924157303.3708</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39692</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>156430000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.6715916722632639</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>105057085292.1424</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39722</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>158344000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.583056381552096</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>92323479680.48509</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39753</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>160333000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.5493599956051201</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>88080536175.35571</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39783</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>160893000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.5782017924255565</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>93028620988.72505</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39814</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>158009000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.508440105755542</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>80338112670.32744</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39845</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>159746000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.5003752814610959</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>79932949712.28423</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39873</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>159188000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.5603182607721185</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>89195943295.79201</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39904</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>159673000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.5646208570944611</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>90154706114.84389</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>39934</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>158329000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.6402868485081316</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>101375976437.444</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>39965</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>157910000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.6457445434586078</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>101969520857.5488</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>39995</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>158591000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.6620324395895399</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>104992386626.9447</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40026</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>157915000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.6853539853334247</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>108227674593.9278</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40057</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>158781000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.7233796296296295</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>114858940972.2222</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40087</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>158790000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.7175660160734788</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>113942307692.3077</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40118</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>160392000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.7161784716751414</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>114869297428.9193</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40148</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>163056000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.7235366471311772</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>117976991534.6212</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40179</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>160311000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.701508242721852</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>112459487898.9828</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40210</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>160875000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.6983727913960472</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>112350722815.8391</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40238</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>161647000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.7107825716113441</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>114895870353.2589</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40269</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>163862000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.7272727272727273</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>119172363636.3636</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40299</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>162781000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.6824541049614413</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>111090561659.7284</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40330</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>161316000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.6854009595613434</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>110566141192.5977</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40360</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>162437000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.726321905868681</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>117981551423.5909</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40391</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>162917000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.699839037021485</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>114015676394.4293</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40422</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>164178000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.7341604874825637</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>120533000513.9123</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40452</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>166485000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.7666947788085563</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>127643180249.9425</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40483</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>167970000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>124764168461.7099</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40513</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>171217000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.7803964413922272</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>133617137505.853</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40544</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>171348000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.7729169887154119</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>132437780182.4084</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40575</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>172374000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.7526719855486979</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>129741080836.9712</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40603</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>174074000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.7614986293024673</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>132557112397.1977</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40634</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>176860000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.8101758081503687</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>143287693429.4742</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40664</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>175745000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.823519723297373</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>144729473770.8968</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40695</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>176466000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.8285690612312535</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>146214267959.2344</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40725</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>176967000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.8798169980644026</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>155698574696.4631</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40756</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>175197000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.8538251366120219</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>149587602459.0164</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40787</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>175793000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.7612667478684531</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>133825365408.039</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40817</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>179139000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.8076239702794379</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>144676950411.8882</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40848</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>181904000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.7808229874287499</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>142034824705.2393</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40878</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>184189000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.7774236181295188</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>143192878799.6579</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>40909</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>182820000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.8272667107875579</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>151240900066.1813</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>40940</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>184386000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.8343763037129747</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>153847309136.4205</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>40969</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>186446000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.8196049504139006</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>152812064584.8701</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41000</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>189365000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.8188666885031116</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>155064690468.3917</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41030</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>188392000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.7534091765237702</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>141936261583.6661</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41061</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>188815000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.8019889325527308</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>151427540299.9439</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41091</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>192301000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.8090614886731392</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>155583333333.3333</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41122</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>190755000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>0.8037939072421831</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>153327706775.9826</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41153</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>191522000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>0.8301510874979247</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>158992196579.7775</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41183</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>192689000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>0.8227067050596463</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>158526532291.2382</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41214</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>196035000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>0.8204791598293403</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>160842632097.1447</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41244</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>200631000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>0.8289811821271658</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>166319323551.3554</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41275</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>199518000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>0.839278220730172</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>167451112043.6425</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41306</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>201848000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>0.8251505899826719</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>166554996286.8224</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41334</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>203856000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>0.8375910880308234</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>170747968841.6115</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41365</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>205362000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>0.8568980291345329</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>175974293059.1259</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41395</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>206244000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.7941550190597204</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>163789707750.953</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41426</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>205153000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.7739938080495355</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>158787151702.7864</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41456</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>208329000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.7981482959533882</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>166277436347.6734</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41487</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>209263000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.7725587144622992</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>161667954264.5241</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41518</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>210802000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.8302889405513119</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>175026569246.0977</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41548</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>211633000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.8258320257659592</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>174773309108.9272</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41579</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>214001000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.8127438231469442</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>173927990897.2692</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41609</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>216074000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.8220979940808945</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>177634001973.0352</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41640</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>216142000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.8087343307723414</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>174801455721.7954</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41671</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>218953000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.8389261744966443</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>183685402684.5638</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41699</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>218025000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.8677542519958347</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>189192120791.3918</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41730</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>220662000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.8618460742911315</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>190176678445.2296</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41760</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>220034000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.8503401360544218</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>187103741496.5987</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41791</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>220294000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.876577840112202</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>193104838709.6774</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41821</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>221761000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.8502678343678259</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>188556245217.2434</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41852</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>222495000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.8366100560528738</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>186141554421.4841</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41883</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>224916000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.7815552950371238</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>175784290738.5697</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>41913</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>225561000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.7793624814901411</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>175793780687.3977</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>41944</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>228548000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.7842522155125089</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>179239275350.9529</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>41974</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>230571000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.779666302822392</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>179768439108.0617</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42005</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>230155000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.7260582298700355</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>167105931895.738</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42036</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>233043000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.7567731194187983</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>176360678068.715</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42064</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>236828000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.7472166180975864</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>176961817230.8152</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42095</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>238569000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.7609770945894528</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>181545544479.1112</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42125</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>237679000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.7109341674960898</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>168974121996.3031</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42156</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>240683000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.6779201410073893</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>163163853298.0815</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42186</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>243516000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.6592392379194411</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>160535302261.1906</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42217</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>243435000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.6347594261774788</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>154522660911.5146</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42248</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>245301000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.6401638819537802</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>157032840407.1442</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42278</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>245876000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.6779661016949152</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>166695593220.339</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42309</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>251168000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.6588483331137172</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>165481618131.5061</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42339</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>253283000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.6832467887400929</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>173054796392.457</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42370</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>252048000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.6485504896556197</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>163465853816.7196</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42401</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>255151000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.6592827004219409</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>168216640295.3586</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42430</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>258960000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.691945751453086</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>179186271796.2912</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42461</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>262111000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.6982752601075344</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>183025626702.0459</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42491</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>260867000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.6766815536608473</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>176523886858.8442</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42522</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>261594000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.7132158904500393</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>186572997646.3876</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42552</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>264903000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.7211365111415591</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>191031225210.9324</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42583</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>263346000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.7248477819657873</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>190885763989.5622</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42614</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>262940000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.7290755322251385</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>191703120443.2779</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42644</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>267649000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.7151541157119359</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>191410283916.1839</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42675</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>269673000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.7084661707403471</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>191054197662.0616</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42705</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>272689000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.6930967563071805</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>188999861380.6487</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42736</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>270611000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.731368390258173</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>197916331456.1544</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42767</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>271696000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.7195797654169965</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>195506943944.7363</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42795</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>275412000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.7008199593524423</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>193014226645.1749</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42826</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>278067000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.6869547296833138</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>191019440818.85</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42856</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>276620000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.7086167800453514</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>196017573696.1451</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42887</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>278031000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.7333528894103843</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>203894837195.6586</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>42917</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>282011000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.7514841812579846</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>211926805440.7455</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>42948</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>280572000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.7178235589692054</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>201401191587.1079</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>42979</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>281276000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.7210325185665873</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>202809142692.3354</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43009</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>286487000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.6888001102080177</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>197332277173.1644</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43040</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>289389000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.6835737234260715</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>197818716248.5474</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43070</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>292600000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.7098239636570131</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>207694491766.042</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43101</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>290366000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.7368110816386678</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>213944886531.0934</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43132</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>292030000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.7210325185665873</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>210563126397.0005</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43160</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>295333000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.7245851749873197</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>213993913484.5301</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43191</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>297516000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.7037297677691766</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>209370865587.6143</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43221</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>295316000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.7000840100812098</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>206746009521.1425</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43252</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>297798000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.6769564040075818</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>201596263200.6498</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43282</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>301499000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.6818026863025841</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>205562828117.5428</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43313</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>301799000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.6625149065853981</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>199946336292.5666</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43344</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>302781000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.6620762711864407</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>200464115466.1017</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43374</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>305435000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.6522306287503261</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>199214062092.3559</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43405</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>307946000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.6884207627702053</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>211996420212.0336</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43435</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>311406000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.6717721348918447</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>209193873438.1298</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43466</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>307559000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.6920894179527994</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>212858329296.1451</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43497</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>309109000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.6811989100817439</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>210564713896.4578</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43525</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>312159000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.6805962022731913</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>212454229905.3971</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43556</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>313888000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.6674676278200508</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>209510078761.1801</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43586</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>312948000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.6535093451836361</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>204514442556.5286</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43617</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>316000000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.6721333512568893</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>212394138997.177</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43647</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>318977000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.6562110374696503</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>209316228098.9566</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43678</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>317171000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.6312732782021336</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>200221576920.6489</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43709</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>320212000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.6260172780768749</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>200458244647.5523</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43739</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>321673000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.6416014371872193</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>206385859104.3244</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43770</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>324328000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.6424257998201208</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>208356674804.0602</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43800</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>326061000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.6731287022078621</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>219481017770.5977</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43831</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>322987000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.6467050378322448</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>208877320054.3232</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43862</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>326490000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.625</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>204056250000</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43891</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>337987000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.5975500448162534</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>201964146997.311</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>43922</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>344965000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.6122199093914534</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>211194441043.2227</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>43952</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>343608000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.620963735717834</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>213368107302.5335</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>43983</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>346397000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.6455361177457879</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>223611774578.7877</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44013</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>350385000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.6629980773055758</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>232304581316.7142</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44044</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>354806000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.6740815638692281</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>239168183350.1854</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44075</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>355780000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.661769571835087</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>235444378267.4872</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44105</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>359598000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.6614631565021828</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>237860828151.8719</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44136</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>360384000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>0.7014098337658694</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>252776881531.8791</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44166</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>365780000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>0.7185456635769203</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>262829632823.1659</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44197</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>359421000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>0.7184940364994971</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D469">
         <v>258241845092.6857</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44228</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>361223000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>0.7235890014471781</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D470">
         <v>261376989869.754</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44256</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>365809000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>0.6983727913960472</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D471">
         <v>255471052447.7966</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44287</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>368720000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>0.7164350193437455</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D472">
         <v>264163920332.4258</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44317</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>364349000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>0.7276961141027506</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D473">
         <v>265135351477.2231</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44348</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>366418000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>0.6993496048674733</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D474">
         <v>256254283516.3298</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44378</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>373053000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>0.6977880120019538</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D475">
         <v>260311911241.3649</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44409</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>369963000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C476">
         <v>0.7047713017125943</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D476">
         <v>260739305095.4965</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44440</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>374561000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C477">
         <v>0.6902263942573164</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D477">
         <v>258531888459.4147</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44470</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>378237000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C478">
         <v>0.7174630506528914</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D478">
         <v>271371071889.7977</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44501</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>382985000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C479">
         <v>0.68259385665529</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D479">
         <v>261423208191.1263</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44531</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>391602000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C480">
         <v>0.6842285323297982</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D480">
         <v>267945261717.4136</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44562</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>384879000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C481">
         <v>0.6577216521967904</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D481">
         <v>253143251775.8485</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44593</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>386923000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C482">
         <v>0.67778229632642</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D482">
         <v>262249559441.5074</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44621</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>390385000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C483">
         <v>0.6935293709688606</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D483">
         <v>270743463485.6786</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44652</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>391962000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C484">
         <v>0.6458279514337381</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D484">
         <v>253140015499.8708</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44682</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>389603000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C485">
         <v>0.6513809275664409</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D485">
         <v>253779963522.6681</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44713</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>389035000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C486">
         <v>0.6244146113019045</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D486">
         <v>242919138307.8364</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44743</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>390828000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C487">
         <v>0.6292474200855777</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D487">
         <v>245927510697.2061</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44774</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>391713000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C488">
         <v>0.6118078923218109</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D488">
         <v>239653104925.0535</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44805</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>391912000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C489">
         <v>0.5599104143337066</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D489">
         <v>219435610302.3516</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44835</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>393508000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C490">
         <v>0.5812263876780006</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D490">
         <v>228717233362.3947</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44866</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>397263000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C491">
         <v>0.6297229219143576</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D491">
         <v>250165617128.4635</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44896</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>398778000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C492">
         <v>0.6353240152477764</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D492">
         <v>253353240152.4778</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>44927</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>393400000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C493">
         <v>0.644122383252818</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D493">
         <v>253397745571.6586</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>44958</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>394722000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C494">
         <v>0.6185822095756526</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D494">
         <v>244168006928.1207</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>44986</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>395721000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C495">
         <v>0.6257039169065198</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D495">
         <v>247604179702.1649</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45017</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>398520000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496">
         <v>0.6183527083848628</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D496">
         <v>246425921345.5355</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45047</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>395740000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C497">
         <v>0.6019020103527146</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D497">
         <v>238196701576.9833</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45078</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>399129000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C498">
         <v>0.6139489194499017</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D498">
         <v>245044818271.1198</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45108</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>403358000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C499">
         <v>0.6208866261020738</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D499">
         <v>250439587731.2803</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45139</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>403361000000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C500">
         <v>0.5967299200381907</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D500">
         <v>240697577276.5246</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
         <v>45170</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>404877000000</v>
       </c>
-      <c r="C501" t="n">
+      <c r="C501">
         <v>0.5998800239952009</v>
       </c>
-      <c r="D501" t="n">
+      <c r="D501">
         <v>242877624475.1049</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
@@ -405,5286 +405,5292 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B2">
-        <v>16294000000</v>
+        <v>15223000000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B3">
-        <v>15223000000</v>
+        <v>15937000000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B4">
-        <v>15937000000</v>
+        <v>16438000000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B5">
-        <v>16438000000</v>
+        <v>17016000000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B6">
-        <v>17016000000</v>
+        <v>16972000000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B7">
-        <v>16972000000</v>
+        <v>17010000000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B8">
-        <v>17010000000</v>
+        <v>16545000000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B9">
-        <v>16545000000</v>
+        <v>16533000000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B10">
-        <v>16533000000</v>
+        <v>17141000000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B11">
-        <v>17141000000</v>
+        <v>18066000000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B12">
-        <v>18066000000</v>
+        <v>18329000000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B13">
-        <v>18329000000</v>
+        <v>18862000000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B14">
-        <v>18862000000</v>
+        <v>17266000000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B15">
-        <v>17266000000</v>
+        <v>17486000000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B16">
-        <v>17486000000</v>
+        <v>18103000000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B17">
-        <v>18103000000</v>
+        <v>18410000000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B18">
-        <v>18410000000</v>
+        <v>18810000000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B19">
-        <v>18810000000</v>
+        <v>19245000000</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B20">
-        <v>19245000000</v>
+        <v>19147000000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B21">
-        <v>19147000000</v>
+        <v>19340000000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B22">
-        <v>19340000000</v>
+        <v>19884000000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B23">
-        <v>19884000000</v>
+        <v>20669000000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B24">
-        <v>20669000000</v>
+        <v>20758000000</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B25">
-        <v>20758000000</v>
+        <v>21203000000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B26">
-        <v>21203000000</v>
+        <v>19781000000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B27">
-        <v>19781000000</v>
+        <v>20863000000</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B28">
-        <v>20863000000</v>
+        <v>21393000000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B29">
-        <v>21393000000</v>
+        <v>21696000000</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B30">
-        <v>21696000000</v>
+        <v>22273000000</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B31">
-        <v>22273000000</v>
+        <v>23152000000</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B32">
-        <v>23152000000</v>
+        <v>23213000000</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B33">
-        <v>23213000000</v>
+        <v>23738000000</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B34">
-        <v>23738000000</v>
+        <v>24145000000</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B35">
-        <v>24145000000</v>
+        <v>25020000000</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B36">
-        <v>25020000000</v>
+        <v>24897000000</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B37">
-        <v>24897000000</v>
+        <v>25250000000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B38">
-        <v>25250000000</v>
+        <v>25030000000</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B39">
-        <v>25030000000</v>
+        <v>26165000000</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B40">
-        <v>26165000000</v>
+        <v>26778000000</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B41">
-        <v>26778000000</v>
+        <v>27918000000</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B42">
-        <v>27918000000</v>
+        <v>28862000000</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B43">
-        <v>28862000000</v>
+        <v>29239000000</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B44">
-        <v>29239000000</v>
+        <v>29420000000</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B45">
-        <v>29420000000</v>
+        <v>29721000000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B46">
-        <v>29721000000</v>
+        <v>30474000000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B47">
-        <v>30474000000</v>
+        <v>31397000000</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B48">
-        <v>31397000000</v>
+        <v>31474000000</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B49">
-        <v>31474000000</v>
+        <v>32213000000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B50">
-        <v>32213000000</v>
+        <v>32386000000</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B51">
-        <v>32386000000</v>
+        <v>33068000000</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B52">
-        <v>33068000000</v>
+        <v>33392000000</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B53">
-        <v>33392000000</v>
+        <v>33824000000</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B54">
-        <v>33824000000</v>
+        <v>33851000000</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B55">
-        <v>33851000000</v>
+        <v>34550000000</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B56">
-        <v>34550000000</v>
+        <v>35002000000</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B57">
-        <v>35002000000</v>
+        <v>36018000000</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B58">
-        <v>36018000000</v>
+        <v>36675000000</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B59">
-        <v>36675000000</v>
+        <v>37807000000</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B60">
-        <v>37807000000</v>
+        <v>38370000000</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B61">
-        <v>38370000000</v>
+        <v>39366000000</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B62">
-        <v>39366000000</v>
+        <v>38543000000</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B63">
-        <v>38543000000</v>
+        <v>38349000000</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B64">
-        <v>38349000000</v>
+        <v>38741000000</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B65">
-        <v>38741000000</v>
+        <v>39583000000</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B66">
-        <v>39583000000</v>
+        <v>39428000000</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B67">
-        <v>39428000000</v>
+        <v>40102000000</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B68">
-        <v>40102000000</v>
+        <v>40578000000</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B69">
-        <v>40578000000</v>
+        <v>41887000000</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B70">
-        <v>41887000000</v>
+        <v>41893000000</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B71">
-        <v>41893000000</v>
+        <v>42932000000</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B72">
-        <v>42932000000</v>
+        <v>42531000000</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B73">
-        <v>42531000000</v>
+        <v>43592000000</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B74">
-        <v>43592000000</v>
+        <v>35236000000</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B75">
-        <v>35236000000</v>
+        <v>34761000000</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B76">
-        <v>34761000000</v>
+        <v>34660000000</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B77">
-        <v>34660000000</v>
+        <v>35658000000</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B78">
-        <v>35658000000</v>
+        <v>35350000000</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B79">
-        <v>35350000000</v>
+        <v>35771000000</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B80">
-        <v>35771000000</v>
+        <v>34970000000</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B81">
-        <v>34970000000</v>
+        <v>36326000000</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B82">
-        <v>36326000000</v>
+        <v>35065000000</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B83">
-        <v>35065000000</v>
+        <v>35616000000</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B84">
-        <v>35616000000</v>
+        <v>35695000000</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B85">
-        <v>35695000000</v>
+        <v>36802000000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B86">
-        <v>36802000000</v>
+        <v>36302000000</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B87">
-        <v>36302000000</v>
+        <v>36279000000</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B88">
-        <v>36279000000</v>
+        <v>36758000000</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B89">
-        <v>36758000000</v>
+        <v>37527000000</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B90">
-        <v>37527000000</v>
+        <v>37588000000</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B91">
-        <v>37588000000</v>
+        <v>38287000000</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B92">
-        <v>38287000000</v>
+        <v>38758000000</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B93">
-        <v>38758000000</v>
+        <v>38883000000</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B94">
-        <v>38883000000</v>
+        <v>38513000000</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B95">
-        <v>38513000000</v>
+        <v>37957000000</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B96">
-        <v>37957000000</v>
+        <v>38744000000</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B97">
-        <v>38744000000</v>
+        <v>38287000000</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B98">
-        <v>38287000000</v>
+        <v>38284000000</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B99">
-        <v>38284000000</v>
+        <v>39326000000</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B100">
-        <v>39326000000</v>
+        <v>39661000000</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B101">
-        <v>39661000000</v>
+        <v>39063000000</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B102">
-        <v>39063000000</v>
+        <v>38534000000</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B103">
-        <v>38534000000</v>
+        <v>40088000000</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B104">
-        <v>40088000000</v>
+        <v>40767000000</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B105">
-        <v>40767000000</v>
+        <v>40828000000</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B106">
-        <v>40828000000</v>
+        <v>41145000000</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B107">
-        <v>41145000000</v>
+        <v>42586000000</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B108">
-        <v>42586000000</v>
+        <v>41948000000</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B109">
-        <v>41948000000</v>
+        <v>41220000000</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B110">
-        <v>41220000000</v>
+        <v>40854000000</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B111">
-        <v>40854000000</v>
+        <v>41300000000</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B112">
-        <v>41300000000</v>
+        <v>42129000000</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B113">
-        <v>42129000000</v>
+        <v>42719000000</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B114">
-        <v>42719000000</v>
+        <v>41920000000</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B115">
-        <v>41920000000</v>
+        <v>42235000000</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B116">
-        <v>42235000000</v>
+        <v>42369000000</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B117">
-        <v>42369000000</v>
+        <v>43280000000</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B118">
-        <v>43280000000</v>
+        <v>42849000000</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B119">
-        <v>42849000000</v>
+        <v>43320000000</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B120">
-        <v>43320000000</v>
+        <v>44407000000</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B121">
-        <v>44407000000</v>
+        <v>44599000000</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B122">
-        <v>44599000000</v>
+        <v>45318000000</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B123">
-        <v>45318000000</v>
+        <v>45418000000</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B124">
-        <v>45418000000</v>
+        <v>45741000000</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B125">
-        <v>45741000000</v>
+        <v>44756000000</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B126">
-        <v>44756000000</v>
+        <v>44868000000</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B127">
-        <v>44868000000</v>
+        <v>45313000000</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B128">
-        <v>45313000000</v>
+        <v>45461000000</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B129">
-        <v>45461000000</v>
+        <v>45784000000</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B130">
-        <v>45784000000</v>
+        <v>46380000000</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B131">
-        <v>46380000000</v>
+        <v>45538000000</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B132">
-        <v>45538000000</v>
+        <v>45785000000</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B133">
-        <v>45785000000</v>
+        <v>45582000000</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B134">
-        <v>45582000000</v>
+        <v>45158000000</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B135">
-        <v>45158000000</v>
+        <v>46327000000</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B136">
-        <v>46327000000</v>
+        <v>47373000000</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B137">
-        <v>47373000000</v>
+        <v>47334000000</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B138">
-        <v>47334000000</v>
+        <v>48759000000</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B139">
-        <v>48759000000</v>
+        <v>48711000000</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B140">
-        <v>48711000000</v>
+        <v>48355000000</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B141">
-        <v>48355000000</v>
+        <v>48841000000</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B142">
-        <v>48841000000</v>
+        <v>49332000000</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B143">
-        <v>49332000000</v>
+        <v>49250000000</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B144">
-        <v>49250000000</v>
+        <v>48139000000</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B145">
-        <v>48139000000</v>
+        <v>48991000000</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B146">
-        <v>48991000000</v>
+        <v>50390000000</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B147">
-        <v>50390000000</v>
+        <v>50358000000</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B148">
-        <v>50358000000</v>
+        <v>51494000000</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B149">
-        <v>51494000000</v>
+        <v>51341000000</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B150">
-        <v>51341000000</v>
+        <v>51103000000</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B151">
-        <v>51103000000</v>
+        <v>51658000000</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B152">
-        <v>51658000000</v>
+        <v>51676000000</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B153">
-        <v>51676000000</v>
+        <v>52085000000</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B154">
-        <v>52085000000</v>
+        <v>52717000000</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B155">
-        <v>52717000000</v>
+        <v>53626000000</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B156">
-        <v>53626000000</v>
+        <v>54225000000</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B157">
-        <v>54225000000</v>
+        <v>54799000000</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B158">
-        <v>54799000000</v>
+        <v>54760000000</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B159">
-        <v>54760000000</v>
+        <v>55835000000</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B160">
-        <v>55835000000</v>
+        <v>56778000000</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B161">
-        <v>56778000000</v>
+        <v>56814000000</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B162">
-        <v>56814000000</v>
+        <v>56158000000</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B163">
-        <v>56158000000</v>
+        <v>57209000000</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B164">
-        <v>57209000000</v>
+        <v>57700000000</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B165">
-        <v>57700000000</v>
+        <v>58639000000</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B166">
-        <v>58639000000</v>
+        <v>59763000000</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B167">
-        <v>59763000000</v>
+        <v>60010000000</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B168">
-        <v>60010000000</v>
+        <v>59951000000</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B169">
-        <v>59951000000</v>
+        <v>60106000000</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B170">
-        <v>60106000000</v>
+        <v>60824000000</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B171">
-        <v>60824000000</v>
+        <v>62080000000</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B172">
-        <v>62080000000</v>
+        <v>65168000000</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B173">
-        <v>65168000000</v>
+        <v>65050000000</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B174">
-        <v>65050000000</v>
+        <v>64390000000</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B175">
-        <v>64390000000</v>
+        <v>64984000000</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B176">
-        <v>64984000000</v>
+        <v>65141000000</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B177">
-        <v>65141000000</v>
+        <v>67841000000</v>
+      </c>
+      <c r="C177">
+        <v>1.421060110842689</v>
+      </c>
+      <c r="D177">
+        <v>96406138979.67883</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B178">
-        <v>67841000000</v>
-      </c>
-      <c r="C178">
-        <v>1.421060110842689</v>
-      </c>
-      <c r="D178">
-        <v>96406138979.67883</v>
+        <v>66576000000</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B179">
-        <v>66576000000</v>
+        <v>66584000000</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B180">
-        <v>66584000000</v>
+        <v>66968000000</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B181">
-        <v>66968000000</v>
+        <v>66549000000</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B182">
-        <v>66549000000</v>
+        <v>66572000000</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B183">
-        <v>66572000000</v>
+        <v>68198000000</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B184">
-        <v>68198000000</v>
+        <v>68983000000</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B185">
-        <v>68983000000</v>
+        <v>68692000000</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B186">
-        <v>68692000000</v>
+        <v>69166000000</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B187">
-        <v>69166000000</v>
+        <v>70950000000</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B188">
-        <v>70950000000</v>
+        <v>71582000000</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B189">
-        <v>71582000000</v>
+        <v>70746000000</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B190">
-        <v>70746000000</v>
+        <v>70932000000</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B191">
-        <v>70932000000</v>
+        <v>71575000000</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B192">
-        <v>71575000000</v>
+        <v>72684000000</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B193">
-        <v>72684000000</v>
+        <v>71724000000</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B194">
-        <v>71724000000</v>
+        <v>71979000000</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B195">
-        <v>71979000000</v>
+        <v>72204000000</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B196">
-        <v>72204000000</v>
+        <v>73578000000</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B197">
-        <v>73578000000</v>
+        <v>73056000000</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B198">
-        <v>73056000000</v>
+        <v>73068000000</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B199">
-        <v>73068000000</v>
+        <v>72606000000</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B200">
-        <v>72606000000</v>
+        <v>71525000000</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B201">
-        <v>71525000000</v>
+        <v>72175000000</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B202">
-        <v>72175000000</v>
+        <v>72855000000</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B203">
-        <v>72855000000</v>
+        <v>72332000000</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B204">
-        <v>72332000000</v>
+        <v>73262000000</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B205">
-        <v>73262000000</v>
+        <v>74810000000</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B206">
-        <v>74810000000</v>
+        <v>73920000000</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B207">
-        <v>73920000000</v>
+        <v>73161000000</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B208">
-        <v>73161000000</v>
+        <v>72833000000</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B209">
-        <v>72833000000</v>
+        <v>73502000000</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B210">
-        <v>73502000000</v>
+        <v>75262000000</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B211">
-        <v>75262000000</v>
+        <v>75935000000</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B212">
-        <v>75935000000</v>
+        <v>75717000000</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B213">
-        <v>75717000000</v>
+        <v>75525000000</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B214">
-        <v>75525000000</v>
+        <v>74655000000</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B215">
-        <v>74655000000</v>
+        <v>76630000000</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B216">
-        <v>76630000000</v>
+        <v>75188000000</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B217">
-        <v>75188000000</v>
+        <v>75809000000</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B218">
-        <v>75809000000</v>
+        <v>75243000000</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B219">
-        <v>75243000000</v>
+        <v>75721000000</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B220">
-        <v>75721000000</v>
+        <v>76770000000</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B221">
-        <v>76770000000</v>
+        <v>75620000000</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B222">
-        <v>75620000000</v>
+        <v>76874000000</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B223">
-        <v>76874000000</v>
+        <v>77423000000</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B224">
-        <v>77423000000</v>
+        <v>77689000000</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B225">
-        <v>77689000000</v>
+        <v>77465000000</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B226">
-        <v>77465000000</v>
+        <v>76636000000</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B227">
-        <v>76636000000</v>
+        <v>78422000000</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B228">
-        <v>78422000000</v>
+        <v>77827000000</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B229">
-        <v>77827000000</v>
+        <v>78419000000</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B230">
-        <v>78419000000</v>
+        <v>79961000000</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B231">
-        <v>79961000000</v>
+        <v>79903000000</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B232">
-        <v>79903000000</v>
+        <v>81247000000</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B233">
-        <v>81247000000</v>
+        <v>81397000000</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B234">
-        <v>81397000000</v>
+        <v>82278000000</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B235">
-        <v>82278000000</v>
+        <v>82357000000</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B236">
-        <v>82357000000</v>
+        <v>83722000000</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B237">
-        <v>83722000000</v>
+        <v>83831000000</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B238">
-        <v>83831000000</v>
+        <v>82083000000</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B239">
-        <v>82083000000</v>
+        <v>83579000000</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B240">
-        <v>83579000000</v>
+        <v>83142000000</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B241">
-        <v>83142000000</v>
+        <v>83870000000</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B242">
-        <v>83870000000</v>
+        <v>87080000000</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B243">
-        <v>87080000000</v>
+        <v>85751000000</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B244">
-        <v>85751000000</v>
+        <v>86550000000</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B245">
-        <v>86550000000</v>
+        <v>88768000000</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B246">
-        <v>88768000000</v>
+        <v>88681000000</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B247">
-        <v>88681000000</v>
+        <v>89673000000</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B248">
-        <v>89673000000</v>
+        <v>89297000000</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B249">
-        <v>89297000000</v>
+        <v>90012000000</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B250">
-        <v>90012000000</v>
+        <v>91205000000</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B251">
-        <v>91205000000</v>
+        <v>93743000000</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B252">
-        <v>93743000000</v>
+        <v>92659000000</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B253">
-        <v>92659000000</v>
+        <v>94032000000</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B254">
-        <v>94032000000</v>
+        <v>93819000000</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B255">
-        <v>93819000000</v>
+        <v>93353000000</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B256">
-        <v>93353000000</v>
+        <v>93631000000</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B257">
-        <v>93631000000</v>
+        <v>95503000000</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B258">
-        <v>95503000000</v>
+        <v>95766000000</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B259">
-        <v>95766000000</v>
+        <v>95741000000</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B260">
-        <v>95741000000</v>
+        <v>97689000000</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B261">
-        <v>97689000000</v>
+        <v>99787000000</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B262">
-        <v>99787000000</v>
+        <v>100963000000</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B263">
-        <v>100963000000</v>
+        <v>103231000000</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B264">
-        <v>103231000000</v>
+        <v>103512000000</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B265">
-        <v>103512000000</v>
+        <v>104774000000</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B266">
-        <v>104774000000</v>
+        <v>105566000000</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B267">
-        <v>105566000000</v>
+        <v>105181000000</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B268">
-        <v>105181000000</v>
+        <v>107854000000</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B269">
-        <v>107854000000</v>
+        <v>106773000000</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B270">
-        <v>106773000000</v>
+        <v>106562000000</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B271">
-        <v>106562000000</v>
+        <v>105557000000</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B272">
-        <v>105557000000</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>104789000000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B273">
-        <v>104789000000</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>106039000000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B274">
-        <v>106039000000</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>106178000000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B275">
-        <v>106178000000</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>107808000000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B276">
-        <v>107808000000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>107823000000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B277">
-        <v>107823000000</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>109719000000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B278">
-        <v>109719000000</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>110798000000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B279">
-        <v>110798000000</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>111413000000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B280">
-        <v>111413000000</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>111861000000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B281">
-        <v>111861000000</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>113980000000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B282">
-        <v>113980000000</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>114215000000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B283">
-        <v>114215000000</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>114963000000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B284">
-        <v>114963000000</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>117770000000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B285">
-        <v>117770000000</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>117253000000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B286">
-        <v>117253000000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>117084000000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B287">
-        <v>117084000000</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>118937000000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B288">
-        <v>118937000000</v>
+        <v>119143000000</v>
+      </c>
+      <c r="C288">
+        <v>0.6878052135635189</v>
+      </c>
+      <c r="D288">
+        <v>81947176559.59833</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B289">
-        <v>119143000000</v>
+        <v>119816000000</v>
       </c>
       <c r="C289">
-        <v>0.6878052135635189</v>
+        <v>0.6621201085876978</v>
       </c>
       <c r="D289">
-        <v>81947176559.59833</v>
+        <v>79332582930.54359</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B290">
-        <v>119816000000</v>
+        <v>120893000000</v>
       </c>
       <c r="C290">
-        <v>0.6621201085876978</v>
+        <v>0.6162948354492789</v>
       </c>
       <c r="D290">
-        <v>79332582930.54359</v>
+        <v>74505731541.96967</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B291">
-        <v>120893000000</v>
+        <v>122329000000</v>
       </c>
       <c r="C291">
-        <v>0.6162948354492789</v>
+        <v>0.6382842918235783</v>
       </c>
       <c r="D291">
-        <v>74505731541.96967</v>
+        <v>78080679134.48651</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B292">
-        <v>122329000000</v>
+        <v>122987000000</v>
       </c>
       <c r="C292">
-        <v>0.6382842918235783</v>
+        <v>0.6343165239454488</v>
       </c>
       <c r="D292">
-        <v>78080679134.48651</v>
+        <v>78012686330.47891</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B293">
-        <v>122987000000</v>
+        <v>124982000000</v>
       </c>
       <c r="C293">
-        <v>0.6343165239454488</v>
+        <v>0.608976310821509</v>
       </c>
       <c r="D293">
-        <v>78012686330.47891</v>
+        <v>76111077279.09384</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B294">
-        <v>124982000000</v>
+        <v>126112000000</v>
       </c>
       <c r="C294">
-        <v>0.608976310821509</v>
+        <v>0.6177415369409439</v>
       </c>
       <c r="D294">
-        <v>76111077279.09384</v>
+        <v>77904620706.69632</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B295">
-        <v>126112000000</v>
+        <v>126790000000</v>
       </c>
       <c r="C295">
-        <v>0.6177415369409439</v>
+        <v>0.6559097468188377</v>
       </c>
       <c r="D295">
-        <v>77904620706.69632</v>
+        <v>83162796799.16043</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B296">
-        <v>126790000000</v>
+        <v>127329000000</v>
       </c>
       <c r="C296">
-        <v>0.6559097468188377</v>
+        <v>0.6533812479581836</v>
       </c>
       <c r="D296">
-        <v>83162796799.16043</v>
+        <v>83194380921.26756</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B297">
-        <v>127329000000</v>
+        <v>128048000000</v>
       </c>
       <c r="C297">
-        <v>0.6533812479581836</v>
+        <v>0.6704210244033253</v>
       </c>
       <c r="D297">
-        <v>83194380921.26756</v>
+        <v>85846071332.797</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B298">
-        <v>128048000000</v>
+        <v>131146000000</v>
       </c>
       <c r="C298">
-        <v>0.6704210244033253</v>
+        <v>0.6844158510711108</v>
       </c>
       <c r="D298">
-        <v>85846071332.797</v>
+        <v>89758401204.5719</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B299">
-        <v>131146000000</v>
+        <v>131708000000</v>
       </c>
       <c r="C299">
-        <v>0.6844158510711108</v>
+        <v>0.7046719751955465</v>
       </c>
       <c r="D299">
-        <v>89758401204.5719</v>
+        <v>92810936509.05504</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B300">
-        <v>131708000000</v>
+        <v>133105000000</v>
       </c>
       <c r="C300">
-        <v>0.7046719751955465</v>
+        <v>0.6914194842010648</v>
       </c>
       <c r="D300">
-        <v>92810936509.05504</v>
+        <v>92031390444.58273</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B301">
-        <v>133105000000</v>
+        <v>134703000000</v>
       </c>
       <c r="C301">
-        <v>0.6914194842010648</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="D301">
-        <v>92031390444.58273</v>
+        <v>94528421052.63158</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B302">
-        <v>134703000000</v>
+        <v>136207000000</v>
       </c>
       <c r="C302">
-        <v>0.7017543859649122</v>
+        <v>0.7159733657907925</v>
       </c>
       <c r="D302">
-        <v>94528421052.63158</v>
+        <v>97520584234.26648</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B303">
-        <v>136207000000</v>
+        <v>139067000000</v>
       </c>
       <c r="C303">
-        <v>0.7159733657907925</v>
+        <v>0.7410701052319549</v>
       </c>
       <c r="D303">
-        <v>97520584234.26648</v>
+        <v>103058396324.2923</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B304">
-        <v>139067000000</v>
+        <v>139023000000</v>
       </c>
       <c r="C304">
-        <v>0.7410701052319549</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D304">
-        <v>103058396324.2923</v>
+        <v>102418594371.5928</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B305">
-        <v>139023000000</v>
+        <v>140101000000</v>
       </c>
       <c r="C305">
-        <v>0.7367025195226168</v>
+        <v>0.7720219254226821</v>
       </c>
       <c r="D305">
-        <v>102418594371.5928</v>
+        <v>108161043773.6432</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B306">
-        <v>140101000000</v>
+        <v>140604000000</v>
       </c>
       <c r="C306">
-        <v>0.7720219254226821</v>
+        <v>0.7613826709304097</v>
       </c>
       <c r="D306">
-        <v>108161043773.6432</v>
+        <v>107053449063.4993</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B307">
-        <v>140604000000</v>
+        <v>139973000000</v>
       </c>
       <c r="C307">
-        <v>0.7613826709304097</v>
+        <v>0.7040270346381301</v>
       </c>
       <c r="D307">
-        <v>107053449063.4993</v>
+        <v>98544776119.40298</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B308">
-        <v>139973000000</v>
+        <v>142924000000</v>
       </c>
       <c r="C308">
-        <v>0.7040270346381301</v>
+        <v>0.7580351728320195</v>
       </c>
       <c r="D308">
-        <v>98544776119.40298</v>
+        <v>108341419041.8436</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B309">
-        <v>142924000000</v>
+        <v>144156000000</v>
       </c>
       <c r="C309">
-        <v>0.7580351728320195</v>
+        <v>0.772499034376207</v>
       </c>
       <c r="D309">
-        <v>108341419041.8436</v>
+        <v>111360370799.5365</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B310">
-        <v>144156000000</v>
+        <v>144974000000</v>
       </c>
       <c r="C310">
-        <v>0.772499034376207</v>
+        <v>0.7648183556405354</v>
       </c>
       <c r="D310">
-        <v>111360370799.5365</v>
+        <v>110878776290.631</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B311">
-        <v>144974000000</v>
+        <v>147844000000</v>
       </c>
       <c r="C311">
-        <v>0.7648183556405354</v>
+        <v>0.7654037504783774</v>
       </c>
       <c r="D311">
-        <v>110878776290.631</v>
+        <v>113160352085.7252</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B312">
-        <v>147844000000</v>
+        <v>149145000000</v>
       </c>
       <c r="C312">
-        <v>0.7654037504783774</v>
+        <v>0.7885813421654444</v>
       </c>
       <c r="D312">
-        <v>113160352085.7252</v>
+        <v>117612964277.2652</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B313">
-        <v>149145000000</v>
+        <v>148054000000</v>
       </c>
       <c r="C313">
-        <v>0.7885813421654444</v>
+        <v>0.7991688643810436</v>
       </c>
       <c r="D313">
-        <v>117612964277.2652</v>
+        <v>118320147047.071</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B314">
-        <v>148054000000</v>
+        <v>151479000000</v>
       </c>
       <c r="C314">
-        <v>0.7991688643810436</v>
+        <v>0.7857311228097745</v>
       </c>
       <c r="D314">
-        <v>118320147047.071</v>
+        <v>119021764752.1018</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B315">
-        <v>151479000000</v>
+        <v>151507000000</v>
       </c>
       <c r="C315">
-        <v>0.7857311228097745</v>
+        <v>0.7821666014861166</v>
       </c>
       <c r="D315">
-        <v>119021764752.1018</v>
+        <v>118503715291.3571</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B316">
-        <v>151507000000</v>
+        <v>152157000000</v>
       </c>
       <c r="C316">
-        <v>0.7821666014861166</v>
+        <v>0.7838219156607619</v>
       </c>
       <c r="D316">
-        <v>118503715291.3571</v>
+        <v>119263991221.1945</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B317">
-        <v>152157000000</v>
+        <v>154052000000</v>
       </c>
       <c r="C317">
-        <v>0.7838219156607619</v>
+        <v>0.7620789513793629</v>
       </c>
       <c r="D317">
-        <v>119263991221.1945</v>
+        <v>117399786617.8936</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B318">
-        <v>154052000000</v>
+        <v>154528000000</v>
       </c>
       <c r="C318">
-        <v>0.7620789513793629</v>
+        <v>0.7336218912772358</v>
       </c>
       <c r="D318">
-        <v>117399786617.8936</v>
+        <v>113365123615.2887</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B319">
-        <v>154528000000</v>
+        <v>155108000000</v>
       </c>
       <c r="C319">
-        <v>0.7336218912772358</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D319">
-        <v>113365123615.2887</v>
+        <v>108924157303.3708</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B320">
-        <v>155108000000</v>
+        <v>156430000000</v>
       </c>
       <c r="C320">
-        <v>0.702247191011236</v>
+        <v>0.6715916722632639</v>
       </c>
       <c r="D320">
-        <v>108924157303.3708</v>
+        <v>105057085292.1424</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B321">
-        <v>156430000000</v>
+        <v>158344000000</v>
       </c>
       <c r="C321">
-        <v>0.6715916722632639</v>
+        <v>0.583056381552096</v>
       </c>
       <c r="D321">
-        <v>105057085292.1424</v>
+        <v>92323479680.48509</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B322">
-        <v>158344000000</v>
+        <v>160333000000</v>
       </c>
       <c r="C322">
-        <v>0.583056381552096</v>
+        <v>0.5493599956051201</v>
       </c>
       <c r="D322">
-        <v>92323479680.48509</v>
+        <v>88080536175.35571</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B323">
-        <v>160333000000</v>
+        <v>160893000000</v>
       </c>
       <c r="C323">
-        <v>0.5493599956051201</v>
+        <v>0.5782017924255565</v>
       </c>
       <c r="D323">
-        <v>88080536175.35571</v>
+        <v>93028620988.72505</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B324">
-        <v>160893000000</v>
+        <v>158009000000</v>
       </c>
       <c r="C324">
-        <v>0.5782017924255565</v>
+        <v>0.508440105755542</v>
       </c>
       <c r="D324">
-        <v>93028620988.72505</v>
+        <v>80338112670.32744</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B325">
-        <v>158009000000</v>
+        <v>159746000000</v>
       </c>
       <c r="C325">
-        <v>0.508440105755542</v>
+        <v>0.5003752814610959</v>
       </c>
       <c r="D325">
-        <v>80338112670.32744</v>
+        <v>79932949712.28423</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B326">
-        <v>159746000000</v>
+        <v>159188000000</v>
       </c>
       <c r="C326">
-        <v>0.5003752814610959</v>
+        <v>0.5603182607721185</v>
       </c>
       <c r="D326">
-        <v>79932949712.28423</v>
+        <v>89195943295.79201</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B327">
-        <v>159188000000</v>
+        <v>159673000000</v>
       </c>
       <c r="C327">
-        <v>0.5603182607721185</v>
+        <v>0.5646208570944611</v>
       </c>
       <c r="D327">
-        <v>89195943295.79201</v>
+        <v>90154706114.84389</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B328">
-        <v>159673000000</v>
+        <v>158329000000</v>
       </c>
       <c r="C328">
-        <v>0.5646208570944611</v>
+        <v>0.6402868485081316</v>
       </c>
       <c r="D328">
-        <v>90154706114.84389</v>
+        <v>101375976437.444</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B329">
-        <v>158329000000</v>
+        <v>157910000000</v>
       </c>
       <c r="C329">
-        <v>0.6402868485081316</v>
+        <v>0.6457445434586078</v>
       </c>
       <c r="D329">
-        <v>101375976437.444</v>
+        <v>101969520857.5488</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B330">
-        <v>157910000000</v>
+        <v>158591000000</v>
       </c>
       <c r="C330">
-        <v>0.6457445434586078</v>
+        <v>0.6620324395895399</v>
       </c>
       <c r="D330">
-        <v>101969520857.5488</v>
+        <v>104992386626.9447</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B331">
-        <v>158591000000</v>
+        <v>157915000000</v>
       </c>
       <c r="C331">
-        <v>0.6620324395895399</v>
+        <v>0.6853539853334247</v>
       </c>
       <c r="D331">
-        <v>104992386626.9447</v>
+        <v>108227674593.9278</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B332">
-        <v>157915000000</v>
+        <v>158781000000</v>
       </c>
       <c r="C332">
-        <v>0.6853539853334247</v>
+        <v>0.7233796296296295</v>
       </c>
       <c r="D332">
-        <v>108227674593.9278</v>
+        <v>114858940972.2222</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B333">
-        <v>158781000000</v>
+        <v>158790000000</v>
       </c>
       <c r="C333">
-        <v>0.7233796296296295</v>
+        <v>0.7175660160734788</v>
       </c>
       <c r="D333">
-        <v>114858940972.2222</v>
+        <v>113942307692.3077</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B334">
-        <v>158790000000</v>
+        <v>160392000000</v>
       </c>
       <c r="C334">
-        <v>0.7175660160734788</v>
+        <v>0.7161784716751414</v>
       </c>
       <c r="D334">
-        <v>113942307692.3077</v>
+        <v>114869297428.9193</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B335">
-        <v>160392000000</v>
+        <v>163056000000</v>
       </c>
       <c r="C335">
-        <v>0.7161784716751414</v>
+        <v>0.7235366471311772</v>
       </c>
       <c r="D335">
-        <v>114869297428.9193</v>
+        <v>117976991534.6212</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B336">
-        <v>163056000000</v>
+        <v>160311000000</v>
       </c>
       <c r="C336">
-        <v>0.7235366471311772</v>
+        <v>0.701508242721852</v>
       </c>
       <c r="D336">
-        <v>117976991534.6212</v>
+        <v>112459487898.9828</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B337">
-        <v>160311000000</v>
+        <v>160875000000</v>
       </c>
       <c r="C337">
-        <v>0.701508242721852</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D337">
-        <v>112459487898.9828</v>
+        <v>112350722815.8391</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B338">
-        <v>160875000000</v>
+        <v>161647000000</v>
       </c>
       <c r="C338">
-        <v>0.6983727913960472</v>
+        <v>0.7107825716113441</v>
       </c>
       <c r="D338">
-        <v>112350722815.8391</v>
+        <v>114895870353.2589</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B339">
-        <v>161647000000</v>
+        <v>163862000000</v>
       </c>
       <c r="C339">
-        <v>0.7107825716113441</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D339">
-        <v>114895870353.2589</v>
+        <v>119172363636.3636</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B340">
-        <v>163862000000</v>
+        <v>162781000000</v>
       </c>
       <c r="C340">
-        <v>0.7272727272727273</v>
+        <v>0.6824541049614413</v>
       </c>
       <c r="D340">
-        <v>119172363636.3636</v>
+        <v>111090561659.7284</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B341">
-        <v>162781000000</v>
+        <v>161316000000</v>
       </c>
       <c r="C341">
-        <v>0.6824541049614413</v>
+        <v>0.6854009595613434</v>
       </c>
       <c r="D341">
-        <v>111090561659.7284</v>
+        <v>110566141192.5977</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B342">
-        <v>161316000000</v>
+        <v>162437000000</v>
       </c>
       <c r="C342">
-        <v>0.6854009595613434</v>
+        <v>0.726321905868681</v>
       </c>
       <c r="D342">
-        <v>110566141192.5977</v>
+        <v>117981551423.5909</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B343">
-        <v>162437000000</v>
+        <v>162917000000</v>
       </c>
       <c r="C343">
-        <v>0.726321905868681</v>
+        <v>0.699839037021485</v>
       </c>
       <c r="D343">
-        <v>117981551423.5909</v>
+        <v>114015676394.4293</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B344">
-        <v>162917000000</v>
+        <v>164178000000</v>
       </c>
       <c r="C344">
-        <v>0.699839037021485</v>
+        <v>0.7341604874825637</v>
       </c>
       <c r="D344">
-        <v>114015676394.4293</v>
+        <v>120533000513.9123</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B345">
-        <v>164178000000</v>
+        <v>166485000000</v>
       </c>
       <c r="C345">
-        <v>0.7341604874825637</v>
+        <v>0.7666947788085563</v>
       </c>
       <c r="D345">
-        <v>120533000513.9123</v>
+        <v>127643180249.9425</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B346">
-        <v>166485000000</v>
+        <v>167970000000</v>
       </c>
       <c r="C346">
-        <v>0.7666947788085563</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D346">
-        <v>127643180249.9425</v>
+        <v>124764168461.7099</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B347">
-        <v>167970000000</v>
+        <v>171217000000</v>
       </c>
       <c r="C347">
-        <v>0.7427764985515858</v>
+        <v>0.7803964413922272</v>
       </c>
       <c r="D347">
-        <v>124764168461.7099</v>
+        <v>133617137505.853</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B348">
-        <v>171217000000</v>
+        <v>171348000000</v>
       </c>
       <c r="C348">
-        <v>0.7803964413922272</v>
+        <v>0.7729169887154119</v>
       </c>
       <c r="D348">
-        <v>133617137505.853</v>
+        <v>132437780182.4084</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B349">
-        <v>171348000000</v>
+        <v>172374000000</v>
       </c>
       <c r="C349">
-        <v>0.7729169887154119</v>
+        <v>0.7526719855486979</v>
       </c>
       <c r="D349">
-        <v>132437780182.4084</v>
+        <v>129741080836.9712</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B350">
-        <v>172374000000</v>
+        <v>174074000000</v>
       </c>
       <c r="C350">
-        <v>0.7526719855486979</v>
+        <v>0.7614986293024673</v>
       </c>
       <c r="D350">
-        <v>129741080836.9712</v>
+        <v>132557112397.1977</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B351">
-        <v>174074000000</v>
+        <v>176860000000</v>
       </c>
       <c r="C351">
-        <v>0.7614986293024673</v>
+        <v>0.8101758081503687</v>
       </c>
       <c r="D351">
-        <v>132557112397.1977</v>
+        <v>143287693429.4742</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B352">
-        <v>176860000000</v>
+        <v>175745000000</v>
       </c>
       <c r="C352">
-        <v>0.8101758081503687</v>
+        <v>0.823519723297373</v>
       </c>
       <c r="D352">
-        <v>143287693429.4742</v>
+        <v>144729473770.8968</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B353">
-        <v>175745000000</v>
+        <v>176466000000</v>
       </c>
       <c r="C353">
-        <v>0.823519723297373</v>
+        <v>0.8285690612312535</v>
       </c>
       <c r="D353">
-        <v>144729473770.8968</v>
+        <v>146214267959.2344</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B354">
-        <v>176466000000</v>
+        <v>176967000000</v>
       </c>
       <c r="C354">
-        <v>0.8285690612312535</v>
+        <v>0.8798169980644026</v>
       </c>
       <c r="D354">
-        <v>146214267959.2344</v>
+        <v>155698574696.4631</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B355">
-        <v>176967000000</v>
+        <v>175197000000</v>
       </c>
       <c r="C355">
-        <v>0.8798169980644026</v>
+        <v>0.8538251366120219</v>
       </c>
       <c r="D355">
-        <v>155698574696.4631</v>
+        <v>149587602459.0164</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B356">
-        <v>175197000000</v>
+        <v>175793000000</v>
       </c>
       <c r="C356">
-        <v>0.8538251366120219</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D356">
-        <v>149587602459.0164</v>
+        <v>133825365408.039</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B357">
-        <v>175793000000</v>
+        <v>179139000000</v>
       </c>
       <c r="C357">
-        <v>0.7612667478684531</v>
+        <v>0.8076239702794379</v>
       </c>
       <c r="D357">
-        <v>133825365408.039</v>
+        <v>144676950411.8882</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B358">
-        <v>179139000000</v>
+        <v>181904000000</v>
       </c>
       <c r="C358">
-        <v>0.8076239702794379</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D358">
-        <v>144676950411.8882</v>
+        <v>142034824705.2393</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B359">
-        <v>181904000000</v>
+        <v>184189000000</v>
       </c>
       <c r="C359">
-        <v>0.7808229874287499</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D359">
-        <v>142034824705.2393</v>
+        <v>143192878799.6579</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B360">
-        <v>184189000000</v>
+        <v>182820000000</v>
       </c>
       <c r="C360">
-        <v>0.7774236181295188</v>
+        <v>0.8272667107875579</v>
       </c>
       <c r="D360">
-        <v>143192878799.6579</v>
+        <v>151240900066.1813</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B361">
-        <v>182820000000</v>
+        <v>184386000000</v>
       </c>
       <c r="C361">
-        <v>0.8272667107875579</v>
+        <v>0.8343763037129747</v>
       </c>
       <c r="D361">
-        <v>151240900066.1813</v>
+        <v>153847309136.4205</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B362">
-        <v>184386000000</v>
+        <v>186446000000</v>
       </c>
       <c r="C362">
-        <v>0.8343763037129747</v>
+        <v>0.8196049504139006</v>
       </c>
       <c r="D362">
-        <v>153847309136.4205</v>
+        <v>152812064584.8701</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B363">
-        <v>186446000000</v>
+        <v>189365000000</v>
       </c>
       <c r="C363">
-        <v>0.8196049504139006</v>
+        <v>0.8188666885031116</v>
       </c>
       <c r="D363">
-        <v>152812064584.8701</v>
+        <v>155064690468.3917</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B364">
-        <v>189365000000</v>
+        <v>188392000000</v>
       </c>
       <c r="C364">
-        <v>0.8188666885031116</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D364">
-        <v>155064690468.3917</v>
+        <v>141936261583.6661</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B365">
-        <v>188392000000</v>
+        <v>188815000000</v>
       </c>
       <c r="C365">
-        <v>0.7534091765237702</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D365">
-        <v>141936261583.6661</v>
+        <v>151427540299.9439</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B366">
-        <v>188815000000</v>
+        <v>192301000000</v>
       </c>
       <c r="C366">
-        <v>0.8019889325527308</v>
+        <v>0.8090614886731392</v>
       </c>
       <c r="D366">
-        <v>151427540299.9439</v>
+        <v>155583333333.3333</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B367">
-        <v>192301000000</v>
+        <v>190755000000</v>
       </c>
       <c r="C367">
-        <v>0.8090614886731392</v>
+        <v>0.8037939072421831</v>
       </c>
       <c r="D367">
-        <v>155583333333.3333</v>
+        <v>153327706775.9826</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B368">
-        <v>190755000000</v>
+        <v>191522000000</v>
       </c>
       <c r="C368">
-        <v>0.8037939072421831</v>
+        <v>0.8301510874979247</v>
       </c>
       <c r="D368">
-        <v>153327706775.9826</v>
+        <v>158992196579.7775</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B369">
-        <v>191522000000</v>
+        <v>192689000000</v>
       </c>
       <c r="C369">
-        <v>0.8301510874979247</v>
+        <v>0.8227067050596463</v>
       </c>
       <c r="D369">
-        <v>158992196579.7775</v>
+        <v>158526532291.2382</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B370">
-        <v>192689000000</v>
+        <v>196035000000</v>
       </c>
       <c r="C370">
-        <v>0.8227067050596463</v>
+        <v>0.8204791598293403</v>
       </c>
       <c r="D370">
-        <v>158526532291.2382</v>
+        <v>160842632097.1447</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B371">
-        <v>196035000000</v>
+        <v>200631000000</v>
       </c>
       <c r="C371">
-        <v>0.8204791598293403</v>
+        <v>0.8289811821271658</v>
       </c>
       <c r="D371">
-        <v>160842632097.1447</v>
+        <v>166319323551.3554</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B372">
-        <v>200631000000</v>
+        <v>199518000000</v>
       </c>
       <c r="C372">
-        <v>0.8289811821271658</v>
+        <v>0.839278220730172</v>
       </c>
       <c r="D372">
-        <v>166319323551.3554</v>
+        <v>167451112043.6425</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B373">
-        <v>199518000000</v>
+        <v>201848000000</v>
       </c>
       <c r="C373">
-        <v>0.839278220730172</v>
+        <v>0.8251505899826719</v>
       </c>
       <c r="D373">
-        <v>167451112043.6425</v>
+        <v>166554996286.8224</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B374">
-        <v>201848000000</v>
+        <v>203856000000</v>
       </c>
       <c r="C374">
-        <v>0.8251505899826719</v>
+        <v>0.8375910880308234</v>
       </c>
       <c r="D374">
-        <v>166554996286.8224</v>
+        <v>170747968841.6115</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B375">
-        <v>203856000000</v>
+        <v>205362000000</v>
       </c>
       <c r="C375">
-        <v>0.8375910880308234</v>
+        <v>0.8568980291345329</v>
       </c>
       <c r="D375">
-        <v>170747968841.6115</v>
+        <v>175974293059.1259</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B376">
-        <v>205362000000</v>
+        <v>206244000000</v>
       </c>
       <c r="C376">
-        <v>0.8568980291345329</v>
+        <v>0.7941550190597204</v>
       </c>
       <c r="D376">
-        <v>175974293059.1259</v>
+        <v>163789707750.953</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B377">
-        <v>206244000000</v>
+        <v>205153000000</v>
       </c>
       <c r="C377">
-        <v>0.7941550190597204</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D377">
-        <v>163789707750.953</v>
+        <v>158787151702.7864</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B378">
-        <v>205153000000</v>
+        <v>208329000000</v>
       </c>
       <c r="C378">
-        <v>0.7739938080495355</v>
+        <v>0.7981482959533882</v>
       </c>
       <c r="D378">
-        <v>158787151702.7864</v>
+        <v>166277436347.6734</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B379">
-        <v>208329000000</v>
+        <v>209263000000</v>
       </c>
       <c r="C379">
-        <v>0.7981482959533882</v>
+        <v>0.7725587144622992</v>
       </c>
       <c r="D379">
-        <v>166277436347.6734</v>
+        <v>161667954264.5241</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B380">
-        <v>209263000000</v>
+        <v>210802000000</v>
       </c>
       <c r="C380">
-        <v>0.7725587144622992</v>
+        <v>0.8302889405513119</v>
       </c>
       <c r="D380">
-        <v>161667954264.5241</v>
+        <v>175026569246.0977</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B381">
-        <v>210802000000</v>
+        <v>211633000000</v>
       </c>
       <c r="C381">
-        <v>0.8302889405513119</v>
+        <v>0.8258320257659592</v>
       </c>
       <c r="D381">
-        <v>175026569246.0977</v>
+        <v>174773309108.9272</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B382">
-        <v>211633000000</v>
+        <v>214001000000</v>
       </c>
       <c r="C382">
-        <v>0.8258320257659592</v>
+        <v>0.8127438231469442</v>
       </c>
       <c r="D382">
-        <v>174773309108.9272</v>
+        <v>173927990897.2692</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B383">
-        <v>214001000000</v>
+        <v>216074000000</v>
       </c>
       <c r="C383">
-        <v>0.8127438231469442</v>
+        <v>0.8220979940808945</v>
       </c>
       <c r="D383">
-        <v>173927990897.2692</v>
+        <v>177634001973.0352</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B384">
-        <v>216074000000</v>
+        <v>216142000000</v>
       </c>
       <c r="C384">
-        <v>0.8220979940808945</v>
+        <v>0.8087343307723414</v>
       </c>
       <c r="D384">
-        <v>177634001973.0352</v>
+        <v>174801455721.7954</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B385">
-        <v>216142000000</v>
+        <v>218953000000</v>
       </c>
       <c r="C385">
-        <v>0.8087343307723414</v>
+        <v>0.8389261744966443</v>
       </c>
       <c r="D385">
-        <v>174801455721.7954</v>
+        <v>183685402684.5638</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B386">
-        <v>218953000000</v>
+        <v>218025000000</v>
       </c>
       <c r="C386">
-        <v>0.8389261744966443</v>
+        <v>0.8677542519958347</v>
       </c>
       <c r="D386">
-        <v>183685402684.5638</v>
+        <v>189192120791.3918</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B387">
-        <v>218025000000</v>
+        <v>220662000000</v>
       </c>
       <c r="C387">
-        <v>0.8677542519958347</v>
+        <v>0.8618460742911315</v>
       </c>
       <c r="D387">
-        <v>189192120791.3918</v>
+        <v>190176678445.2296</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B388">
-        <v>220662000000</v>
+        <v>220034000000</v>
       </c>
       <c r="C388">
-        <v>0.8618460742911315</v>
+        <v>0.8503401360544218</v>
       </c>
       <c r="D388">
-        <v>190176678445.2296</v>
+        <v>187103741496.5987</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B389">
-        <v>220034000000</v>
+        <v>220294000000</v>
       </c>
       <c r="C389">
-        <v>0.8503401360544218</v>
+        <v>0.876577840112202</v>
       </c>
       <c r="D389">
-        <v>187103741496.5987</v>
+        <v>193104838709.6774</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B390">
-        <v>220294000000</v>
+        <v>221761000000</v>
       </c>
       <c r="C390">
-        <v>0.876577840112202</v>
+        <v>0.8502678343678259</v>
       </c>
       <c r="D390">
-        <v>193104838709.6774</v>
+        <v>188556245217.2434</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B391">
-        <v>221761000000</v>
+        <v>222495000000</v>
       </c>
       <c r="C391">
-        <v>0.8502678343678259</v>
+        <v>0.8366100560528738</v>
       </c>
       <c r="D391">
-        <v>188556245217.2434</v>
+        <v>186141554421.4841</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B392">
-        <v>222495000000</v>
+        <v>224916000000</v>
       </c>
       <c r="C392">
-        <v>0.8366100560528738</v>
+        <v>0.7815552950371238</v>
       </c>
       <c r="D392">
-        <v>186141554421.4841</v>
+        <v>175784290738.5697</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B393">
-        <v>224916000000</v>
+        <v>225561000000</v>
       </c>
       <c r="C393">
-        <v>0.7815552950371238</v>
+        <v>0.7793624814901411</v>
       </c>
       <c r="D393">
-        <v>175784290738.5697</v>
+        <v>175793780687.3977</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B394">
-        <v>225561000000</v>
+        <v>228548000000</v>
       </c>
       <c r="C394">
-        <v>0.7793624814901411</v>
+        <v>0.7842522155125089</v>
       </c>
       <c r="D394">
-        <v>175793780687.3977</v>
+        <v>179239275350.9529</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B395">
-        <v>228548000000</v>
+        <v>230571000000</v>
       </c>
       <c r="C395">
-        <v>0.7842522155125089</v>
+        <v>0.779666302822392</v>
       </c>
       <c r="D395">
-        <v>179239275350.9529</v>
+        <v>179768439108.0617</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B396">
-        <v>230571000000</v>
+        <v>230155000000</v>
       </c>
       <c r="C396">
-        <v>0.779666302822392</v>
+        <v>0.7260582298700355</v>
       </c>
       <c r="D396">
-        <v>179768439108.0617</v>
+        <v>167105931895.738</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B397">
-        <v>230155000000</v>
+        <v>233043000000</v>
       </c>
       <c r="C397">
-        <v>0.7260582298700355</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D397">
-        <v>167105931895.738</v>
+        <v>176360678068.715</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B398">
-        <v>233043000000</v>
+        <v>236828000000</v>
       </c>
       <c r="C398">
-        <v>0.7567731194187983</v>
+        <v>0.7472166180975864</v>
       </c>
       <c r="D398">
-        <v>176360678068.715</v>
+        <v>176961817230.8152</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B399">
-        <v>236828000000</v>
+        <v>238569000000</v>
       </c>
       <c r="C399">
-        <v>0.7472166180975864</v>
+        <v>0.7609770945894528</v>
       </c>
       <c r="D399">
-        <v>176961817230.8152</v>
+        <v>181545544479.1112</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B400">
-        <v>238569000000</v>
+        <v>237679000000</v>
       </c>
       <c r="C400">
-        <v>0.7609770945894528</v>
+        <v>0.7109341674960898</v>
       </c>
       <c r="D400">
-        <v>181545544479.1112</v>
+        <v>168974121996.3031</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B401">
-        <v>237679000000</v>
+        <v>240683000000</v>
       </c>
       <c r="C401">
-        <v>0.7109341674960898</v>
+        <v>0.6779201410073893</v>
       </c>
       <c r="D401">
-        <v>168974121996.3031</v>
+        <v>163163853298.0815</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B402">
-        <v>240683000000</v>
+        <v>243516000000</v>
       </c>
       <c r="C402">
-        <v>0.6779201410073893</v>
+        <v>0.6592392379194411</v>
       </c>
       <c r="D402">
-        <v>163163853298.0815</v>
+        <v>160535302261.1906</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B403">
-        <v>243516000000</v>
+        <v>243435000000</v>
       </c>
       <c r="C403">
-        <v>0.6592392379194411</v>
+        <v>0.6347594261774788</v>
       </c>
       <c r="D403">
-        <v>160535302261.1906</v>
+        <v>154522660911.5146</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B404">
-        <v>243435000000</v>
+        <v>245301000000</v>
       </c>
       <c r="C404">
-        <v>0.6347594261774788</v>
+        <v>0.6401638819537802</v>
       </c>
       <c r="D404">
-        <v>154522660911.5146</v>
+        <v>157032840407.1442</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B405">
-        <v>245301000000</v>
+        <v>245876000000</v>
       </c>
       <c r="C405">
-        <v>0.6401638819537802</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="D405">
-        <v>157032840407.1442</v>
+        <v>166695593220.339</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B406">
-        <v>245876000000</v>
+        <v>251168000000</v>
       </c>
       <c r="C406">
-        <v>0.6779661016949152</v>
+        <v>0.6588483331137172</v>
       </c>
       <c r="D406">
-        <v>166695593220.339</v>
+        <v>165481618131.5061</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B407">
-        <v>251168000000</v>
+        <v>253283000000</v>
       </c>
       <c r="C407">
-        <v>0.6588483331137172</v>
+        <v>0.6832467887400929</v>
       </c>
       <c r="D407">
-        <v>165481618131.5061</v>
+        <v>173054796392.457</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B408">
-        <v>253283000000</v>
+        <v>252048000000</v>
       </c>
       <c r="C408">
-        <v>0.6832467887400929</v>
+        <v>0.6485504896556197</v>
       </c>
       <c r="D408">
-        <v>173054796392.457</v>
+        <v>163465853816.7196</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B409">
-        <v>252048000000</v>
+        <v>255151000000</v>
       </c>
       <c r="C409">
-        <v>0.6485504896556197</v>
+        <v>0.6592827004219409</v>
       </c>
       <c r="D409">
-        <v>163465853816.7196</v>
+        <v>168216640295.3586</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B410">
-        <v>255151000000</v>
+        <v>258960000000</v>
       </c>
       <c r="C410">
-        <v>0.6592827004219409</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D410">
-        <v>168216640295.3586</v>
+        <v>179186271796.2912</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B411">
-        <v>258960000000</v>
+        <v>262111000000</v>
       </c>
       <c r="C411">
-        <v>0.691945751453086</v>
+        <v>0.6982752601075344</v>
       </c>
       <c r="D411">
-        <v>179186271796.2912</v>
+        <v>183025626702.0459</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B412">
-        <v>262111000000</v>
+        <v>260867000000</v>
       </c>
       <c r="C412">
-        <v>0.6982752601075344</v>
+        <v>0.6766815536608473</v>
       </c>
       <c r="D412">
-        <v>183025626702.0459</v>
+        <v>176523886858.8442</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B413">
-        <v>260867000000</v>
+        <v>261594000000</v>
       </c>
       <c r="C413">
-        <v>0.6766815536608473</v>
+        <v>0.7132158904500393</v>
       </c>
       <c r="D413">
-        <v>176523886858.8442</v>
+        <v>186572997646.3876</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B414">
-        <v>261594000000</v>
+        <v>264903000000</v>
       </c>
       <c r="C414">
-        <v>0.7132158904500393</v>
+        <v>0.7211365111415591</v>
       </c>
       <c r="D414">
-        <v>186572997646.3876</v>
+        <v>191031225210.9324</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B415">
-        <v>264903000000</v>
+        <v>263346000000</v>
       </c>
       <c r="C415">
-        <v>0.7211365111415591</v>
+        <v>0.7248477819657873</v>
       </c>
       <c r="D415">
-        <v>191031225210.9324</v>
+        <v>190885763989.5622</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B416">
-        <v>263346000000</v>
+        <v>262940000000</v>
       </c>
       <c r="C416">
-        <v>0.7248477819657873</v>
+        <v>0.7290755322251385</v>
       </c>
       <c r="D416">
-        <v>190885763989.5622</v>
+        <v>191703120443.2779</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B417">
-        <v>262940000000</v>
+        <v>267649000000</v>
       </c>
       <c r="C417">
-        <v>0.7290755322251385</v>
+        <v>0.7151541157119359</v>
       </c>
       <c r="D417">
-        <v>191703120443.2779</v>
+        <v>191410283916.1839</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B418">
-        <v>267649000000</v>
+        <v>269673000000</v>
       </c>
       <c r="C418">
-        <v>0.7151541157119359</v>
+        <v>0.7084661707403471</v>
       </c>
       <c r="D418">
-        <v>191410283916.1839</v>
+        <v>191054197662.0616</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B419">
-        <v>269673000000</v>
+        <v>272689000000</v>
       </c>
       <c r="C419">
-        <v>0.7084661707403471</v>
+        <v>0.6930967563071805</v>
       </c>
       <c r="D419">
-        <v>191054197662.0616</v>
+        <v>188999861380.6487</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B420">
-        <v>272689000000</v>
+        <v>270611000000</v>
       </c>
       <c r="C420">
-        <v>0.6930967563071805</v>
+        <v>0.731368390258173</v>
       </c>
       <c r="D420">
-        <v>188999861380.6487</v>
+        <v>197916331456.1544</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B421">
-        <v>270611000000</v>
+        <v>271696000000</v>
       </c>
       <c r="C421">
-        <v>0.731368390258173</v>
+        <v>0.7195797654169965</v>
       </c>
       <c r="D421">
-        <v>197916331456.1544</v>
+        <v>195506943944.7363</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B422">
-        <v>271696000000</v>
+        <v>275412000000</v>
       </c>
       <c r="C422">
-        <v>0.7195797654169965</v>
+        <v>0.7008199593524423</v>
       </c>
       <c r="D422">
-        <v>195506943944.7363</v>
+        <v>193014226645.1749</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B423">
-        <v>275412000000</v>
+        <v>278067000000</v>
       </c>
       <c r="C423">
-        <v>0.7008199593524423</v>
+        <v>0.6869547296833138</v>
       </c>
       <c r="D423">
-        <v>193014226645.1749</v>
+        <v>191019440818.85</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B424">
-        <v>278067000000</v>
+        <v>276620000000</v>
       </c>
       <c r="C424">
-        <v>0.6869547296833138</v>
+        <v>0.7086167800453514</v>
       </c>
       <c r="D424">
-        <v>191019440818.85</v>
+        <v>196017573696.1451</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B425">
-        <v>276620000000</v>
+        <v>278031000000</v>
       </c>
       <c r="C425">
-        <v>0.7086167800453514</v>
+        <v>0.7333528894103843</v>
       </c>
       <c r="D425">
-        <v>196017573696.1451</v>
+        <v>203894837195.6586</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B426">
-        <v>278031000000</v>
+        <v>282011000000</v>
       </c>
       <c r="C426">
-        <v>0.7333528894103843</v>
+        <v>0.7514841812579846</v>
       </c>
       <c r="D426">
-        <v>203894837195.6586</v>
+        <v>211926805440.7455</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B427">
-        <v>282011000000</v>
+        <v>280572000000</v>
       </c>
       <c r="C427">
-        <v>0.7514841812579846</v>
+        <v>0.7178235589692054</v>
       </c>
       <c r="D427">
-        <v>211926805440.7455</v>
+        <v>201401191587.1079</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B428">
-        <v>280572000000</v>
+        <v>281276000000</v>
       </c>
       <c r="C428">
-        <v>0.7178235589692054</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D428">
-        <v>201401191587.1079</v>
+        <v>202809142692.3354</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B429">
-        <v>281276000000</v>
+        <v>286487000000</v>
       </c>
       <c r="C429">
-        <v>0.7210325185665873</v>
+        <v>0.6888001102080177</v>
       </c>
       <c r="D429">
-        <v>202809142692.3354</v>
+        <v>197332277173.1644</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B430">
-        <v>286487000000</v>
+        <v>289389000000</v>
       </c>
       <c r="C430">
-        <v>0.6888001102080177</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D430">
-        <v>197332277173.1644</v>
+        <v>197818716248.5474</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B431">
-        <v>289389000000</v>
+        <v>292600000000</v>
       </c>
       <c r="C431">
-        <v>0.6835737234260715</v>
+        <v>0.7098239636570131</v>
       </c>
       <c r="D431">
-        <v>197818716248.5474</v>
+        <v>207694491766.042</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B432">
-        <v>292600000000</v>
+        <v>290366000000</v>
       </c>
       <c r="C432">
-        <v>0.7098239636570131</v>
+        <v>0.7368110816386678</v>
       </c>
       <c r="D432">
-        <v>207694491766.042</v>
+        <v>213944886531.0934</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B433">
-        <v>290366000000</v>
+        <v>292030000000</v>
       </c>
       <c r="C433">
-        <v>0.7368110816386678</v>
+        <v>0.7210325185665873</v>
       </c>
       <c r="D433">
-        <v>213944886531.0934</v>
+        <v>210563126397.0005</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B434">
-        <v>292030000000</v>
+        <v>295333000000</v>
       </c>
       <c r="C434">
-        <v>0.7210325185665873</v>
+        <v>0.7245851749873197</v>
       </c>
       <c r="D434">
-        <v>210563126397.0005</v>
+        <v>213993913484.5301</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="2">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B435">
-        <v>295333000000</v>
+        <v>297516000000</v>
       </c>
       <c r="C435">
-        <v>0.7245851749873197</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D435">
-        <v>213993913484.5301</v>
+        <v>209370865587.6143</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B436">
-        <v>297516000000</v>
+        <v>295316000000</v>
       </c>
       <c r="C436">
-        <v>0.7037297677691766</v>
+        <v>0.7000840100812098</v>
       </c>
       <c r="D436">
-        <v>209370865587.6143</v>
+        <v>206746009521.1425</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B437">
-        <v>295316000000</v>
+        <v>297798000000</v>
       </c>
       <c r="C437">
-        <v>0.7000840100812098</v>
+        <v>0.6769564040075818</v>
       </c>
       <c r="D437">
-        <v>206746009521.1425</v>
+        <v>201596263200.6498</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B438">
-        <v>297798000000</v>
+        <v>301499000000</v>
       </c>
       <c r="C438">
-        <v>0.6769564040075818</v>
+        <v>0.6818026863025841</v>
       </c>
       <c r="D438">
-        <v>201596263200.6498</v>
+        <v>205562828117.5428</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B439">
-        <v>301499000000</v>
+        <v>301799000000</v>
       </c>
       <c r="C439">
-        <v>0.6818026863025841</v>
+        <v>0.6625149065853981</v>
       </c>
       <c r="D439">
-        <v>205562828117.5428</v>
+        <v>199946336292.5666</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B440">
-        <v>301799000000</v>
+        <v>302781000000</v>
       </c>
       <c r="C440">
-        <v>0.6625149065853981</v>
+        <v>0.6620762711864407</v>
       </c>
       <c r="D440">
-        <v>199946336292.5666</v>
+        <v>200464115466.1017</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B441">
-        <v>302781000000</v>
+        <v>305435000000</v>
       </c>
       <c r="C441">
-        <v>0.6620762711864407</v>
+        <v>0.6522306287503261</v>
       </c>
       <c r="D441">
-        <v>200464115466.1017</v>
+        <v>199214062092.3559</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B442">
-        <v>305435000000</v>
+        <v>307946000000</v>
       </c>
       <c r="C442">
-        <v>0.6522306287503261</v>
+        <v>0.6884207627702053</v>
       </c>
       <c r="D442">
-        <v>199214062092.3559</v>
+        <v>211996420212.0336</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B443">
-        <v>307946000000</v>
+        <v>311406000000</v>
       </c>
       <c r="C443">
-        <v>0.6884207627702053</v>
+        <v>0.6717721348918447</v>
       </c>
       <c r="D443">
-        <v>211996420212.0336</v>
+        <v>209193873438.1298</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B444">
-        <v>311406000000</v>
+        <v>307559000000</v>
       </c>
       <c r="C444">
-        <v>0.6717721348918447</v>
+        <v>0.6920894179527994</v>
       </c>
       <c r="D444">
-        <v>209193873438.1298</v>
+        <v>212858329296.1451</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B445">
-        <v>307559000000</v>
+        <v>309109000000</v>
       </c>
       <c r="C445">
-        <v>0.6920894179527994</v>
+        <v>0.6811989100817439</v>
       </c>
       <c r="D445">
-        <v>212858329296.1451</v>
+        <v>210564713896.4578</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B446">
-        <v>309109000000</v>
+        <v>312159000000</v>
       </c>
       <c r="C446">
-        <v>0.6811989100817439</v>
+        <v>0.6805962022731913</v>
       </c>
       <c r="D446">
-        <v>210564713896.4578</v>
+        <v>212454229905.3971</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B447">
-        <v>312159000000</v>
+        <v>313888000000</v>
       </c>
       <c r="C447">
-        <v>0.6805962022731913</v>
+        <v>0.6674676278200508</v>
       </c>
       <c r="D447">
-        <v>212454229905.3971</v>
+        <v>209510078761.1801</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B448">
-        <v>313888000000</v>
+        <v>312948000000</v>
       </c>
       <c r="C448">
-        <v>0.6674676278200508</v>
+        <v>0.6535093451836361</v>
       </c>
       <c r="D448">
-        <v>209510078761.1801</v>
+        <v>204514442556.5286</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B449">
-        <v>312948000000</v>
+        <v>316000000000</v>
       </c>
       <c r="C449">
-        <v>0.6535093451836361</v>
+        <v>0.6721333512568893</v>
       </c>
       <c r="D449">
-        <v>204514442556.5286</v>
+        <v>212394138997.177</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B450">
-        <v>316000000000</v>
+        <v>318977000000</v>
       </c>
       <c r="C450">
-        <v>0.6721333512568893</v>
+        <v>0.6562110374696503</v>
       </c>
       <c r="D450">
-        <v>212394138997.177</v>
+        <v>209316228098.9566</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B451">
-        <v>318977000000</v>
+        <v>317171000000</v>
       </c>
       <c r="C451">
-        <v>0.6562110374696503</v>
+        <v>0.6312732782021336</v>
       </c>
       <c r="D451">
-        <v>209316228098.9566</v>
+        <v>200221576920.6489</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B452">
-        <v>317171000000</v>
+        <v>320212000000</v>
       </c>
       <c r="C452">
-        <v>0.6312732782021336</v>
+        <v>0.6260172780768749</v>
       </c>
       <c r="D452">
-        <v>200221576920.6489</v>
+        <v>200458244647.5523</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B453">
-        <v>320212000000</v>
+        <v>321673000000</v>
       </c>
       <c r="C453">
-        <v>0.6260172780768749</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D453">
-        <v>200458244647.5523</v>
+        <v>206385859104.3244</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B454">
-        <v>321673000000</v>
+        <v>324328000000</v>
       </c>
       <c r="C454">
-        <v>0.6416014371872193</v>
+        <v>0.6424257998201208</v>
       </c>
       <c r="D454">
-        <v>206385859104.3244</v>
+        <v>208356674804.0602</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B455">
-        <v>324328000000</v>
+        <v>326061000000</v>
       </c>
       <c r="C455">
-        <v>0.6424257998201208</v>
+        <v>0.6731287022078621</v>
       </c>
       <c r="D455">
-        <v>208356674804.0602</v>
+        <v>219481017770.5977</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B456">
-        <v>326061000000</v>
+        <v>322987000000</v>
       </c>
       <c r="C456">
-        <v>0.6731287022078621</v>
+        <v>0.6467050378322448</v>
       </c>
       <c r="D456">
-        <v>219481017770.5977</v>
+        <v>208877320054.3232</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B457">
-        <v>322987000000</v>
+        <v>326490000000</v>
       </c>
       <c r="C457">
-        <v>0.6467050378322448</v>
+        <v>0.625</v>
       </c>
       <c r="D457">
-        <v>208877320054.3232</v>
+        <v>204056250000</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="2">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B458">
-        <v>326490000000</v>
+        <v>337987000000</v>
       </c>
       <c r="C458">
-        <v>0.625</v>
+        <v>0.5975500448162534</v>
       </c>
       <c r="D458">
-        <v>204056250000</v>
+        <v>201964146997.311</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B459">
-        <v>337987000000</v>
+        <v>344965000000</v>
       </c>
       <c r="C459">
-        <v>0.5975500448162534</v>
+        <v>0.6122199093914534</v>
       </c>
       <c r="D459">
-        <v>201964146997.311</v>
+        <v>211194441043.2227</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B460">
-        <v>344965000000</v>
+        <v>343608000000</v>
       </c>
       <c r="C460">
-        <v>0.6122199093914534</v>
+        <v>0.620963735717834</v>
       </c>
       <c r="D460">
-        <v>211194441043.2227</v>
+        <v>213368107302.5335</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B461">
-        <v>343608000000</v>
+        <v>346397000000</v>
       </c>
       <c r="C461">
-        <v>0.620963735717834</v>
+        <v>0.6455361177457879</v>
       </c>
       <c r="D461">
-        <v>213368107302.5335</v>
+        <v>223611774578.7877</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B462">
-        <v>346397000000</v>
+        <v>350385000000</v>
       </c>
       <c r="C462">
-        <v>0.6455361177457879</v>
+        <v>0.6629980773055758</v>
       </c>
       <c r="D462">
-        <v>223611774578.7877</v>
+        <v>232304581316.7142</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B463">
-        <v>350385000000</v>
+        <v>354806000000</v>
       </c>
       <c r="C463">
-        <v>0.6629980773055758</v>
+        <v>0.6740815638692281</v>
       </c>
       <c r="D463">
-        <v>232304581316.7142</v>
+        <v>239168183350.1854</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B464">
-        <v>354806000000</v>
+        <v>355780000000</v>
       </c>
       <c r="C464">
-        <v>0.6740815638692281</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D464">
-        <v>239168183350.1854</v>
+        <v>235444378267.4872</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B465">
-        <v>355780000000</v>
+        <v>359598000000</v>
       </c>
       <c r="C465">
-        <v>0.661769571835087</v>
+        <v>0.6614631565021828</v>
       </c>
       <c r="D465">
-        <v>235444378267.4872</v>
+        <v>237860828151.8719</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B466">
-        <v>359598000000</v>
+        <v>360384000000</v>
       </c>
       <c r="C466">
-        <v>0.6614631565021828</v>
+        <v>0.7014098337658694</v>
       </c>
       <c r="D466">
-        <v>237860828151.8719</v>
+        <v>252776881531.8791</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B467">
-        <v>360384000000</v>
+        <v>365780000000</v>
       </c>
       <c r="C467">
-        <v>0.7014098337658694</v>
+        <v>0.7185456635769203</v>
       </c>
       <c r="D467">
-        <v>252776881531.8791</v>
+        <v>262829632823.1659</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B468">
-        <v>365780000000</v>
+        <v>359421000000</v>
       </c>
       <c r="C468">
-        <v>0.7185456635769203</v>
+        <v>0.7184940364994971</v>
       </c>
       <c r="D468">
-        <v>262829632823.1659</v>
+        <v>258241845092.6857</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="2">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B469">
-        <v>359421000000</v>
+        <v>361223000000</v>
       </c>
       <c r="C469">
-        <v>0.7184940364994971</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D469">
-        <v>258241845092.6857</v>
+        <v>261376989869.754</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="2">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B470">
-        <v>361223000000</v>
+        <v>365809000000</v>
       </c>
       <c r="C470">
-        <v>0.7235890014471781</v>
+        <v>0.6983727913960472</v>
       </c>
       <c r="D470">
-        <v>261376989869.754</v>
+        <v>255471052447.7966</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B471">
-        <v>365809000000</v>
+        <v>368720000000</v>
       </c>
       <c r="C471">
-        <v>0.6983727913960472</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D471">
-        <v>255471052447.7966</v>
+        <v>264163920332.4258</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B472">
-        <v>368720000000</v>
+        <v>364349000000</v>
       </c>
       <c r="C472">
-        <v>0.7164350193437455</v>
+        <v>0.7276961141027506</v>
       </c>
       <c r="D472">
-        <v>264163920332.4258</v>
+        <v>265135351477.2231</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B473">
-        <v>364349000000</v>
+        <v>366418000000</v>
       </c>
       <c r="C473">
-        <v>0.7276961141027506</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D473">
-        <v>265135351477.2231</v>
+        <v>256254283516.3298</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B474">
-        <v>366418000000</v>
+        <v>373053000000</v>
       </c>
       <c r="C474">
-        <v>0.6993496048674733</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D474">
-        <v>256254283516.3298</v>
+        <v>260311911241.3649</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B475">
-        <v>373053000000</v>
+        <v>369963000000</v>
       </c>
       <c r="C475">
-        <v>0.6977880120019538</v>
+        <v>0.7047713017125943</v>
       </c>
       <c r="D475">
-        <v>260311911241.3649</v>
+        <v>260739305095.4965</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B476">
-        <v>369963000000</v>
+        <v>374561000000</v>
       </c>
       <c r="C476">
-        <v>0.7047713017125943</v>
+        <v>0.6902263942573164</v>
       </c>
       <c r="D476">
-        <v>260739305095.4965</v>
+        <v>258531888459.4147</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B477">
-        <v>374561000000</v>
+        <v>378237000000</v>
       </c>
       <c r="C477">
-        <v>0.6902263942573164</v>
+        <v>0.7174630506528914</v>
       </c>
       <c r="D477">
-        <v>258531888459.4147</v>
+        <v>271371071889.7977</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B478">
-        <v>378237000000</v>
+        <v>382985000000</v>
       </c>
       <c r="C478">
-        <v>0.7174630506528914</v>
+        <v>0.68259385665529</v>
       </c>
       <c r="D478">
-        <v>271371071889.7977</v>
+        <v>261423208191.1263</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B479">
-        <v>382985000000</v>
+        <v>391602000000</v>
       </c>
       <c r="C479">
-        <v>0.68259385665529</v>
+        <v>0.6842285323297982</v>
       </c>
       <c r="D479">
-        <v>261423208191.1263</v>
+        <v>267945261717.4136</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="2">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B480">
-        <v>391602000000</v>
+        <v>384879000000</v>
       </c>
       <c r="C480">
-        <v>0.6842285323297982</v>
+        <v>0.6577216521967904</v>
       </c>
       <c r="D480">
-        <v>267945261717.4136</v>
+        <v>253143251775.8485</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B481">
-        <v>384879000000</v>
+        <v>386923000000</v>
       </c>
       <c r="C481">
-        <v>0.6577216521967904</v>
+        <v>0.67778229632642</v>
       </c>
       <c r="D481">
-        <v>253143251775.8485</v>
+        <v>262249559441.5074</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B482">
-        <v>386923000000</v>
+        <v>390385000000</v>
       </c>
       <c r="C482">
-        <v>0.67778229632642</v>
+        <v>0.6935293709688606</v>
       </c>
       <c r="D482">
-        <v>262249559441.5074</v>
+        <v>270743463485.6786</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B483">
-        <v>390385000000</v>
+        <v>391962000000</v>
       </c>
       <c r="C483">
-        <v>0.6935293709688606</v>
+        <v>0.6458279514337381</v>
       </c>
       <c r="D483">
-        <v>270743463485.6786</v>
+        <v>253140015499.8708</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B484">
-        <v>391962000000</v>
+        <v>389603000000</v>
       </c>
       <c r="C484">
-        <v>0.6458279514337381</v>
+        <v>0.6513809275664409</v>
       </c>
       <c r="D484">
-        <v>253140015499.8708</v>
+        <v>253779963522.6681</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B485">
-        <v>389603000000</v>
+        <v>389035000000</v>
       </c>
       <c r="C485">
-        <v>0.6513809275664409</v>
+        <v>0.6244146113019045</v>
       </c>
       <c r="D485">
-        <v>253779963522.6681</v>
+        <v>242919138307.8364</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B486">
-        <v>389035000000</v>
+        <v>390828000000</v>
       </c>
       <c r="C486">
-        <v>0.6244146113019045</v>
+        <v>0.6292474200855777</v>
       </c>
       <c r="D486">
-        <v>242919138307.8364</v>
+        <v>245927510697.2061</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B487">
-        <v>390828000000</v>
+        <v>391713000000</v>
       </c>
       <c r="C487">
-        <v>0.6292474200855777</v>
+        <v>0.6118078923218109</v>
       </c>
       <c r="D487">
-        <v>245927510697.2061</v>
+        <v>239653104925.0535</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B488">
-        <v>391713000000</v>
+        <v>391912000000</v>
       </c>
       <c r="C488">
-        <v>0.6118078923218109</v>
+        <v>0.5599104143337066</v>
       </c>
       <c r="D488">
-        <v>239653104925.0535</v>
+        <v>219435610302.3516</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B489">
-        <v>391912000000</v>
+        <v>393508000000</v>
       </c>
       <c r="C489">
-        <v>0.5599104143337066</v>
+        <v>0.5812263876780006</v>
       </c>
       <c r="D489">
-        <v>219435610302.3516</v>
+        <v>228717233362.3947</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B490">
-        <v>393508000000</v>
+        <v>397263000000</v>
       </c>
       <c r="C490">
-        <v>0.5812263876780006</v>
+        <v>0.6297229219143576</v>
       </c>
       <c r="D490">
-        <v>228717233362.3947</v>
+        <v>250165617128.4635</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B491">
-        <v>397263000000</v>
+        <v>398778000000</v>
       </c>
       <c r="C491">
-        <v>0.6297229219143576</v>
+        <v>0.6353240152477764</v>
       </c>
       <c r="D491">
-        <v>250165617128.4635</v>
+        <v>253353240152.4778</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B492">
-        <v>398778000000</v>
+        <v>393400000000</v>
       </c>
       <c r="C492">
-        <v>0.6353240152477764</v>
+        <v>0.644122383252818</v>
       </c>
       <c r="D492">
-        <v>253353240152.4778</v>
+        <v>253397745571.6586</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B493">
-        <v>393400000000</v>
+        <v>394722000000</v>
       </c>
       <c r="C493">
-        <v>0.644122383252818</v>
+        <v>0.6185822095756526</v>
       </c>
       <c r="D493">
-        <v>253397745571.6586</v>
+        <v>244168006928.1207</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B494">
-        <v>394722000000</v>
+        <v>395721000000</v>
       </c>
       <c r="C494">
-        <v>0.6185822095756526</v>
+        <v>0.6257039169065198</v>
       </c>
       <c r="D494">
-        <v>244168006928.1207</v>
+        <v>247604179702.1649</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B495">
-        <v>395721000000</v>
+        <v>398520000000</v>
       </c>
       <c r="C495">
-        <v>0.6257039169065198</v>
+        <v>0.6183527083848628</v>
       </c>
       <c r="D495">
-        <v>247604179702.1649</v>
+        <v>246425921345.5355</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B496">
-        <v>398520000000</v>
+        <v>395740000000</v>
       </c>
       <c r="C496">
-        <v>0.6183527083848628</v>
+        <v>0.6019020103527146</v>
       </c>
       <c r="D496">
-        <v>246425921345.5355</v>
+        <v>238196701576.9833</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B497">
-        <v>395740000000</v>
+        <v>399129000000</v>
       </c>
       <c r="C497">
-        <v>0.6019020103527146</v>
+        <v>0.6139489194499017</v>
       </c>
       <c r="D497">
-        <v>238196701576.9833</v>
+        <v>245044818271.1198</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B498">
-        <v>399129000000</v>
+        <v>403358000000</v>
       </c>
       <c r="C498">
-        <v>0.6139489194499017</v>
+        <v>0.6208866261020738</v>
       </c>
       <c r="D498">
-        <v>245044818271.1198</v>
+        <v>250439587731.2803</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B499">
-        <v>403358000000</v>
+        <v>403361000000</v>
       </c>
       <c r="C499">
-        <v>0.6208866261020738</v>
+        <v>0.5967299200381907</v>
       </c>
       <c r="D499">
-        <v>250439587731.2803</v>
+        <v>240697577276.5246</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B500">
-        <v>403361000000</v>
+        <v>404877000000</v>
       </c>
       <c r="C500">
-        <v>0.5967299200381907</v>
+        <v>0.5998800239952009</v>
       </c>
       <c r="D500">
-        <v>240697577276.5246</v>
+        <v>242877624475.1049</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B501">
-        <v>404877000000</v>
+        <v>405884000000</v>
       </c>
       <c r="C501">
-        <v>0.5998800239952009</v>
+        <v>0.5805852299117511</v>
       </c>
       <c r="D501">
-        <v>242877624475.1049</v>
+        <v>235650255457.5012</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>New Zealand_M2 (NZD)</t>
-  </si>
-  <si>
-    <t>New Zealand_FX (USD)</t>
-  </si>
-  <si>
-    <t>New Zealand_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,5315 +426,5901 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>30011</v>
-      </c>
-      <c r="B2">
-        <v>15223000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand_M2 (NZD)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>30042</v>
       </c>
-      <c r="B3">
+      <c r="B2" t="n">
         <v>15937000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>30072</v>
       </c>
-      <c r="B4">
+      <c r="B3" t="n">
         <v>16438000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>30103</v>
       </c>
-      <c r="B5">
+      <c r="B4" t="n">
         <v>17016000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>30133</v>
       </c>
-      <c r="B6">
+      <c r="B5" t="n">
         <v>16972000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>30164</v>
       </c>
-      <c r="B7">
+      <c r="B6" t="n">
         <v>17010000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>30195</v>
       </c>
-      <c r="B8">
+      <c r="B7" t="n">
         <v>16545000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>30225</v>
       </c>
-      <c r="B9">
+      <c r="B8" t="n">
         <v>16533000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>30256</v>
       </c>
-      <c r="B10">
+      <c r="B9" t="n">
         <v>17141000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>30286</v>
       </c>
-      <c r="B11">
+      <c r="B10" t="n">
         <v>18066000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>30317</v>
       </c>
-      <c r="B12">
+      <c r="B11" t="n">
         <v>18329000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>30348</v>
       </c>
-      <c r="B13">
+      <c r="B12" t="n">
         <v>18862000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>30376</v>
       </c>
-      <c r="B14">
+      <c r="B13" t="n">
         <v>17266000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>30407</v>
       </c>
-      <c r="B15">
+      <c r="B14" t="n">
         <v>17486000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>30437</v>
       </c>
-      <c r="B16">
+      <c r="B15" t="n">
         <v>18103000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>30468</v>
       </c>
-      <c r="B17">
+      <c r="B16" t="n">
         <v>18410000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>30498</v>
       </c>
-      <c r="B18">
+      <c r="B17" t="n">
         <v>18810000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>30529</v>
       </c>
-      <c r="B19">
+      <c r="B18" t="n">
         <v>19245000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>30560</v>
       </c>
-      <c r="B20">
+      <c r="B19" t="n">
         <v>19147000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>30590</v>
       </c>
-      <c r="B21">
+      <c r="B20" t="n">
         <v>19340000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>30621</v>
       </c>
-      <c r="B22">
+      <c r="B21" t="n">
         <v>19884000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>30651</v>
       </c>
-      <c r="B23">
+      <c r="B22" t="n">
         <v>20669000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>30682</v>
       </c>
-      <c r="B24">
+      <c r="B23" t="n">
         <v>20758000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>30713</v>
       </c>
-      <c r="B25">
+      <c r="B24" t="n">
         <v>21203000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>30742</v>
       </c>
-      <c r="B26">
+      <c r="B25" t="n">
         <v>19781000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>30773</v>
       </c>
-      <c r="B27">
+      <c r="B26" t="n">
         <v>20863000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>30803</v>
       </c>
-      <c r="B28">
+      <c r="B27" t="n">
         <v>21393000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>30834</v>
       </c>
-      <c r="B29">
+      <c r="B28" t="n">
         <v>21696000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>30864</v>
       </c>
-      <c r="B30">
+      <c r="B29" t="n">
         <v>22273000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>30895</v>
       </c>
-      <c r="B31">
+      <c r="B30" t="n">
         <v>23152000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>30926</v>
       </c>
-      <c r="B32">
+      <c r="B31" t="n">
         <v>23213000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>30956</v>
       </c>
-      <c r="B33">
+      <c r="B32" t="n">
         <v>23738000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>30987</v>
       </c>
-      <c r="B34">
+      <c r="B33" t="n">
         <v>24145000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>31017</v>
       </c>
-      <c r="B35">
+      <c r="B34" t="n">
         <v>25020000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>31048</v>
       </c>
-      <c r="B36">
+      <c r="B35" t="n">
         <v>24897000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>31079</v>
       </c>
-      <c r="B37">
+      <c r="B36" t="n">
         <v>25250000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>31107</v>
       </c>
-      <c r="B38">
+      <c r="B37" t="n">
         <v>25030000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>31138</v>
       </c>
-      <c r="B39">
+      <c r="B38" t="n">
         <v>26165000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>31168</v>
       </c>
-      <c r="B40">
+      <c r="B39" t="n">
         <v>26778000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>31199</v>
       </c>
-      <c r="B41">
+      <c r="B40" t="n">
         <v>27918000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>31229</v>
       </c>
-      <c r="B42">
+      <c r="B41" t="n">
         <v>28862000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>31260</v>
       </c>
-      <c r="B43">
+      <c r="B42" t="n">
         <v>29239000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>31291</v>
       </c>
-      <c r="B44">
+      <c r="B43" t="n">
         <v>29420000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>31321</v>
       </c>
-      <c r="B45">
+      <c r="B44" t="n">
         <v>29721000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>31352</v>
       </c>
-      <c r="B46">
+      <c r="B45" t="n">
         <v>30474000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>31382</v>
       </c>
-      <c r="B47">
+      <c r="B46" t="n">
         <v>31397000000</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>31413</v>
       </c>
-      <c r="B48">
+      <c r="B47" t="n">
         <v>31474000000</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>31444</v>
       </c>
-      <c r="B49">
+      <c r="B48" t="n">
         <v>32213000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>31472</v>
       </c>
-      <c r="B50">
+      <c r="B49" t="n">
         <v>32386000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>31503</v>
       </c>
-      <c r="B51">
+      <c r="B50" t="n">
         <v>33068000000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>31533</v>
       </c>
-      <c r="B52">
+      <c r="B51" t="n">
         <v>33392000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>31564</v>
       </c>
-      <c r="B53">
+      <c r="B52" t="n">
         <v>33824000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>31594</v>
       </c>
-      <c r="B54">
+      <c r="B53" t="n">
         <v>33851000000</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>31625</v>
       </c>
-      <c r="B55">
+      <c r="B54" t="n">
         <v>34550000000</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>31656</v>
       </c>
-      <c r="B56">
+      <c r="B55" t="n">
         <v>35002000000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>31686</v>
       </c>
-      <c r="B57">
+      <c r="B56" t="n">
         <v>36018000000</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>31717</v>
       </c>
-      <c r="B58">
+      <c r="B57" t="n">
         <v>36675000000</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>31747</v>
       </c>
-      <c r="B59">
+      <c r="B58" t="n">
         <v>37807000000</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>31778</v>
       </c>
-      <c r="B60">
+      <c r="B59" t="n">
         <v>38370000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>31809</v>
       </c>
-      <c r="B61">
+      <c r="B60" t="n">
         <v>39366000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>31837</v>
       </c>
-      <c r="B62">
+      <c r="B61" t="n">
         <v>38543000000</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>31868</v>
       </c>
-      <c r="B63">
+      <c r="B62" t="n">
         <v>38349000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>31898</v>
       </c>
-      <c r="B64">
+      <c r="B63" t="n">
         <v>38741000000</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>31929</v>
       </c>
-      <c r="B65">
+      <c r="B64" t="n">
         <v>39583000000</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>31959</v>
       </c>
-      <c r="B66">
+      <c r="B65" t="n">
         <v>39428000000</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>31990</v>
       </c>
-      <c r="B67">
+      <c r="B66" t="n">
         <v>40102000000</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>32021</v>
       </c>
-      <c r="B68">
+      <c r="B67" t="n">
         <v>40578000000</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>32051</v>
       </c>
-      <c r="B69">
+      <c r="B68" t="n">
         <v>41887000000</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>32082</v>
       </c>
-      <c r="B70">
+      <c r="B69" t="n">
         <v>41893000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>32112</v>
       </c>
-      <c r="B71">
+      <c r="B70" t="n">
         <v>42932000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>32143</v>
       </c>
-      <c r="B72">
+      <c r="B71" t="n">
         <v>42531000000</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>32174</v>
       </c>
-      <c r="B73">
+      <c r="B72" t="n">
         <v>43592000000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>32203</v>
       </c>
-      <c r="B74">
+      <c r="B73" t="n">
         <v>35236000000</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>32234</v>
       </c>
-      <c r="B75">
+      <c r="B74" t="n">
         <v>34761000000</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>32264</v>
       </c>
-      <c r="B76">
+      <c r="B75" t="n">
         <v>34660000000</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>32295</v>
       </c>
-      <c r="B77">
+      <c r="B76" t="n">
         <v>35658000000</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>32325</v>
       </c>
-      <c r="B78">
+      <c r="B77" t="n">
         <v>35350000000</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>32356</v>
       </c>
-      <c r="B79">
+      <c r="B78" t="n">
         <v>35771000000</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>32387</v>
       </c>
-      <c r="B80">
+      <c r="B79" t="n">
         <v>34970000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>32417</v>
       </c>
-      <c r="B81">
+      <c r="B80" t="n">
         <v>36326000000</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>32448</v>
       </c>
-      <c r="B82">
+      <c r="B81" t="n">
         <v>35065000000</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>32478</v>
       </c>
-      <c r="B83">
+      <c r="B82" t="n">
         <v>35616000000</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>32509</v>
       </c>
-      <c r="B84">
+      <c r="B83" t="n">
         <v>35695000000</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>32540</v>
       </c>
-      <c r="B85">
+      <c r="B84" t="n">
         <v>36802000000</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>32568</v>
       </c>
-      <c r="B86">
+      <c r="B85" t="n">
         <v>36302000000</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2">
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>32599</v>
       </c>
-      <c r="B87">
+      <c r="B86" t="n">
         <v>36279000000</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2">
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>32629</v>
       </c>
-      <c r="B88">
+      <c r="B87" t="n">
         <v>36758000000</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2">
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>32660</v>
       </c>
-      <c r="B89">
+      <c r="B88" t="n">
         <v>37527000000</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>32690</v>
       </c>
-      <c r="B90">
+      <c r="B89" t="n">
         <v>37588000000</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>32721</v>
       </c>
-      <c r="B91">
+      <c r="B90" t="n">
         <v>38287000000</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>32752</v>
       </c>
-      <c r="B92">
+      <c r="B91" t="n">
         <v>38758000000</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>32782</v>
       </c>
-      <c r="B93">
+      <c r="B92" t="n">
         <v>38883000000</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>32813</v>
       </c>
-      <c r="B94">
+      <c r="B93" t="n">
         <v>38513000000</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>32843</v>
       </c>
-      <c r="B95">
+      <c r="B94" t="n">
         <v>37957000000</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="B96">
+      <c r="B95" t="n">
         <v>38744000000</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>32905</v>
       </c>
-      <c r="B97">
+      <c r="B96" t="n">
         <v>38287000000</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>32933</v>
       </c>
-      <c r="B98">
+      <c r="B97" t="n">
         <v>38284000000</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>32964</v>
       </c>
-      <c r="B99">
+      <c r="B98" t="n">
         <v>39326000000</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>32994</v>
       </c>
-      <c r="B100">
+      <c r="B99" t="n">
         <v>39661000000</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>33025</v>
       </c>
-      <c r="B101">
+      <c r="B100" t="n">
         <v>39063000000</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>33055</v>
       </c>
-      <c r="B102">
+      <c r="B101" t="n">
         <v>38534000000</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2">
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>33086</v>
       </c>
-      <c r="B103">
+      <c r="B102" t="n">
         <v>40088000000</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2">
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>33117</v>
       </c>
-      <c r="B104">
+      <c r="B103" t="n">
         <v>40767000000</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2">
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>33147</v>
       </c>
-      <c r="B105">
+      <c r="B104" t="n">
         <v>40828000000</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="2">
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>33178</v>
       </c>
-      <c r="B106">
+      <c r="B105" t="n">
         <v>41145000000</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2">
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>33208</v>
       </c>
-      <c r="B107">
+      <c r="B106" t="n">
         <v>42586000000</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2">
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>33239</v>
       </c>
-      <c r="B108">
+      <c r="B107" t="n">
         <v>41948000000</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2">
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>33270</v>
       </c>
-      <c r="B109">
+      <c r="B108" t="n">
         <v>41220000000</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2">
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>33298</v>
       </c>
-      <c r="B110">
+      <c r="B109" t="n">
         <v>40854000000</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2">
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>33329</v>
       </c>
-      <c r="B111">
+      <c r="B110" t="n">
         <v>41300000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2">
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>33359</v>
       </c>
-      <c r="B112">
+      <c r="B111" t="n">
         <v>42129000000</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2">
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>33390</v>
       </c>
-      <c r="B113">
+      <c r="B112" t="n">
         <v>42719000000</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2">
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>33420</v>
       </c>
-      <c r="B114">
+      <c r="B113" t="n">
         <v>41920000000</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2">
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>33451</v>
       </c>
-      <c r="B115">
+      <c r="B114" t="n">
         <v>42235000000</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2">
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>33482</v>
       </c>
-      <c r="B116">
+      <c r="B115" t="n">
         <v>42369000000</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2">
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>33512</v>
       </c>
-      <c r="B117">
+      <c r="B116" t="n">
         <v>43280000000</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2">
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>33543</v>
       </c>
-      <c r="B118">
+      <c r="B117" t="n">
         <v>42849000000</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2">
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>33573</v>
       </c>
-      <c r="B119">
+      <c r="B118" t="n">
         <v>43320000000</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2">
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B120">
+      <c r="B119" t="n">
         <v>44407000000</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2">
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>33635</v>
       </c>
-      <c r="B121">
+      <c r="B120" t="n">
         <v>44599000000</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2">
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>33664</v>
       </c>
-      <c r="B122">
+      <c r="B121" t="n">
         <v>45318000000</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2">
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B123">
+      <c r="B122" t="n">
         <v>45418000000</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2">
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>33725</v>
       </c>
-      <c r="B124">
+      <c r="B123" t="n">
         <v>45741000000</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2">
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>33756</v>
       </c>
-      <c r="B125">
+      <c r="B124" t="n">
         <v>44756000000</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2">
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B126">
+      <c r="B125" t="n">
         <v>44868000000</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2">
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>33817</v>
       </c>
-      <c r="B127">
+      <c r="B126" t="n">
         <v>45313000000</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2">
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>33848</v>
       </c>
-      <c r="B128">
+      <c r="B127" t="n">
         <v>45461000000</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2">
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B129">
+      <c r="B128" t="n">
         <v>45784000000</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2">
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>33909</v>
       </c>
-      <c r="B130">
+      <c r="B129" t="n">
         <v>46380000000</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2">
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>33939</v>
       </c>
-      <c r="B131">
+      <c r="B130" t="n">
         <v>45538000000</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2">
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B132">
+      <c r="B131" t="n">
         <v>45785000000</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2">
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>34001</v>
       </c>
-      <c r="B133">
+      <c r="B132" t="n">
         <v>45582000000</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2">
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>34029</v>
       </c>
-      <c r="B134">
+      <c r="B133" t="n">
         <v>45158000000</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2">
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B135">
+      <c r="B134" t="n">
         <v>46327000000</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2">
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>34090</v>
       </c>
-      <c r="B136">
+      <c r="B135" t="n">
         <v>47373000000</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2">
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="B137">
+      <c r="B136" t="n">
         <v>47334000000</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2">
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B138">
+      <c r="B137" t="n">
         <v>48759000000</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2">
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="B139">
+      <c r="B138" t="n">
         <v>48711000000</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2">
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="B140">
+      <c r="B139" t="n">
         <v>48355000000</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2">
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B141">
+      <c r="B140" t="n">
         <v>48841000000</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2">
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="B142">
+      <c r="B141" t="n">
         <v>49332000000</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2">
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B143">
+      <c r="B142" t="n">
         <v>49250000000</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="2">
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B144">
+      <c r="B143" t="n">
         <v>48139000000</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="2">
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B145">
+      <c r="B144" t="n">
         <v>48991000000</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="2">
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B146">
+      <c r="B145" t="n">
         <v>50390000000</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="2">
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B147">
+      <c r="B146" t="n">
         <v>50358000000</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="2">
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B148">
+      <c r="B147" t="n">
         <v>51494000000</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="2">
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B149">
+      <c r="B148" t="n">
         <v>51341000000</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="2">
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B150">
+      <c r="B149" t="n">
         <v>51103000000</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="2">
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B151">
+      <c r="B150" t="n">
         <v>51658000000</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="2">
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B152">
+      <c r="B151" t="n">
         <v>51676000000</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="2">
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B153">
+      <c r="B152" t="n">
         <v>52085000000</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="2">
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B154">
+      <c r="B153" t="n">
         <v>52717000000</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="2">
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B155">
+      <c r="B154" t="n">
         <v>53626000000</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="2">
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B156">
+      <c r="B155" t="n">
         <v>54225000000</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="2">
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B157">
+      <c r="B156" t="n">
         <v>54799000000</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="2">
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B158">
+      <c r="B157" t="n">
         <v>54760000000</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="2">
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B159">
+      <c r="B158" t="n">
         <v>55835000000</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="2">
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B160">
+      <c r="B159" t="n">
         <v>56778000000</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="2">
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B161">
+      <c r="B160" t="n">
         <v>56814000000</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="2">
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B162">
+      <c r="B161" t="n">
         <v>56158000000</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="2">
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B163">
+      <c r="B162" t="n">
         <v>57209000000</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="2">
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B164">
+      <c r="B163" t="n">
         <v>57700000000</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="2">
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B165">
+      <c r="B164" t="n">
         <v>58639000000</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="2">
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B166">
+      <c r="B165" t="n">
         <v>59763000000</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="2">
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B167">
+      <c r="B166" t="n">
         <v>60010000000</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="2">
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B168">
+      <c r="B167" t="n">
         <v>59951000000</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="2">
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B169">
+      <c r="B168" t="n">
         <v>60106000000</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="2">
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B170">
+      <c r="B169" t="n">
         <v>60824000000</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="2">
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B171">
+      <c r="B170" t="n">
         <v>62080000000</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="2">
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B172">
+      <c r="B171" t="n">
         <v>65168000000</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="2">
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B173">
+      <c r="B172" t="n">
         <v>65050000000</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="2">
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B174">
+      <c r="B173" t="n">
         <v>64390000000</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="2">
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B175">
+      <c r="B174" t="n">
         <v>64984000000</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="2">
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B176">
+      <c r="B175" t="n">
         <v>65141000000</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B177">
+      <c r="B176" t="n">
         <v>67841000000</v>
       </c>
-      <c r="C177">
+      <c r="C176" t="n">
         <v>1.421060110842689</v>
       </c>
-      <c r="D177">
+      <c r="D176" t="n">
         <v>96406138979.67883</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B178">
+      <c r="B177" t="n">
         <v>66576000000</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B179">
+      <c r="B178" t="n">
         <v>66584000000</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B180">
+      <c r="B179" t="n">
         <v>66968000000</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B181">
+      <c r="B180" t="n">
         <v>66549000000</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B182">
+      <c r="B181" t="n">
         <v>66572000000</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B183">
+      <c r="B182" t="n">
         <v>68198000000</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B184">
+      <c r="B183" t="n">
         <v>68983000000</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B185">
+      <c r="B184" t="n">
         <v>68692000000</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B186">
+      <c r="B185" t="n">
         <v>69166000000</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B187">
+      <c r="B186" t="n">
         <v>70950000000</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B188">
+      <c r="B187" t="n">
         <v>71582000000</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B189">
+      <c r="B188" t="n">
         <v>70746000000</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B190">
+      <c r="B189" t="n">
         <v>70932000000</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B191">
+      <c r="B190" t="n">
         <v>71575000000</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B192">
+      <c r="B191" t="n">
         <v>72684000000</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="2">
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B193">
+      <c r="B192" t="n">
         <v>71724000000</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="2">
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B194">
+      <c r="B193" t="n">
         <v>71979000000</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="2">
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B195">
+      <c r="B194" t="n">
         <v>72204000000</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="2">
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B196">
+      <c r="B195" t="n">
         <v>73578000000</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="2">
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B197">
+      <c r="B196" t="n">
         <v>73056000000</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="2">
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B198">
+      <c r="B197" t="n">
         <v>73068000000</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2">
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B199">
+      <c r="B198" t="n">
         <v>72606000000</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2">
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B200">
+      <c r="B199" t="n">
         <v>71525000000</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="2">
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B201">
+      <c r="B200" t="n">
         <v>72175000000</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="2">
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B202">
+      <c r="B201" t="n">
         <v>72855000000</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2">
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B203">
+      <c r="B202" t="n">
         <v>72332000000</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2">
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B204">
+      <c r="B203" t="n">
         <v>73262000000</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2">
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B205">
+      <c r="B204" t="n">
         <v>74810000000</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2">
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B206">
+      <c r="B205" t="n">
         <v>73920000000</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="2">
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B207">
+      <c r="B206" t="n">
         <v>73161000000</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2">
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B208">
+      <c r="B207" t="n">
         <v>72833000000</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2">
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B209">
+      <c r="B208" t="n">
         <v>73502000000</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2">
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B210">
+      <c r="B209" t="n">
         <v>75262000000</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2">
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B211">
+      <c r="B210" t="n">
         <v>75935000000</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2">
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B212">
+      <c r="B211" t="n">
         <v>75717000000</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2">
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B213">
+      <c r="B212" t="n">
         <v>75525000000</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2">
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B214">
+      <c r="B213" t="n">
         <v>74655000000</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2">
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B215">
+      <c r="B214" t="n">
         <v>76630000000</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2">
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B216">
+      <c r="B215" t="n">
         <v>75188000000</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2">
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B217">
+      <c r="B216" t="n">
         <v>75809000000</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2">
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B218">
+      <c r="B217" t="n">
         <v>75243000000</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2">
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B219">
+      <c r="B218" t="n">
         <v>75721000000</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2">
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B220">
+      <c r="B219" t="n">
         <v>76770000000</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2">
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B221">
+      <c r="B220" t="n">
         <v>75620000000</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2">
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B222">
+      <c r="B221" t="n">
         <v>76874000000</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="2">
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B223">
+      <c r="B222" t="n">
         <v>77423000000</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="2">
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B224">
+      <c r="B223" t="n">
         <v>77689000000</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="2">
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B225">
+      <c r="B224" t="n">
         <v>77465000000</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="2">
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B226">
+      <c r="B225" t="n">
         <v>76636000000</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="2">
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B227">
+      <c r="B226" t="n">
         <v>78422000000</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="2">
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B228">
+      <c r="B227" t="n">
         <v>77827000000</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2">
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B229">
+      <c r="B228" t="n">
         <v>78419000000</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="2">
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B230">
+      <c r="B229" t="n">
         <v>79961000000</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="2">
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B231">
+      <c r="B230" t="n">
         <v>79903000000</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="2">
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B232">
+      <c r="B231" t="n">
         <v>81247000000</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="2">
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B233">
+      <c r="B232" t="n">
         <v>81397000000</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="2">
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B234">
+      <c r="B233" t="n">
         <v>82278000000</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="2">
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B235">
+      <c r="B234" t="n">
         <v>82357000000</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="2">
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B236">
+      <c r="B235" t="n">
         <v>83722000000</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="2">
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B237">
+      <c r="B236" t="n">
         <v>83831000000</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="2">
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B238">
+      <c r="B237" t="n">
         <v>82083000000</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="2">
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B239">
+      <c r="B238" t="n">
         <v>83579000000</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="2">
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B240">
+      <c r="B239" t="n">
         <v>83142000000</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="2">
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B241">
+      <c r="B240" t="n">
         <v>83870000000</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="2">
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B242">
+      <c r="B241" t="n">
         <v>87080000000</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="2">
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B243">
+      <c r="B242" t="n">
         <v>85751000000</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="2">
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B244">
+      <c r="B243" t="n">
         <v>86550000000</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="2">
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B245">
+      <c r="B244" t="n">
         <v>88768000000</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="2">
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B246">
+      <c r="B245" t="n">
         <v>88681000000</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="2">
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B247">
+      <c r="B246" t="n">
         <v>89673000000</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="2">
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B248">
+      <c r="B247" t="n">
         <v>89297000000</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2">
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B249">
+      <c r="B248" t="n">
         <v>90012000000</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="2">
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B250">
+      <c r="B249" t="n">
         <v>91205000000</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="2">
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B251">
+      <c r="B250" t="n">
         <v>93743000000</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="2">
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B252">
+      <c r="B251" t="n">
         <v>92659000000</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="2">
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B253">
+      <c r="B252" t="n">
         <v>94032000000</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="2">
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B254">
+      <c r="B253" t="n">
         <v>93819000000</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="2">
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B255">
+      <c r="B254" t="n">
         <v>93353000000</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="2">
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B256">
+      <c r="B255" t="n">
         <v>93631000000</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2">
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B257">
+      <c r="B256" t="n">
         <v>95503000000</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="2">
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B258">
+      <c r="B257" t="n">
         <v>95766000000</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="2">
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B259">
+      <c r="B258" t="n">
         <v>95741000000</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2">
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B260">
+      <c r="B259" t="n">
         <v>97689000000</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="2">
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B261">
+      <c r="B260" t="n">
         <v>99787000000</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2">
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B262">
+      <c r="B261" t="n">
         <v>100963000000</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2">
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B263">
+      <c r="B262" t="n">
         <v>103231000000</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2">
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B264">
+      <c r="B263" t="n">
         <v>103512000000</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2">
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B265">
+      <c r="B264" t="n">
         <v>104774000000</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2">
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B266">
+      <c r="B265" t="n">
         <v>105566000000</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2">
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B267">
+      <c r="B266" t="n">
         <v>105181000000</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2">
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B268">
+      <c r="B267" t="n">
         <v>107854000000</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="2">
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B269">
+      <c r="B268" t="n">
         <v>106773000000</v>
       </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="2">
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B270">
+      <c r="B269" t="n">
         <v>106562000000</v>
       </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2">
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B271">
+      <c r="B270" t="n">
         <v>105557000000</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="2">
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B272">
+      <c r="B271" t="n">
         <v>104789000000</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B273">
+      <c r="B272" t="n">
         <v>106039000000</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B274">
+      <c r="B273" t="n">
         <v>106178000000</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B275">
+      <c r="B274" t="n">
         <v>107808000000</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B276">
+      <c r="B275" t="n">
         <v>107823000000</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B277">
+      <c r="B276" t="n">
         <v>109719000000</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B278">
+      <c r="B277" t="n">
         <v>110798000000</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B279">
+      <c r="B278" t="n">
         <v>111413000000</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B280">
+      <c r="B279" t="n">
         <v>111861000000</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B281">
+      <c r="B280" t="n">
         <v>113980000000</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B282">
+      <c r="B281" t="n">
         <v>114215000000</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B283">
+      <c r="B282" t="n">
         <v>114963000000</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B284">
+      <c r="B283" t="n">
         <v>117770000000</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B285">
+      <c r="B284" t="n">
         <v>117253000000</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B286">
+      <c r="B285" t="n">
         <v>117084000000</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B287">
+      <c r="B286" t="n">
         <v>118937000000</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B288">
+      <c r="B287" t="n">
         <v>119143000000</v>
       </c>
-      <c r="C288">
+      <c r="C287" t="n">
         <v>0.6878052135635189</v>
       </c>
-      <c r="D288">
+      <c r="D287" t="n">
         <v>81947176559.59833</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B289">
+      <c r="B288" t="n">
         <v>119816000000</v>
       </c>
-      <c r="C289">
+      <c r="C288" t="n">
         <v>0.6621201085876978</v>
       </c>
-      <c r="D289">
+      <c r="D288" t="n">
         <v>79332582930.54359</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B290">
+      <c r="B289" t="n">
         <v>120893000000</v>
       </c>
-      <c r="C290">
+      <c r="C289" t="n">
         <v>0.6162948354492789</v>
       </c>
-      <c r="D290">
+      <c r="D289" t="n">
         <v>74505731541.96967</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B291">
+      <c r="B290" t="n">
         <v>122329000000</v>
       </c>
-      <c r="C291">
+      <c r="C290" t="n">
         <v>0.6382842918235783</v>
       </c>
-      <c r="D291">
+      <c r="D290" t="n">
         <v>78080679134.48651</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B292">
+      <c r="B291" t="n">
         <v>122987000000</v>
       </c>
-      <c r="C292">
+      <c r="C291" t="n">
         <v>0.6343165239454488</v>
       </c>
-      <c r="D292">
+      <c r="D291" t="n">
         <v>78012686330.47891</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B293">
+      <c r="B292" t="n">
         <v>124982000000</v>
       </c>
-      <c r="C293">
+      <c r="C292" t="n">
         <v>0.608976310821509</v>
       </c>
-      <c r="D293">
+      <c r="D292" t="n">
         <v>76111077279.09384</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B294">
+      <c r="B293" t="n">
         <v>126112000000</v>
       </c>
-      <c r="C294">
+      <c r="C293" t="n">
         <v>0.6177415369409439</v>
       </c>
-      <c r="D294">
+      <c r="D293" t="n">
         <v>77904620706.69632</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B295">
+      <c r="B294" t="n">
         <v>126790000000</v>
       </c>
-      <c r="C295">
+      <c r="C294" t="n">
         <v>0.6559097468188377</v>
       </c>
-      <c r="D295">
+      <c r="D294" t="n">
         <v>83162796799.16043</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B296">
+      <c r="B295" t="n">
         <v>127329000000</v>
       </c>
-      <c r="C296">
+      <c r="C295" t="n">
         <v>0.6533812479581836</v>
       </c>
-      <c r="D296">
+      <c r="D295" t="n">
         <v>83194380921.26756</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B297">
+      <c r="B296" t="n">
         <v>128048000000</v>
       </c>
-      <c r="C297">
+      <c r="C296" t="n">
         <v>0.6704210244033253</v>
       </c>
-      <c r="D297">
+      <c r="D296" t="n">
         <v>85846071332.797</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B298">
+      <c r="B297" t="n">
         <v>131146000000</v>
       </c>
-      <c r="C298">
+      <c r="C297" t="n">
         <v>0.6844158510711108</v>
       </c>
-      <c r="D298">
+      <c r="D297" t="n">
         <v>89758401204.5719</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B299">
+      <c r="B298" t="n">
         <v>131708000000</v>
       </c>
-      <c r="C299">
+      <c r="C298" t="n">
         <v>0.7046719751955465</v>
       </c>
-      <c r="D299">
+      <c r="D298" t="n">
         <v>92810936509.05504</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B300">
+      <c r="B299" t="n">
         <v>133105000000</v>
       </c>
-      <c r="C300">
+      <c r="C299" t="n">
         <v>0.6914194842010648</v>
       </c>
-      <c r="D300">
+      <c r="D299" t="n">
         <v>92031390444.58273</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B301">
+      <c r="B300" t="n">
         <v>134703000000</v>
       </c>
-      <c r="C301">
+      <c r="C300" t="n">
         <v>0.7017543859649122</v>
       </c>
-      <c r="D301">
+      <c r="D300" t="n">
         <v>94528421052.63158</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B302">
+      <c r="B301" t="n">
         <v>136207000000</v>
       </c>
-      <c r="C302">
+      <c r="C301" t="n">
         <v>0.7159733657907925</v>
       </c>
-      <c r="D302">
+      <c r="D301" t="n">
         <v>97520584234.26648</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B303">
+      <c r="B302" t="n">
         <v>139067000000</v>
       </c>
-      <c r="C303">
+      <c r="C302" t="n">
         <v>0.7410701052319549</v>
       </c>
-      <c r="D303">
+      <c r="D302" t="n">
         <v>103058396324.2923</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B304">
+      <c r="B303" t="n">
         <v>139023000000</v>
       </c>
-      <c r="C304">
+      <c r="C303" t="n">
         <v>0.7367025195226168</v>
       </c>
-      <c r="D304">
+      <c r="D303" t="n">
         <v>102418594371.5928</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B305">
+      <c r="B304" t="n">
         <v>140101000000</v>
       </c>
-      <c r="C305">
+      <c r="C304" t="n">
         <v>0.7720219254226821</v>
       </c>
-      <c r="D305">
+      <c r="D304" t="n">
         <v>108161043773.6432</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B306">
+      <c r="B305" t="n">
         <v>140604000000</v>
       </c>
-      <c r="C306">
+      <c r="C305" t="n">
         <v>0.7613826709304097</v>
       </c>
-      <c r="D306">
+      <c r="D305" t="n">
         <v>107053449063.4993</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B307">
+      <c r="B306" t="n">
         <v>139973000000</v>
       </c>
-      <c r="C307">
+      <c r="C306" t="n">
         <v>0.7040270346381301</v>
       </c>
-      <c r="D307">
+      <c r="D306" t="n">
         <v>98544776119.40298</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B308">
+      <c r="B307" t="n">
         <v>142924000000</v>
       </c>
-      <c r="C308">
+      <c r="C307" t="n">
         <v>0.7580351728320195</v>
       </c>
-      <c r="D308">
+      <c r="D307" t="n">
         <v>108341419041.8436</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B309">
+      <c r="B308" t="n">
         <v>144156000000</v>
       </c>
-      <c r="C309">
+      <c r="C308" t="n">
         <v>0.772499034376207</v>
       </c>
-      <c r="D309">
+      <c r="D308" t="n">
         <v>111360370799.5365</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B310">
+      <c r="B309" t="n">
         <v>144974000000</v>
       </c>
-      <c r="C310">
+      <c r="C309" t="n">
         <v>0.7648183556405354</v>
       </c>
-      <c r="D310">
+      <c r="D309" t="n">
         <v>110878776290.631</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B311">
+      <c r="B310" t="n">
         <v>147844000000</v>
       </c>
-      <c r="C311">
+      <c r="C310" t="n">
         <v>0.7654037504783774</v>
       </c>
-      <c r="D311">
+      <c r="D310" t="n">
         <v>113160352085.7252</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B312">
+      <c r="B311" t="n">
         <v>149145000000</v>
       </c>
-      <c r="C312">
+      <c r="C311" t="n">
         <v>0.7885813421654444</v>
       </c>
-      <c r="D312">
+      <c r="D311" t="n">
         <v>117612964277.2652</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B313">
+      <c r="B312" t="n">
         <v>148054000000</v>
       </c>
-      <c r="C313">
+      <c r="C312" t="n">
         <v>0.7991688643810436</v>
       </c>
-      <c r="D313">
+      <c r="D312" t="n">
         <v>118320147047.071</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B314">
+      <c r="B313" t="n">
         <v>151479000000</v>
       </c>
-      <c r="C314">
+      <c r="C313" t="n">
         <v>0.7857311228097745</v>
       </c>
-      <c r="D314">
+      <c r="D313" t="n">
         <v>119021764752.1018</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B315">
+      <c r="B314" t="n">
         <v>151507000000</v>
       </c>
-      <c r="C315">
+      <c r="C314" t="n">
         <v>0.7821666014861166</v>
       </c>
-      <c r="D315">
+      <c r="D314" t="n">
         <v>118503715291.3571</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B316">
+      <c r="B315" t="n">
         <v>152157000000</v>
       </c>
-      <c r="C316">
+      <c r="C315" t="n">
         <v>0.7838219156607619</v>
       </c>
-      <c r="D316">
+      <c r="D315" t="n">
         <v>119263991221.1945</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B317">
+      <c r="B316" t="n">
         <v>154052000000</v>
       </c>
-      <c r="C317">
+      <c r="C316" t="n">
         <v>0.7620789513793629</v>
       </c>
-      <c r="D317">
+      <c r="D316" t="n">
         <v>117399786617.8936</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B318">
+      <c r="B317" t="n">
         <v>154528000000</v>
       </c>
-      <c r="C318">
+      <c r="C317" t="n">
         <v>0.7336218912772358</v>
       </c>
-      <c r="D318">
+      <c r="D317" t="n">
         <v>113365123615.2887</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B319">
+      <c r="B318" t="n">
         <v>155108000000</v>
       </c>
-      <c r="C319">
+      <c r="C318" t="n">
         <v>0.702247191011236</v>
       </c>
-      <c r="D319">
+      <c r="D318" t="n">
         <v>108924157303.3708</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B320">
+      <c r="B319" t="n">
         <v>156430000000</v>
       </c>
-      <c r="C320">
+      <c r="C319" t="n">
         <v>0.6715916722632639</v>
       </c>
-      <c r="D320">
+      <c r="D319" t="n">
         <v>105057085292.1424</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B321">
+      <c r="B320" t="n">
         <v>158344000000</v>
       </c>
-      <c r="C321">
+      <c r="C320" t="n">
         <v>0.583056381552096</v>
       </c>
-      <c r="D321">
+      <c r="D320" t="n">
         <v>92323479680.48509</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B322">
+      <c r="B321" t="n">
         <v>160333000000</v>
       </c>
-      <c r="C322">
+      <c r="C321" t="n">
         <v>0.5493599956051201</v>
       </c>
-      <c r="D322">
+      <c r="D321" t="n">
         <v>88080536175.35571</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B323">
+      <c r="B322" t="n">
         <v>160893000000</v>
       </c>
-      <c r="C323">
+      <c r="C322" t="n">
         <v>0.5782017924255565</v>
       </c>
-      <c r="D323">
+      <c r="D322" t="n">
         <v>93028620988.72505</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B324">
+      <c r="B323" t="n">
         <v>158009000000</v>
       </c>
-      <c r="C324">
+      <c r="C323" t="n">
         <v>0.508440105755542</v>
       </c>
-      <c r="D324">
+      <c r="D323" t="n">
         <v>80338112670.32744</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B325">
+      <c r="B324" t="n">
         <v>159746000000</v>
       </c>
-      <c r="C325">
+      <c r="C324" t="n">
         <v>0.5003752814610959</v>
       </c>
-      <c r="D325">
+      <c r="D324" t="n">
         <v>79932949712.28423</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B326">
+      <c r="B325" t="n">
         <v>159188000000</v>
       </c>
-      <c r="C326">
+      <c r="C325" t="n">
         <v>0.5603182607721185</v>
       </c>
-      <c r="D326">
+      <c r="D325" t="n">
         <v>89195943295.79201</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B327">
+      <c r="B326" t="n">
         <v>159673000000</v>
       </c>
-      <c r="C327">
+      <c r="C326" t="n">
         <v>0.5646208570944611</v>
       </c>
-      <c r="D327">
+      <c r="D326" t="n">
         <v>90154706114.84389</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B328">
+      <c r="B327" t="n">
         <v>158329000000</v>
       </c>
-      <c r="C328">
+      <c r="C327" t="n">
         <v>0.6402868485081316</v>
       </c>
-      <c r="D328">
+      <c r="D327" t="n">
         <v>101375976437.444</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B329">
+      <c r="B328" t="n">
         <v>157910000000</v>
       </c>
-      <c r="C329">
+      <c r="C328" t="n">
         <v>0.6457445434586078</v>
       </c>
-      <c r="D329">
+      <c r="D328" t="n">
         <v>101969520857.5488</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B330">
+      <c r="B329" t="n">
         <v>158591000000</v>
       </c>
-      <c r="C330">
+      <c r="C329" t="n">
         <v>0.6620324395895399</v>
       </c>
-      <c r="D330">
+      <c r="D329" t="n">
         <v>104992386626.9447</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B331">
+      <c r="B330" t="n">
         <v>157915000000</v>
       </c>
-      <c r="C331">
+      <c r="C330" t="n">
         <v>0.6853539853334247</v>
       </c>
-      <c r="D331">
+      <c r="D330" t="n">
         <v>108227674593.9278</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B332">
+      <c r="B331" t="n">
         <v>158781000000</v>
       </c>
-      <c r="C332">
+      <c r="C331" t="n">
         <v>0.7233796296296295</v>
       </c>
-      <c r="D332">
+      <c r="D331" t="n">
         <v>114858940972.2222</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B333">
+      <c r="B332" t="n">
         <v>158790000000</v>
       </c>
-      <c r="C333">
+      <c r="C332" t="n">
         <v>0.7175660160734788</v>
       </c>
-      <c r="D333">
+      <c r="D332" t="n">
         <v>113942307692.3077</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B334">
+      <c r="B333" t="n">
         <v>160392000000</v>
       </c>
-      <c r="C334">
+      <c r="C333" t="n">
         <v>0.7161784716751414</v>
       </c>
-      <c r="D334">
+      <c r="D333" t="n">
         <v>114869297428.9193</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B335">
+      <c r="B334" t="n">
         <v>163056000000</v>
       </c>
-      <c r="C335">
+      <c r="C334" t="n">
         <v>0.7235366471311772</v>
       </c>
-      <c r="D335">
+      <c r="D334" t="n">
         <v>117976991534.6212</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B336">
+      <c r="B335" t="n">
         <v>160311000000</v>
       </c>
-      <c r="C336">
+      <c r="C335" t="n">
         <v>0.701508242721852</v>
       </c>
-      <c r="D336">
+      <c r="D335" t="n">
         <v>112459487898.9828</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B337">
+      <c r="B336" t="n">
         <v>160875000000</v>
       </c>
-      <c r="C337">
+      <c r="C336" t="n">
         <v>0.6983727913960472</v>
       </c>
-      <c r="D337">
+      <c r="D336" t="n">
         <v>112350722815.8391</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B338">
+      <c r="B337" t="n">
         <v>161647000000</v>
       </c>
-      <c r="C338">
+      <c r="C337" t="n">
         <v>0.7107825716113441</v>
       </c>
-      <c r="D338">
+      <c r="D337" t="n">
         <v>114895870353.2589</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B339">
+      <c r="B338" t="n">
         <v>163862000000</v>
       </c>
-      <c r="C339">
+      <c r="C338" t="n">
         <v>0.7272727272727273</v>
       </c>
-      <c r="D339">
+      <c r="D338" t="n">
         <v>119172363636.3636</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B340">
+      <c r="B339" t="n">
         <v>162781000000</v>
       </c>
-      <c r="C340">
+      <c r="C339" t="n">
         <v>0.6824541049614413</v>
       </c>
-      <c r="D340">
+      <c r="D339" t="n">
         <v>111090561659.7284</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B341">
+      <c r="B340" t="n">
         <v>161316000000</v>
       </c>
-      <c r="C341">
+      <c r="C340" t="n">
         <v>0.6854009595613434</v>
       </c>
-      <c r="D341">
+      <c r="D340" t="n">
         <v>110566141192.5977</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B342">
+      <c r="B341" t="n">
         <v>162437000000</v>
       </c>
-      <c r="C342">
+      <c r="C341" t="n">
         <v>0.726321905868681</v>
       </c>
-      <c r="D342">
+      <c r="D341" t="n">
         <v>117981551423.5909</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B343">
+      <c r="B342" t="n">
         <v>162917000000</v>
       </c>
-      <c r="C343">
+      <c r="C342" t="n">
         <v>0.699839037021485</v>
       </c>
-      <c r="D343">
+      <c r="D342" t="n">
         <v>114015676394.4293</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B344">
+      <c r="B343" t="n">
         <v>164178000000</v>
       </c>
-      <c r="C344">
+      <c r="C343" t="n">
         <v>0.7341604874825637</v>
       </c>
-      <c r="D344">
+      <c r="D343" t="n">
         <v>120533000513.9123</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B345">
+      <c r="B344" t="n">
         <v>166485000000</v>
       </c>
-      <c r="C345">
+      <c r="C344" t="n">
         <v>0.7666947788085563</v>
       </c>
-      <c r="D345">
+      <c r="D344" t="n">
         <v>127643180249.9425</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B346">
+      <c r="B345" t="n">
         <v>167970000000</v>
       </c>
-      <c r="C346">
+      <c r="C345" t="n">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D346">
+      <c r="D345" t="n">
         <v>124764168461.7099</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B347">
+      <c r="B346" t="n">
         <v>171217000000</v>
       </c>
-      <c r="C347">
+      <c r="C346" t="n">
         <v>0.7803964413922272</v>
       </c>
-      <c r="D347">
+      <c r="D346" t="n">
         <v>133617137505.853</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B348">
+      <c r="B347" t="n">
         <v>171348000000</v>
       </c>
-      <c r="C348">
+      <c r="C347" t="n">
         <v>0.7729169887154119</v>
       </c>
-      <c r="D348">
+      <c r="D347" t="n">
         <v>132437780182.4084</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B349">
+      <c r="B348" t="n">
         <v>172374000000</v>
       </c>
-      <c r="C349">
+      <c r="C348" t="n">
         <v>0.7526719855486979</v>
       </c>
-      <c r="D349">
+      <c r="D348" t="n">
         <v>129741080836.9712</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B350">
+      <c r="B349" t="n">
         <v>174074000000</v>
       </c>
-      <c r="C350">
+      <c r="C349" t="n">
         <v>0.7614986293024673</v>
       </c>
-      <c r="D350">
+      <c r="D349" t="n">
         <v>132557112397.1977</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B351">
+      <c r="B350" t="n">
         <v>176860000000</v>
       </c>
-      <c r="C351">
+      <c r="C350" t="n">
         <v>0.8101758081503687</v>
       </c>
-      <c r="D351">
+      <c r="D350" t="n">
         <v>143287693429.4742</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B352">
+      <c r="B351" t="n">
         <v>175745000000</v>
       </c>
-      <c r="C352">
+      <c r="C351" t="n">
         <v>0.823519723297373</v>
       </c>
-      <c r="D352">
+      <c r="D351" t="n">
         <v>144729473770.8968</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B353">
+      <c r="B352" t="n">
         <v>176466000000</v>
       </c>
-      <c r="C353">
+      <c r="C352" t="n">
         <v>0.8285690612312535</v>
       </c>
-      <c r="D353">
+      <c r="D352" t="n">
         <v>146214267959.2344</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B354">
+      <c r="B353" t="n">
         <v>176967000000</v>
       </c>
-      <c r="C354">
+      <c r="C353" t="n">
         <v>0.8798169980644026</v>
       </c>
-      <c r="D354">
+      <c r="D353" t="n">
         <v>155698574696.4631</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B355">
+      <c r="B354" t="n">
         <v>175197000000</v>
       </c>
-      <c r="C355">
+      <c r="C354" t="n">
         <v>0.8538251366120219</v>
       </c>
-      <c r="D355">
+      <c r="D354" t="n">
         <v>149587602459.0164</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B356">
+      <c r="B355" t="n">
         <v>175793000000</v>
       </c>
-      <c r="C356">
+      <c r="C355" t="n">
         <v>0.7612667478684531</v>
       </c>
-      <c r="D356">
+      <c r="D355" t="n">
         <v>133825365408.039</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B357">
+      <c r="B356" t="n">
         <v>179139000000</v>
       </c>
-      <c r="C357">
+      <c r="C356" t="n">
         <v>0.8076239702794379</v>
       </c>
-      <c r="D357">
+      <c r="D356" t="n">
         <v>144676950411.8882</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B358">
+      <c r="B357" t="n">
         <v>181904000000</v>
       </c>
-      <c r="C358">
+      <c r="C357" t="n">
         <v>0.7808229874287499</v>
       </c>
-      <c r="D358">
+      <c r="D357" t="n">
         <v>142034824705.2393</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B359">
+      <c r="B358" t="n">
         <v>184189000000</v>
       </c>
-      <c r="C359">
+      <c r="C358" t="n">
         <v>0.7774236181295188</v>
       </c>
-      <c r="D359">
+      <c r="D358" t="n">
         <v>143192878799.6579</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B360">
+      <c r="B359" t="n">
         <v>182820000000</v>
       </c>
-      <c r="C360">
+      <c r="C359" t="n">
         <v>0.8272667107875579</v>
       </c>
-      <c r="D360">
+      <c r="D359" t="n">
         <v>151240900066.1813</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B361">
+      <c r="B360" t="n">
         <v>184386000000</v>
       </c>
-      <c r="C361">
+      <c r="C360" t="n">
         <v>0.8343763037129747</v>
       </c>
-      <c r="D361">
+      <c r="D360" t="n">
         <v>153847309136.4205</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2">
+    <row r="361">
+      <c r="A361" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B362">
+      <c r="B361" t="n">
         <v>186446000000</v>
       </c>
-      <c r="C362">
+      <c r="C361" t="n">
         <v>0.8196049504139006</v>
       </c>
-      <c r="D362">
+      <c r="D361" t="n">
         <v>152812064584.8701</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2">
+    <row r="362">
+      <c r="A362" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B363">
+      <c r="B362" t="n">
         <v>189365000000</v>
       </c>
-      <c r="C363">
+      <c r="C362" t="n">
         <v>0.8188666885031116</v>
       </c>
-      <c r="D363">
+      <c r="D362" t="n">
         <v>155064690468.3917</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2">
+    <row r="363">
+      <c r="A363" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B364">
+      <c r="B363" t="n">
         <v>188392000000</v>
       </c>
-      <c r="C364">
+      <c r="C363" t="n">
         <v>0.7534091765237702</v>
       </c>
-      <c r="D364">
+      <c r="D363" t="n">
         <v>141936261583.6661</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2">
+    <row r="364">
+      <c r="A364" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B365">
+      <c r="B364" t="n">
         <v>188815000000</v>
       </c>
-      <c r="C365">
+      <c r="C364" t="n">
         <v>0.8019889325527308</v>
       </c>
-      <c r="D365">
+      <c r="D364" t="n">
         <v>151427540299.9439</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2">
+    <row r="365">
+      <c r="A365" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B366">
+      <c r="B365" t="n">
         <v>192301000000</v>
       </c>
-      <c r="C366">
+      <c r="C365" t="n">
         <v>0.8090614886731392</v>
       </c>
-      <c r="D366">
+      <c r="D365" t="n">
         <v>155583333333.3333</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
+    <row r="366">
+      <c r="A366" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B367">
+      <c r="B366" t="n">
         <v>190755000000</v>
       </c>
-      <c r="C367">
+      <c r="C366" t="n">
         <v>0.8037939072421831</v>
       </c>
-      <c r="D367">
+      <c r="D366" t="n">
         <v>153327706775.9826</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
+    <row r="367">
+      <c r="A367" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B368">
+      <c r="B367" t="n">
         <v>191522000000</v>
       </c>
-      <c r="C368">
+      <c r="C367" t="n">
         <v>0.8301510874979247</v>
       </c>
-      <c r="D368">
+      <c r="D367" t="n">
         <v>158992196579.7775</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
+    <row r="368">
+      <c r="A368" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B369">
+      <c r="B368" t="n">
         <v>192689000000</v>
       </c>
-      <c r="C369">
+      <c r="C368" t="n">
         <v>0.8227067050596463</v>
       </c>
-      <c r="D369">
+      <c r="D368" t="n">
         <v>158526532291.2382</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
+    <row r="369">
+      <c r="A369" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B370">
+      <c r="B369" t="n">
         <v>196035000000</v>
       </c>
-      <c r="C370">
+      <c r="C369" t="n">
         <v>0.8204791598293403</v>
       </c>
-      <c r="D370">
+      <c r="D369" t="n">
         <v>160842632097.1447</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
+    <row r="370">
+      <c r="A370" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B371">
+      <c r="B370" t="n">
         <v>200631000000</v>
       </c>
-      <c r="C371">
+      <c r="C370" t="n">
         <v>0.8289811821271658</v>
       </c>
-      <c r="D371">
+      <c r="D370" t="n">
         <v>166319323551.3554</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
+    <row r="371">
+      <c r="A371" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B372">
+      <c r="B371" t="n">
         <v>199518000000</v>
       </c>
-      <c r="C372">
+      <c r="C371" t="n">
         <v>0.839278220730172</v>
       </c>
-      <c r="D372">
+      <c r="D371" t="n">
         <v>167451112043.6425</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
+    <row r="372">
+      <c r="A372" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B373">
+      <c r="B372" t="n">
         <v>201848000000</v>
       </c>
-      <c r="C373">
+      <c r="C372" t="n">
         <v>0.8251505899826719</v>
       </c>
-      <c r="D373">
+      <c r="D372" t="n">
         <v>166554996286.8224</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
+    <row r="373">
+      <c r="A373" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B374">
+      <c r="B373" t="n">
         <v>203856000000</v>
       </c>
-      <c r="C374">
+      <c r="C373" t="n">
         <v>0.8375910880308234</v>
       </c>
-      <c r="D374">
+      <c r="D373" t="n">
         <v>170747968841.6115</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B375">
+      <c r="B374" t="n">
         <v>205362000000</v>
       </c>
-      <c r="C375">
+      <c r="C374" t="n">
         <v>0.8568980291345329</v>
       </c>
-      <c r="D375">
+      <c r="D374" t="n">
         <v>175974293059.1259</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
+    <row r="375">
+      <c r="A375" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B376">
+      <c r="B375" t="n">
         <v>206244000000</v>
       </c>
-      <c r="C376">
+      <c r="C375" t="n">
         <v>0.7941550190597204</v>
       </c>
-      <c r="D376">
+      <c r="D375" t="n">
         <v>163789707750.953</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
+    <row r="376">
+      <c r="A376" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B377">
+      <c r="B376" t="n">
         <v>205153000000</v>
       </c>
-      <c r="C377">
+      <c r="C376" t="n">
         <v>0.7739938080495355</v>
       </c>
-      <c r="D377">
+      <c r="D376" t="n">
         <v>158787151702.7864</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
+    <row r="377">
+      <c r="A377" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B378">
+      <c r="B377" t="n">
         <v>208329000000</v>
       </c>
-      <c r="C378">
+      <c r="C377" t="n">
         <v>0.7981482959533882</v>
       </c>
-      <c r="D378">
+      <c r="D377" t="n">
         <v>166277436347.6734</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
+    <row r="378">
+      <c r="A378" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B379">
+      <c r="B378" t="n">
         <v>209263000000</v>
       </c>
-      <c r="C379">
+      <c r="C378" t="n">
         <v>0.7725587144622992</v>
       </c>
-      <c r="D379">
+      <c r="D378" t="n">
         <v>161667954264.5241</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
+    <row r="379">
+      <c r="A379" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B380">
+      <c r="B379" t="n">
         <v>210802000000</v>
       </c>
-      <c r="C380">
+      <c r="C379" t="n">
         <v>0.8302889405513119</v>
       </c>
-      <c r="D380">
+      <c r="D379" t="n">
         <v>175026569246.0977</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
+    <row r="380">
+      <c r="A380" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B381">
+      <c r="B380" t="n">
         <v>211633000000</v>
       </c>
-      <c r="C381">
+      <c r="C380" t="n">
         <v>0.8258320257659592</v>
       </c>
-      <c r="D381">
+      <c r="D380" t="n">
         <v>174773309108.9272</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
+    <row r="381">
+      <c r="A381" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B382">
+      <c r="B381" t="n">
         <v>214001000000</v>
       </c>
-      <c r="C382">
+      <c r="C381" t="n">
         <v>0.8127438231469442</v>
       </c>
-      <c r="D382">
+      <c r="D381" t="n">
         <v>173927990897.2692</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
+    <row r="382">
+      <c r="A382" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B383">
+      <c r="B382" t="n">
         <v>216074000000</v>
       </c>
-      <c r="C383">
+      <c r="C382" t="n">
         <v>0.8220979940808945</v>
       </c>
-      <c r="D383">
+      <c r="D382" t="n">
         <v>177634001973.0352</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
+    <row r="383">
+      <c r="A383" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B384">
+      <c r="B383" t="n">
         <v>216142000000</v>
       </c>
-      <c r="C384">
+      <c r="C383" t="n">
         <v>0.8087343307723414</v>
       </c>
-      <c r="D384">
+      <c r="D383" t="n">
         <v>174801455721.7954</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
+    <row r="384">
+      <c r="A384" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B385">
+      <c r="B384" t="n">
         <v>218953000000</v>
       </c>
-      <c r="C385">
+      <c r="C384" t="n">
         <v>0.8389261744966443</v>
       </c>
-      <c r="D385">
+      <c r="D384" t="n">
         <v>183685402684.5638</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
+    <row r="385">
+      <c r="A385" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B386">
+      <c r="B385" t="n">
         <v>218025000000</v>
       </c>
-      <c r="C386">
+      <c r="C385" t="n">
         <v>0.8677542519958347</v>
       </c>
-      <c r="D386">
+      <c r="D385" t="n">
         <v>189192120791.3918</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
+    <row r="386">
+      <c r="A386" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B387">
+      <c r="B386" t="n">
         <v>220662000000</v>
       </c>
-      <c r="C387">
+      <c r="C386" t="n">
         <v>0.8618460742911315</v>
       </c>
-      <c r="D387">
+      <c r="D386" t="n">
         <v>190176678445.2296</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
+    <row r="387">
+      <c r="A387" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B388">
+      <c r="B387" t="n">
         <v>220034000000</v>
       </c>
-      <c r="C388">
+      <c r="C387" t="n">
         <v>0.8503401360544218</v>
       </c>
-      <c r="D388">
+      <c r="D387" t="n">
         <v>187103741496.5987</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
+    <row r="388">
+      <c r="A388" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B389">
+      <c r="B388" t="n">
         <v>220294000000</v>
       </c>
-      <c r="C389">
+      <c r="C388" t="n">
         <v>0.876577840112202</v>
       </c>
-      <c r="D389">
+      <c r="D388" t="n">
         <v>193104838709.6774</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
+    <row r="389">
+      <c r="A389" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B390">
+      <c r="B389" t="n">
         <v>221761000000</v>
       </c>
-      <c r="C390">
+      <c r="C389" t="n">
         <v>0.8502678343678259</v>
       </c>
-      <c r="D390">
+      <c r="D389" t="n">
         <v>188556245217.2434</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B391">
+      <c r="B390" t="n">
         <v>222495000000</v>
       </c>
-      <c r="C391">
+      <c r="C390" t="n">
         <v>0.8366100560528738</v>
       </c>
-      <c r="D391">
+      <c r="D390" t="n">
         <v>186141554421.4841</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
+    <row r="391">
+      <c r="A391" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B392">
+      <c r="B391" t="n">
         <v>224916000000</v>
       </c>
-      <c r="C392">
+      <c r="C391" t="n">
         <v>0.7815552950371238</v>
       </c>
-      <c r="D392">
+      <c r="D391" t="n">
         <v>175784290738.5697</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="2">
+    <row r="392">
+      <c r="A392" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B393">
+      <c r="B392" t="n">
         <v>225561000000</v>
       </c>
-      <c r="C393">
+      <c r="C392" t="n">
         <v>0.7793624814901411</v>
       </c>
-      <c r="D393">
+      <c r="D392" t="n">
         <v>175793780687.3977</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2">
+    <row r="393">
+      <c r="A393" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B394">
+      <c r="B393" t="n">
         <v>228548000000</v>
       </c>
-      <c r="C394">
+      <c r="C393" t="n">
         <v>0.7842522155125089</v>
       </c>
-      <c r="D394">
+      <c r="D393" t="n">
         <v>179239275350.9529</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2">
+    <row r="394">
+      <c r="A394" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B395">
+      <c r="B394" t="n">
         <v>230571000000</v>
       </c>
-      <c r="C395">
+      <c r="C394" t="n">
         <v>0.779666302822392</v>
       </c>
-      <c r="D395">
+      <c r="D394" t="n">
         <v>179768439108.0617</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="2">
+    <row r="395">
+      <c r="A395" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B396">
+      <c r="B395" t="n">
         <v>230155000000</v>
       </c>
-      <c r="C396">
+      <c r="C395" t="n">
         <v>0.7260582298700355</v>
       </c>
-      <c r="D396">
+      <c r="D395" t="n">
         <v>167105931895.738</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="2">
+    <row r="396">
+      <c r="A396" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B397">
+      <c r="B396" t="n">
         <v>233043000000</v>
       </c>
-      <c r="C397">
+      <c r="C396" t="n">
         <v>0.7567731194187983</v>
       </c>
-      <c r="D397">
+      <c r="D396" t="n">
         <v>176360678068.715</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="2">
+    <row r="397">
+      <c r="A397" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B398">
+      <c r="B397" t="n">
         <v>236828000000</v>
       </c>
-      <c r="C398">
+      <c r="C397" t="n">
         <v>0.7472166180975864</v>
       </c>
-      <c r="D398">
+      <c r="D397" t="n">
         <v>176961817230.8152</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="2">
+    <row r="398">
+      <c r="A398" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B399">
+      <c r="B398" t="n">
         <v>238569000000</v>
       </c>
-      <c r="C399">
+      <c r="C398" t="n">
         <v>0.7609770945894528</v>
       </c>
-      <c r="D399">
+      <c r="D398" t="n">
         <v>181545544479.1112</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="2">
+    <row r="399">
+      <c r="A399" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B400">
+      <c r="B399" t="n">
         <v>237679000000</v>
       </c>
-      <c r="C400">
+      <c r="C399" t="n">
         <v>0.7109341674960898</v>
       </c>
-      <c r="D400">
+      <c r="D399" t="n">
         <v>168974121996.3031</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="2">
+    <row r="400">
+      <c r="A400" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B401">
+      <c r="B400" t="n">
         <v>240683000000</v>
       </c>
-      <c r="C401">
+      <c r="C400" t="n">
         <v>0.6779201410073893</v>
       </c>
-      <c r="D401">
+      <c r="D400" t="n">
         <v>163163853298.0815</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2">
+    <row r="401">
+      <c r="A401" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B402">
+      <c r="B401" t="n">
         <v>243516000000</v>
       </c>
-      <c r="C402">
+      <c r="C401" t="n">
         <v>0.6592392379194411</v>
       </c>
-      <c r="D402">
+      <c r="D401" t="n">
         <v>160535302261.1906</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2">
+    <row r="402">
+      <c r="A402" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B403">
+      <c r="B402" t="n">
         <v>243435000000</v>
       </c>
-      <c r="C403">
+      <c r="C402" t="n">
         <v>0.6347594261774788</v>
       </c>
-      <c r="D403">
+      <c r="D402" t="n">
         <v>154522660911.5146</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2">
+    <row r="403">
+      <c r="A403" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B404">
+      <c r="B403" t="n">
         <v>245301000000</v>
       </c>
-      <c r="C404">
+      <c r="C403" t="n">
         <v>0.6401638819537802</v>
       </c>
-      <c r="D404">
+      <c r="D403" t="n">
         <v>157032840407.1442</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2">
+    <row r="404">
+      <c r="A404" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B405">
+      <c r="B404" t="n">
         <v>245876000000</v>
       </c>
-      <c r="C405">
+      <c r="C404" t="n">
         <v>0.6779661016949152</v>
       </c>
-      <c r="D405">
+      <c r="D404" t="n">
         <v>166695593220.339</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2">
+    <row r="405">
+      <c r="A405" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B406">
+      <c r="B405" t="n">
         <v>251168000000</v>
       </c>
-      <c r="C406">
+      <c r="C405" t="n">
         <v>0.6588483331137172</v>
       </c>
-      <c r="D406">
+      <c r="D405" t="n">
         <v>165481618131.5061</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2">
+    <row r="406">
+      <c r="A406" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B407">
+      <c r="B406" t="n">
         <v>253283000000</v>
       </c>
-      <c r="C407">
+      <c r="C406" t="n">
         <v>0.6832467887400929</v>
       </c>
-      <c r="D407">
+      <c r="D406" t="n">
         <v>173054796392.457</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2">
+    <row r="407">
+      <c r="A407" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B408">
+      <c r="B407" t="n">
         <v>252048000000</v>
       </c>
-      <c r="C408">
+      <c r="C407" t="n">
         <v>0.6485504896556197</v>
       </c>
-      <c r="D408">
+      <c r="D407" t="n">
         <v>163465853816.7196</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2">
+    <row r="408">
+      <c r="A408" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B409">
+      <c r="B408" t="n">
         <v>255151000000</v>
       </c>
-      <c r="C409">
+      <c r="C408" t="n">
         <v>0.6592827004219409</v>
       </c>
-      <c r="D409">
+      <c r="D408" t="n">
         <v>168216640295.3586</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2">
+    <row r="409">
+      <c r="A409" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B410">
+      <c r="B409" t="n">
         <v>258960000000</v>
       </c>
-      <c r="C410">
+      <c r="C409" t="n">
         <v>0.691945751453086</v>
       </c>
-      <c r="D410">
+      <c r="D409" t="n">
         <v>179186271796.2912</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2">
+    <row r="410">
+      <c r="A410" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B411">
+      <c r="B410" t="n">
         <v>262111000000</v>
       </c>
-      <c r="C411">
+      <c r="C410" t="n">
         <v>0.6982752601075344</v>
       </c>
-      <c r="D411">
+      <c r="D410" t="n">
         <v>183025626702.0459</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2">
+    <row r="411">
+      <c r="A411" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B412">
+      <c r="B411" t="n">
         <v>260867000000</v>
       </c>
-      <c r="C412">
+      <c r="C411" t="n">
         <v>0.6766815536608473</v>
       </c>
-      <c r="D412">
+      <c r="D411" t="n">
         <v>176523886858.8442</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2">
+    <row r="412">
+      <c r="A412" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B413">
+      <c r="B412" t="n">
         <v>261594000000</v>
       </c>
-      <c r="C413">
+      <c r="C412" t="n">
         <v>0.7132158904500393</v>
       </c>
-      <c r="D413">
+      <c r="D412" t="n">
         <v>186572997646.3876</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2">
+    <row r="413">
+      <c r="A413" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B414">
+      <c r="B413" t="n">
         <v>264903000000</v>
       </c>
-      <c r="C414">
+      <c r="C413" t="n">
         <v>0.7211365111415591</v>
       </c>
-      <c r="D414">
+      <c r="D413" t="n">
         <v>191031225210.9324</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2">
+    <row r="414">
+      <c r="A414" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B415">
+      <c r="B414" t="n">
         <v>263346000000</v>
       </c>
-      <c r="C415">
+      <c r="C414" t="n">
         <v>0.7248477819657873</v>
       </c>
-      <c r="D415">
+      <c r="D414" t="n">
         <v>190885763989.5622</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2">
+    <row r="415">
+      <c r="A415" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B416">
+      <c r="B415" t="n">
         <v>262940000000</v>
       </c>
-      <c r="C416">
+      <c r="C415" t="n">
         <v>0.7290755322251385</v>
       </c>
-      <c r="D416">
+      <c r="D415" t="n">
         <v>191703120443.2779</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="2">
+    <row r="416">
+      <c r="A416" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B417">
+      <c r="B416" t="n">
         <v>267649000000</v>
       </c>
-      <c r="C417">
+      <c r="C416" t="n">
         <v>0.7151541157119359</v>
       </c>
-      <c r="D417">
+      <c r="D416" t="n">
         <v>191410283916.1839</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="2">
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B418">
+      <c r="B417" t="n">
         <v>269673000000</v>
       </c>
-      <c r="C418">
+      <c r="C417" t="n">
         <v>0.7084661707403471</v>
       </c>
-      <c r="D418">
+      <c r="D417" t="n">
         <v>191054197662.0616</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="2">
+    <row r="418">
+      <c r="A418" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B419">
+      <c r="B418" t="n">
         <v>272689000000</v>
       </c>
-      <c r="C419">
+      <c r="C418" t="n">
         <v>0.6930967563071805</v>
       </c>
-      <c r="D419">
+      <c r="D418" t="n">
         <v>188999861380.6487</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="2">
+    <row r="419">
+      <c r="A419" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B420">
+      <c r="B419" t="n">
         <v>270611000000</v>
       </c>
-      <c r="C420">
+      <c r="C419" t="n">
         <v>0.731368390258173</v>
       </c>
-      <c r="D420">
+      <c r="D419" t="n">
         <v>197916331456.1544</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="2">
+    <row r="420">
+      <c r="A420" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B421">
+      <c r="B420" t="n">
         <v>271696000000</v>
       </c>
-      <c r="C421">
+      <c r="C420" t="n">
         <v>0.7195797654169965</v>
       </c>
-      <c r="D421">
+      <c r="D420" t="n">
         <v>195506943944.7363</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="2">
+    <row r="421">
+      <c r="A421" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B422">
+      <c r="B421" t="n">
         <v>275412000000</v>
       </c>
-      <c r="C422">
+      <c r="C421" t="n">
         <v>0.7008199593524423</v>
       </c>
-      <c r="D422">
+      <c r="D421" t="n">
         <v>193014226645.1749</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="2">
+    <row r="422">
+      <c r="A422" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B423">
+      <c r="B422" t="n">
         <v>278067000000</v>
       </c>
-      <c r="C423">
+      <c r="C422" t="n">
         <v>0.6869547296833138</v>
       </c>
-      <c r="D423">
+      <c r="D422" t="n">
         <v>191019440818.85</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="2">
+    <row r="423">
+      <c r="A423" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B424">
+      <c r="B423" t="n">
         <v>276620000000</v>
       </c>
-      <c r="C424">
+      <c r="C423" t="n">
         <v>0.7086167800453514</v>
       </c>
-      <c r="D424">
+      <c r="D423" t="n">
         <v>196017573696.1451</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="2">
+    <row r="424">
+      <c r="A424" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B425">
+      <c r="B424" t="n">
         <v>278031000000</v>
       </c>
-      <c r="C425">
+      <c r="C424" t="n">
         <v>0.7333528894103843</v>
       </c>
-      <c r="D425">
+      <c r="D424" t="n">
         <v>203894837195.6586</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="2">
+    <row r="425">
+      <c r="A425" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B426">
+      <c r="B425" t="n">
         <v>282011000000</v>
       </c>
-      <c r="C426">
+      <c r="C425" t="n">
         <v>0.7514841812579846</v>
       </c>
-      <c r="D426">
+      <c r="D425" t="n">
         <v>211926805440.7455</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="2">
+    <row r="426">
+      <c r="A426" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B427">
+      <c r="B426" t="n">
         <v>280572000000</v>
       </c>
-      <c r="C427">
+      <c r="C426" t="n">
         <v>0.7178235589692054</v>
       </c>
-      <c r="D427">
+      <c r="D426" t="n">
         <v>201401191587.1079</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="2">
+    <row r="427">
+      <c r="A427" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B428">
+      <c r="B427" t="n">
         <v>281276000000</v>
       </c>
-      <c r="C428">
+      <c r="C427" t="n">
         <v>0.7210325185665873</v>
       </c>
-      <c r="D428">
+      <c r="D427" t="n">
         <v>202809142692.3354</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="2">
+    <row r="428">
+      <c r="A428" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B429">
+      <c r="B428" t="n">
         <v>286487000000</v>
       </c>
-      <c r="C429">
+      <c r="C428" t="n">
         <v>0.6888001102080177</v>
       </c>
-      <c r="D429">
+      <c r="D428" t="n">
         <v>197332277173.1644</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="2">
+    <row r="429">
+      <c r="A429" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B430">
+      <c r="B429" t="n">
         <v>289389000000</v>
       </c>
-      <c r="C430">
+      <c r="C429" t="n">
         <v>0.6835737234260715</v>
       </c>
-      <c r="D430">
+      <c r="D429" t="n">
         <v>197818716248.5474</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="2">
+    <row r="430">
+      <c r="A430" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B431">
+      <c r="B430" t="n">
         <v>292600000000</v>
       </c>
-      <c r="C431">
+      <c r="C430" t="n">
         <v>0.7098239636570131</v>
       </c>
-      <c r="D431">
+      <c r="D430" t="n">
         <v>207694491766.042</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="2">
+    <row r="431">
+      <c r="A431" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B432">
+      <c r="B431" t="n">
         <v>290366000000</v>
       </c>
-      <c r="C432">
+      <c r="C431" t="n">
         <v>0.7368110816386678</v>
       </c>
-      <c r="D432">
+      <c r="D431" t="n">
         <v>213944886531.0934</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="2">
+    <row r="432">
+      <c r="A432" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B433">
+      <c r="B432" t="n">
         <v>292030000000</v>
       </c>
-      <c r="C433">
+      <c r="C432" t="n">
         <v>0.7210325185665873</v>
       </c>
-      <c r="D433">
+      <c r="D432" t="n">
         <v>210563126397.0005</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="2">
+    <row r="433">
+      <c r="A433" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B434">
+      <c r="B433" t="n">
         <v>295333000000</v>
       </c>
-      <c r="C434">
+      <c r="C433" t="n">
         <v>0.7245851749873197</v>
       </c>
-      <c r="D434">
+      <c r="D433" t="n">
         <v>213993913484.5301</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="2">
+    <row r="434">
+      <c r="A434" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B435">
+      <c r="B434" t="n">
         <v>297516000000</v>
       </c>
-      <c r="C435">
+      <c r="C434" t="n">
         <v>0.7037297677691766</v>
       </c>
-      <c r="D435">
+      <c r="D434" t="n">
         <v>209370865587.6143</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="2">
+    <row r="435">
+      <c r="A435" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B436">
+      <c r="B435" t="n">
         <v>295316000000</v>
       </c>
-      <c r="C436">
+      <c r="C435" t="n">
         <v>0.7000840100812098</v>
       </c>
-      <c r="D436">
+      <c r="D435" t="n">
         <v>206746009521.1425</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="2">
+    <row r="436">
+      <c r="A436" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B437">
+      <c r="B436" t="n">
         <v>297798000000</v>
       </c>
-      <c r="C437">
+      <c r="C436" t="n">
         <v>0.6769564040075818</v>
       </c>
-      <c r="D437">
+      <c r="D436" t="n">
         <v>201596263200.6498</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="2">
+    <row r="437">
+      <c r="A437" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B438">
+      <c r="B437" t="n">
         <v>301499000000</v>
       </c>
-      <c r="C438">
+      <c r="C437" t="n">
         <v>0.6818026863025841</v>
       </c>
-      <c r="D438">
+      <c r="D437" t="n">
         <v>205562828117.5428</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2">
+    <row r="438">
+      <c r="A438" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B439">
+      <c r="B438" t="n">
         <v>301799000000</v>
       </c>
-      <c r="C439">
+      <c r="C438" t="n">
         <v>0.6625149065853981</v>
       </c>
-      <c r="D439">
+      <c r="D438" t="n">
         <v>199946336292.5666</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2">
+    <row r="439">
+      <c r="A439" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B440">
+      <c r="B439" t="n">
         <v>302781000000</v>
       </c>
-      <c r="C440">
+      <c r="C439" t="n">
         <v>0.6620762711864407</v>
       </c>
-      <c r="D440">
+      <c r="D439" t="n">
         <v>200464115466.1017</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2">
+    <row r="440">
+      <c r="A440" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B441">
+      <c r="B440" t="n">
         <v>305435000000</v>
       </c>
-      <c r="C441">
+      <c r="C440" t="n">
         <v>0.6522306287503261</v>
       </c>
-      <c r="D441">
+      <c r="D440" t="n">
         <v>199214062092.3559</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2">
+    <row r="441">
+      <c r="A441" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B442">
+      <c r="B441" t="n">
         <v>307946000000</v>
       </c>
-      <c r="C442">
+      <c r="C441" t="n">
         <v>0.6884207627702053</v>
       </c>
-      <c r="D442">
+      <c r="D441" t="n">
         <v>211996420212.0336</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2">
+    <row r="442">
+      <c r="A442" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B443">
+      <c r="B442" t="n">
         <v>311406000000</v>
       </c>
-      <c r="C443">
+      <c r="C442" t="n">
         <v>0.6717721348918447</v>
       </c>
-      <c r="D443">
+      <c r="D442" t="n">
         <v>209193873438.1298</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="2">
+    <row r="443">
+      <c r="A443" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B444">
+      <c r="B443" t="n">
         <v>307559000000</v>
       </c>
-      <c r="C444">
+      <c r="C443" t="n">
         <v>0.6920894179527994</v>
       </c>
-      <c r="D444">
+      <c r="D443" t="n">
         <v>212858329296.1451</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="2">
+    <row r="444">
+      <c r="A444" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B445">
+      <c r="B444" t="n">
         <v>309109000000</v>
       </c>
-      <c r="C445">
+      <c r="C444" t="n">
         <v>0.6811989100817439</v>
       </c>
-      <c r="D445">
+      <c r="D444" t="n">
         <v>210564713896.4578</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="2">
+    <row r="445">
+      <c r="A445" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B446">
+      <c r="B445" t="n">
         <v>312159000000</v>
       </c>
-      <c r="C446">
+      <c r="C445" t="n">
         <v>0.6805962022731913</v>
       </c>
-      <c r="D446">
+      <c r="D445" t="n">
         <v>212454229905.3971</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="2">
+    <row r="446">
+      <c r="A446" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B447">
+      <c r="B446" t="n">
         <v>313888000000</v>
       </c>
-      <c r="C447">
+      <c r="C446" t="n">
         <v>0.6674676278200508</v>
       </c>
-      <c r="D447">
+      <c r="D446" t="n">
         <v>209510078761.1801</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="2">
+    <row r="447">
+      <c r="A447" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B448">
+      <c r="B447" t="n">
         <v>312948000000</v>
       </c>
-      <c r="C448">
+      <c r="C447" t="n">
         <v>0.6535093451836361</v>
       </c>
-      <c r="D448">
+      <c r="D447" t="n">
         <v>204514442556.5286</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="2">
+    <row r="448">
+      <c r="A448" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B449">
+      <c r="B448" t="n">
         <v>316000000000</v>
       </c>
-      <c r="C449">
+      <c r="C448" t="n">
         <v>0.6721333512568893</v>
       </c>
-      <c r="D449">
+      <c r="D448" t="n">
         <v>212394138997.177</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="2">
+    <row r="449">
+      <c r="A449" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B450">
+      <c r="B449" t="n">
         <v>318977000000</v>
       </c>
-      <c r="C450">
+      <c r="C449" t="n">
         <v>0.6562110374696503</v>
       </c>
-      <c r="D450">
+      <c r="D449" t="n">
         <v>209316228098.9566</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="2">
+    <row r="450">
+      <c r="A450" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B451">
+      <c r="B450" t="n">
         <v>317171000000</v>
       </c>
-      <c r="C451">
+      <c r="C450" t="n">
         <v>0.6312732782021336</v>
       </c>
-      <c r="D451">
+      <c r="D450" t="n">
         <v>200221576920.6489</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="2">
+    <row r="451">
+      <c r="A451" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B452">
+      <c r="B451" t="n">
         <v>320212000000</v>
       </c>
-      <c r="C452">
+      <c r="C451" t="n">
         <v>0.6260172780768749</v>
       </c>
-      <c r="D452">
+      <c r="D451" t="n">
         <v>200458244647.5523</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="2">
+    <row r="452">
+      <c r="A452" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B453">
+      <c r="B452" t="n">
         <v>321673000000</v>
       </c>
-      <c r="C453">
+      <c r="C452" t="n">
         <v>0.6416014371872193</v>
       </c>
-      <c r="D453">
+      <c r="D452" t="n">
         <v>206385859104.3244</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="2">
+    <row r="453">
+      <c r="A453" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B454">
+      <c r="B453" t="n">
         <v>324328000000</v>
       </c>
-      <c r="C454">
+      <c r="C453" t="n">
         <v>0.6424257998201208</v>
       </c>
-      <c r="D454">
+      <c r="D453" t="n">
         <v>208356674804.0602</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="2">
+    <row r="454">
+      <c r="A454" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B455">
+      <c r="B454" t="n">
         <v>326061000000</v>
       </c>
-      <c r="C455">
+      <c r="C454" t="n">
         <v>0.6731287022078621</v>
       </c>
-      <c r="D455">
+      <c r="D454" t="n">
         <v>219481017770.5977</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="2">
+    <row r="455">
+      <c r="A455" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B456">
+      <c r="B455" t="n">
         <v>322987000000</v>
       </c>
-      <c r="C456">
+      <c r="C455" t="n">
         <v>0.6467050378322448</v>
       </c>
-      <c r="D456">
+      <c r="D455" t="n">
         <v>208877320054.3232</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="2">
+    <row r="456">
+      <c r="A456" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B457">
+      <c r="B456" t="n">
         <v>326490000000</v>
       </c>
-      <c r="C457">
+      <c r="C456" t="n">
         <v>0.625</v>
       </c>
-      <c r="D457">
+      <c r="D456" t="n">
         <v>204056250000</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="2">
+    <row r="457">
+      <c r="A457" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B458">
+      <c r="B457" t="n">
         <v>337987000000</v>
       </c>
-      <c r="C458">
+      <c r="C457" t="n">
         <v>0.5975500448162534</v>
       </c>
-      <c r="D458">
+      <c r="D457" t="n">
         <v>201964146997.311</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="2">
+    <row r="458">
+      <c r="A458" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B459">
+      <c r="B458" t="n">
         <v>344965000000</v>
       </c>
-      <c r="C459">
+      <c r="C458" t="n">
         <v>0.6122199093914534</v>
       </c>
-      <c r="D459">
+      <c r="D458" t="n">
         <v>211194441043.2227</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2">
+    <row r="459">
+      <c r="A459" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B460">
+      <c r="B459" t="n">
         <v>343608000000</v>
       </c>
-      <c r="C460">
+      <c r="C459" t="n">
         <v>0.620963735717834</v>
       </c>
-      <c r="D460">
+      <c r="D459" t="n">
         <v>213368107302.5335</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2">
+    <row r="460">
+      <c r="A460" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B461">
+      <c r="B460" t="n">
         <v>346397000000</v>
       </c>
-      <c r="C461">
+      <c r="C460" t="n">
         <v>0.6455361177457879</v>
       </c>
-      <c r="D461">
+      <c r="D460" t="n">
         <v>223611774578.7877</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2">
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B462">
+      <c r="B461" t="n">
         <v>350385000000</v>
       </c>
-      <c r="C462">
+      <c r="C461" t="n">
         <v>0.6629980773055758</v>
       </c>
-      <c r="D462">
+      <c r="D461" t="n">
         <v>232304581316.7142</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2">
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B463">
+      <c r="B462" t="n">
         <v>354806000000</v>
       </c>
-      <c r="C463">
+      <c r="C462" t="n">
         <v>0.6740815638692281</v>
       </c>
-      <c r="D463">
+      <c r="D462" t="n">
         <v>239168183350.1854</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="2">
+    <row r="463">
+      <c r="A463" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B464">
+      <c r="B463" t="n">
         <v>355780000000</v>
       </c>
-      <c r="C464">
+      <c r="C463" t="n">
         <v>0.661769571835087</v>
       </c>
-      <c r="D464">
+      <c r="D463" t="n">
         <v>235444378267.4872</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2">
+    <row r="464">
+      <c r="A464" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B465">
+      <c r="B464" t="n">
         <v>359598000000</v>
       </c>
-      <c r="C465">
+      <c r="C464" t="n">
         <v>0.6614631565021828</v>
       </c>
-      <c r="D465">
+      <c r="D464" t="n">
         <v>237860828151.8719</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="2">
+    <row r="465">
+      <c r="A465" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B466">
+      <c r="B465" t="n">
         <v>360384000000</v>
       </c>
-      <c r="C466">
+      <c r="C465" t="n">
         <v>0.7014098337658694</v>
       </c>
-      <c r="D466">
+      <c r="D465" t="n">
         <v>252776881531.8791</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2">
+    <row r="466">
+      <c r="A466" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B467">
+      <c r="B466" t="n">
         <v>365780000000</v>
       </c>
-      <c r="C467">
+      <c r="C466" t="n">
         <v>0.7185456635769203</v>
       </c>
-      <c r="D467">
+      <c r="D466" t="n">
         <v>262829632823.1659</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="2">
+    <row r="467">
+      <c r="A467" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B468">
+      <c r="B467" t="n">
         <v>359421000000</v>
       </c>
-      <c r="C468">
+      <c r="C467" t="n">
         <v>0.7184940364994971</v>
       </c>
-      <c r="D468">
+      <c r="D467" t="n">
         <v>258241845092.6857</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="2">
+    <row r="468">
+      <c r="A468" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B469">
+      <c r="B468" t="n">
         <v>361223000000</v>
       </c>
-      <c r="C469">
+      <c r="C468" t="n">
         <v>0.7235890014471781</v>
       </c>
-      <c r="D469">
+      <c r="D468" t="n">
         <v>261376989869.754</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="2">
+    <row r="469">
+      <c r="A469" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B470">
+      <c r="B469" t="n">
         <v>365809000000</v>
       </c>
-      <c r="C470">
+      <c r="C469" t="n">
         <v>0.6983727913960472</v>
       </c>
-      <c r="D470">
+      <c r="D469" t="n">
         <v>255471052447.7966</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="2">
+    <row r="470">
+      <c r="A470" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B471">
+      <c r="B470" t="n">
         <v>368720000000</v>
       </c>
-      <c r="C471">
+      <c r="C470" t="n">
         <v>0.7164350193437455</v>
       </c>
-      <c r="D471">
+      <c r="D470" t="n">
         <v>264163920332.4258</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="2">
+    <row r="471">
+      <c r="A471" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B472">
+      <c r="B471" t="n">
         <v>364349000000</v>
       </c>
-      <c r="C472">
+      <c r="C471" t="n">
         <v>0.7276961141027506</v>
       </c>
-      <c r="D472">
+      <c r="D471" t="n">
         <v>265135351477.2231</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="2">
+    <row r="472">
+      <c r="A472" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B473">
+      <c r="B472" t="n">
         <v>366418000000</v>
       </c>
-      <c r="C473">
+      <c r="C472" t="n">
         <v>0.6993496048674733</v>
       </c>
-      <c r="D473">
+      <c r="D472" t="n">
         <v>256254283516.3298</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="2">
+    <row r="473">
+      <c r="A473" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B474">
+      <c r="B473" t="n">
         <v>373053000000</v>
       </c>
-      <c r="C474">
+      <c r="C473" t="n">
         <v>0.6977880120019538</v>
       </c>
-      <c r="D474">
+      <c r="D473" t="n">
         <v>260311911241.3649</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="2">
+    <row r="474">
+      <c r="A474" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B475">
+      <c r="B474" t="n">
         <v>369963000000</v>
       </c>
-      <c r="C475">
+      <c r="C474" t="n">
         <v>0.7047713017125943</v>
       </c>
-      <c r="D475">
+      <c r="D474" t="n">
         <v>260739305095.4965</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="2">
+    <row r="475">
+      <c r="A475" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B476">
+      <c r="B475" t="n">
         <v>374561000000</v>
       </c>
-      <c r="C476">
+      <c r="C475" t="n">
         <v>0.6902263942573164</v>
       </c>
-      <c r="D476">
+      <c r="D475" t="n">
         <v>258531888459.4147</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="2">
+    <row r="476">
+      <c r="A476" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B477">
+      <c r="B476" t="n">
         <v>378237000000</v>
       </c>
-      <c r="C477">
+      <c r="C476" t="n">
         <v>0.7174630506528914</v>
       </c>
-      <c r="D477">
+      <c r="D476" t="n">
         <v>271371071889.7977</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="2">
+    <row r="477">
+      <c r="A477" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B478">
+      <c r="B477" t="n">
         <v>382985000000</v>
       </c>
-      <c r="C478">
+      <c r="C477" t="n">
         <v>0.68259385665529</v>
       </c>
-      <c r="D478">
+      <c r="D477" t="n">
         <v>261423208191.1263</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="2">
+    <row r="478">
+      <c r="A478" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B479">
+      <c r="B478" t="n">
         <v>391602000000</v>
       </c>
-      <c r="C479">
+      <c r="C478" t="n">
         <v>0.6842285323297982</v>
       </c>
-      <c r="D479">
+      <c r="D478" t="n">
         <v>267945261717.4136</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="2">
+    <row r="479">
+      <c r="A479" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B480">
+      <c r="B479" t="n">
         <v>384879000000</v>
       </c>
-      <c r="C480">
+      <c r="C479" t="n">
         <v>0.6577216521967904</v>
       </c>
-      <c r="D480">
+      <c r="D479" t="n">
         <v>253143251775.8485</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="2">
+    <row r="480">
+      <c r="A480" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B481">
+      <c r="B480" t="n">
         <v>386923000000</v>
       </c>
-      <c r="C481">
+      <c r="C480" t="n">
         <v>0.67778229632642</v>
       </c>
-      <c r="D481">
+      <c r="D480" t="n">
         <v>262249559441.5074</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="2">
+    <row r="481">
+      <c r="A481" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B482">
+      <c r="B481" t="n">
         <v>390385000000</v>
       </c>
-      <c r="C482">
+      <c r="C481" t="n">
         <v>0.6935293709688606</v>
       </c>
-      <c r="D482">
+      <c r="D481" t="n">
         <v>270743463485.6786</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="2">
+    <row r="482">
+      <c r="A482" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B483">
+      <c r="B482" t="n">
         <v>391962000000</v>
       </c>
-      <c r="C483">
+      <c r="C482" t="n">
         <v>0.6458279514337381</v>
       </c>
-      <c r="D483">
+      <c r="D482" t="n">
         <v>253140015499.8708</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="2">
+    <row r="483">
+      <c r="A483" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B484">
+      <c r="B483" t="n">
         <v>389603000000</v>
       </c>
-      <c r="C484">
+      <c r="C483" t="n">
         <v>0.6513809275664409</v>
       </c>
-      <c r="D484">
+      <c r="D483" t="n">
         <v>253779963522.6681</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="2">
+    <row r="484">
+      <c r="A484" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B485">
+      <c r="B484" t="n">
         <v>389035000000</v>
       </c>
-      <c r="C485">
+      <c r="C484" t="n">
         <v>0.6244146113019045</v>
       </c>
-      <c r="D485">
+      <c r="D484" t="n">
         <v>242919138307.8364</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="2">
+    <row r="485">
+      <c r="A485" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B486">
+      <c r="B485" t="n">
         <v>390828000000</v>
       </c>
-      <c r="C486">
+      <c r="C485" t="n">
         <v>0.6292474200855777</v>
       </c>
-      <c r="D486">
+      <c r="D485" t="n">
         <v>245927510697.2061</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="2">
+    <row r="486">
+      <c r="A486" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B487">
+      <c r="B486" t="n">
         <v>391713000000</v>
       </c>
-      <c r="C487">
+      <c r="C486" t="n">
         <v>0.6118078923218109</v>
       </c>
-      <c r="D487">
+      <c r="D486" t="n">
         <v>239653104925.0535</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="2">
+    <row r="487">
+      <c r="A487" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B488">
+      <c r="B487" t="n">
         <v>391912000000</v>
       </c>
-      <c r="C488">
+      <c r="C487" t="n">
         <v>0.5599104143337066</v>
       </c>
-      <c r="D488">
+      <c r="D487" t="n">
         <v>219435610302.3516</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="2">
+    <row r="488">
+      <c r="A488" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B489">
+      <c r="B488" t="n">
         <v>393508000000</v>
       </c>
-      <c r="C489">
+      <c r="C488" t="n">
         <v>0.5812263876780006</v>
       </c>
-      <c r="D489">
+      <c r="D488" t="n">
         <v>228717233362.3947</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="2">
+    <row r="489">
+      <c r="A489" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B490">
+      <c r="B489" t="n">
         <v>397263000000</v>
       </c>
-      <c r="C490">
+      <c r="C489" t="n">
         <v>0.6297229219143576</v>
       </c>
-      <c r="D490">
+      <c r="D489" t="n">
         <v>250165617128.4635</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="2">
+    <row r="490">
+      <c r="A490" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B491">
+      <c r="B490" t="n">
         <v>398778000000</v>
       </c>
-      <c r="C491">
+      <c r="C490" t="n">
         <v>0.6353240152477764</v>
       </c>
-      <c r="D491">
+      <c r="D490" t="n">
         <v>253353240152.4778</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="2">
+    <row r="491">
+      <c r="A491" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B492">
+      <c r="B491" t="n">
         <v>393400000000</v>
       </c>
-      <c r="C492">
+      <c r="C491" t="n">
         <v>0.644122383252818</v>
       </c>
-      <c r="D492">
+      <c r="D491" t="n">
         <v>253397745571.6586</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="2">
+    <row r="492">
+      <c r="A492" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B493">
+      <c r="B492" t="n">
         <v>394722000000</v>
       </c>
-      <c r="C493">
+      <c r="C492" t="n">
         <v>0.6185822095756526</v>
       </c>
-      <c r="D493">
+      <c r="D492" t="n">
         <v>244168006928.1207</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="2">
+    <row r="493">
+      <c r="A493" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B494">
+      <c r="B493" t="n">
         <v>395721000000</v>
       </c>
-      <c r="C494">
+      <c r="C493" t="n">
         <v>0.6257039169065198</v>
       </c>
-      <c r="D494">
+      <c r="D493" t="n">
         <v>247604179702.1649</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="2">
+    <row r="494">
+      <c r="A494" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B495">
+      <c r="B494" t="n">
         <v>398520000000</v>
       </c>
-      <c r="C495">
+      <c r="C494" t="n">
         <v>0.6183527083848628</v>
       </c>
-      <c r="D495">
+      <c r="D494" t="n">
         <v>246425921345.5355</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="2">
+    <row r="495">
+      <c r="A495" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B496">
+      <c r="B495" t="n">
         <v>395740000000</v>
       </c>
-      <c r="C496">
+      <c r="C495" t="n">
         <v>0.6019020103527146</v>
       </c>
-      <c r="D496">
+      <c r="D495" t="n">
         <v>238196701576.9833</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="2">
+    <row r="496">
+      <c r="A496" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B497">
+      <c r="B496" t="n">
         <v>399129000000</v>
       </c>
-      <c r="C497">
+      <c r="C496" t="n">
         <v>0.6139489194499017</v>
       </c>
-      <c r="D497">
+      <c r="D496" t="n">
         <v>245044818271.1198</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="2">
+    <row r="497">
+      <c r="A497" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B498">
+      <c r="B497" t="n">
         <v>403358000000</v>
       </c>
-      <c r="C498">
+      <c r="C497" t="n">
         <v>0.6208866261020738</v>
       </c>
-      <c r="D498">
+      <c r="D497" t="n">
         <v>250439587731.2803</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="2">
+    <row r="498">
+      <c r="A498" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B499">
+      <c r="B498" t="n">
         <v>403361000000</v>
       </c>
-      <c r="C499">
+      <c r="C498" t="n">
         <v>0.5967299200381907</v>
       </c>
-      <c r="D499">
+      <c r="D498" t="n">
         <v>240697577276.5246</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="2">
+    <row r="499">
+      <c r="A499" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B500">
+      <c r="B499" t="n">
         <v>404877000000</v>
       </c>
-      <c r="C500">
+      <c r="C499" t="n">
         <v>0.5998800239952009</v>
       </c>
-      <c r="D500">
+      <c r="D499" t="n">
         <v>242877624475.1049</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="2">
+    <row r="500">
+      <c r="A500" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B501">
+      <c r="B500" t="n">
         <v>405884000000</v>
       </c>
-      <c r="C501">
+      <c r="C500" t="n">
         <v>0.5805852299117511</v>
       </c>
-      <c r="D501">
+      <c r="D500" t="n">
         <v>235650255457.5012</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B501" t="n">
+        <v>410533000000</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.6155740227762388</v>
+      </c>
+      <c r="D501" t="n">
+        <v>252713450292.3977</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/New Zealand.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>New Zealand_M2 (NZD)</t>
+  </si>
+  <si>
+    <t>New Zealand_FX (USD)</t>
+  </si>
+  <si>
+    <t>New Zealand_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,5901 +385,5327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>New Zealand_M2 (NZD)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>New Zealand_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>New Zealand_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>30042</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15937000000</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30072</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B2">
         <v>16438000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30103</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B3">
         <v>17016000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30133</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B4">
         <v>16972000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30164</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B5">
         <v>17010000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30195</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B6">
         <v>16545000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30225</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B7">
         <v>16533000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30256</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B8">
         <v>17141000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30286</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B9">
         <v>18066000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30317</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B10">
         <v>18329000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30348</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B11">
         <v>18862000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30376</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B12">
         <v>17266000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30407</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B13">
         <v>17486000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30437</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B14">
         <v>18103000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30468</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B15">
         <v>18410000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30498</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B16">
         <v>18810000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>30529</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B17">
         <v>19245000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>30560</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B18">
         <v>19147000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>30590</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B19">
         <v>19340000000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>30621</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B20">
         <v>19884000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>30651</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B21">
         <v>20669000000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>30682</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B22">
         <v>20758000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>30713</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B23">
         <v>21203000000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>30742</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B24">
         <v>19781000000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>30773</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B25">
         <v>20863000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>30803</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B26">
         <v>21393000000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>30834</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B27">
         <v>21696000000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>30864</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B28">
         <v>22273000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>30895</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B29">
         <v>23152000000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>30926</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B30">
         <v>23213000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>30956</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B31">
         <v>23738000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>30987</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B32">
         <v>24145000000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>31017</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B33">
         <v>25020000000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>31048</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B34">
         <v>24897000000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>31079</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B35">
         <v>25250000000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>31107</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B36">
         <v>25030000000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>31138</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B37">
         <v>26165000000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>31168</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B38">
         <v>26778000000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>31199</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B39">
         <v>27918000000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>31229</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B40">
         <v>28862000000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>31260</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B41">
         <v>29239000000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>31291</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B42">
         <v>29420000000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>31321</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B43">
         <v>29721000000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>31352</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B44">
         <v>30474000000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>31382</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B45">
         <v>31397000000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>31413</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B46">
         <v>31474000000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>31444</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B47">
         <v>32213000000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>31472</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B48">
         <v>32386000000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>31503</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B49">
         <v>33068000000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>31533</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B50">
         <v>33392000000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>31564</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B51">
         <v>33824000000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>31594</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B52">
         <v>33851000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>31625</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B53">
         <v>34550000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>31656</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B54">
         <v>35002000000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>31686</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B55">
         <v>36018000000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>31717</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B56">
         <v>36675000000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>31747</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B57">
         <v>37807000000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>31778</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B58">
         <v>38370000000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>31809</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B59">
         <v>39366000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>31837</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B60">
         <v>38543000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>31868</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B61">
         <v>38349000000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>31898</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B62">
         <v>38741000000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>31929</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B63">
         <v>39583000000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>31959</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B64">
         <v>39428000000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>31990</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B65">
         <v>40102000000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>32021</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B66">
         <v>40578000000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>32051</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B67">
         <v>41887000000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>32082</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B68">
         <v>41893000000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>32112</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B69">
         <v>42932000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>32143</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B70">
         <v>42531000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>32174</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B71">
         <v>43592000000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>32203</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B72">
         <v>35236000000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>32234</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B73">
         <v>34761000000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>32264</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B74">
         <v>34660000000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>32295</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B75">
         <v>35658000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>32325</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B76">
         <v>35350000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>32356</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B77">
         <v>35771000000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>32387</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B78">
         <v>34970000000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>32417</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B79">
         <v>36326000000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>32448</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B80">
         <v>35065000000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>32478</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B81">
         <v>35616000000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>32509</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B82">
         <v>35695000000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>32540</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B83">
         <v>36802000000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>32568</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B84">
         <v>36302000000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>32599</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B85">
         <v>36279000000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>32629</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B86">
         <v>36758000000</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>32660</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B87">
         <v>37527000000</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>32690</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B88">
         <v>37588000000</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>32721</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B89">
         <v>38287000000</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>32752</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B90">
         <v>38758000000</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>32782</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B91">
         <v>38883000000</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>32813</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B92">
         <v>38513000000</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>32843</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B93">
         <v>37957000000</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>32874</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B94">
         <v>38744000000</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>32905</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B95">
         <v>38287000000</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>32933</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B96">
         <v>38284000000</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>32964</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B97">
         <v>39326000000</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>32994</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B98">
         <v>39661000000</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>33025</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B99">
         <v>39063000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>33055</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B100">
         <v>38534000000</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>33086</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B101">
         <v>40088000000</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>33117</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B102">
         <v>40767000000</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>33147</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B103">
         <v>40828000000</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>33178</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B104">
         <v>41145000000</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>33208</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B105">
         <v>42586000000</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>33239</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B106">
         <v>41948000000</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>33270</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B107">
         <v>41220000000</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>33298</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B108">
         <v>40854000000</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>33329</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B109">
         <v>41300000000</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>33359</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B110">
         <v>42129000000</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>33390</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B111">
         <v>42719000000</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>33420</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B112">
         <v>41920000000</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>33451</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B113">
         <v>42235000000</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>33482</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B114">
         <v>42369000000</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>33512</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B115">
         <v>43280000000</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>33543</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B116">
         <v>42849000000</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>33573</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B117">
         <v>43320000000</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>33604</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B118">
         <v>44407000000</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>33635</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B119">
         <v>44599000000</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>33664</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B120">
         <v>45318000000</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>33695</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B121">
         <v>45418000000</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>33725</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B122">
         <v>45741000000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>33756</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B123">
         <v>44756000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>33786</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B124">
         <v>44868000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>33817</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B125">
         <v>45313000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>33848</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B126">
         <v>45461000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>33878</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B127">
         <v>45784000000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>33909</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B128">
         <v>46380000000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>33939</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B129">
         <v>45538000000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>33970</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B130">
         <v>45785000000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>34001</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B131">
         <v>45582000000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>34029</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B132">
         <v>45158000000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>34060</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B133">
         <v>46327000000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>34090</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B134">
         <v>47373000000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>34121</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B135">
         <v>47334000000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>34151</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B136">
         <v>48759000000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>34182</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B137">
         <v>48711000000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>34213</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B138">
         <v>48355000000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>34243</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B139">
         <v>48841000000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>34274</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B140">
         <v>49332000000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>34304</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B141">
         <v>49250000000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>34335</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B142">
         <v>48139000000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>34366</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B143">
         <v>48991000000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>34394</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B144">
         <v>50390000000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
         <v>34425</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B145">
         <v>50358000000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
         <v>34455</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B146">
         <v>51494000000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
         <v>34486</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B147">
         <v>51341000000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
         <v>34516</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B148">
         <v>51103000000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
         <v>34547</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B149">
         <v>51658000000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
         <v>34578</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B150">
         <v>51676000000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
         <v>34608</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B151">
         <v>52085000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
         <v>34639</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B152">
         <v>52717000000</v>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
         <v>34669</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B153">
         <v>53626000000</v>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
         <v>34700</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B154">
         <v>54225000000</v>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
         <v>34731</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B155">
         <v>54799000000</v>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
         <v>34759</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B156">
         <v>54760000000</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
         <v>34790</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B157">
         <v>55835000000</v>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
         <v>34820</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B158">
         <v>56778000000</v>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
         <v>34851</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B159">
         <v>56814000000</v>
       </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
         <v>34881</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B160">
         <v>56158000000</v>
       </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>34912</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B161">
         <v>57209000000</v>
       </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>34943</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B162">
         <v>57700000000</v>
       </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>34973</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B163">
         <v>58639000000</v>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>35004</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B164">
         <v>59763000000</v>
       </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>35034</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B165">
         <v>60010000000</v>
       </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>35065</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B166">
         <v>59951000000</v>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35096</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B167">
         <v>60106000000</v>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35125</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B168">
         <v>60824000000</v>
       </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35156</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B169">
         <v>62080000000</v>
       </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35186</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B170">
         <v>65168000000</v>
       </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35217</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B171">
         <v>65050000000</v>
       </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>35247</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B172">
         <v>64390000000</v>
       </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>35278</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B173">
         <v>64984000000</v>
       </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>35309</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B174">
         <v>65141000000</v>
       </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>35339</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B175">
         <v>67841000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C175">
         <v>1.421060110842689</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D175">
         <v>96406138979.67883</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>35370</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B176">
         <v>66576000000</v>
       </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
         <v>35400</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B177">
         <v>66584000000</v>
       </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
         <v>35431</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B178">
         <v>66968000000</v>
       </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
         <v>35462</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B179">
         <v>66549000000</v>
       </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
         <v>35490</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B180">
         <v>66572000000</v>
       </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
         <v>35521</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B181">
         <v>68198000000</v>
       </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
         <v>35551</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B182">
         <v>68983000000</v>
       </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
         <v>35582</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B183">
         <v>68692000000</v>
       </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
         <v>35612</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B184">
         <v>69166000000</v>
       </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
         <v>35643</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B185">
         <v>70950000000</v>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
         <v>35674</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B186">
         <v>71582000000</v>
       </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
         <v>35704</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B187">
         <v>70746000000</v>
       </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
         <v>35735</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B188">
         <v>70932000000</v>
       </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
         <v>35765</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B189">
         <v>71575000000</v>
       </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
         <v>35796</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B190">
         <v>72684000000</v>
       </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
         <v>35827</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B191">
         <v>71724000000</v>
       </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
         <v>35855</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B192">
         <v>71979000000</v>
       </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
         <v>35886</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B193">
         <v>72204000000</v>
       </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
         <v>35916</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B194">
         <v>73578000000</v>
       </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
         <v>35947</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B195">
         <v>73056000000</v>
       </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
         <v>35977</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B196">
         <v>73068000000</v>
       </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
         <v>36008</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B197">
         <v>72606000000</v>
       </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
         <v>36039</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B198">
         <v>71525000000</v>
       </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
         <v>36069</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B199">
         <v>72175000000</v>
       </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
         <v>36100</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B200">
         <v>72855000000</v>
       </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
         <v>36130</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B201">
         <v>72332000000</v>
       </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
         <v>36161</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B202">
         <v>73262000000</v>
       </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
         <v>36192</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B203">
         <v>74810000000</v>
       </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
         <v>36220</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B204">
         <v>73920000000</v>
       </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
         <v>36251</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B205">
         <v>73161000000</v>
       </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
         <v>36281</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B206">
         <v>72833000000</v>
       </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
         <v>36312</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B207">
         <v>73502000000</v>
       </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
         <v>36342</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B208">
         <v>75262000000</v>
       </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
         <v>36373</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B209">
         <v>75935000000</v>
       </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
         <v>36404</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B210">
         <v>75717000000</v>
       </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
         <v>36434</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B211">
         <v>75525000000</v>
       </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
         <v>36465</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B212">
         <v>74655000000</v>
       </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
         <v>36495</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B213">
         <v>76630000000</v>
       </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
         <v>36526</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B214">
         <v>75188000000</v>
       </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
         <v>36557</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B215">
         <v>75809000000</v>
       </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
         <v>36586</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B216">
         <v>75243000000</v>
       </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
         <v>36617</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B217">
         <v>75721000000</v>
       </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
         <v>36647</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B218">
         <v>76770000000</v>
       </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
         <v>36678</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B219">
         <v>75620000000</v>
       </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
         <v>36708</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B220">
         <v>76874000000</v>
       </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
         <v>36739</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B221">
         <v>77423000000</v>
       </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
         <v>36770</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B222">
         <v>77689000000</v>
       </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
         <v>36800</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B223">
         <v>77465000000</v>
       </c>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
         <v>36831</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B224">
         <v>76636000000</v>
       </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
         <v>36861</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B225">
         <v>78422000000</v>
       </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
         <v>36892</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B226">
         <v>77827000000</v>
       </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
         <v>36923</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B227">
         <v>78419000000</v>
       </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
         <v>36951</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B228">
         <v>79961000000</v>
       </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
         <v>36982</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B229">
         <v>79903000000</v>
       </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
         <v>37012</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B230">
         <v>81247000000</v>
       </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
         <v>37043</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B231">
         <v>81397000000</v>
       </c>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
         <v>37073</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B232">
         <v>82278000000</v>
       </c>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
         <v>37104</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B233">
         <v>82357000000</v>
       </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
         <v>37135</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B234">
         <v>83722000000</v>
       </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
         <v>37165</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B235">
         <v>83831000000</v>
       </c>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
         <v>37196</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B236">
         <v>82083000000</v>
       </c>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
         <v>37226</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B237">
         <v>83579000000</v>
       </c>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
         <v>37257</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B238">
         <v>83142000000</v>
       </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
         <v>37288</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B239">
         <v>83870000000</v>
       </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
         <v>37316</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B240">
         <v>87080000000</v>
       </c>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
         <v>37347</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B241">
         <v>85751000000</v>
       </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
         <v>37377</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B242">
         <v>86550000000</v>
       </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
         <v>37408</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B243">
         <v>88768000000</v>
       </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
         <v>37438</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B244">
         <v>88681000000</v>
       </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
         <v>37469</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B245">
         <v>89673000000</v>
       </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
         <v>37500</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B246">
         <v>89297000000</v>
       </c>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
         <v>37530</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B247">
         <v>90012000000</v>
       </c>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
         <v>37561</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B248">
         <v>91205000000</v>
       </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
         <v>37591</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B249">
         <v>93743000000</v>
       </c>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
         <v>37622</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B250">
         <v>92659000000</v>
       </c>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
         <v>37653</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B251">
         <v>94032000000</v>
       </c>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
         <v>37681</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B252">
         <v>93819000000</v>
       </c>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
         <v>37712</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B253">
         <v>93353000000</v>
       </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
         <v>37742</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B254">
         <v>93631000000</v>
       </c>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
         <v>37773</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B255">
         <v>95503000000</v>
       </c>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
         <v>37803</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B256">
         <v>95766000000</v>
       </c>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
         <v>37834</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B257">
         <v>95741000000</v>
       </c>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
         <v>37865</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B258">
         <v>97689000000</v>
       </c>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
         <v>37895</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B259">
         <v>99787000000</v>
       </c>
-      <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
         <v>37926</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B260">
         <v>100963000000</v>
       </c>
-      <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
         <v>37956</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B261">
         <v>103231000000</v>
       </c>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
         <v>37987</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B262">
         <v>103512000000</v>
       </c>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
         <v>38018</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B263">
         <v>104774000000</v>
       </c>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
         <v>38047</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B264">
         <v>105566000000</v>
       </c>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
         <v>38078</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B265">
         <v>105181000000</v>
       </c>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
         <v>38108</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B266">
         <v>107854000000</v>
       </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
         <v>38139</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B267">
         <v>106773000000</v>
       </c>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
         <v>38169</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B268">
         <v>106562000000</v>
       </c>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
         <v>38200</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B269">
         <v>105557000000</v>
       </c>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
         <v>38231</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B270">
         <v>104789000000</v>
       </c>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
         <v>38261</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B271">
         <v>106039000000</v>
       </c>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
         <v>38292</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B272">
         <v>106178000000</v>
       </c>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38322</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B273">
         <v>107808000000</v>
       </c>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38353</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B274">
         <v>107823000000</v>
       </c>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38384</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B275">
         <v>109719000000</v>
       </c>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38412</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B276">
         <v>110798000000</v>
       </c>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38443</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B277">
         <v>111413000000</v>
       </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38473</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B278">
         <v>111861000000</v>
       </c>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38504</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B279">
         <v>113980000000</v>
       </c>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38534</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B280">
         <v>114215000000</v>
       </c>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38565</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B281">
         <v>114963000000</v>
       </c>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38596</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B282">
         <v>117770000000</v>
       </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38626</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B283">
         <v>117253000000</v>
       </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38657</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B284">
         <v>117084000000</v>
       </c>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38687</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B285">
         <v>118937000000</v>
       </c>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38718</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B286">
         <v>119143000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C286">
         <v>0.6878052135635189</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D286">
         <v>81947176559.59833</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38749</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B287">
         <v>119816000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C287">
         <v>0.6621201085876978</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D287">
         <v>79332582930.54359</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38777</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B288">
         <v>120893000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C288">
         <v>0.6162948354492789</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D288">
         <v>74505731541.96967</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38808</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B289">
         <v>122329000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C289">
         <v>0.6382842918235783</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D289">
         <v>78080679134.48651</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38838</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B290">
         <v>122987000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C290">
         <v>0.6343165239454488</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D290">
         <v>78012686330.47891</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38869</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B291">
         <v>124982000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C291">
         <v>0.608976310821509</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D291">
         <v>76111077279.09384</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38899</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B292">
         <v>126112000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C292">
         <v>0.6177415369409439</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D292">
         <v>77904620706.69632</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38930</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B293">
         <v>126790000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C293">
         <v>0.6559097468188377</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D293">
         <v>83162796799.16043</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38961</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B294">
         <v>127329000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C294">
         <v>0.6533812479581836</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D294">
         <v>83194380921.26756</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38991</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B295">
         <v>128048000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C295">
         <v>0.6704210244033253</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D295">
         <v>85846071332.797</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>39022</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B296">
         <v>131146000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C296">
         <v>0.6844158510711108</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D296">
         <v>89758401204.5719</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>39052</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B297">
         <v>131708000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C297">
         <v>0.7046719751955465</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D297">
         <v>92810936509.05504</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39083</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B298">
         <v>133105000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C298">
         <v>0.6914194842010648</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D298">
         <v>92031390444.58273</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39114</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B299">
         <v>134703000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C299">
         <v>0.7017543859649122</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D299">
         <v>94528421052.63158</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39142</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B300">
         <v>136207000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C300">
         <v>0.7159733657907925</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D300">
         <v>97520584234.26648</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39173</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B301">
         <v>139067000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C301">
         <v>0.7410701052319549</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D301">
         <v>103058396324.2923</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39203</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B302">
         <v>139023000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C302">
         <v>0.7367025195226168</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D302">
         <v>102418594371.5928</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39234</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B303">
         <v>140101000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C303">
         <v>0.7720219254226821</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D303">
         <v>108161043773.6432</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39264</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B304">
         <v>140604000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C304">
         <v>0.7613826709304097</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D304">
         <v>107053449063.4993</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39295</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B305">
         <v>139973000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C305">
         <v>0.7040270346381301</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D305">
         <v>98544776119.40298</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39326</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B306">
         <v>142924000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C306">
         <v>0.7580351728320195</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D306">
         <v>108341419041.8436</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39356</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B307">
         <v>144156000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C307">
         <v>0.772499034376207</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D307">
         <v>111360370799.5365</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39387</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B308">
         <v>144974000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C308">
         <v>0.7648183556405354</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D308">
         <v>110878776290.631</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39417</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B309">
         <v>147844000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C309">
         <v>0.7654037504783774</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D309">
         <v>113160352085.7252</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39448</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B310">
         <v>149145000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C310">
         <v>0.7885813421654444</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D310">
         <v>117612964277.2652</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39479</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B311">
         <v>148054000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C311">
         <v>0.7991688643810436</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D311">
         <v>118320147047.071</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39508</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B312">
         <v>151479000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C312">
         <v>0.7857311228097745</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D312">
         <v>119021764752.1018</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39539</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B313">
         <v>151507000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C313">
         <v>0.7821666014861166</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D313">
         <v>118503715291.3571</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39569</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B314">
         <v>152157000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C314">
         <v>0.7838219156607619</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D314">
         <v>119263991221.1945</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39600</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B315">
         <v>154052000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C315">
         <v>0.7620789513793629</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D315">
         <v>117399786617.8936</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39630</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B316">
         <v>154528000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C316">
         <v>0.7336218912772358</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D316">
         <v>113365123615.2887</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39661</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B317">
         <v>155108000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C317">
         <v>0.702247191011236</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D317">
         <v>108924157303.3708</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39692</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B318">
         <v>156430000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C318">
         <v>0.6715916722632639</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D318">
         <v>105057085292.1424</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39722</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B319">
         <v>158344000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C319">
         <v>0.583056381552096</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D319">
         <v>92323479680.48509</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39753</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B320">
         <v>160333000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C320">
         <v>0.5493599956051201</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D320">
         <v>88080536175.35571</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39783</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B321">
         <v>160893000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C321">
         <v>0.5782017924255565</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D321">
         <v>93028620988.72505</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39814</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B322">
         <v>158009000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C322">
         <v>0.508440105755542</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D322">
         <v>80338112670.32744</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39845</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B323">
         <v>159746000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C323">
         <v>0.5003752814610959</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D323">
         <v>79932949712.28423</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39873</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B324">
         <v>159188000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C324">
         <v>0.5603182607721185</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D324">
         <v>89195943295.79201</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39904</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B325">
         <v>159673000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C325">
         <v>0.5646208570944611</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D325">
         <v>90154706114.84389</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39934</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B326">
         <v>158329000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C326">
         <v>0.6402868485081316</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D326">
         <v>101375976437.444</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39965</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B327">
         <v>157910000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C327">
         <v>0.6457445434586078</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D327">
         <v>101969520857.5488</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39995</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B328">
         <v>158591000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C328">
         <v>0.6620324395895399</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D328">
         <v>104992386626.9447</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>40026</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B329">
         <v>157915000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C329">
         <v>0.6853539853334247</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D329">
         <v>108227674593.9278</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>40057</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B330">
         <v>158781000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C330">
         <v>0.7233796296296295</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D330">
         <v>114858940972.2222</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40087</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B331">
         <v>158790000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C331">
         <v>0.7175660160734788</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D331">
         <v>113942307692.3077</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40118</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B332">
         <v>160392000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C332">
         <v>0.7161784716751414</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D332">
         <v>114869297428.9193</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40148</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B333">
         <v>163056000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C333">
         <v>0.7235366471311772</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D333">
         <v>117976991534.6212</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40179</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B334">
         <v>160311000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C334">
         <v>0.701508242721852</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D334">
         <v>112459487898.9828</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40210</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B335">
         <v>160875000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C335">
         <v>0.6983727913960472</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D335">
         <v>112350722815.8391</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40238</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B336">
         <v>161647000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C336">
         <v>0.7107825716113441</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D336">
         <v>114895870353.2589</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40269</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B337">
         <v>163862000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C337">
         <v>0.7272727272727273</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D337">
         <v>119172363636.3636</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40299</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B338">
         <v>162781000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C338">
         <v>0.6824541049614413</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D338">
         <v>111090561659.7284</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40330</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B339">
         <v>161316000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C339">
         <v>0.6854009595613434</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D339">
         <v>110566141192.5977</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40360</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B340">
         <v>162437000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C340">
         <v>0.726321905868681</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D340">
         <v>117981551423.5909</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40391</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B341">
         <v>162917000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C341">
         <v>0.699839037021485</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D341">
         <v>114015676394.4293</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40422</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B342">
         <v>164178000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C342">
         <v>0.7341604874825637</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D342">
         <v>120533000513.9123</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40452</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B343">
         <v>166485000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C343">
         <v>0.7666947788085563</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D343">
         <v>127643180249.9425</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40483</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B344">
         <v>167970000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C344">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D344">
         <v>124764168461.7099</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40513</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B345">
         <v>171217000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C345">
         <v>0.7803964413922272</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D345">
         <v>133617137505.853</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40544</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B346">
         <v>171348000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C346">
         <v>0.7729169887154119</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D346">
         <v>132437780182.4084</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40575</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B347">
         <v>172374000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C347">
         <v>0.7526719855486979</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D347">
         <v>129741080836.9712</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40603</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B348">
         <v>174074000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C348">
         <v>0.7614986293024673</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D348">
         <v>132557112397.1977</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40634</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B349">
         <v>176860000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C349">
         <v>0.8101758081503687</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D349">
         <v>143287693429.4742</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40664</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B350">
         <v>175745000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C350">
         <v>0.823519723297373</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D350">
         <v>144729473770.8968</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40695</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B351">
         <v>176466000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C351">
         <v>0.8285690612312535</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D351">
         <v>146214267959.2344</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40725</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B352">
         <v>176967000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C352">
         <v>0.8798169980644026</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D352">
         <v>155698574696.4631</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40756</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B353">
         <v>175197000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C353">
         <v>0.8538251366120219</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D353">
         <v>149587602459.0164</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40787</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B354">
         <v>175793000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C354">
         <v>0.7612667478684531</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D354">
         <v>133825365408.039</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40817</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B355">
         <v>179139000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C355">
         <v>0.8076239702794379</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D355">
         <v>144676950411.8882</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40848</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B356">
         <v>181904000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C356">
         <v>0.7808229874287499</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D356">
         <v>142034824705.2393</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40878</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B357">
         <v>184189000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C357">
         <v>0.7774236181295188</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D357">
         <v>143192878799.6579</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40909</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B358">
         <v>182820000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C358">
         <v>0.8272667107875579</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D358">
         <v>151240900066.1813</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40940</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B359">
         <v>184386000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C359">
         <v>0.8343763037129747</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D359">
         <v>153847309136.4205</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40969</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B360">
         <v>186446000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C360">
         <v>0.8196049504139006</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D360">
         <v>152812064584.8701</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>41000</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B361">
         <v>189365000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C361">
         <v>0.8188666885031116</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D361">
         <v>155064690468.3917</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>41030</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B362">
         <v>188392000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C362">
         <v>0.7534091765237702</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D362">
         <v>141936261583.6661</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41061</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B363">
         <v>188815000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C363">
         <v>0.8019889325527308</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D363">
         <v>151427540299.9439</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41091</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B364">
         <v>192301000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C364">
         <v>0.8090614886731392</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D364">
         <v>155583333333.3333</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41122</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B365">
         <v>190755000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C365">
         <v>0.8037939072421831</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D365">
         <v>153327706775.9826</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41153</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B366">
         <v>191522000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C366">
         <v>0.8301510874979247</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D366">
         <v>158992196579.7775</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41183</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B367">
         <v>192689000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C367">
         <v>0.8227067050596463</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D367">
         <v>158526532291.2382</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41214</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B368">
         <v>196035000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C368">
         <v>0.8204791598293403</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D368">
         <v>160842632097.1447</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41244</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B369">
         <v>200631000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C369">
         <v>0.8289811821271658</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D369">
         <v>166319323551.3554</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41275</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B370">
         <v>199518000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C370">
         <v>0.839278220730172</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D370">
         <v>167451112043.6425</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41306</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B371">
         <v>201848000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C371">
         <v>0.8251505899826719</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D371">
         <v>166554996286.8224</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41334</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B372">
         <v>203856000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C372">
         <v>0.8375910880308234</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D372">
         <v>170747968841.6115</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41365</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B373">
         <v>205362000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C373">
         <v>0.8568980291345329</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D373">
         <v>175974293059.1259</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41395</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B374">
         <v>206244000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C374">
         <v>0.7941550190597204</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D374">
         <v>163789707750.953</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41426</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B375">
         <v>205153000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C375">
         <v>0.7739938080495355</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D375">
         <v>158787151702.7864</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41456</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B376">
         <v>208329000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C376">
         <v>0.7981482959533882</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D376">
         <v>166277436347.6734</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41487</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B377">
         <v>209263000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C377">
         <v>0.7725587144622992</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D377">
         <v>161667954264.5241</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41518</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B378">
         <v>210802000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C378">
         <v>0.8302889405513119</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D378">
         <v>175026569246.0977</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41548</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B379">
         <v>211633000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C379">
         <v>0.8258320257659592</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D379">
         <v>174773309108.9272</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41579</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B380">
         <v>214001000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C380">
         <v>0.8127438231469442</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D380">
         <v>173927990897.2692</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41609</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B381">
         <v>216074000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C381">
         <v>0.8220979940808945</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D381">
         <v>177634001973.0352</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41640</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B382">
         <v>216142000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C382">
         <v>0.8087343307723414</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D382">
         <v>174801455721.7954</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41671</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B383">
         <v>218953000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C383">
         <v>0.8389261744966443</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D383">
         <v>183685402684.5638</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41699</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B384">
         <v>218025000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C384">
         <v>0.8677542519958347</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D384">
         <v>189192120791.3918</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41730</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B385">
         <v>220662000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C385">
         <v>0.8618460742911315</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D385">
         <v>190176678445.2296</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41760</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B386">
         <v>220034000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C386">
         <v>0.8503401360544218</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D386">
         <v>187103741496.5987</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41791</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B387">
         <v>220294000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C387">
         <v>0.876577840112202</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D387">
         <v>193104838709.6774</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41821</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B388">
         <v>221761000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C388">
         <v>0.8502678343678259</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D388">
         <v>188556245217.2434</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41852</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B389">
         <v>222495000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C389">
         <v>0.8366100560528738</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D389">
         <v>186141554421.4841</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41883</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B390">
         <v>224916000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C390">
         <v>0.7815552950371238</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D390">
         <v>175784290738.5697</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41913</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B391">
         <v>225561000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C391">
         <v>0.7793624814901411</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D391">
         <v>175793780687.3977</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41944</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B392">
         <v>228548000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C392">
         <v>0.7842522155125089</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D392">
         <v>179239275350.9529</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41974</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B393">
         <v>230571000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C393">
         <v>0.779666302822392</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D393">
         <v>179768439108.0617</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>42005</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B394">
         <v>230155000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C394">
         <v>0.7260582298700355</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D394">
         <v>167105931895.738</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>42036</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B395">
         <v>233043000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C395">
         <v>0.7567731194187983</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D395">
         <v>176360678068.715</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42064</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B396">
         <v>236828000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C396">
         <v>0.7472166180975864</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D396">
         <v>176961817230.8152</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42095</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B397">
         <v>238569000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C397">
         <v>0.7609770945894528</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D397">
         <v>181545544479.1112</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42125</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B398">
         <v>237679000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C398">
         <v>0.7109341674960898</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D398">
         <v>168974121996.3031</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42156</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B399">
         <v>240683000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C399">
         <v>0.6779201410073893</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D399">
         <v>163163853298.0815</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42186</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B400">
         <v>243516000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C400">
         <v>0.6592392379194411</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D400">
         <v>160535302261.1906</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42217</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B401">
         <v>243435000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C401">
         <v>0.6347594261774788</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D401">
         <v>154522660911.5146</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42248</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B402">
         <v>245301000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C402">
         <v>0.6401638819537802</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D402">
         <v>157032840407.1442</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42278</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B403">
         <v>245876000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C403">
         <v>0.6779661016949152</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D403">
         <v>166695593220.339</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42309</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B404">
         <v>251168000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C404">
         <v>0.6588483331137172</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D404">
         <v>165481618131.5061</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42339</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B405">
         <v>253283000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C405">
         <v>0.6832467887400929</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D405">
         <v>173054796392.457</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42370</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B406">
         <v>252048000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C406">
         <v>0.6485504896556197</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D406">
         <v>163465853816.7196</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42401</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B407">
         <v>255151000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C407">
         <v>0.6592827004219409</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D407">
         <v>168216640295.3586</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42430</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B408">
         <v>258960000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C408">
         <v>0.691945751453086</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D408">
         <v>179186271796.2912</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42461</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B409">
         <v>262111000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C409">
         <v>0.6982752601075344</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D409">
         <v>183025626702.0459</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42491</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B410">
         <v>260867000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C410">
         <v>0.6766815536608473</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D410">
         <v>176523886858.8442</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42522</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B411">
         <v>261594000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C411">
         <v>0.7132158904500393</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D411">
         <v>186572997646.3876</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42552</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B412">
         <v>264903000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C412">
         <v>0.7211365111415591</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D412">
         <v>191031225210.9324</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42583</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B413">
         <v>263346000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C413">
         <v>0.7248477819657873</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D413">
         <v>190885763989.5622</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42614</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B414">
         <v>262940000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C414">
         <v>0.7290755322251385</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D414">
         <v>191703120443.2779</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42644</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B415">
         <v>267649000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C415">
         <v>0.7151541157119359</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D415">
         <v>191410283916.1839</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42675</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B416">
         <v>269673000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C416">
         <v>0.7084661707403471</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D416">
         <v>191054197662.0616</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42705</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B417">
         <v>272689000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C417">
         <v>0.6930967563071805</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D417">
         <v>188999861380.6487</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42736</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B418">
         <v>270611000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C418">
         <v>0.731368390258173</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D418">
         <v>197916331456.1544</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42767</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B419">
         <v>271696000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C419">
         <v>0.7195797654169965</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D419">
         <v>195506943944.7363</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42795</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B420">
         <v>275412000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C420">
         <v>0.7008199593524423</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D420">
         <v>193014226645.1749</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42826</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B421">
         <v>278067000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C421">
         <v>0.6869547296833138</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D421">
         <v>191019440818.85</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42856</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B422">
         <v>276620000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C422">
         <v>0.7086167800453514</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D422">
         <v>196017573696.1451</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42887</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B423">
         <v>278031000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C423">
         <v>0.7333528894103843</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D423">
         <v>203894837195.6586</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42917</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B424">
         <v>282011000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C424">
         <v>0.7514841812579846</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D424">
         <v>211926805440.7455</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42948</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B425">
         <v>280572000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C425">
         <v>0.7178235589692054</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D425">
         <v>201401191587.1079</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42979</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B426">
         <v>281276000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C426">
         <v>0.7210325185665873</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D426">
         <v>202809142692.3354</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>43009</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B427">
         <v>286487000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C427">
         <v>0.6888001102080177</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D427">
         <v>197332277173.1644</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>43040</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B428">
         <v>289389000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C428">
         <v>0.6835737234260715</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D428">
         <v>197818716248.5474</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43070</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B429">
         <v>292600000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C429">
         <v>0.7098239636570131</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D429">
         <v>207694491766.042</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43101</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B430">
         <v>290366000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C430">
         <v>0.7368110816386678</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D430">
         <v>213944886531.0934</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43132</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B431">
         <v>292030000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C431">
         <v>0.7210325185665873</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D431">
         <v>210563126397.0005</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43160</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B432">
         <v>295333000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C432">
         <v>0.7245851749873197</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D432">
         <v>213993913484.5301</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43191</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B433">
         <v>297516000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C433">
         <v>0.7037297677691766</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D433">
         <v>209370865587.6143</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43221</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B434">
         <v>295316000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C434">
         <v>0.7000840100812098</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D434">
         <v>206746009521.1425</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43252</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B435">
         <v>297798000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C435">
         <v>0.6769564040075818</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D435">
         <v>201596263200.6498</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43282</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B436">
         <v>301499000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C436">
         <v>0.6818026863025841</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D436">
         <v>205562828117.5428</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43313</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B437">
         <v>301799000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C437">
         <v>0.6625149065853981</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D437">
         <v>199946336292.5666</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43344</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B438">
         <v>302781000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C438">
         <v>0.6620762711864407</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D438">
         <v>200464115466.1017</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43374</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B439">
         <v>305435000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C439">
         <v>0.6522306287503261</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D439">
         <v>199214062092.3559</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43405</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B440">
         <v>307946000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C440">
         <v>0.6884207627702053</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D440">
         <v>211996420212.0336</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43435</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B441">
         <v>311406000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C441">
         <v>0.6717721348918447</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D441">
         <v>209193873438.1298</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43466</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B442">
         <v>307559000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C442">
         <v>0.6920894179527994</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D442">
         <v>212858329296.1451</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43497</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B443">
         <v>309109000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C443">
         <v>0.6811989100817439</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D443">
         <v>210564713896.4578</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43525</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B444">
         <v>312159000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C444">
         <v>0.6805962022731913</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D444">
         <v>212454229905.3971</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43556</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B445">
         <v>313888000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C445">
         <v>0.6674676278200508</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D445">
         <v>209510078761.1801</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43586</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B446">
         <v>312948000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C446">
         <v>0.6535093451836361</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D446">
         <v>204514442556.5286</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43617</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B447">
         <v>316000000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C447">
         <v>0.6721333512568893</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D447">
         <v>212394138997.177</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43647</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B448">
         <v>318977000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C448">
         <v>0.6562110374696503</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D448">
         <v>209316228098.9566</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43678</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B449">
         <v>317171000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C449">
         <v>0.6312732782021336</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D449">
         <v>200221576920.6489</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43709</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B450">
         <v>320212000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C450">
         <v>0.6260172780768749</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D450">
         <v>200458244647.5523</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43739</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B451">
         <v>321673000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C451">
         <v>0.6416014371872193</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D451">
         <v>206385859104.3244</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43770</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B452">
         <v>324328000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C452">
         <v>0.6424257998201208</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D452">
         <v>208356674804.0602</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43800</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B453">
         <v>326061000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C453">
         <v>0.6731287022078621</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D453">
         <v>219481017770.5977</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43831</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B454">
         <v>322987000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C454">
         <v>0.6467050378322448</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D454">
         <v>208877320054.3232</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43862</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B455">
         <v>326490000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C455">
         <v>0.625</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D455">
         <v>204056250000</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43891</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B456">
         <v>337987000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C456">
         <v>0.5975500448162534</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D456">
         <v>201964146997.311</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43922</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B457">
         <v>344965000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C457">
         <v>0.6122199093914534</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D457">
         <v>211194441043.2227</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43952</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B458">
         <v>343608000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C458">
         <v>0.620963735717834</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D458">
         <v>213368107302.5335</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43983</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B459">
         <v>346397000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C459">
         <v>0.6455361177457879</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D459">
         <v>223611774578.7877</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>44013</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B460">
         <v>350385000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C460">
         <v>0.6629980773055758</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D460">
         <v>232304581316.7142</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>44044</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B461">
         <v>354806000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C461">
         <v>0.6740815638692281</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D461">
         <v>239168183350.1854</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44075</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B462">
         <v>355780000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C462">
         <v>0.661769571835087</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D462">
         <v>235444378267.4872</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44105</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B463">
         <v>359598000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C463">
         <v>0.6614631565021828</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D463">
         <v>237860828151.8719</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44136</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B464">
         <v>360384000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C464">
         <v>0.7014098337658694</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D464">
         <v>252776881531.8791</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44166</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B465">
         <v>365780000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C465">
         <v>0.7185456635769203</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D465">
         <v>262829632823.1659</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44197</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B466">
         <v>359421000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C466">
         <v>0.7184940364994971</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D466">
         <v>258241845092.6857</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44228</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B467">
         <v>361223000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C467">
         <v>0.7235890014471781</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D467">
         <v>261376989869.754</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44256</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B468">
         <v>365809000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C468">
         <v>0.6983727913960472</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D468">
         <v>255471052447.7966</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44287</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B469">
         <v>368720000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C469">
         <v>0.7164350193437455</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D469">
         <v>264163920332.4258</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44317</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B470">
         <v>364349000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C470">
         <v>0.7276961141027506</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D470">
         <v>265135351477.2231</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44348</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B471">
         <v>366418000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C471">
         <v>0.6993496048674733</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D471">
         <v>256254283516.3298</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44378</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B472">
         <v>373053000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C472">
         <v>0.6977880120019538</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D472">
         <v>260311911241.3649</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44409</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B473">
         <v>369963000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C473">
         <v>0.7047713017125943</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D473">
         <v>260739305095.4965</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44440</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B474">
         <v>374561000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C474">
         <v>0.6902263942573164</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D474">
         <v>258531888459.4147</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44470</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B475">
         <v>378237000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C475">
         <v>0.7174630506528914</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D475">
         <v>271371071889.7977</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44501</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B476">
         <v>382985000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C476">
         <v>0.68259385665529</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D476">
         <v>261423208191.1263</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44531</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B477">
         <v>391602000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C477">
         <v>0.6842285323297982</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D477">
         <v>267945261717.4136</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44562</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B478">
         <v>384879000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C478">
         <v>0.6577216521967904</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D478">
         <v>253143251775.8485</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44593</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B479">
         <v>386923000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C479">
         <v>0.67778229632642</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D479">
         <v>262249559441.5074</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44621</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B480">
         <v>390385000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C480">
         <v>0.6935293709688606</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D480">
         <v>270743463485.6786</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44652</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B481">
         <v>391962000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C481">
         <v>0.6458279514337381</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D481">
         <v>253140015499.8708</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44682</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B482">
         <v>389603000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C482">
         <v>0.6513809275664409</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D482">
         <v>253779963522.6681</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44713</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B483">
         <v>389035000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C483">
         <v>0.6244146113019045</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D483">
         <v>242919138307.8364</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44743</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B484">
         <v>390828000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C484">
         <v>0.6292474200855777</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D484">
         <v>245927510697.2061</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44774</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B485">
         <v>391713000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C485">
         <v>0.6118078923218109</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D485">
         <v>239653104925.0535</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44805</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B486">
         <v>391912000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C486">
         <v>0.5599104143337066</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D486">
         <v>219435610302.3516</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44835</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B487">
         <v>393508000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C487">
         <v>0.5812263876780006</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D487">
         <v>228717233362.3947</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44866</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B488">
         <v>397263000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C488">
         <v>0.6297229219143576</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D488">
         <v>250165617128.4635</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44896</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B489">
         <v>398778000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C489">
         <v>0.6353240152477764</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D489">
         <v>253353240152.4778</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44927</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B490">
         <v>393400000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C490">
         <v>0.644122383252818</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D490">
         <v>253397745571.6586</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44958</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B491">
         <v>394722000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C491">
         <v>0.6185822095756526</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D491">
         <v>244168006928.1207</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44986</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B492">
         <v>395721000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C492">
         <v>0.6257039169065198</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D492">
         <v>247604179702.1649</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>45017</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B493">
         <v>398520000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C493">
         <v>0.6183527083848628</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D493">
         <v>246425921345.5355</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>45047</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B494">
         <v>395740000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C494">
         <v>0.6019020103527146</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D494">
         <v>238196701576.9833</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>45078</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B495">
         <v>399129000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C495">
         <v>0.6139489194499017</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D495">
         <v>245044818271.1198</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45108</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B496">
         <v>403358000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C496">
         <v>0.6208866261020738</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D496">
         <v>250439587731.2803</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45139</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B497">
         <v>403361000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C497">
         <v>0.5967299200381907</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D497">
         <v>240697577276.5246</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45170</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B498">
         <v>404877000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C498">
         <v>0.5998800239952009</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D498">
         <v>242877624475.1049</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45200</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B499">
         <v>405884000000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C499">
         <v>0.5805852299117511</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D499">
         <v>235650255457.5012</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45231</v>
       </c>
-      <c r="B501" t="n">
-        <v>410533000000</v>
-      </c>
-      <c r="C501" t="n">
+      <c r="B500">
+        <v>410532000000</v>
+      </c>
+      <c r="C500">
         <v>0.6155740227762388</v>
       </c>
-      <c r="D501" t="n">
-        <v>252713450292.3977</v>
+      <c r="D500">
+        <v>252712834718.3749</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B501">
+        <v>413042000000</v>
+      </c>
+      <c r="C501">
+        <v>0.6320313487548982</v>
+      </c>
+      <c r="D501">
+        <v>261055492352.4207</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>